--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -67,6 +67,66 @@
     <t xml:space="preserve">source</t>
   </si>
   <si>
+    <t xml:space="preserve">vars_transp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-Corruption, Transparency and Accountability institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_mkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business environment and trade institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial market institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor market institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_leg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_publ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public sector institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public sector performance institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social institutions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vars_service_del</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE Corporate Governance</t>
+  </si>
+  <si>
     <t xml:space="preserve">f2_corruption</t>
   </si>
   <si>
@@ -76,12 +136,6 @@
     <t xml:space="preserve">Absence of corruption</t>
   </si>
   <si>
-    <t xml:space="preserve">vars_transp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anti-Corruption, Transparency and Accountability institutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">api</t>
   </si>
   <si>
@@ -91,27 +145,126 @@
     <t xml:space="preserve">World Justice Project, Rule of Law</t>
   </si>
   <si>
+    <t xml:space="preserve">cei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizen Engagement Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complaint_mechan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Government Systems Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diversion_pfunds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversion of public funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how common is diversion of public funds to companies, individuals, or groups due to corruption? [1 = very commonly occurs; 7 = never occurs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEF, Global Competitiveness Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favoritism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favoritism in decisions of government officials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent do government officials show favoritism to well-connected firms and individuals when deciding upon policies and contracts? [1 = show favoritism to a great extent; 7 = do not show favoritism at all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovTech Enablers Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovTech Maturity Index (GTMI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irregular payments and bribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how common is it for firms to make undocumented extra payments or bribes connected with (a) imports and exports; (b) public utilities; (c) annual tax payments; (d) awarding of public contracts and licenses; (e) obtaining favorable judicial decisions? [1 = very common; 7 = never occurs].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_data_barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures how governments are publishing and using open data for accountability, innovation and social impact (readiness and impact).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Barometer and World Wide Web Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5_opengov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicized laws &amp; government data; Right to information; Civic participation; Complaint mechanisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Service Delivery Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_to_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right to information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparency_polmak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency of government policymaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how easy is it for businesses to obtain information about changes in government policies and regulations affecting their activities?  [1 = extremely difficult; 7 = extremely easy]</t>
+  </si>
+  <si>
     <t xml:space="preserve">barriers_startups</t>
   </si>
   <si>
     <t xml:space="preserve">Admin burdens on start-ups</t>
   </si>
   <si>
-    <t xml:space="preserve">vars_mkt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Business environment and trade institutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Simple average of three components: (i) Administrative burdens on creating a public limited company, (ii) Administrative burdens on creating an individual enterprise, (iii) Entry barriers in professional services, freight transport services and retail distribution.</t>
   </si>
   <si>
     <t xml:space="preserve">Product Market Regulation (PMR) Indicators</t>
   </si>
   <si>
-    <t xml:space="preserve">family</t>
-  </si>
-  <si>
     <t xml:space="preserve">customs_burden</t>
   </si>
   <si>
@@ -130,24 +283,126 @@
     <t xml:space="preserve">Burden of gov. regulation</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
     <t xml:space="preserve">In your country, how burdensome is it for companies to comply with public administration’s requirements (e.g. permits, regulations, reporting)?</t>
   </si>
   <si>
+    <t xml:space="preserve">complexity_procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex regulatory procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Use of ‘one-stop-shops’ and the ‘silence is consent’ rule for issuing licenses and accepting notifications, (ii) The government’s communication strategy and efforts to reduce and simplify the administrative burden of interacting with the government.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff_antimonopoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectiveness of antimonopoly policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how effective are anti-monopoly policies at ensuring fair competition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wef_border_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency and transparency of boarder administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency and transparency of border administration. It captures efficiency, transparency and costs associated with importing and exporting goods. It includes an assessment of the range, quality and comprehensiveness of key services offered by customs and related agencies, and the average time, costs and number of documents required to, respectively, import and export goods. It also assesses the time predictability of border procedures, as well as the transparency of the process and the prevalence of corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEF, Enabling Trade Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpi_clearance_eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of the clearance process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of customs clearance processes (i.e. speed, simplicity and predictability of formalities) by border control agencies, including customs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB International LPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers_trade_expl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicit barriers to trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Restrictiveness of a country’s FDI rules in 22 sectors in terms of foreign equity limitations, screening or approval mechanisms, restrictions on the employment of foreigners as key personnel and operational restrictions (e.g. restrictions on branching and on capital repatriation or on land ownership), (ii) Simple cross-product average of effectively applied tariffs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkt_dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extent of market dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how do you characterize corporate activity? [1 = dominated by a few business groups; 7 = spread among many firms].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_tourist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of foreigners to visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of foreigners to visit (Robert Lawson and Jayme Lemke (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser Institute, Lawson and Lemke (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nontariff_barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-tariffs trade barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent do non-tariff barriers (e.g., health and product standards, technical and labeling requirements, etc.) limit the ability of imported goods to compete in the domestic market? [1 = strongly limit; 7 = do not limit at all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers_trade_oth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other barriers to trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Discrimination of foreign firms with respect to taxes and subsidies, public procurement, entry regulation and appeal and procedure, (ii) Recognition of foreign regulations, use of international standards and international transparency of domestic regulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property_rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent are property rights, including financial assets, protected? [1 = not at all; 7 = to a great extent]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection_incumbents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection of incumbents</t>
+  </si>
+  <si>
     <t xml:space="preserve">efw_capitalcontrols</t>
   </si>
   <si>
     <t xml:space="preserve">Capital controls</t>
   </si>
   <si>
-    <t xml:space="preserve">vars_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Financial market institutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Capital controls (IMF)</t>
   </si>
   <si>
@@ -163,55 +418,313 @@
     <t xml:space="preserve">Garriga (2016)</t>
   </si>
   <si>
+    <t xml:space="preserve">competition_rules_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competition regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_credit_mkt_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit market regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_inv_restr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Investment Restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign ownership/investment restrictions (WEF, GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_free_foreign_curr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom, foreign bank accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insolvency_framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insolvency framework, strength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency_superv_bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision efficiency-banking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency_superv_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision efficiency-financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collective_barg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collective bargaining coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empl_protection_perm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment protection, regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite indicator of Employment protection legislation governing regular contracts, individual dismissals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empl_protection_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment protection, temp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite indicator of Employment protection legislation governing temporary contracts, individual dismissals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiring_pract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiring and firing practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_labor_mkt_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor market regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_wage_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum to mean wage ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legaleff_challenging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenging regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7_civiljustice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People can access &amp; afford civil justice; Civil justice is free of discrimination; Civil justice is free of corruption; Civil justice is free of improper government influence; Civil justice is not subject to unreasonable delay; Civil justice is effectively enforced; Alternative dispute resolution mechanisms are accessible, impartial, and effective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_court_constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courts as major constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8_criminaljustice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminal justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminal investigation system is effective; Criminal adjudication system is timely and effective; Correctional system is effective in reducing criminal behavior; Criminal justice system is impartial; Criminal justice system is free of corruption; Criminal justice system is free of improper government influence; Due process of the law &amp; rights of the accused.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_integrity_legalsys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrity of the legal system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2juaccnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judicial accountability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries where judges found responsible for serious misconduct, are never removed from their posts or otherwise disciplined; 4 represents countries where judges found responsible for serious misconduct, are always removed from their posts or otherwise disciplined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-Dem, Variety of Democracy database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legaleff_disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settling disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_fh_cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil liberties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1_govpowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on Gov. Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government powers are effectively limited by the legislature; Government powers are effectively limited by the judiciary; Government powers are effectively limited by independent auditing and review; Government officials are sanctioned for misconduct; Government powers are subject to non-governmental checks; Transition of power is subject to the law.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4_rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal treatment &amp; absence of discrimination; The right to life &amp; security of the person is effectively guaranteed; Due process of the law and rights of the accused; Freedom of opinion &amp; expression is effectively guaranteed; Freedom of belief &amp; religion is effectively guaranteed; Freedom from arbitrary interference with privacy is effectively guaranteed; Freedom of assembly &amp; association is effectively guaranteed; Fundamental labor rights are effectively guaranteed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2lgfemleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower chamber female legislator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of female representatives in the lower (or unicameral) chamber of the legislature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2lgqugen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower chamber gender quota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries with no national level gender quota and 4 represents countries where there are reserved seats in the legislature for women.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3_security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order and security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime is effectively controlled; Civil conflict is effectively limited; People do not resort to violence to redress personal grievances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_fh_pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_p_polity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polity IV score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2pepwrgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries where men have a near-monopoly on political power and 4 represents countries where men and women have roughly equal political power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2pepwrsoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by social group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social group is differentiated within a country by caste, ethnicity, language, race, region, religion, or some combination thereof. (It does not include identities grounded in sexual orientation or socioeconomic status.). 0 represents countries where political power is monopolized by one social group comprising a minority of the population, and 4 represents countries where all social groups have roughly equal political power or there are no strong ethnic, caste, linguistic, racial, religious, or regional differences to speak of.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2pepwrses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by socioeconomic position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represent countries where wealthy people enjoy a virtual monopoly on political power and average and poorer people have almost no influence and 4 represents countries where wealthy people have no more political power than those whose economic status is average or poor and political power is more or less equally distributed across economic groups.</t>
+  </si>
+  <si>
     <t xml:space="preserve">centregov_mean</t>
   </si>
   <si>
     <t xml:space="preserve">Centre of Government, influence</t>
   </si>
   <si>
-    <t xml:space="preserve">vars_publ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public sector performance institutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legaleff_challenging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenging regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vars_leg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Legal institutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citizen Engagement Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7_civiljustice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People can access &amp; afford civil justice; Civil justice is free of discrimination; Civil justice is free of corruption; Civil justice is free of improper government influence; Civil justice is not subject to unreasonable delay; Civil justice is effectively enforced; Alternative dispute resolution mechanisms are accessible, impartial, and effective.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_fh_cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil liberties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vars_pol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political institutions</t>
+    <t xml:space="preserve">v2stcritrecadm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria for appointment decisions in the state administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff_govspending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient government spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how efficient is the government in spending public revenue? [1 = extremely inefficient; 7 = extremely efficient]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry via examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2clrspct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impartial Public Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proff1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proc_mean_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6_regulatoryenf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory enforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government regulations are effectively enforced; Government regulations are applied &amp; enforced without improper influence; Administrative proceedings are conducted without unreasonable delay; Due process is respected in administrative proceedings; The government does not expropriate without lawful process &amp; adequate compensation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulatory_governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steering_capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steering Capability</t>
   </si>
   <si>
     <t xml:space="preserve">v2x_cspart</t>
@@ -220,60 +733,9 @@
     <t xml:space="preserve">Civil society participation</t>
   </si>
   <si>
-    <t xml:space="preserve">vars_social</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social institutions</t>
-  </si>
-  <si>
     <t xml:space="preserve">Major CSOs are routinely consulted by policymakers (v2cscnsult); Extent of the involvement of people in CSOs (v2csprtcpt); Women prevented from participating in CSOs (v2csgender); Legislative candidate nomination within party organization highly decentralized or made through party primaries (v2pscnslnl).</t>
   </si>
   <si>
-    <t xml:space="preserve">V-Dem, Variety of Democracy database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collective_barg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collective bargaining coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vars_lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor market institutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competition_rules_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competition regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint_mechan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complaint mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complexity_procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex regulatory procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Use of ‘one-stop-shops’ and the ‘silence is consent’ rule for issuing licenses and accepting notifications, (ii) The government’s communication strategy and efforts to reduce and simplify the administrative burden of interacting with the government.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1_govpowers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on Gov. Powers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government powers are effectively limited by the legislature; Government powers are effectively limited by the judiciary; Government powers are effectively limited by independent auditing and review; Government officials are sanctioned for misconduct; Government powers are subject to non-governmental checks; Transition of power is subject to the law.</t>
-  </si>
-  <si>
     <t xml:space="preserve">v2xcs_ccsi</t>
   </si>
   <si>
@@ -283,414 +745,54 @@
     <t xml:space="preserve">Government's control over entry and exit by CSOs into public life (v2cseeorgs); government attempts to repress CSOs (v2csreprss); Extent of the involvement of people in CSOs (v2csprtcpt).</t>
   </si>
   <si>
-    <t xml:space="preserve">cgsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Government Systems Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_court_constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courts as major constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_credit_mkt_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit market regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8_criminaljustice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal investigation system is effective; Criminal adjudication system is timely and effective; Correctional system is effective in reducing criminal behavior; Criminal justice system is impartial; Criminal justice system is free of corruption; Criminal justice system is free of improper government influence; Due process of the law &amp; rights of the accused.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2stcritrecadm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria for appointment decisions in the state administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additions</t>
-  </si>
-  <si>
     <t xml:space="preserve">v2cseeorgs</t>
   </si>
   <si>
     <t xml:space="preserve">CSO entry and exit</t>
   </si>
   <si>
+    <t xml:space="preserve">v2dlengage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engaged society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wide and independent public deliberations when important policy changes are being considered. 0 represents countries where public deliberation is never, or almost never allowed; 5 represents countries where a large numbers of non-elite groups as well as ordinary people tend to discuss major policies among themselves, in the media, in associations or neighborhoods, or in the streets, and grass-roots deliberation is common and unconstrained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2clacfree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of academic and cultural expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">opinion_freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of opinion and expression is effectively guaranteed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust_pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public trust in politician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how do you rate the ethical standards of politicians? [1 = extremely low; 7 = extremely high] | 2016–17 weighted average</t>
+  </si>
+  <si>
     <t xml:space="preserve">directcontroloverbusinessenterpr</t>
   </si>
   <si>
     <t xml:space="preserve">Direct control over business enterprises</t>
   </si>
   <si>
-    <t xml:space="preserve">vars_service_del</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE Corporate Governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diversion_pfunds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversion of public funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how common is diversion of public funds to companies, individuals, or groups due to corruption? [1 = very commonly occurs; 7 = never occurs]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEF, Global Competitiveness Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eff_antimonopoly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectiveness of antimonopoly policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how effective are anti-monopoly policies at ensuring fair competition?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wef_border_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency and transparency of boarder administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency and transparency of border administration. It captures efficiency, transparency and costs associated with importing and exporting goods. It includes an assessment of the range, quality and comprehensiveness of key services offered by customs and related agencies, and the average time, costs and number of documents required to, respectively, import and export goods. It also assesses the time predictability of border procedures, as well as the transparency of the process and the prevalence of corruption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEF, Enabling Trade Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpi_clearance_eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency of the clearance process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency of customs clearance processes (i.e. speed, simplicity and predictability of formalities) by border control agencies, including customs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB International LPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eff_govspending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficient government spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how efficient is the government in spending public revenue? [1 = extremely inefficient; 7 = extremely efficient]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empl_protection_perm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment protection, regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite indicator of Employment protection legislation governing regular contracts, individual dismissals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empl_protection_temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment protection, temp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite indicator of Employment protection legislation governing temporary contracts, individual dismissals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2dlengage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engaged society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wide and independent public deliberations when important policy changes are being considered. 0 represents countries where public deliberation is never, or almost never allowed; 5 represents countries where a large numbers of non-elite groups as well as ordinary people tend to discuss major policies among themselves, in the media, in associations or neighborhoods, or in the streets, and grass-roots deliberation is common and unconstrained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry via examination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_trade_expl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicit barriers to trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Restrictiveness of a country’s FDI rules in 22 sectors in terms of foreign equity limitations, screening or approval mechanisms, restrictions on the employment of foreigners as key personnel and operational restrictions (e.g. restrictions on branching and on capital repatriation or on land ownership), (ii) Simple cross-product average of effectively applied tariffs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkt_dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extent of market dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how do you characterize corporate activity? [1 = dominated by a few business groups; 7 = spread among many firms].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">favoritism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favoritism in decisions of government officials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent do government officials show favoritism to well-connected firms and individuals when deciding upon policies and contracts? [1 = show favoritism to a great extent; 7 = do not show favoritism at all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_inv_restr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Investment Restrictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign ownership/investment restrictions (WEF, GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraser Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2clacfree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of academic and cultural expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of foreigners to visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of foreigners to visit (Robert Lawson and Jayme Lemke (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraser Institute, Lawson and Lemke (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opinion_freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of opinion and expression is effectively guaranteed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_free_foreign_curr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom, foreign bank accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f4_rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equal treatment &amp; absence of discrimination; The right to life &amp; security of the person is effectively guaranteed; Due process of the law and rights of the accused; Freedom of opinion &amp; expression is effectively guaranteed; Freedom of belief &amp; religion is effectively guaranteed; Freedom from arbitrary interference with privacy is effectively guaranteed; Freedom of assembly &amp; association is effectively guaranteed; Fundamental labor rights are effectively guaranteed.</t>
-  </si>
-  <si>
     <t xml:space="preserve">governmentinvolvementinnetworkse</t>
   </si>
   <si>
     <t xml:space="preserve">Government involvement in network sectors</t>
   </si>
   <si>
-    <t xml:space="preserve">gtei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovTech Enablers Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovTech Maturity Index (GTMI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiring_pract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiring and firing practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2clrspct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impartial Public Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insolvency_framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insolvency framework, strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_integrity_legalsys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrity of the legal system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irregular payments and bribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how common is it for firms to make undocumented extra payments or bribes connected with (a) imports and exports; (b) public utilities; (c) annual tax payments; (d) awarding of public contracts and licenses; (e) obtaining favorable judicial decisions? [1 = very common; 7 = never occurs].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2juaccnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judicial accountability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries where judges found responsible for serious misconduct, are never removed from their posts or otherwise disciplined; 4 represents countries where judges found responsible for serious misconduct, are always removed from their posts or otherwise disciplined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_labor_mkt_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor market regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2lgfemleg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber female legislator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of female representatives in the lower (or unicameral) chamber of the legislature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2lgqugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber gender quota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries with no national level gender quota and 4 represents countries where there are reserved seats in the legislature for women.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_wage_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum to mean wage ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nontariff_barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-tariffs trade barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent do non-tariff barriers (e.g., health and product standards, technical and labeling requirements, etc.) limit the ability of imported goods to compete in the domestic market? [1 = strongly limit; 7 = do not limit at all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open_data_barometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Data Barometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures how governments are publishing and using open data for accountability, innovation and social impact (readiness and impact).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Data Barometer and World Wide Web Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5_opengov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publicized laws &amp; government data; Right to information; Civic participation; Complaint mechanisms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3_security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order and security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crime is effectively controlled; Civil conflict is effectively limited; People do not resort to violence to redress personal grievances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_trade_oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other barriers to trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Discrimination of foreign firms with respect to taxes and subsidies, public procurement, entry regulation and appeal and procedure, (ii) Recognition of foreign regulations, use of international standards and international transparency of domestic regulation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proff1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patronage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_fh_pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_p_polity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polity IV score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2pepwrgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries where men have a near-monopoly on political power and 4 represents countries where men and women have roughly equal political power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2pepwrsoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by social group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social group is differentiated within a country by caste, ethnicity, language, race, region, religion, or some combination thereof. (It does not include identities grounded in sexual orientation or socioeconomic status.). 0 represents countries where political power is monopolized by one social group comprising a minority of the population, and 4 represents countries where all social groups have roughly equal political power or there are no strong ethnic, caste, linguistic, racial, religious, or regional differences to speak of.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2pepwrses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by socioeconomic position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represent countries where wealthy people enjoy a virtual monopoly on political power and average and poorer people have almost no influence and 4 represents countries where wealthy people have no more political power than those whose economic status is average or poor and political power is more or less equally distributed across economic groups.</t>
-  </si>
-  <si>
     <t xml:space="preserve">price_controls</t>
   </si>
   <si>
@@ -700,63 +802,6 @@
     <t xml:space="preserve">It measures whether tariffs are regulated and whether there are laws and regulations that limit competition. Higher values mean worse performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">proc_mean_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurement score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">property_rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent are property rights, including financial assets, protected? [1 = not at all; 7 = to a great extent]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report </t>
-  </si>
-  <si>
-    <t xml:space="preserve">protection_incumbents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection of incumbents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public sector institutions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Service Delivery Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust_pol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public trust in politician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how do you rate the ethical standards of politicians? [1 = extremely low; 7 = extremely high] | 2016–17 weighted average</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f6_regulatoryenf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory enforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government regulations are effectively enforced; Government regulations are applied &amp; enforced without improper influence; Administrative proceedings are conducted without unreasonable delay; Due process is respected in administrative proceedings; The government does not expropriate without lawful process &amp; adequate compensation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory_governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory governance</t>
-  </si>
-  <si>
     <t xml:space="preserve">governance_soe</t>
   </si>
   <si>
@@ -769,24 +814,12 @@
     <t xml:space="preserve">World Bank, Global Indicators of Regulator y Governance database</t>
   </si>
   <si>
-    <t xml:space="preserve">right_to_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right to information</t>
-  </si>
-  <si>
     <t xml:space="preserve">scopeofstateownedenterprises</t>
   </si>
   <si>
     <t xml:space="preserve">Scope of state-owned enterprises</t>
   </si>
   <si>
-    <t xml:space="preserve">legaleff_disputes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settling disputes</t>
-  </si>
-  <si>
     <t xml:space="preserve">soe_annual_report</t>
   </si>
   <si>
@@ -815,39 +848,6 @@
   </si>
   <si>
     <t xml:space="preserve">SOE-government transfers governance rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steering_capability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steering Capability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency_superv_bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervision efficiency-banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency_superv_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervision efficiency-financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparency_polmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparency of government policymaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how easy is it for businesses to obtain information about changes in government policies and regulations affecting their activities?  [1 = extremely difficult; 7 = extremely easy]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">union_density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union density</t>
   </si>
   <si>
     <t xml:space="preserve">command_control</t>
@@ -917,7 +917,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -928,12 +928,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF2A6099"/>
-        <bgColor rgb="FF666699"/>
       </patternFill>
     </fill>
   </fills>
@@ -971,7 +965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -992,27 +986,15 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1025,116 +1007,6 @@
     <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF006600"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCCFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FFCC0000"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFCCCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="Calibri"/>
-        <charset val="1"/>
-        <family val="2"/>
-        <b val="0"/>
-        <i val="0"/>
-        <color rgb="FF996600"/>
-        <sz val="10"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFCC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFCC0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF006600"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FF996600"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FFC0C0C0"/>
-      <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FFFFFFCC"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FF660066"/>
-      <rgbColor rgb="FFFF8080"/>
-      <rgbColor rgb="FF2A6099"/>
-      <rgbColor rgb="FFCCCCFF"/>
-      <rgbColor rgb="FF000080"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800080"/>
-      <rgbColor rgb="FF800000"/>
-      <rgbColor rgb="FF008080"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FF00CCFF"/>
-      <rgbColor rgb="FFCCFFFF"/>
-      <rgbColor rgb="FFCCFFCC"/>
-      <rgbColor rgb="FFFFFF99"/>
-      <rgbColor rgb="FF99CCFF"/>
-      <rgbColor rgb="FFFF99CC"/>
-      <rgbColor rgb="FFCC99FF"/>
-      <rgbColor rgb="FFFFCCCC"/>
-      <rgbColor rgb="FF3366FF"/>
-      <rgbColor rgb="FF33CCCC"/>
-      <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
-      <rgbColor rgb="FFFF9900"/>
-      <rgbColor rgb="FFFF6600"/>
-      <rgbColor rgb="FF666699"/>
-      <rgbColor rgb="FF969696"/>
-      <rgbColor rgb="FF003366"/>
-      <rgbColor rgb="FF339966"/>
-      <rgbColor rgb="FF003300"/>
-      <rgbColor rgb="FF333300"/>
-      <rgbColor rgb="FF993300"/>
-      <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
-      <rgbColor rgb="FF333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -1147,24 +1019,24 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ100"/>
+  <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="L45" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
-      <selection pane="bottomLeft" activeCell="A45" activeCellId="0" sqref="A45"/>
-      <selection pane="bottomRight" activeCell="M64" activeCellId="0" sqref="M64"/>
+      <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
+      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.18"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.77"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="2" width="8.79"/>
@@ -1172,10 +1044,9 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="2" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="3" width="76.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="3" width="30.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1215,619 +1086,481 @@
       <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="AMJ1" s="0"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    </row>
+    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="C2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+    </row>
+    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="B3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="0" t="s">
+      <c r="D3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+    </row>
+    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="0" t="n">
+      <c r="B4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+    </row>
+    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+    </row>
+    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+    </row>
+    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+    </row>
+    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H11" s="0" t="n">
         <v>41794</v>
       </c>
-      <c r="I2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMJ2" s="0"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="0" t="n">
-        <v>3305</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="AMJ3" s="0"/>
-    </row>
-    <row r="4" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="7"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="AMJ4" s="0"/>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="0" t="n">
-        <v>723</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="AMJ5" s="0"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="0" t="n">
-        <v>41008</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="AMJ6" s="0"/>
-    </row>
-    <row r="7" s="6" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="AMJ7" s="0"/>
-    </row>
-    <row r="8" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="I11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="M11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="0" t="s">
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="F8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" s="0" t="n">
-        <f aca="false">VLOOKUP(A8,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K8" s="2"/>
-      <c r="L8" s="3" t="s">
+      <c r="B12" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="AMJ8" s="0"/>
-    </row>
-    <row r="9" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H9" s="0" t="n">
-        <f aca="false">VLOOKUP(A9,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="AMJ9" s="0"/>
-    </row>
-    <row r="10" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <f aca="false">VLOOKUP(A10,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="AMJ10" s="0"/>
-    </row>
-    <row r="11" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>691</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="AMJ11" s="0"/>
-    </row>
-    <row r="12" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="D12" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F12" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="G12" s="0"/>
-      <c r="H12" s="0"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
       <c r="K12" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="AMJ12" s="0"/>
-    </row>
-    <row r="13" s="3" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F13" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>27919</v>
+        <v>36</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G14" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H14" s="0" t="n">
-        <f aca="false">VLOOKUP(A14,Planilha2!$A$1:$B$83,2,0)</f>
         <v>0</v>
       </c>
-      <c r="J14" s="2" t="n">
+      <c r="K14" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>63</v>
+        <v>46</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F15" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H15" s="0" t="n">
-        <v>41827</v>
+        <v>663</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L15" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="M15" s="0" t="s">
-        <v>67</v>
+      <c r="L15" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="F16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H16" s="0" t="n">
-        <f aca="false">VLOOKUP(A16,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>671</v>
+      </c>
+      <c r="I16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C17" s="0" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H17" s="0" t="n">
-        <v>31088</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C19" s="0" t="s">
-        <v>77</v>
+        <v>58</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3323</v>
+        <v>667</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="M19" s="0" t="s">
-        <v>26</v>
+      <c r="L19" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M19" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>79</v>
+        <v>60</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>80</v>
+        <v>61</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>60</v>
+        <v>13</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>61</v>
+        <v>15</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>41883</v>
+        <v>27885</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
@@ -1836,33 +1569,33 @@
         <v>1</v>
       </c>
       <c r="L20" s="0" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="M20" s="0" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H21" s="0" t="n">
         <f aca="false">VLOOKUP(A21,Planilha2!$A$1:$B$83,2,0)</f>
@@ -1872,27 +1605,27 @@
         <v>1</v>
       </c>
       <c r="L21" s="3" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>85</v>
+        <v>68</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>86</v>
+        <v>69</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
@@ -1903,28 +1636,25 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>52</v>
+        <v>15</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="0" t="n">
-        <v>290</v>
+        <v>36</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1</v>
@@ -1932,165 +1662,188 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>90</v>
+        <v>73</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H24" s="0" t="n">
-        <f aca="false">VLOOKUP(A24,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>687</v>
+      </c>
+      <c r="I24" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>91</v>
+        <v>75</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>92</v>
+        <v>76</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H25" s="0" t="n">
-        <f aca="false">VLOOKUP(A25,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J25" s="2" t="n">
+        <v>3305</v>
+      </c>
+      <c r="I25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>93</v>
+        <v>77</v>
       </c>
       <c r="M25" s="3" t="s">
-        <v>20</v>
+        <v>78</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="H26" s="0" t="n">
-        <f aca="false">VLOOKUP(A26,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K26" s="2" t="n">
-        <v>1</v>
+        <v>723</v>
+      </c>
+      <c r="I26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H27" s="0" t="n">
-        <f aca="false">VLOOKUP(A27,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>41008</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L27" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>101</v>
+        <v>16</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K28" s="2" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H28" s="0" t="n">
+        <v>3323</v>
+      </c>
+      <c r="I28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>16</v>
@@ -2102,221 +1855,223 @@
         <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>663</v>
+        <v>697</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>106</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>697</v>
+        <v>43050</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="M30" s="3" t="s">
-        <v>106</v>
+        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>43050</v>
+        <v>41714</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L31" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>113</v>
+      <c r="J31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="M31" s="0" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C32" s="0" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="D32" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E32" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G32" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H32" s="0" t="n">
-        <v>41714</v>
+        <v>3307</v>
       </c>
       <c r="I32" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J32" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="L32" s="0" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="M32" s="0" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E33" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" s="0" t="n">
+        <v>519</v>
+      </c>
+      <c r="I33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L33" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="M33" s="3" t="s">
         <v>48</v>
-      </c>
-      <c r="F33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G33" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>683</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L33" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="M33" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H34" s="0" t="n">
-        <f aca="false">VLOOKUP(A34,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>31115</v>
+      </c>
+      <c r="I34" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L34" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="M34" s="0" t="s">
-        <v>124</v>
+      <c r="L34" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H35" s="0" t="n">
         <f aca="false">VLOOKUP(A35,Planilha2!$A$1:$B$83,2,0)</f>
@@ -2325,230 +2080,234 @@
       <c r="J35" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L35" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="M35" s="0" t="s">
-        <v>124</v>
+      <c r="L35" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="M35" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>41881</v>
+        <v>3308</v>
       </c>
       <c r="I36" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L36" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="M36" s="3" t="s">
-        <v>67</v>
+      <c r="L36" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="M36" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>132</v>
+        <v>118</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G37" s="0" t="s">
+        <v>36</v>
       </c>
       <c r="H37" s="0" t="n">
-        <f aca="false">VLOOKUP(A37,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K37" s="2" t="n">
-        <v>1</v>
+        <v>633</v>
+      </c>
+      <c r="I37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>133</v>
+        <v>121</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H38" s="0" t="n">
-        <v>3307</v>
+        <v>3328</v>
       </c>
       <c r="I38" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L38" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="M38" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>137</v>
+        <v>124</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H39" s="0" t="n">
-        <v>519</v>
-      </c>
-      <c r="I39" s="2" t="n">
+        <f aca="false">VLOOKUP(A39,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L39" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="M39" s="3" t="s">
-        <v>106</v>
+        <v>125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <f aca="false">VLOOKUP(A40,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L40" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="M40" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="0" t="n">
-        <v>671</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="41" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="F41" s="6"/>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
-      <c r="I41" s="7"/>
-      <c r="J41" s="8"/>
-      <c r="K41" s="8"/>
-      <c r="L41" s="6"/>
-      <c r="M41" s="6"/>
-      <c r="AMJ41" s="0"/>
+      <c r="E41" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>31088</v>
+      </c>
+      <c r="I41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B42" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C42" s="0" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D42" s="0" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E42" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F42" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G42" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H42" s="0" t="n">
         <f aca="false">VLOOKUP(A42,Planilha2!$A$1:$B$83,2,0)</f>
@@ -2557,134 +2316,125 @@
       <c r="J42" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
       <c r="B43" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C43" s="0" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="D43" s="0" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E43" s="0" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H43" s="0" t="n">
         <f aca="false">VLOOKUP(A43,Planilha2!$A$1:$B$83,2,0)</f>
         <v>0</v>
       </c>
-      <c r="I43" s="2" t="n">
-        <v>1</v>
+      <c r="J43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B44" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C44" s="0" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D44" s="0" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>31115</v>
+        <v>3285</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J44" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L44" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="M44" s="3" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="B45" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="D45" s="0" t="s">
-        <v>64</v>
+        <v>18</v>
       </c>
       <c r="E45" s="0" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I45" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="J45" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="B46" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="D46" s="0" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="E46" s="0" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="F46" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H46" s="0" t="n">
-        <v>3285</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>1</v>
+        <v>31001</v>
       </c>
       <c r="J46" s="2" t="n">
         <v>1</v>
@@ -2692,138 +2442,156 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>60</v>
+        <v>18</v>
       </c>
       <c r="E47" s="0" t="s">
-        <v>61</v>
+        <v>19</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H47" s="0" t="n">
-        <v>41932</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>1</v>
+        <v>31003</v>
       </c>
       <c r="J47" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>102</v>
+        <v>21</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H48" s="0" t="n">
+        <f aca="false">VLOOKUP(A48,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H49" s="0" t="n">
+        <f aca="false">VLOOKUP(A49,Planilha2!$A$1:$B$83,2,0)</f>
         <v>0</v>
       </c>
-      <c r="K49" s="2" t="n">
-        <v>1</v>
+      <c r="J49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="0" t="s">
+        <v>150</v>
+      </c>
+      <c r="M49" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="B50" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C50" s="0" t="s">
-        <v>164</v>
+        <v>153</v>
       </c>
       <c r="D50" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E50" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F50" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G50" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50" s="2" t="n">
-        <v>1</v>
+        <v>62</v>
+      </c>
+      <c r="H50" s="0" t="n">
+        <f aca="false">VLOOKUP(A50,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L50" s="0" t="s">
+        <v>154</v>
+      </c>
+      <c r="M50" s="0" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="B51" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C51" s="0" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D51" s="0" t="s">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="I51" s="2" t="n">
         <v>1</v>
@@ -2831,51 +2599,61 @@
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="B52" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C52" s="0" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="D52" s="0" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="H52" s="0" t="n">
+        <v>3289</v>
+      </c>
+      <c r="I52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="D53" s="0" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="E53" s="0" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G53" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <f aca="false">VLOOKUP(A53,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="J53" s="2" t="n">
         <v>1</v>
@@ -2883,25 +2661,25 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="1" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C54" s="0" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H54" s="0" t="n">
         <f aca="false">VLOOKUP(A54,Planilha2!$A$1:$B$83,2,0)</f>
@@ -2913,185 +2691,187 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H55" s="0" t="n">
-        <v>667</v>
+        <v>691</v>
       </c>
       <c r="I55" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L55" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="M55" s="3" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>177</v>
+        <v>166</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>51</v>
+        <v>22</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>41951</v>
+        <v>27919</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J56" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="L56" s="3" t="s">
-        <v>178</v>
+        <v>167</v>
       </c>
       <c r="M56" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D57" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="F57" s="6"/>
-      <c r="G57" s="6"/>
-      <c r="H57" s="6"/>
-      <c r="I57" s="7"/>
-      <c r="J57" s="8"/>
-      <c r="K57" s="8"/>
-      <c r="L57" s="6"/>
-      <c r="M57" s="6"/>
-      <c r="AMJ57" s="0"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B57" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C57" s="0" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H57" s="0" t="n">
+        <v>290</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="B58" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C58" s="0" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>70</v>
+        <v>22</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>71</v>
+        <v>23</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G58" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H58" s="0" t="n">
-        <v>3289</v>
-      </c>
-      <c r="I58" s="2" t="n">
-        <v>1</v>
+        <f aca="false">VLOOKUP(A58,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="J58" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C59" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="D59" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E59" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F59" s="6"/>
-      <c r="G59" s="6"/>
-      <c r="H59" s="6"/>
-      <c r="I59" s="7"/>
-      <c r="J59" s="8"/>
-      <c r="K59" s="8"/>
-      <c r="L59" s="6"/>
-      <c r="M59" s="6"/>
-      <c r="AMJ59" s="0"/>
+      <c r="L58" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E59" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="0" t="n">
+        <f aca="false">VLOOKUP(A59,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H60" s="0" t="n">
-        <v>41981</v>
+        <v>41951</v>
       </c>
       <c r="I60" s="2" t="n">
         <v>1</v>
@@ -3100,69 +2880,62 @@
         <v>1</v>
       </c>
       <c r="L60" s="3" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M60" s="3" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B61" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D61" s="0" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>61</v>
+        <v>23</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H61" s="0" t="n">
-        <f aca="false">VLOOKUP(A61,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L61" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M61" s="3" t="s">
-        <v>67</v>
+        <v>685</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B62" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D62" s="0" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="E62" s="0" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H62" s="0" t="n">
         <f aca="false">VLOOKUP(A62,Planilha2!$A$1:$B$83,2,0)</f>
@@ -3174,64 +2947,66 @@
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H63" s="0" t="n">
-        <f aca="false">VLOOKUP(A63,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>41883</v>
+      </c>
+      <c r="I63" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L63" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M63" s="3" t="s">
-        <v>192</v>
+      <c r="L63" s="0" t="s">
+        <v>185</v>
+      </c>
+      <c r="M63" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>27885</v>
+        <v>41932</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
@@ -3239,140 +3014,146 @@
       <c r="J64" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L64" s="0" t="s">
-        <v>195</v>
-      </c>
-      <c r="M64" s="0" t="s">
-        <v>196</v>
+      <c r="L64" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="M64" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H65" s="0" t="n">
-        <f aca="false">VLOOKUP(A65,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>41981</v>
+      </c>
+      <c r="I65" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L65" s="3" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H66" s="0" t="n">
-        <v>41955</v>
-      </c>
-      <c r="I66" s="2" t="n">
-        <v>1</v>
+        <f aca="false">VLOOKUP(A66,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="J66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L66" s="3" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>20</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C67" s="0" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>3308</v>
+        <v>41955</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L67" s="0" t="s">
-        <v>205</v>
-      </c>
-      <c r="M67" s="0" t="s">
-        <v>26</v>
+      <c r="J67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="M67" s="3" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C68" s="0" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>47</v>
+        <v>24</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>48</v>
+        <v>25</v>
       </c>
       <c r="F68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G68" s="0" t="s">
+        <v>62</v>
       </c>
       <c r="H68" s="0" t="n">
         <f aca="false">VLOOKUP(A68,Planilha2!$A$1:$B$83,2,0)</f>
@@ -3381,119 +3162,136 @@
       <c r="J68" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="K68" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="69" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C69" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="D69" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="E69" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F69" s="6"/>
-      <c r="G69" s="6"/>
-      <c r="H69" s="6"/>
-      <c r="I69" s="7"/>
-      <c r="J69" s="8"/>
-      <c r="K69" s="8"/>
-      <c r="L69" s="6"/>
-      <c r="M69" s="6"/>
-      <c r="AMJ69" s="0"/>
+    </row>
+    <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B69" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="0" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="E69" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="F69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G69" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H69" s="0" t="n">
+        <v>27470</v>
+      </c>
+      <c r="I69" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B70" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C70" s="0" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D70" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E70" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G70" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H70" s="0" t="n">
-        <f aca="false">VLOOKUP(A70,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>42024</v>
+      </c>
+      <c r="I70" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J70" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L70" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="M70" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C71" s="0" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="D71" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E71" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H71" s="0" t="n">
-        <v>27470</v>
+        <v>42025</v>
       </c>
       <c r="I71" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J71" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>207</v>
+      </c>
+      <c r="M71" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="F72" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G72" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H72" s="0" t="n">
-        <v>42024</v>
+        <v>42026</v>
       </c>
       <c r="I72" s="2" t="n">
         <v>1</v>
@@ -3502,424 +3300,403 @@
         <v>1</v>
       </c>
       <c r="L72" s="0" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M72" s="0" t="s">
-        <v>67</v>
+        <v>178</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C73" s="0" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H73" s="0" t="n">
-        <v>42025</v>
-      </c>
-      <c r="I73" s="2" t="n">
-        <v>1</v>
+        <f aca="false">VLOOKUP(A73,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="J73" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L73" s="0" t="s">
-        <v>217</v>
-      </c>
-      <c r="M73" s="0" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B74" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C74" s="0" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D74" s="0" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="E74" s="0" t="s">
-        <v>61</v>
+        <v>28</v>
       </c>
       <c r="F74" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G74" s="0" t="s">
-        <v>34</v>
+        <v>56</v>
       </c>
       <c r="H74" s="0" t="n">
-        <v>42026</v>
-      </c>
-      <c r="I74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>220</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>67</v>
+        <f aca="false">VLOOKUP(A74,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>102</v>
+        <v>28</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>3311</v>
+        <v>683</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L75" s="0" t="s">
-        <v>223</v>
-      </c>
-      <c r="M75" s="0" t="s">
-        <v>26</v>
+      <c r="L75" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="M75" s="3" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F76" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G76" s="0" t="s">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="H76" s="0" t="n">
-        <v>41189</v>
-      </c>
-      <c r="I76" s="2" t="n">
-        <v>1</v>
+        <f aca="false">VLOOKUP(A76,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="J76" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K76" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H77" s="0" t="n">
-        <v>633</v>
-      </c>
-      <c r="I77" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L77" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="M77" s="3" t="s">
-        <v>229</v>
+        <v>56</v>
+      </c>
+      <c r="K77" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G78" s="0" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H78" s="0" t="n">
-        <v>3328</v>
-      </c>
-      <c r="I78" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C79" s="6" t="s">
-        <v>232</v>
-      </c>
-      <c r="D79" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E79" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F79" s="6"/>
-      <c r="G79" s="6"/>
-      <c r="H79" s="6"/>
-      <c r="I79" s="7"/>
-      <c r="J79" s="8"/>
-      <c r="K79" s="8"/>
-      <c r="L79" s="6"/>
-      <c r="M79" s="6"/>
-      <c r="AMJ79" s="0"/>
+        <f aca="false">VLOOKUP(A78,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K78" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B79" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C79" s="0" t="s">
+        <v>225</v>
+      </c>
+      <c r="D79" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G79" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>41189</v>
+      </c>
+      <c r="I79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="F80" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G80" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H80" s="0" t="n">
+        <f aca="false">VLOOKUP(A80,Planilha2!$A$1:$B$83,2,0)</f>
         <v>0</v>
       </c>
-      <c r="K80" s="2" t="n">
-        <v>1</v>
+      <c r="L80" s="0" t="s">
+        <v>228</v>
+      </c>
+      <c r="M80" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B81" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C81" s="0" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D81" s="0" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="F81" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G81" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H81" s="0" t="n">
-        <v>665</v>
-      </c>
-      <c r="I81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L81" s="0" t="s">
-        <v>237</v>
-      </c>
-      <c r="M81" s="0" t="s">
-        <v>106</v>
+        <v>3210</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C82" s="0" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G82" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H82" s="0" t="n">
-        <f aca="false">VLOOKUP(A82,Planilha2!$A$1:$B$83,2,0)</f>
         <v>0</v>
       </c>
-      <c r="L82" s="0" t="s">
-        <v>240</v>
-      </c>
-      <c r="M82" s="0" t="s">
-        <v>20</v>
+      <c r="J82" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>3210</v>
+        <v>41827</v>
+      </c>
+      <c r="I83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="M83" s="0" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="H84" s="0" t="n">
-        <v>3326</v>
-      </c>
-      <c r="I84" s="2" t="n">
+        <f aca="false">VLOOKUP(A84,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
+      </c>
+      <c r="J84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L84" s="3" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="M84" s="3" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B85" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D85" s="0" t="s">
-        <v>16</v>
+        <v>29</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
+      </c>
+      <c r="H85" s="0" t="n">
+        <f aca="false">VLOOKUP(A85,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="I85" s="2" t="n">
         <v>1</v>
@@ -3927,236 +3704,279 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
       <c r="B86" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>250</v>
+        <v>242</v>
       </c>
       <c r="D86" s="0" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K86" s="2" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H86" s="0" t="n">
+        <v>41881</v>
+      </c>
+      <c r="I86" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L86" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="M86" s="3" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B87" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="D87" s="0" t="s">
-        <v>51</v>
+        <v>29</v>
       </c>
       <c r="E87" s="0" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="F87" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G87" s="0" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H87" s="0" t="n">
-        <v>685</v>
+        <f aca="false">VLOOKUP(A87,Planilha2!$A$1:$B$83,2,0)</f>
+        <v>0</v>
       </c>
       <c r="I87" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="88" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="E88" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="F88" s="6"/>
-      <c r="G88" s="6"/>
-      <c r="H88" s="6"/>
-      <c r="I88" s="7"/>
-      <c r="J88" s="8"/>
-      <c r="K88" s="8"/>
-      <c r="L88" s="6"/>
-      <c r="M88" s="6"/>
-      <c r="AMJ88" s="0"/>
+    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B88" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C88" s="0" t="s">
+        <v>247</v>
+      </c>
+      <c r="D88" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E88" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="F88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G88" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B89" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C89" s="0" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="D89" s="0" t="s">
-        <v>101</v>
+        <v>29</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="F89" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G89" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K89" s="2" t="n">
-        <v>1</v>
+        <v>36</v>
+      </c>
+      <c r="H89" s="0" t="n">
+        <v>665</v>
+      </c>
+      <c r="I89" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L89" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="M89" s="0" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C90" s="0" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="K90" s="2" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="91" s="10" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="D91" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="E91" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="F91" s="6"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="6"/>
-      <c r="I91" s="7"/>
-      <c r="J91" s="8"/>
-      <c r="K91" s="8"/>
-      <c r="L91" s="6"/>
-      <c r="M91" s="6"/>
-      <c r="AMJ91" s="0"/>
+    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C91" s="0" t="s">
+        <v>254</v>
+      </c>
+      <c r="D91" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F91" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G91" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K91" s="2" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C92" s="0" t="s">
+        <v>256</v>
+      </c>
+      <c r="D92" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G92" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H92" s="0" t="n">
+        <v>3311</v>
+      </c>
+      <c r="I92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="s">
         <v>257</v>
       </c>
-      <c r="B92" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>258</v>
-      </c>
-      <c r="D92" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E92" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G92" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>1</v>
+      <c r="M92" s="0" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B93" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C93" s="0" t="s">
         <v>259</v>
       </c>
-      <c r="B93" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C93" s="0" t="s">
+      <c r="D93" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E93" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G93" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>3326</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="D93" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="E93" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G93" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>1</v>
+      <c r="M93" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C94" s="0" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="K94" s="2" t="n">
         <v>1</v>
@@ -4164,118 +3984,106 @@
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>48</v>
+        <v>32</v>
       </c>
       <c r="F95" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J95" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G95" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="K95" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H96" s="0" t="n">
-        <v>31001</v>
-      </c>
-      <c r="J96" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="K96" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H97" s="0" t="n">
-        <v>31003</v>
-      </c>
-      <c r="J97" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="K97" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="H98" s="0" t="n">
-        <v>687</v>
-      </c>
-      <c r="I98" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="M98" s="3" t="s">
-        <v>106</v>
+        <v>56</v>
+      </c>
+      <c r="K98" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4283,28 +4091,24 @@
         <v>272</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C99" s="0" t="s">
         <v>273</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>71</v>
+        <v>32</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H99" s="0" t="n">
-        <f aca="false">VLOOKUP(A99,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J99" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="K99" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4313,22 +4117,22 @@
         <v>274</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="C100" s="0" t="s">
         <v>275</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>101</v>
+        <v>31</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>102</v>
+        <v>32</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
       <c r="H100" s="0" t="n">
         <v>3310</v>
@@ -4343,22 +4147,11 @@
         <v>276</v>
       </c>
       <c r="M100" s="3" t="s">
-        <v>26</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M100"/>
-  <conditionalFormatting sqref="F11:F1048576">
-    <cfRule type="cellIs" priority="2" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
-      <formula>1</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="3" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="1">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" priority="4" operator="equal" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="2">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -4396,7 +4189,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>173</v>
+        <v>57</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>667</v>
@@ -4404,7 +4197,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>103</v>
+        <v>45</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>663</v>
@@ -4420,7 +4213,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>41794</v>
@@ -4428,12 +4221,12 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>197</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>193</v>
+        <v>60</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>27885</v>
@@ -4449,7 +4242,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>269</v>
+        <v>72</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>687</v>
@@ -4457,7 +4250,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3305</v>
@@ -4465,7 +4258,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3307</v>
@@ -4473,7 +4266,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>203</v>
+        <v>114</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3308</v>
@@ -4481,7 +4274,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3323</v>
@@ -4489,7 +4282,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>723</v>
@@ -4497,7 +4290,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>697</v>
@@ -4505,7 +4298,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>31115</v>
@@ -4513,7 +4306,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>41008</v>
@@ -4521,7 +4314,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>41714</v>
@@ -4529,7 +4322,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>136</v>
+        <v>103</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>519</v>
@@ -4537,12 +4330,12 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>189</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>226</v>
+        <v>117</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>633</v>
@@ -4550,7 +4343,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>230</v>
+        <v>121</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3328</v>
@@ -4558,7 +4351,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>43050</v>
@@ -4566,22 +4359,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>36</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>41</v>
+        <v>126</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>72</v>
+        <v>130</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>31088</v>
@@ -4589,7 +4382,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>265</v>
+        <v>142</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>31001</v>
@@ -4597,7 +4390,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>267</v>
+        <v>144</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>31003</v>
@@ -4605,12 +4398,12 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>89</v>
+        <v>132</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>3285</v>
@@ -4618,12 +4411,12 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>68</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3289</v>
@@ -4631,32 +4424,32 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>121</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>125</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>187</v>
+        <v>159</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>272</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>87</v>
+        <v>168</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -4664,7 +4457,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>27919</v>
@@ -4672,12 +4465,12 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>691</v>
@@ -4685,7 +4478,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>251</v>
+        <v>179</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>685</v>
@@ -4693,7 +4486,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>41951</v>
@@ -4701,17 +4494,17 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>58</v>
+        <v>181</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>27470</v>
@@ -4719,7 +4512,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>41883</v>
@@ -4727,7 +4520,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>41955</v>
@@ -4735,7 +4528,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>41932</v>
@@ -4743,7 +4536,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>41981</v>
@@ -4751,12 +4544,12 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>42024</v>
@@ -4764,7 +4557,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>42026</v>
@@ -4772,7 +4565,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>42025</v>
@@ -4780,7 +4573,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>139</v>
+        <v>49</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>671</v>
@@ -4788,12 +4581,12 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>45</v>
+        <v>211</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>118</v>
+        <v>215</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>683</v>
@@ -4801,7 +4594,7 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4814,7 +4607,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>3210</v>
@@ -4822,7 +4615,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4832,17 +4625,17 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>206</v>
+        <v>222</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>131</v>
+        <v>218</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>665</v>
@@ -4850,7 +4643,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>128</v>
+        <v>241</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>41881</v>
@@ -4858,7 +4651,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>62</v>
+        <v>233</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>41827</v>
@@ -4866,17 +4659,17 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>82</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>97</v>
+        <v>239</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>146</v>
+        <v>244</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4889,7 +4682,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>3326</v>
@@ -4897,7 +4690,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>221</v>
+        <v>255</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>3311</v>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">db!$A$1:$M$100</definedName>
-    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">db!$A$1:$K$100</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">db!$A$1:$K$100</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">db!$A$1:$G$100</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -76,36 +76,570 @@
     <t xml:space="preserve">Anti-Corruption, Transparency and Accountability institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">bribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irregular payments and bribes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how common is it for firms to make undocumented extra payments or bribes connected with (a) imports and exports; (b) public utilities; (c) annual tax payments; (d) awarding of public contracts and licenses; (e) obtaining favorable judicial decisions? [1 = very common; 7 = never occurs].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEF, Global Competitiveness Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizen Engagement Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Government Systems Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complaint_mechan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diversion_pfunds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversion of public funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how common is diversion of public funds to companies, individuals, or groups due to corruption? [1 = very commonly occurs; 7 = never occurs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f2_corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absence of corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government officials in the executive branch do not use public office for private gain; Government officials in the judicial branch do not use public office for private gain; Government officials in the police &amp; the military do not use public office for private gain; Government officials in the legislative branch do not use public office for private gain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Justice Project, Rule of Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f5_opengov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Publicized laws &amp; government data; Right to information; Civic participation; Complaint mechanisms.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favoritism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favoritism in decisions of government officials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent do government officials show favoritism to well-connected firms and individuals when deciding upon policies and contracts? [1 = show favoritism to a great extent; 7 = do not show favoritism at all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovTech Enablers Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovTech Maturity Index (GTMI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">open_data_barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures how governments are publishing and using open data for accountability, innovation and social impact (readiness and impact).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Barometer and World Wide Web Foundation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">psdi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public Service Delivery Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">right_to_info</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Right to information</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transparency_polmak</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparency of government policymaking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how easy is it for businesses to obtain information about changes in government policies and regulations affecting their activities?  [1 = extremely difficult; 7 = extremely easy]</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_mkt</t>
   </si>
   <si>
     <t xml:space="preserve">Business environment and trade institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">barriers_startups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Admin burdens on start-ups</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of three components: (i) Administrative burdens on creating a public limited company, (ii) Administrative burdens on creating an individual enterprise, (iii) Entry barriers in professional services, freight transport services and retail distribution.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Product Market Regulation (PMR) Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers_trade_expl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Explicit barriers to trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Restrictiveness of a country’s FDI rules in 22 sectors in terms of foreign equity limitations, screening or approval mechanisms, restrictions on the employment of foreigners as key personnel and operational restrictions (e.g. restrictions on branching and on capital repatriation or on land ownership), (ii) Simple cross-product average of effectively applied tariffs.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">barriers_trade_oth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other barriers to trade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Discrimination of foreign firms with respect to taxes and subsidies, public procurement, entry regulation and appeal and procedure, (ii) Recognition of foreign regulations, use of international standards and international transparency of domestic regulation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complexity_procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex regulatory procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Use of ‘one-stop-shops’ and the ‘silence is consent’ rule for issuing licenses and accepting notifications, (ii) The government’s communication strategy and efforts to reduce and simplify the administrative burden of interacting with the government.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customs_burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burden of customs procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures business executives' perceptions of their country's efficiency of customs procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff_antimonopoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectiveness of antimonopoly policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how effective are anti-monopoly policies at ensuring fair competition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_tourist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of foreigners to visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of foreigners to visit (Robert Lawson and Jayme Lemke (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser Institute, Lawson and Lemke (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">govreg_burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burden of gov. regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how burdensome is it for companies to comply with public administration’s requirements (e.g. permits, regulations, reporting)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpi_clearance_eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of the clearance process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of customs clearance processes (i.e. speed, simplicity and predictability of formalities) by border control agencies, including customs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB International LPI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mkt_dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extent of market dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how do you characterize corporate activity? [1 = dominated by a few business groups; 7 = spread among many firms].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nontariff_barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-tariffs trade barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent do non-tariff barriers (e.g., health and product standards, technical and labeling requirements, etc.) limit the ability of imported goods to compete in the domestic market? [1 = strongly limit; 7 = do not limit at all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">property_rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Property rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent are property rights, including financial assets, protected? [1 = not at all; 7 = to a great extent]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report </t>
+  </si>
+  <si>
+    <t xml:space="preserve">protection_incumbents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protection of incumbents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wef_border_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency and transparency of boarder administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency and transparency of border administration. It captures efficiency, transparency and costs associated with importing and exporting goods. It includes an assessment of the range, quality and comprehensiveness of key services offered by customs and related agencies, and the average time, costs and number of documents required to, respectively, import and export goods. It also assesses the time predictability of border procedures, as well as the transparency of the process and the prevalence of corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEF, Enabling Trade Index</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_fin</t>
   </si>
   <si>
     <t xml:space="preserve">Financial market institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">cbi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central bank independence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Index of de jure Central Bank Indepedence. Values range from 0 (minimum score) to 1 (maximum score). Method based in Cukierman, Webb, and Neyapty (1992).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garriga (2016)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">competition_rules_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competition regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency_superv_bank</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision efficiency-banking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efficiency_superv_fin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervision efficiency-financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_capitalcontrols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital controls (IMF)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_credit_mkt_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit market regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_free_foreign_curr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom, foreign bank accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_inv_restr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Investment Restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign ownership/investment restrictions (WEF, GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insolvency_framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insolvency framework, strength</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_lab</t>
   </si>
   <si>
     <t xml:space="preserve">Labor market institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">collective_barg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collective bargaining coverage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_labor_mkt_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor market regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empl_protection_perm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment protection, regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite indicator of Employment protection legislation governing regular contracts, individual dismissals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empl_protection_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment protection, temp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite indicator of Employment protection legislation governing temporary contracts, individual dismissals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiring_pract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiring and firing practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minimum_wage_ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Minimum to mean wage ratio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">union_density</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union density</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_leg</t>
   </si>
   <si>
     <t xml:space="preserve">Legal institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">efw_integrity_legalsys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integrity of the legal system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_court_constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courts as major constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7_civiljustice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People can access &amp; afford civil justice; Civil justice is free of discrimination; Civil justice is free of corruption; Civil justice is free of improper government influence; Civil justice is not subject to unreasonable delay; Civil justice is effectively enforced; Alternative dispute resolution mechanisms are accessible, impartial, and effective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8_criminaljustice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminal justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminal investigation system is effective; Criminal adjudication system is timely and effective; Correctional system is effective in reducing criminal behavior; Criminal justice system is impartial; Criminal justice system is free of corruption; Criminal justice system is free of improper government influence; Due process of the law &amp; rights of the accused.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legaleff_challenging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenging regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legaleff_disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Settling disputes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2juaccnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judicial accountability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries where judges found responsible for serious misconduct, are never removed from their posts or otherwise disciplined; 4 represents countries where judges found responsible for serious misconduct, are always removed from their posts or otherwise disciplined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-Dem, Variety of Democracy database</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_pol</t>
   </si>
   <si>
     <t xml:space="preserve">Political institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">e_fh_cl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil liberties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_fh_pr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e_p_polity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polity IV score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1_govpowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on Gov. Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government powers are effectively limited by the legislature; Government powers are effectively limited by the judiciary; Government powers are effectively limited by independent auditing and review; Government officials are sanctioned for misconduct; Government powers are subject to non-governmental checks; Transition of power is subject to the law.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3_security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order and security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime is effectively controlled; Civil conflict is effectively limited; People do not resort to violence to redress personal grievances.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4_rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal treatment &amp; absence of discrimination; The right to life &amp; security of the person is effectively guaranteed; Due process of the law and rights of the accused; Freedom of opinion &amp; expression is effectively guaranteed; Freedom of belief &amp; religion is effectively guaranteed; Freedom from arbitrary interference with privacy is effectively guaranteed; Freedom of assembly &amp; association is effectively guaranteed; Fundamental labor rights are effectively guaranteed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2lgfemleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower chamber female legislator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of female representatives in the lower (or unicameral) chamber of the legislature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2lgqugen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower chamber gender quota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries with no national level gender quota and 4 represents countries where there are reserved seats in the legislature for women.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2pepwrgen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by gender</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries where men have a near-monopoly on political power and 4 represents countries where men and women have roughly equal political power.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2pepwrses</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by socioeconomic position</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represent countries where wealthy people enjoy a virtual monopoly on political power and average and poorer people have almost no influence and 4 represents countries where wealthy people have no more political power than those whose economic status is average or poor and political power is more or less equally distributed across economic groups.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2pepwrsoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by social group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social group is differentiated within a country by caste, ethnicity, language, race, region, religion, or some combination thereof. (It does not include identities grounded in sexual orientation or socioeconomic status.). 0 represents countries where political power is monopolized by one social group comprising a minority of the population, and 4 represents countries where all social groups have roughly equal political power or there are no strong ethnic, caste, linguistic, racial, religious, or regional differences to speak of.</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_publ</t>
   </si>
   <si>
@@ -115,670 +649,145 @@
     <t xml:space="preserve">Public sector performance institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">centregov_mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centre of Government, influence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">close2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Entry via examination</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff_govspending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient government spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how efficient is the government in spending public revenue? [1 = extremely inefficient; 7 = extremely efficient]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f6_regulatoryenf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory enforcement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government regulations are effectively enforced; Government regulations are applied &amp; enforced without improper influence; Administrative proceedings are conducted without unreasonable delay; Due process is respected in administrative proceedings; The government does not expropriate without lawful process &amp; adequate compensation.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proc_mean_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proff1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regulatory_governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">steering_capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steering Capability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2clrspct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impartial Public Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2stcritrecadm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria for appointment decisions in the state administration</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_social</t>
   </si>
   <si>
     <t xml:space="preserve">Social institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">opinion_freedom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of opinion and expression is effectively guaranteed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trust_pol</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public trust in politician</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how do you rate the ethical standards of politicians? [1 = extremely low; 7 = extremely high] | 2016–17 weighted average</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2clacfree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of academic and cultural expression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2cseeorgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSO entry and exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2dlengage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engaged society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wide and independent public deliberations when important policy changes are being considered. 0 represents countries where public deliberation is never, or almost never allowed; 5 represents countries where a large numbers of non-elite groups as well as ordinary people tend to discuss major policies among themselves, in the media, in associations or neighborhoods, or in the streets, and grass-roots deliberation is common and unconstrained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2x_cspart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil society participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major CSOs are routinely consulted by policymakers (v2cscnsult); Extent of the involvement of people in CSOs (v2csprtcpt); Women prevented from participating in CSOs (v2csgender); Legislative candidate nomination within party organization highly decentralized or made through party primaries (v2pscnslnl).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2xcs_ccsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core civil society index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government's control over entry and exit by CSOs into public life (v2cseeorgs); government attempts to repress CSOs (v2csreprss); Extent of the involvement of people in CSOs (v2csprtcpt).</t>
+  </si>
+  <si>
     <t xml:space="preserve">vars_service_del</t>
   </si>
   <si>
     <t xml:space="preserve">SOE Corporate Governance</t>
   </si>
   <si>
-    <t xml:space="preserve">f2_corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absence of corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">api</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government officials in the executive branch do not use public office for private gain; Government officials in the judicial branch do not use public office for private gain; Government officials in the police &amp; the military do not use public office for private gain; Government officials in the legislative branch do not use public office for private gain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Justice Project, Rule of Law</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citizen Engagement Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint_mechan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complaint mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Government Systems Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diversion_pfunds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversion of public funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how common is diversion of public funds to companies, individuals, or groups due to corruption? [1 = very commonly occurs; 7 = never occurs]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEF, Global Competitiveness Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">favoritism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favoritism in decisions of government officials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent do government officials show favoritism to well-connected firms and individuals when deciding upon policies and contracts? [1 = show favoritism to a great extent; 7 = do not show favoritism at all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovTech Enablers Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovTech Maturity Index (GTMI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Irregular payments and bribes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how common is it for firms to make undocumented extra payments or bribes connected with (a) imports and exports; (b) public utilities; (c) annual tax payments; (d) awarding of public contracts and licenses; (e) obtaining favorable judicial decisions? [1 = very common; 7 = never occurs].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open_data_barometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Data Barometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures how governments are publishing and using open data for accountability, innovation and social impact (readiness and impact).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Data Barometer and World Wide Web Foundation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f5_opengov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Publicized laws &amp; government data; Right to information; Civic participation; Complaint mechanisms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">psdi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public Service Delivery Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">right_to_info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Right to information</t>
-  </si>
-  <si>
-    <t xml:space="preserve">transparency_polmak</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparency of government policymaking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how easy is it for businesses to obtain information about changes in government policies and regulations affecting their activities?  [1 = extremely difficult; 7 = extremely easy]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_startups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Admin burdens on start-ups</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of three components: (i) Administrative burdens on creating a public limited company, (ii) Administrative burdens on creating an individual enterprise, (iii) Entry barriers in professional services, freight transport services and retail distribution.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Product Market Regulation (PMR) Indicators</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customs_burden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burden of customs procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures business executives' perceptions of their country's efficiency of customs procedures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">govreg_burden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burden of gov. regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how burdensome is it for companies to comply with public administration’s requirements (e.g. permits, regulations, reporting)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complexity_procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex regulatory procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Use of ‘one-stop-shops’ and the ‘silence is consent’ rule for issuing licenses and accepting notifications, (ii) The government’s communication strategy and efforts to reduce and simplify the administrative burden of interacting with the government.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eff_antimonopoly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectiveness of antimonopoly policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how effective are anti-monopoly policies at ensuring fair competition?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">wef_border_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency and transparency of boarder administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency and transparency of border administration. It captures efficiency, transparency and costs associated with importing and exporting goods. It includes an assessment of the range, quality and comprehensiveness of key services offered by customs and related agencies, and the average time, costs and number of documents required to, respectively, import and export goods. It also assesses the time predictability of border procedures, as well as the transparency of the process and the prevalence of corruption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEF, Enabling Trade Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpi_clearance_eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency of the clearance process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency of customs clearance processes (i.e. speed, simplicity and predictability of formalities) by border control agencies, including customs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB International LPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_trade_expl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Explicit barriers to trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Restrictiveness of a country’s FDI rules in 22 sectors in terms of foreign equity limitations, screening or approval mechanisms, restrictions on the employment of foreigners as key personnel and operational restrictions (e.g. restrictions on branching and on capital repatriation or on land ownership), (ii) Simple cross-product average of effectively applied tariffs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkt_dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extent of market dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how do you characterize corporate activity? [1 = dominated by a few business groups; 7 = spread among many firms].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of foreigners to visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of foreigners to visit (Robert Lawson and Jayme Lemke (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraser Institute, Lawson and Lemke (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nontariff_barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-tariffs trade barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent do non-tariff barriers (e.g., health and product standards, technical and labeling requirements, etc.) limit the ability of imported goods to compete in the domestic market? [1 = strongly limit; 7 = do not limit at all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">barriers_trade_oth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Other barriers to trade</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Discrimination of foreign firms with respect to taxes and subsidies, public procurement, entry regulation and appeal and procedure, (ii) Recognition of foreign regulations, use of international standards and international transparency of domestic regulation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">property_rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Property rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent are property rights, including financial assets, protected? [1 = not at all; 7 = to a great extent]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report </t>
-  </si>
-  <si>
-    <t xml:space="preserve">protection_incumbents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Protection of incumbents</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_capitalcontrols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital controls (IMF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cbi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central bank independence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Index of de jure Central Bank Indepedence. Values range from 0 (minimum score) to 1 (maximum score). Method based in Cukierman, Webb, and Neyapty (1992).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Garriga (2016)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">competition_rules_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Competition regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_credit_mkt_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit market regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_inv_restr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Investment Restrictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign ownership/investment restrictions (WEF, GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraser Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_free_foreign_curr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom, foreign bank accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insolvency_framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insolvency framework, strength</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency_superv_bank</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervision efficiency-banking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efficiency_superv_fin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervision efficiency-financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">collective_barg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Collective bargaining coverage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empl_protection_perm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment protection, regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite indicator of Employment protection legislation governing regular contracts, individual dismissals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empl_protection_temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment protection, temp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite indicator of Employment protection legislation governing temporary contracts, individual dismissals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiring_pract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiring and firing practices</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_labor_mkt_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labor market regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minimum_wage_ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Minimum to mean wage ratio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">union_density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Union density</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legaleff_challenging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenging regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7_civiljustice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People can access &amp; afford civil justice; Civil justice is free of discrimination; Civil justice is free of corruption; Civil justice is free of improper government influence; Civil justice is not subject to unreasonable delay; Civil justice is effectively enforced; Alternative dispute resolution mechanisms are accessible, impartial, and effective.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">es_court_constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courts as major constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8_criminaljustice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal investigation system is effective; Criminal adjudication system is timely and effective; Correctional system is effective in reducing criminal behavior; Criminal justice system is impartial; Criminal justice system is free of corruption; Criminal justice system is free of improper government influence; Due process of the law &amp; rights of the accused.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_integrity_legalsys</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Integrity of the legal system</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2juaccnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judicial accountability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries where judges found responsible for serious misconduct, are never removed from their posts or otherwise disciplined; 4 represents countries where judges found responsible for serious misconduct, are always removed from their posts or otherwise disciplined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-Dem, Variety of Democracy database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legaleff_disputes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Settling disputes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_fh_cl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil liberties</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f1_govpowers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on Gov. Powers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government powers are effectively limited by the legislature; Government powers are effectively limited by the judiciary; Government powers are effectively limited by independent auditing and review; Government officials are sanctioned for misconduct; Government powers are subject to non-governmental checks; Transition of power is subject to the law.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f4_rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equal treatment &amp; absence of discrimination; The right to life &amp; security of the person is effectively guaranteed; Due process of the law and rights of the accused; Freedom of opinion &amp; expression is effectively guaranteed; Freedom of belief &amp; religion is effectively guaranteed; Freedom from arbitrary interference with privacy is effectively guaranteed; Freedom of assembly &amp; association is effectively guaranteed; Fundamental labor rights are effectively guaranteed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2lgfemleg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber female legislator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of female representatives in the lower (or unicameral) chamber of the legislature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2lgqugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber gender quota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries with no national level gender quota and 4 represents countries where there are reserved seats in the legislature for women.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3_security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order and security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crime is effectively controlled; Civil conflict is effectively limited; People do not resort to violence to redress personal grievances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_fh_pr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Political rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e_p_polity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Polity IV score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2pepwrgen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by gender</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries where men have a near-monopoly on political power and 4 represents countries where men and women have roughly equal political power.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2pepwrsoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by social group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social group is differentiated within a country by caste, ethnicity, language, race, region, religion, or some combination thereof. (It does not include identities grounded in sexual orientation or socioeconomic status.). 0 represents countries where political power is monopolized by one social group comprising a minority of the population, and 4 represents countries where all social groups have roughly equal political power or there are no strong ethnic, caste, linguistic, racial, religious, or regional differences to speak of.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2pepwrses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by socioeconomic position</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represent countries where wealthy people enjoy a virtual monopoly on political power and average and poorer people have almost no influence and 4 represents countries where wealthy people have no more political power than those whose economic status is average or poor and political power is more or less equally distributed across economic groups.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">centregov_mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Centre of Government, influence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2stcritrecadm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria for appointment decisions in the state administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eff_govspending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficient government spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how efficient is the government in spending public revenue? [1 = extremely inefficient; 7 = extremely efficient]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">close2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Entry via examination</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2clrspct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impartial Public Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proff1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patronage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proc_mean_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurement score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f6_regulatoryenf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory enforcement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government regulations are effectively enforced; Government regulations are applied &amp; enforced without improper influence; Administrative proceedings are conducted without unreasonable delay; Due process is respected in administrative proceedings; The government does not expropriate without lawful process &amp; adequate compensation.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">regulatory_governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory governance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">steering_capability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steering Capability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2x_cspart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil society participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major CSOs are routinely consulted by policymakers (v2cscnsult); Extent of the involvement of people in CSOs (v2csprtcpt); Women prevented from participating in CSOs (v2csgender); Legislative candidate nomination within party organization highly decentralized or made through party primaries (v2pscnslnl).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2xcs_ccsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core civil society index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government's control over entry and exit by CSOs into public life (v2cseeorgs); government attempts to repress CSOs (v2csreprss); Extent of the involvement of people in CSOs (v2csprtcpt).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2cseeorgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSO entry and exit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2dlengage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engaged society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wide and independent public deliberations when important policy changes are being considered. 0 represents countries where public deliberation is never, or almost never allowed; 5 represents countries where a large numbers of non-elite groups as well as ordinary people tend to discuss major policies among themselves, in the media, in associations or neighborhoods, or in the streets, and grass-roots deliberation is common and unconstrained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2clacfree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of academic and cultural expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">opinion_freedom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of opinion and expression is effectively guaranteed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">trust_pol</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Public trust in politician</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how do you rate the ethical standards of politicians? [1 = extremely low; 7 = extremely high] | 2016–17 weighted average</t>
+    <t xml:space="preserve">command_control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Use of command &amp; control regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures the degree of autonomy of SOEs for taking market-related decisions, such as opening hours for retail distribution, if taxis are allowed to offer ride-sharing to customers, if air companies are free to choose which routes to serve, etc. It also measures whether SOEs (for utilities) are required to provide clear and transparent information to customers on tariffs and consumption. Higher values mean worse performance.</t>
   </si>
   <si>
     <t xml:space="preserve">directcontroloverbusinessenterpr</t>
@@ -787,6 +796,18 @@
     <t xml:space="preserve">Direct control over business enterprises</t>
   </si>
   <si>
+    <t xml:space="preserve">governance_soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Governance score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It captures how policymakers interact with stakeholders when shaping regulations affecting business communities. It considers: publication of forward regulatory plans; consultation on proposed regulations; report back on the results of that consultation process; conduct regulatory impact assessment; laws are made publicly accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank, Global Indicators of Regulator y Governance database</t>
+  </si>
+  <si>
     <t xml:space="preserve">governmentinvolvementinnetworkse</t>
   </si>
   <si>
@@ -802,18 +823,6 @@
     <t xml:space="preserve">It measures whether tariffs are regulated and whether there are laws and regulations that limit competition. Higher values mean worse performance.</t>
   </si>
   <si>
-    <t xml:space="preserve">governance_soe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Governance score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It captures how policymakers interact with stakeholders when shaping regulations affecting business communities. It considers: publication of forward regulatory plans; consultation on proposed regulations; report back on the results of that consultation process; conduct regulatory impact assessment; laws are made publicly accessible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank, Global Indicators of Regulator y Governance database</t>
-  </si>
-  <si>
     <t xml:space="preserve">scopeofstateownedenterprises</t>
   </si>
   <si>
@@ -838,25 +847,16 @@
     <t xml:space="preserve">SOE financial audit requirement</t>
   </si>
   <si>
+    <t xml:space="preserve">soe_government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE-government transfers governance rule</t>
+  </si>
+  <si>
     <t xml:space="preserve">soe_report_legislative</t>
   </si>
   <si>
     <t xml:space="preserve">SOE report legislative review requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soe_government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE-government transfers governance rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">command_control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Use of command &amp; control regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures the degree of autonomy of SOEs for taking market-related decisions, such as opening hours for retail distribution, if taxis are allowed to offer ride-sharing to customers, if air companies are free to choose which routes to serve, etc. It also measures whether SOEs (for utilities) are required to provide clear and transparent information to customers on tariffs and consumption. Higher values mean worse performance.</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -965,7 +965,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -984,10 +984,6 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -1022,19 +1018,19 @@
   <dimension ref="A1:M100"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A51" activeCellId="0" sqref="A51"/>
-      <selection pane="bottomRight" activeCell="G13" activeCellId="0" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
+      <selection pane="bottomRight" activeCell="F23" activeCellId="0" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="14.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.77"/>
@@ -1087,204 +1083,308 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-    </row>
-    <row r="3" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
+      <c r="F2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+    </row>
+    <row r="3" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-    </row>
-    <row r="4" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="5" t="s">
+      <c r="H3" s="0" t="n">
+        <v>667</v>
+      </c>
+      <c r="I3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" s="0"/>
+      <c r="H4" s="0"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+    </row>
+    <row r="5" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" s="0"/>
+      <c r="H5" s="0"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-    </row>
-    <row r="5" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="5" t="s">
+      <c r="H6" s="0"/>
+      <c r="I6" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="0" t="n">
+        <v>663</v>
+      </c>
+      <c r="I7" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="5" t="s">
+    </row>
+    <row r="8" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="0" t="n">
+        <v>41794</v>
+      </c>
+      <c r="I8" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H9" s="0"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K9" s="2"/>
+      <c r="L9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G10" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H10" s="0" t="n">
+        <v>671</v>
+      </c>
+      <c r="I10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-    </row>
-    <row r="6" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-    </row>
-    <row r="7" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-    </row>
-    <row r="8" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-    </row>
-    <row r="9" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-    </row>
-    <row r="10" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>13</v>
@@ -1293,33 +1393,21 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H11" s="0" t="n">
-        <v>41794</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L11" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="K11" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>13</v>
@@ -1328,7 +1416,10 @@
         <v>15</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>46</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>1</v>
@@ -1336,13 +1427,13 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>13</v>
@@ -1354,21 +1445,33 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
+      </c>
+      <c r="H13" s="0" t="n">
+        <v>27885</v>
       </c>
       <c r="I13" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J13" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L13" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="D14" s="0" t="s">
         <v>13</v>
@@ -1385,13 +1488,13 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C15" s="0" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="D15" s="0" t="s">
         <v>13</v>
@@ -1403,30 +1506,21 @@
         <v>1</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H15" s="0" t="n">
-        <v>663</v>
+        <v>19</v>
       </c>
       <c r="I15" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C16" s="0" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D16" s="0" t="s">
         <v>13</v>
@@ -1438,850 +1532,820 @@
         <v>1</v>
       </c>
       <c r="G16" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H16" s="0" t="n">
-        <v>671</v>
+        <v>687</v>
       </c>
       <c r="I16" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="5"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C18" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F18" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G18" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K18" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="H18" s="0" t="n">
+        <v>3305</v>
+      </c>
+      <c r="I18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="M18" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C19" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="D19" s="0" t="s">
         <v>58</v>
       </c>
-      <c r="D19" s="0" t="s">
-        <v>13</v>
-      </c>
       <c r="E19" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F19" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G19" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>667</v>
+        <v>3307</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>48</v>
+      <c r="L19" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="M19" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>27885</v>
+        <v>3308</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J20" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="L20" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="M20" s="0" t="s">
         <v>63</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F21" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G21" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H21" s="0" t="n">
-        <f aca="false">VLOOKUP(A21,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>38</v>
+        <v>3323</v>
+      </c>
+      <c r="I21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L21" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="M21" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G22" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H22" s="0" t="n">
+        <v>723</v>
+      </c>
+      <c r="I22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="1" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C23" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F23" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G23" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
+      </c>
+      <c r="H23" s="0" t="n">
+        <v>697</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>687</v>
+        <v>31115</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="J24" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L24" s="3" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="M24" s="3" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F25" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>3305</v>
+        <v>41008</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="J25" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L25" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>723</v>
+        <v>41714</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>82</v>
+      <c r="J26" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L26" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="M26" s="0" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
-        <v>83</v>
+        <v>91</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C27" s="0" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>41008</v>
+        <v>519</v>
       </c>
       <c r="I27" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J27" s="2" t="n">
-        <v>1</v>
-      </c>
       <c r="L27" s="3" t="s">
-        <v>85</v>
+        <v>93</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="B28" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>87</v>
+        <v>95</v>
       </c>
       <c r="D28" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="0" t="n">
-        <v>3323</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L28" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="M28" s="0" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="J28" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L28" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="B29" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D29" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E29" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G29" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>697</v>
+        <v>633</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="M29" s="3" t="s">
-        <v>48</v>
+        <v>101</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="B30" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C30" s="0" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
       <c r="D30" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E30" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G30" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>43050</v>
+        <v>3328</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L30" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="M30" s="3" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="B31" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="D31" s="0" t="s">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="E31" s="0" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F31" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G31" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>41714</v>
+        <v>43050</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J31" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L31" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="M31" s="0" t="s">
-        <v>99</v>
+      <c r="L31" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="D32" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H32" s="0" t="n">
-        <v>3307</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L32" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="M32" s="0" t="s">
-        <v>78</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F32" s="5"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="B33" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C33" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="D33" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E33" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" s="0" t="n">
-        <v>519</v>
-      </c>
-      <c r="I33" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="M33" s="3" t="s">
-        <v>48</v>
+        <v>113</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B34" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C34" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="D34" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E34" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H34" s="0" t="n">
-        <v>31115</v>
+        <v>31088</v>
       </c>
       <c r="I34" s="2" t="n">
         <v>1</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L34" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="M34" s="3" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="B35" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D35" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E35" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H35" s="0" t="n">
-        <f aca="false">VLOOKUP(A35,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>31001</v>
       </c>
       <c r="J35" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L35" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="M35" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B36" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D36" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E36" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F36" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H36" s="0" t="n">
-        <v>3308</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L36" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="M36" s="0" t="s">
-        <v>78</v>
+        <v>31003</v>
+      </c>
+      <c r="J36" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B37" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D37" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E37" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" s="0" t="n">
-        <v>633</v>
-      </c>
-      <c r="I37" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="M37" s="3" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B38" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D38" s="0" t="s">
-        <v>16</v>
+        <v>108</v>
       </c>
       <c r="E38" s="0" t="s">
-        <v>17</v>
+        <v>109</v>
       </c>
       <c r="F38" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H38" s="0" t="n">
-        <v>3328</v>
-      </c>
-      <c r="I38" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J38" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B39" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D39" s="0" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E39" s="0" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H39" s="0" t="n">
-        <f aca="false">VLOOKUP(A39,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>3285</v>
+      </c>
+      <c r="I39" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L39" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B40" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D40" s="0" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E40" s="0" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H40" s="0" t="n">
-        <f aca="false">VLOOKUP(A40,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J40" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L40" s="3" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M40" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B41" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C41" s="0" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D41" s="0" t="s">
-        <v>18</v>
+        <v>108</v>
       </c>
       <c r="E41" s="0" t="s">
-        <v>19</v>
+        <v>109</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H41" s="0" t="n">
-        <v>31088</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J41" s="2" t="n">
         <v>1</v>
@@ -2289,94 +2353,79 @@
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C42" s="0" t="s">
         <v>133</v>
       </c>
-      <c r="D42" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E42" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F42" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G42" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H42" s="0" t="n">
-        <f aca="false">VLOOKUP(A42,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="B42" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="1"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="5"/>
+      <c r="J42" s="5"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B43" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>136</v>
+      </c>
+      <c r="D43" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E43" s="0" t="s">
         <v>134</v>
       </c>
-      <c r="B43" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C43" s="0" t="s">
-        <v>135</v>
-      </c>
-      <c r="D43" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E43" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="F43" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H43" s="0" t="n">
-        <f aca="false">VLOOKUP(A43,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J43" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L43" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B44" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C44" s="0" t="s">
         <v>138</v>
       </c>
-      <c r="B44" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C44" s="0" t="s">
-        <v>139</v>
-      </c>
       <c r="D44" s="0" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E44" s="0" t="s">
-        <v>19</v>
+        <v>134</v>
       </c>
       <c r="F44" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H44" s="0" t="n">
-        <v>3285</v>
+        <v>3289</v>
       </c>
       <c r="I44" s="2" t="n">
         <v>1</v>
@@ -2387,113 +2436,115 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B45" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="0" t="s">
         <v>140</v>
       </c>
-      <c r="B45" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C45" s="0" t="s">
+      <c r="D45" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E45" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" s="0" t="s">
         <v>141</v>
       </c>
-      <c r="D45" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G45" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>1</v>
+      <c r="M45" s="0" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>144</v>
+      </c>
+      <c r="D46" s="0" t="s">
+        <v>133</v>
+      </c>
+      <c r="E46" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L46" s="0" t="s">
+        <v>145</v>
+      </c>
+      <c r="M46" s="0" t="s">
         <v>142</v>
-      </c>
-      <c r="B46" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C46" s="0" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="E46" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G46" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H46" s="0" t="n">
-        <v>31001</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="1" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B47" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C47" s="0" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D47" s="0" t="s">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="E47" s="0" t="s">
+        <v>134</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="F47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G47" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H47" s="0" t="n">
-        <v>31003</v>
-      </c>
-      <c r="J47" s="2" t="n">
+      <c r="I47" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B48" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C48" s="0" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D48" s="0" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E48" s="0" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F48" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H48" s="0" t="n">
-        <f aca="false">VLOOKUP(A48,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J48" s="2" t="n">
         <v>1</v>
@@ -2501,162 +2552,143 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B49" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C49" s="0" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D49" s="0" t="s">
-        <v>20</v>
+        <v>133</v>
       </c>
       <c r="E49" s="0" t="s">
-        <v>21</v>
+        <v>134</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H49" s="0" t="n">
-        <f aca="false">VLOOKUP(A49,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J49" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L49" s="0" t="s">
-        <v>150</v>
-      </c>
-      <c r="M49" s="0" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B50" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C50" s="0" t="s">
+      <c r="B50" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C50" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="D50" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G50" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H50" s="0" t="n">
-        <f aca="false">VLOOKUP(A50,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L50" s="0" t="s">
-        <v>154</v>
-      </c>
-      <c r="M50" s="0" t="s">
-        <v>151</v>
-      </c>
+      <c r="D50" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="5"/>
+      <c r="G50" s="1"/>
+      <c r="H50" s="1"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B51" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="0" t="s">
         <v>155</v>
       </c>
-      <c r="B51" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C51" s="0" t="s">
-        <v>156</v>
-      </c>
       <c r="D51" s="0" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E51" s="0" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I51" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="J51" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B52" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" s="0" t="s">
         <v>157</v>
       </c>
-      <c r="B52" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C52" s="0" t="s">
-        <v>158</v>
-      </c>
       <c r="D52" s="0" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E52" s="0" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F52" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G52" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>3289</v>
+        <v>290</v>
       </c>
       <c r="I52" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J52" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B53" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="0" t="s">
         <v>159</v>
       </c>
-      <c r="B53" s="0" t="s">
+      <c r="D53" s="0" t="s">
+        <v>152</v>
+      </c>
+      <c r="E53" s="0" t="s">
+        <v>153</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H53" s="0" t="n">
+        <v>27919</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="M53" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="C53" s="0" t="s">
-        <v>160</v>
-      </c>
-      <c r="D53" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="E53" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G53" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H53" s="0" t="n">
-        <f aca="false">VLOOKUP(A53,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J53" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2664,52 +2696,54 @@
         <v>161</v>
       </c>
       <c r="B54" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C54" s="0" t="s">
         <v>162</v>
       </c>
       <c r="D54" s="0" t="s">
-        <v>20</v>
+        <v>152</v>
       </c>
       <c r="E54" s="0" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="F54" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H54" s="0" t="n">
-        <f aca="false">VLOOKUP(A54,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J54" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L54" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="M54" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B55" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C55" s="0" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D55" s="0" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="E55" s="0" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H55" s="0" t="n">
         <v>691</v>
@@ -2720,37 +2754,31 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B56" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C56" s="0" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="F56" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>27919</v>
+        <v>685</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L56" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="M56" s="3" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2758,91 +2786,85 @@
         <v>168</v>
       </c>
       <c r="B57" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C57" s="0" t="s">
         <v>169</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>290</v>
+        <v>41951</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L57" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="M57" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="B58" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C58" s="0" t="s">
-        <v>171</v>
-      </c>
-      <c r="D58" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E58" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G58" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H58" s="0" t="n">
-        <f aca="false">VLOOKUP(A58,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L58" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>38</v>
-      </c>
+      <c r="B58" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F58" s="5"/>
+      <c r="G58" s="1"/>
+      <c r="H58" s="1"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="1"/>
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B59" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C59" s="0" t="s">
+        <v>175</v>
+      </c>
+      <c r="D59" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E59" s="0" t="s">
         <v>173</v>
       </c>
-      <c r="B59" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C59" s="0" t="s">
-        <v>174</v>
-      </c>
-      <c r="D59" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="E59" s="0" t="s">
-        <v>23</v>
-      </c>
       <c r="F59" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H59" s="0" t="n">
-        <f aca="false">VLOOKUP(A59,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J59" s="2" t="n">
         <v>1</v>
@@ -2850,66 +2872,54 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B60" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C60" s="0" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D60" s="0" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="E60" s="0" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H60" s="0" t="n">
-        <v>41951</v>
-      </c>
-      <c r="I60" s="2" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J60" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L60" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="M60" s="3" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B61" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C61" s="0" t="s">
         <v>179</v>
       </c>
-      <c r="B61" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C61" s="0" t="s">
-        <v>180</v>
-      </c>
       <c r="D61" s="0" t="s">
-        <v>22</v>
+        <v>172</v>
       </c>
       <c r="E61" s="0" t="s">
-        <v>23</v>
+        <v>173</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>685</v>
+        <v>27470</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>1</v>
@@ -2917,32 +2927,40 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B62" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="0" t="s">
         <v>181</v>
       </c>
-      <c r="B62" s="0" t="s">
+      <c r="D62" s="0" t="s">
+        <v>172</v>
+      </c>
+      <c r="E62" s="0" t="s">
+        <v>173</v>
+      </c>
+      <c r="F62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G62" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="H62" s="0" t="n">
+        <v>41883</v>
+      </c>
+      <c r="I62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" s="0" t="s">
+        <v>182</v>
+      </c>
+      <c r="M62" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C62" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="D62" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E62" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G62" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H62" s="0" t="n">
-        <f aca="false">VLOOKUP(A62,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J62" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,25 +2968,25 @@
         <v>183</v>
       </c>
       <c r="B63" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C63" s="0" t="s">
         <v>184</v>
       </c>
       <c r="D63" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E63" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H63" s="0" t="n">
-        <v>41883</v>
+        <v>41955</v>
       </c>
       <c r="I63" s="2" t="n">
         <v>1</v>
@@ -2976,11 +2994,11 @@
       <c r="J63" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L63" s="0" t="s">
+      <c r="L63" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="M63" s="0" t="s">
-        <v>38</v>
+      <c r="M63" s="3" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2988,22 +3006,22 @@
         <v>186</v>
       </c>
       <c r="B64" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C64" s="0" t="s">
         <v>187</v>
       </c>
       <c r="D64" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E64" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F64" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H64" s="0" t="n">
         <v>41932</v>
@@ -3018,7 +3036,7 @@
         <v>188</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,22 +3044,22 @@
         <v>189</v>
       </c>
       <c r="B65" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C65" s="0" t="s">
         <v>190</v>
       </c>
       <c r="D65" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E65" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H65" s="0" t="n">
         <v>41981</v>
@@ -3056,7 +3074,7 @@
         <v>191</v>
       </c>
       <c r="M65" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3064,26 +3082,22 @@
         <v>192</v>
       </c>
       <c r="B66" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C66" s="0" t="s">
         <v>193</v>
       </c>
       <c r="D66" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E66" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H66" s="0" t="n">
-        <f aca="false">VLOOKUP(A66,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="J66" s="2" t="n">
         <v>1</v>
@@ -3092,7 +3106,7 @@
         <v>194</v>
       </c>
       <c r="M66" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3100,25 +3114,25 @@
         <v>195</v>
       </c>
       <c r="B67" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C67" s="0" t="s">
         <v>196</v>
       </c>
       <c r="D67" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E67" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H67" s="0" t="n">
-        <v>41955</v>
+        <v>42024</v>
       </c>
       <c r="I67" s="2" t="n">
         <v>1</v>
@@ -3126,11 +3140,11 @@
       <c r="J67" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="0" t="s">
         <v>197</v>
       </c>
-      <c r="M67" s="3" t="s">
-        <v>38</v>
+      <c r="M67" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3138,172 +3152,152 @@
         <v>198</v>
       </c>
       <c r="B68" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C68" s="0" t="s">
         <v>199</v>
       </c>
       <c r="D68" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E68" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>62</v>
+        <v>37</v>
       </c>
       <c r="H68" s="0" t="n">
-        <f aca="false">VLOOKUP(A68,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>42026</v>
+      </c>
+      <c r="I68" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L68" s="0" t="s">
+        <v>200</v>
+      </c>
+      <c r="M68" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B69" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C69" s="0" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D69" s="0" t="s">
-        <v>24</v>
+        <v>172</v>
       </c>
       <c r="E69" s="0" t="s">
-        <v>25</v>
+        <v>173</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>27470</v>
+        <v>42025</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L69" s="0" t="s">
+        <v>203</v>
+      </c>
+      <c r="M69" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="B70" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C70" s="0" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G70" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H70" s="0" t="n">
-        <v>42024</v>
-      </c>
-      <c r="I70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L70" s="0" t="s">
         <v>204</v>
       </c>
-      <c r="M70" s="0" t="s">
-        <v>178</v>
-      </c>
+      <c r="B70" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="F70" s="5"/>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="1" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B71" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C71" s="0" t="s">
+        <v>208</v>
+      </c>
+      <c r="D71" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E71" s="0" t="s">
         <v>206</v>
       </c>
-      <c r="D71" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>25</v>
-      </c>
       <c r="F71" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H71" s="0" t="n">
-        <v>42025</v>
-      </c>
-      <c r="I71" s="2" t="n">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="J71" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L71" s="0" t="s">
-        <v>207</v>
-      </c>
-      <c r="M71" s="0" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="1" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B72" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C72" s="0" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D72" s="0" t="s">
-        <v>24</v>
+        <v>204</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>25</v>
+        <v>206</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G72" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H72" s="0" t="n">
-        <v>42026</v>
-      </c>
-      <c r="I72" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L72" s="0" t="s">
-        <v>210</v>
-      </c>
-      <c r="M72" s="0" t="s">
-        <v>178</v>
+      <c r="K72" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3311,119 +3305,116 @@
         <v>211</v>
       </c>
       <c r="B73" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C73" s="0" t="s">
         <v>212</v>
       </c>
       <c r="D73" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F73" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G73" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H73" s="0" t="n">
-        <f aca="false">VLOOKUP(A73,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J73" s="2" t="n">
-        <v>1</v>
+        <v>683</v>
+      </c>
+      <c r="I73" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="M73" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B74" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C74" s="0" t="s">
+        <v>215</v>
+      </c>
+      <c r="D74" s="0" t="s">
+        <v>204</v>
+      </c>
+      <c r="E74" s="0" t="s">
+        <v>206</v>
+      </c>
+      <c r="F74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G74" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="L74" s="0" t="s">
+        <v>216</v>
+      </c>
+      <c r="M74" s="0" t="s">
         <v>34</v>
-      </c>
-      <c r="C74" s="0" t="s">
-        <v>214</v>
-      </c>
-      <c r="D74" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E74" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H74" s="0" t="n">
-        <f aca="false">VLOOKUP(A74,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="K74" s="2" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B75" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C75" s="0" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D75" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E75" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F75" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H75" s="0" t="n">
-        <v>683</v>
+        <v>41189</v>
       </c>
       <c r="I75" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L75" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="M75" s="3" t="s">
-        <v>48</v>
+      <c r="J75" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B76" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C76" s="0" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D76" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F76" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H76" s="0" t="n">
-        <f aca="false">VLOOKUP(A76,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
       <c r="J76" s="2" t="n">
         <v>1</v>
       </c>
@@ -3433,171 +3424,153 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B77" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C77" s="0" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D77" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E77" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F77" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K77" s="2" t="n">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="H77" s="0" t="n">
+        <v>3210</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B78" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C78" s="0" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D78" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E78" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="H78" s="0" t="n">
-        <f aca="false">VLOOKUP(A78,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
       <c r="J78" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K78" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B79" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C79" s="0" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D79" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F79" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H79" s="0" t="n">
-        <v>41189</v>
-      </c>
-      <c r="I79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J79" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="K79" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B80" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C80" s="0" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D80" s="0" t="s">
-        <v>26</v>
+        <v>204</v>
       </c>
       <c r="E80" s="0" t="s">
-        <v>28</v>
+        <v>206</v>
       </c>
       <c r="F80" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G80" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H80" s="0" t="n">
-        <f aca="false">VLOOKUP(A80,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="L80" s="0" t="s">
-        <v>228</v>
-      </c>
-      <c r="M80" s="0" t="s">
-        <v>38</v>
+        <v>46</v>
+      </c>
+      <c r="K80" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B81" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C81" s="0" t="s">
+      <c r="B81" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C81" s="1" t="s">
         <v>230</v>
       </c>
-      <c r="D81" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="E81" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F81" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G81" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H81" s="0" t="n">
-        <v>3210</v>
-      </c>
+      <c r="D81" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F81" s="5"/>
+      <c r="G81" s="1"/>
+      <c r="H81" s="1"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="5"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="1" t="s">
         <v>231</v>
       </c>
       <c r="B82" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C82" s="0" t="s">
         <v>232</v>
       </c>
       <c r="D82" s="0" t="s">
-        <v>26</v>
+        <v>229</v>
       </c>
       <c r="E82" s="0" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="F82" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J82" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G82" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="I82" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3606,34 +3579,34 @@
         <v>233</v>
       </c>
       <c r="B83" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C83" s="0" t="s">
         <v>234</v>
       </c>
       <c r="D83" s="0" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E83" s="0" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="F83" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H83" s="0" t="n">
-        <v>41827</v>
+        <v>665</v>
       </c>
       <c r="I83" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L83" s="7" t="s">
+      <c r="L83" s="0" t="s">
         <v>235</v>
       </c>
       <c r="M83" s="0" t="s">
-        <v>178</v>
+        <v>21</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3641,62 +3614,48 @@
         <v>236</v>
       </c>
       <c r="B84" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C84" s="0" t="s">
         <v>237</v>
       </c>
       <c r="D84" s="0" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E84" s="0" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="F84" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G84" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H84" s="0" t="n">
-        <f aca="false">VLOOKUP(A84,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="J84" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L84" s="3" t="s">
-        <v>238</v>
-      </c>
-      <c r="M84" s="3" t="s">
-        <v>178</v>
+        <v>19</v>
+      </c>
+      <c r="I84" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B85" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="0" t="s">
         <v>239</v>
       </c>
-      <c r="B85" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C85" s="0" t="s">
-        <v>240</v>
-      </c>
       <c r="D85" s="0" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="F85" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G85" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H85" s="0" t="n">
-        <f aca="false">VLOOKUP(A85,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I85" s="2" t="n">
         <v>1</v>
@@ -3704,25 +3663,25 @@
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B86" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="0" t="s">
         <v>241</v>
       </c>
-      <c r="B86" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C86" s="0" t="s">
-        <v>242</v>
-      </c>
       <c r="D86" s="0" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E86" s="0" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="F86" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G86" s="0" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="H86" s="0" t="n">
         <v>41881</v>
@@ -3731,40 +3690,45 @@
         <v>1</v>
       </c>
       <c r="L86" s="3" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="M86" s="3" t="s">
-        <v>178</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B87" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="0" t="s">
         <v>244</v>
       </c>
-      <c r="B87" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C87" s="0" t="s">
+      <c r="D87" s="0" t="s">
+        <v>229</v>
+      </c>
+      <c r="E87" s="0" t="s">
+        <v>230</v>
+      </c>
+      <c r="F87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G87" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H87" s="0" t="n">
+        <v>41827</v>
+      </c>
+      <c r="I87" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L87" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="D87" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F87" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G87" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H87" s="0" t="n">
-        <f aca="false">VLOOKUP(A87,Planilha2!$A$1:$B$83,2,0)</f>
-        <v>0</v>
-      </c>
-      <c r="I87" s="2" t="n">
-        <v>1</v>
+      <c r="M87" s="0" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,109 +3736,117 @@
         <v>246</v>
       </c>
       <c r="B88" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C88" s="0" t="s">
         <v>247</v>
       </c>
       <c r="D88" s="0" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="E88" s="0" t="s">
-        <v>30</v>
+        <v>230</v>
       </c>
       <c r="F88" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="I88" s="2" t="n">
-        <v>1</v>
+        <v>37</v>
+      </c>
+      <c r="J88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="M88" s="3" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="1" t="s">
-        <v>248</v>
-      </c>
-      <c r="B89" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="C89" s="0" t="s">
         <v>249</v>
       </c>
-      <c r="D89" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="E89" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G89" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H89" s="0" t="n">
-        <v>665</v>
-      </c>
-      <c r="I89" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L89" s="0" t="s">
+      <c r="B89" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="M89" s="0" t="s">
-        <v>48</v>
-      </c>
+      <c r="D89" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="F89" s="5"/>
+      <c r="G89" s="1"/>
+      <c r="H89" s="1"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="5"/>
+      <c r="L89" s="1"/>
+      <c r="M89" s="1"/>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="1" t="s">
         <v>251</v>
       </c>
       <c r="B90" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C90" s="0" t="s">
         <v>252</v>
       </c>
       <c r="D90" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E90" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F90" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="H90" s="0" t="n">
+        <v>3310</v>
+      </c>
+      <c r="J90" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K90" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L90" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="M90" s="3" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B91" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C91" s="0" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D91" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E91" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F91" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K91" s="2" t="n">
         <v>1</v>
@@ -3882,78 +3854,63 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B92" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C92" s="0" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D92" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E92" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F92" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>3311</v>
+        <v>3326</v>
       </c>
       <c r="I92" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K92" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L92" s="0" t="s">
-        <v>257</v>
-      </c>
-      <c r="M92" s="0" t="s">
-        <v>78</v>
+      <c r="L92" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="M92" s="3" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B93" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D93" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E93" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F93" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="H93" s="0" t="n">
-        <v>3326</v>
-      </c>
-      <c r="I93" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L93" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="M93" s="3" t="s">
-        <v>261</v>
+        <v>46</v>
+      </c>
+      <c r="K93" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3961,48 +3918,63 @@
         <v>262</v>
       </c>
       <c r="B94" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C94" s="0" t="s">
         <v>263</v>
       </c>
       <c r="D94" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E94" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F94" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>56</v>
+        <v>37</v>
+      </c>
+      <c r="H94" s="0" t="n">
+        <v>3311</v>
+      </c>
+      <c r="I94" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J94" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="K94" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L94" s="0" t="s">
+        <v>264</v>
+      </c>
+      <c r="M94" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B95" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C95" s="0" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D95" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F95" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="K95" s="2" t="n">
         <v>1</v>
@@ -4010,144 +3982,132 @@
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B96" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C96" s="0" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D96" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E96" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F96" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G96" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K96" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I96" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B97" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C97" s="0" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D97" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E97" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F97" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G97" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K97" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I97" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B98" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C98" s="0" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D98" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E98" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F98" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G98" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K98" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I98" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B99" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C99" s="0" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D99" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E99" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F99" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G99" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="K99" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I99" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B100" s="0" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="C100" s="0" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D100" s="0" t="s">
-        <v>31</v>
+        <v>249</v>
       </c>
       <c r="E100" s="0" t="s">
-        <v>32</v>
+        <v>250</v>
       </c>
       <c r="F100" s="2" t="n">
         <v>1</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="H100" s="0" t="n">
-        <v>3310</v>
-      </c>
-      <c r="J100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K100" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="I100" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -4170,11 +4130,11 @@
   </sheetPr>
   <dimension ref="A1:B83"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A67" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.48"/>
   </cols>
@@ -4189,7 +4149,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>667</v>
@@ -4197,7 +4157,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>663</v>
@@ -4213,7 +4173,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>41794</v>
@@ -4221,12 +4181,12 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>27885</v>
@@ -4242,7 +4202,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>687</v>
@@ -4250,7 +4210,7 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>3305</v>
@@ -4258,7 +4218,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>100</v>
+        <v>64</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3307</v>
@@ -4266,7 +4226,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>114</v>
+        <v>67</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3308</v>
@@ -4274,7 +4234,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3323</v>
@@ -4282,7 +4242,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>723</v>
@@ -4290,7 +4250,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>697</v>
@@ -4298,7 +4258,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>106</v>
+        <v>80</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>31115</v>
@@ -4306,7 +4266,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>41008</v>
@@ -4314,7 +4274,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>41714</v>
@@ -4322,7 +4282,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>519</v>
@@ -4330,12 +4290,12 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>110</v>
+        <v>94</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>633</v>
@@ -4343,7 +4303,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3328</v>
@@ -4351,7 +4311,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>43050</v>
@@ -4359,22 +4319,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>31088</v>
@@ -4382,7 +4342,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>142</v>
+        <v>116</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>31001</v>
@@ -4390,7 +4350,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>144</v>
+        <v>118</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>31003</v>
@@ -4398,12 +4358,12 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="B36" s="0" t="n">
         <v>3285</v>
@@ -4411,12 +4371,12 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3289</v>
@@ -4424,32 +4384,32 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>173</v>
+        <v>154</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -4457,7 +4417,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>27919</v>
@@ -4465,12 +4425,12 @@
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="0" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>691</v>
@@ -4478,7 +4438,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>685</v>
@@ -4486,7 +4446,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>175</v>
+        <v>168</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>41951</v>
@@ -4494,17 +4454,17 @@
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="s">
-        <v>181</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>27470</v>
@@ -4512,7 +4472,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>41883</v>
@@ -4520,7 +4480,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>195</v>
+        <v>183</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>41955</v>
@@ -4549,7 +4509,7 @@
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B58" s="0" t="n">
         <v>42024</v>
@@ -4557,7 +4517,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>42026</v>
@@ -4565,7 +4525,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>42025</v>
@@ -4573,7 +4533,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>671</v>
@@ -4581,12 +4541,12 @@
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="0" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="B63" s="0" t="n">
         <v>683</v>
@@ -4594,12 +4554,12 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>41189</v>
@@ -4607,7 +4567,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>3210</v>
@@ -4615,7 +4575,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>213</v>
+        <v>227</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4625,17 +4585,17 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>248</v>
+        <v>233</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>665</v>
@@ -4643,7 +4603,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>41881</v>
@@ -4651,7 +4611,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>41827</v>
@@ -4659,22 +4619,22 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>3310</v>
@@ -4682,7 +4642,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>3326</v>
@@ -4690,7 +4650,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>255</v>
+        <v>262</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>3311</v>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -76,61 +76,100 @@
     <t xml:space="preserve">Anti-Corruption, Transparency and Accountability institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">f2_corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indicator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Absence of corruption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">api</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government officials in the executive branch do not use public office for private gain; Government officials in the judicial branch do not use public office for private gain; Government officials in the police &amp; the military do not use public office for private gain; Government officials in the legislative branch do not use public office for private gain.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Justice Project, Rule of Law</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Citizen Engagement Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complaint_mechan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complaint mechanisms</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cgsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core Government Systems Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diversion_pfunds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diversion of public funds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how common is diversion of public funds to companies, individuals, or groups due to corruption? [1 = very commonly occurs; 7 = never occurs]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEF, Global Competitiveness Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">favoritism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Favoritism in decisions of government officials</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent do government officials show favoritism to well-connected firms and individuals when deciding upon policies and contracts? [1 = show favoritism to a great extent; 7 = do not show favoritism at all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtei</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovTech Enablers Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gtmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GovTech Maturity Index (GTMI)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">additions</t>
+  </si>
+  <si>
     <t xml:space="preserve">bribes</t>
   </si>
   <si>
-    <t xml:space="preserve">indicator</t>
-  </si>
-  <si>
     <t xml:space="preserve">Irregular payments and bribes</t>
   </si>
   <si>
-    <t xml:space="preserve">api</t>
-  </si>
-  <si>
     <t xml:space="preserve">In your country, how common is it for firms to make undocumented extra payments or bribes connected with (a) imports and exports; (b) public utilities; (c) annual tax payments; (d) awarding of public contracts and licenses; (e) obtaining favorable judicial decisions? [1 = very common; 7 = never occurs].</t>
   </si>
   <si>
-    <t xml:space="preserve">WEF, Global Competitiveness Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Citizen Engagement Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cgsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core Government Systems Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">complaint_mechan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complaint mechanisms</t>
-  </si>
-  <si>
-    <t xml:space="preserve">diversion_pfunds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Diversion of public funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how common is diversion of public funds to companies, individuals, or groups due to corruption? [1 = very commonly occurs; 7 = never occurs]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f2_corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Absence of corruption</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government officials in the executive branch do not use public office for private gain; Government officials in the judicial branch do not use public office for private gain; Government officials in the police &amp; the military do not use public office for private gain; Government officials in the legislative branch do not use public office for private gain.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Justice Project, Rule of Law</t>
+    <t xml:space="preserve">open_data_barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Barometer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">original</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures how governments are publishing and using open data for accountability, innovation and social impact (readiness and impact).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Open Data Barometer and World Wide Web Foundation</t>
   </si>
   <si>
     <t xml:space="preserve">f5_opengov</t>
@@ -139,48 +178,9 @@
     <t xml:space="preserve">Open government</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
     <t xml:space="preserve">Publicized laws &amp; government data; Right to information; Civic participation; Complaint mechanisms.</t>
   </si>
   <si>
-    <t xml:space="preserve">favoritism</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Favoritism in decisions of government officials</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent do government officials show favoritism to well-connected firms and individuals when deciding upon policies and contracts? [1 = show favoritism to a great extent; 7 = do not show favoritism at all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtei</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovTech Enablers Index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gtmi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GovTech Maturity Index (GTMI)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">additions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">open_data_barometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Data Barometer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures how governments are publishing and using open data for accountability, innovation and social impact (readiness and impact).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Open Data Barometer and World Wide Web Foundation</t>
-  </si>
-  <si>
     <t xml:space="preserve">psdi</t>
   </si>
   <si>
@@ -220,6 +220,69 @@
     <t xml:space="preserve">Product Market Regulation (PMR) Indicators</t>
   </si>
   <si>
+    <t xml:space="preserve">customs_burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burden of customs procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures business executives' perceptions of their country's efficiency of customs procedures.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">govreg_burden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burden of gov. regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how burdensome is it for companies to comply with public administration’s requirements (e.g. permits, regulations, reporting)?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">complexity_procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complex regulatory procedures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simple average of two components: (i) Use of ‘one-stop-shops’ and the ‘silence is consent’ rule for issuing licenses and accepting notifications, (ii) The government’s communication strategy and efforts to reduce and simplify the administrative burden of interacting with the government.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff_antimonopoly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effectiveness of antimonopoly policy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how effective are anti-monopoly policies at ensuring fair competition?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wef_border_admin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency and transparency of boarder administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency and transparency of border administration. It captures efficiency, transparency and costs associated with importing and exporting goods. It includes an assessment of the range, quality and comprehensiveness of key services offered by customs and related agencies, and the average time, costs and number of documents required to, respectively, import and export goods. It also assesses the time predictability of border procedures, as well as the transparency of the process and the prevalence of corruption.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WEF, Enabling Trade Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lpi_clearance_eff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of the clearance process</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficiency of customs clearance processes (i.e. speed, simplicity and predictability of formalities) by border control agencies, including customs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WB International LPI</t>
+  </si>
+  <si>
     <t xml:space="preserve">barriers_trade_expl</t>
   </si>
   <si>
@@ -229,6 +292,39 @@
     <t xml:space="preserve">Simple average of two components: (i) Restrictiveness of a country’s FDI rules in 22 sectors in terms of foreign equity limitations, screening or approval mechanisms, restrictions on the employment of foreigners as key personnel and operational restrictions (e.g. restrictions on branching and on capital repatriation or on land ownership), (ii) Simple cross-product average of effectively applied tariffs.</t>
   </si>
   <si>
+    <t xml:space="preserve">mkt_dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extent of market dominance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how do you characterize corporate activity? [1 = dominated by a few business groups; 7 = spread among many firms].</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_tourist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of foreigners to visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of foreigners to visit (Robert Lawson and Jayme Lemke (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser Institute, Lawson and Lemke (2012)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nontariff_barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Non-tariffs trade barriers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, to what extent do non-tariff barriers (e.g., health and product standards, technical and labeling requirements, etc.) limit the ability of imported goods to compete in the domestic market? [1 = strongly limit; 7 = do not limit at all]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report</t>
+  </si>
+  <si>
     <t xml:space="preserve">barriers_trade_oth</t>
   </si>
   <si>
@@ -238,90 +334,6 @@
     <t xml:space="preserve">Simple average of two components: (i) Discrimination of foreign firms with respect to taxes and subsidies, public procurement, entry regulation and appeal and procedure, (ii) Recognition of foreign regulations, use of international standards and international transparency of domestic regulation.</t>
   </si>
   <si>
-    <t xml:space="preserve">complexity_procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Complex regulatory procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Simple average of two components: (i) Use of ‘one-stop-shops’ and the ‘silence is consent’ rule for issuing licenses and accepting notifications, (ii) The government’s communication strategy and efforts to reduce and simplify the administrative burden of interacting with the government.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">customs_burden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burden of customs procedures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures business executives' perceptions of their country's efficiency of customs procedures.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">eff_antimonopoly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effectiveness of antimonopoly policy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how effective are anti-monopoly policies at ensuring fair competition?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_tourist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of foreigners to visit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of foreigners to visit (Robert Lawson and Jayme Lemke (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraser Institute, Lawson and Lemke (2012)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">govreg_burden</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Burden of gov. regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how burdensome is it for companies to comply with public administration’s requirements (e.g. permits, regulations, reporting)?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lpi_clearance_eff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency of the clearance process</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency of customs clearance processes (i.e. speed, simplicity and predictability of formalities) by border control agencies, including customs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WB International LPI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mkt_dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extent of market dominance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how do you characterize corporate activity? [1 = dominated by a few business groups; 7 = spread among many firms].</t>
-  </si>
-  <si>
-    <t xml:space="preserve">nontariff_barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Non-tariffs trade barriers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, to what extent do non-tariff barriers (e.g., health and product standards, technical and labeling requirements, etc.) limit the ability of imported goods to compete in the domestic market? [1 = strongly limit; 7 = do not limit at all]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Economic Forum, Global Competitiveness Report</t>
-  </si>
-  <si>
     <t xml:space="preserve">property_rights</t>
   </si>
   <si>
@@ -340,24 +352,21 @@
     <t xml:space="preserve">Protection of incumbents</t>
   </si>
   <si>
-    <t xml:space="preserve">wef_border_admin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency and transparency of boarder administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficiency and transparency of border administration. It captures efficiency, transparency and costs associated with importing and exporting goods. It includes an assessment of the range, quality and comprehensiveness of key services offered by customs and related agencies, and the average time, costs and number of documents required to, respectively, import and export goods. It also assesses the time predictability of border procedures, as well as the transparency of the process and the prevalence of corruption.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WEF, Enabling Trade Index</t>
-  </si>
-  <si>
     <t xml:space="preserve">vars_fin</t>
   </si>
   <si>
     <t xml:space="preserve">Financial market institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">efw_capitalcontrols</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capital controls (IMF)</t>
+  </si>
+  <si>
     <t xml:space="preserve">cbi</t>
   </si>
   <si>
@@ -376,6 +385,36 @@
     <t xml:space="preserve">Competition regulation</t>
   </si>
   <si>
+    <t xml:space="preserve">efw_credit_mkt_reg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit market regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_inv_restr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign Investment Restrictions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foreign ownership/investment restrictions (WEF, GCR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fraser Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">efw_free_foreign_curr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom, foreign bank accounts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">insolvency_framework</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Insolvency framework, strength</t>
+  </si>
+  <si>
     <t xml:space="preserve">efficiency_superv_bank</t>
   </si>
   <si>
@@ -388,45 +427,6 @@
     <t xml:space="preserve">Supervision efficiency-financial</t>
   </si>
   <si>
-    <t xml:space="preserve">efw_capitalcontrols</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Capital controls (IMF)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_credit_mkt_reg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit market regulations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_free_foreign_curr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom, foreign bank accounts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">efw_inv_restr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign Investment Restrictions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Foreign ownership/investment restrictions (WEF, GCR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fraser Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">insolvency_framework</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Insolvency framework, strength</t>
-  </si>
-  <si>
     <t xml:space="preserve">vars_lab</t>
   </si>
   <si>
@@ -439,39 +439,39 @@
     <t xml:space="preserve">Collective bargaining coverage</t>
   </si>
   <si>
+    <t xml:space="preserve">empl_protection_perm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment protection, regular</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite indicator of Employment protection legislation governing regular contracts, individual dismissals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ILO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empl_protection_temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Employment protection, temp.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Composite indicator of Employment protection legislation governing temporary contracts, individual dismissals.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hiring_pract</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hiring and firing practices</t>
+  </si>
+  <si>
     <t xml:space="preserve">efw_labor_mkt_reg</t>
   </si>
   <si>
     <t xml:space="preserve">Labor market regulations</t>
   </si>
   <si>
-    <t xml:space="preserve">empl_protection_perm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment protection, regular</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite indicator of Employment protection legislation governing regular contracts, individual dismissals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ILO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empl_protection_temp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Employment protection, temp.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Composite indicator of Employment protection legislation governing temporary contracts, individual dismissals.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hiring_pract</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hiring and firing practices</t>
-  </si>
-  <si>
     <t xml:space="preserve">minimum_wage_ratio</t>
   </si>
   <si>
@@ -490,40 +490,52 @@
     <t xml:space="preserve">Legal institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">legaleff_challenging</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Challenging regulations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f7_civiljustice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">People can access &amp; afford civil justice; Civil justice is free of discrimination; Civil justice is free of corruption; Civil justice is free of improper government influence; Civil justice is not subject to unreasonable delay; Civil justice is effectively enforced; Alternative dispute resolution mechanisms are accessible, impartial, and effective.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">es_court_constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Courts as major constraint</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f8_criminaljustice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminal justice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criminal investigation system is effective; Criminal adjudication system is timely and effective; Correctional system is effective in reducing criminal behavior; Criminal justice system is impartial; Criminal justice system is free of corruption; Criminal justice system is free of improper government influence; Due process of the law &amp; rights of the accused.</t>
+  </si>
+  <si>
     <t xml:space="preserve">efw_integrity_legalsys</t>
   </si>
   <si>
     <t xml:space="preserve">Integrity of the legal system</t>
   </si>
   <si>
-    <t xml:space="preserve">es_court_constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Courts as major constraint</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f7_civiljustice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">People can access &amp; afford civil justice; Civil justice is free of discrimination; Civil justice is free of corruption; Civil justice is free of improper government influence; Civil justice is not subject to unreasonable delay; Civil justice is effectively enforced; Alternative dispute resolution mechanisms are accessible, impartial, and effective.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f8_criminaljustice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal justice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criminal investigation system is effective; Criminal adjudication system is timely and effective; Correctional system is effective in reducing criminal behavior; Criminal justice system is impartial; Criminal justice system is free of corruption; Criminal justice system is free of improper government influence; Due process of the law &amp; rights of the accused.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">legaleff_challenging</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Challenging regulations</t>
+    <t xml:space="preserve">v2juaccnt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Judicial accountability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries where judges found responsible for serious misconduct, are never removed from their posts or otherwise disciplined; 4 represents countries where judges found responsible for serious misconduct, are always removed from their posts or otherwise disciplined.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V-Dem, Variety of Democracy database</t>
   </si>
   <si>
     <t xml:space="preserve">legaleff_disputes</t>
@@ -532,18 +544,6 @@
     <t xml:space="preserve">Settling disputes</t>
   </si>
   <si>
-    <t xml:space="preserve">v2juaccnt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Judicial accountability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries where judges found responsible for serious misconduct, are never removed from their posts or otherwise disciplined; 4 represents countries where judges found responsible for serious misconduct, are always removed from their posts or otherwise disciplined.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V-Dem, Variety of Democracy database</t>
-  </si>
-  <si>
     <t xml:space="preserve">vars_pol</t>
   </si>
   <si>
@@ -556,6 +556,51 @@
     <t xml:space="preserve">Civil liberties</t>
   </si>
   <si>
+    <t xml:space="preserve">f1_govpowers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Constraints on Gov. Powers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government powers are effectively limited by the legislature; Government powers are effectively limited by the judiciary; Government powers are effectively limited by independent auditing and review; Government officials are sanctioned for misconduct; Government powers are subject to non-governmental checks; Transition of power is subject to the law.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f4_rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental rights</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equal treatment &amp; absence of discrimination; The right to life &amp; security of the person is effectively guaranteed; Due process of the law and rights of the accused; Freedom of opinion &amp; expression is effectively guaranteed; Freedom of belief &amp; religion is effectively guaranteed; Freedom from arbitrary interference with privacy is effectively guaranteed; Freedom of assembly &amp; association is effectively guaranteed; Fundamental labor rights are effectively guaranteed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2lgfemleg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower chamber female legislator</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Share of female representatives in the lower (or unicameral) chamber of the legislature.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2lgqugen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lower chamber gender quota</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 represents countries with no national level gender quota and 4 represents countries where there are reserved seats in the legislature for women.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">f3_security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Order and security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Crime is effectively controlled; Civil conflict is effectively limited; People do not resort to violence to redress personal grievances.</t>
+  </si>
+  <si>
     <t xml:space="preserve">e_fh_pr</t>
   </si>
   <si>
@@ -568,51 +613,6 @@
     <t xml:space="preserve">Polity IV score</t>
   </si>
   <si>
-    <t xml:space="preserve">f1_govpowers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Constraints on Gov. Powers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government powers are effectively limited by the legislature; Government powers are effectively limited by the judiciary; Government powers are effectively limited by independent auditing and review; Government officials are sanctioned for misconduct; Government powers are subject to non-governmental checks; Transition of power is subject to the law.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f3_security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Order and security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Crime is effectively controlled; Civil conflict is effectively limited; People do not resort to violence to redress personal grievances.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">f4_rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental rights</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Equal treatment &amp; absence of discrimination; The right to life &amp; security of the person is effectively guaranteed; Due process of the law and rights of the accused; Freedom of opinion &amp; expression is effectively guaranteed; Freedom of belief &amp; religion is effectively guaranteed; Freedom from arbitrary interference with privacy is effectively guaranteed; Freedom of assembly &amp; association is effectively guaranteed; Fundamental labor rights are effectively guaranteed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2lgfemleg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber female legislator</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Share of female representatives in the lower (or unicameral) chamber of the legislature.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2lgqugen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lower chamber gender quota</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0 represents countries with no national level gender quota and 4 represents countries where there are reserved seats in the legislature for women.</t>
-  </si>
-  <si>
     <t xml:space="preserve">v2pepwrgen</t>
   </si>
   <si>
@@ -622,6 +622,15 @@
     <t xml:space="preserve">0 represents countries where men have a near-monopoly on political power and 4 represents countries where men and women have roughly equal political power.</t>
   </si>
   <si>
+    <t xml:space="preserve">v2pepwrsoc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power by social group</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social group is differentiated within a country by caste, ethnicity, language, race, region, religion, or some combination thereof. (It does not include identities grounded in sexual orientation or socioeconomic status.). 0 represents countries where political power is monopolized by one social group comprising a minority of the population, and 4 represents countries where all social groups have roughly equal political power or there are no strong ethnic, caste, linguistic, racial, religious, or regional differences to speak of.</t>
+  </si>
+  <si>
     <t xml:space="preserve">v2pepwrses</t>
   </si>
   <si>
@@ -631,15 +640,6 @@
     <t xml:space="preserve">0 represent countries where wealthy people enjoy a virtual monopoly on political power and average and poorer people have almost no influence and 4 represents countries where wealthy people have no more political power than those whose economic status is average or poor and political power is more or less equally distributed across economic groups.</t>
   </si>
   <si>
-    <t xml:space="preserve">v2pepwrsoc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power by social group</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Social group is differentiated within a country by caste, ethnicity, language, race, region, religion, or some combination thereof. (It does not include identities grounded in sexual orientation or socioeconomic status.). 0 represents countries where political power is monopolized by one social group comprising a minority of the population, and 4 represents countries where all social groups have roughly equal political power or there are no strong ethnic, caste, linguistic, racial, religious, or regional differences to speak of.</t>
-  </si>
-  <si>
     <t xml:space="preserve">vars_publ</t>
   </si>
   <si>
@@ -655,19 +655,43 @@
     <t xml:space="preserve">Centre of Government, influence</t>
   </si>
   <si>
+    <t xml:space="preserve">v2stcritrecadm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Criteria for appointment decisions in the state administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eff_govspending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Efficient government spending</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In your country, how efficient is the government in spending public revenue? [1 = extremely inefficient; 7 = extremely efficient]</t>
+  </si>
+  <si>
     <t xml:space="preserve">close2</t>
   </si>
   <si>
     <t xml:space="preserve">Entry via examination</t>
   </si>
   <si>
-    <t xml:space="preserve">eff_govspending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Efficient government spending</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In your country, how efficient is the government in spending public revenue? [1 = extremely inefficient; 7 = extremely efficient]</t>
+    <t xml:space="preserve">v2clrspct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Impartial Public Administration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proff1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Patronage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">proc_mean_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procurement score</t>
   </si>
   <si>
     <t xml:space="preserve">f6_regulatoryenf</t>
@@ -679,18 +703,6 @@
     <t xml:space="preserve">Government regulations are effectively enforced; Government regulations are applied &amp; enforced without improper influence; Administrative proceedings are conducted without unreasonable delay; Due process is respected in administrative proceedings; The government does not expropriate without lawful process &amp; adequate compensation.</t>
   </si>
   <si>
-    <t xml:space="preserve">proc_mean_score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Procurement score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">proff1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patronage</t>
-  </si>
-  <si>
     <t xml:space="preserve">regulatory_governance</t>
   </si>
   <si>
@@ -703,24 +715,51 @@
     <t xml:space="preserve">Steering Capability</t>
   </si>
   <si>
-    <t xml:space="preserve">v2clrspct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Impartial Public Administration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2stcritrecadm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Criteria for appointment decisions in the state administration</t>
-  </si>
-  <si>
     <t xml:space="preserve">vars_social</t>
   </si>
   <si>
     <t xml:space="preserve">Social institutions</t>
   </si>
   <si>
+    <t xml:space="preserve">v2x_cspart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Civil society participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Major CSOs are routinely consulted by policymakers (v2cscnsult); Extent of the involvement of people in CSOs (v2csprtcpt); Women prevented from participating in CSOs (v2csgender); Legislative candidate nomination within party organization highly decentralized or made through party primaries (v2pscnslnl).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2xcs_ccsi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Core civil society index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government's control over entry and exit by CSOs into public life (v2cseeorgs); government attempts to repress CSOs (v2csreprss); Extent of the involvement of people in CSOs (v2csprtcpt).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2cseeorgs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CSO entry and exit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2dlengage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Engaged society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wide and independent public deliberations when important policy changes are being considered. 0 represents countries where public deliberation is never, or almost never allowed; 5 represents countries where a large numbers of non-elite groups as well as ordinary people tend to discuss major policies among themselves, in the media, in associations or neighborhoods, or in the streets, and grass-roots deliberation is common and unconstrained.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">v2clacfree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freedom of academic and cultural expression</t>
+  </si>
+  <si>
     <t xml:space="preserve">opinion_freedom</t>
   </si>
   <si>
@@ -736,51 +775,81 @@
     <t xml:space="preserve">In your country, how do you rate the ethical standards of politicians? [1 = extremely low; 7 = extremely high] | 2016–17 weighted average</t>
   </si>
   <si>
-    <t xml:space="preserve">v2clacfree</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Freedom of academic and cultural expression</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2cseeorgs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CSO entry and exit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2dlengage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Engaged society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wide and independent public deliberations when important policy changes are being considered. 0 represents countries where public deliberation is never, or almost never allowed; 5 represents countries where a large numbers of non-elite groups as well as ordinary people tend to discuss major policies among themselves, in the media, in associations or neighborhoods, or in the streets, and grass-roots deliberation is common and unconstrained.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2x_cspart</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Civil society participation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Major CSOs are routinely consulted by policymakers (v2cscnsult); Extent of the involvement of people in CSOs (v2csprtcpt); Women prevented from participating in CSOs (v2csgender); Legislative candidate nomination within party organization highly decentralized or made through party primaries (v2pscnslnl).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">v2xcs_ccsi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Core civil society index</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government's control over entry and exit by CSOs into public life (v2cseeorgs); government attempts to repress CSOs (v2csreprss); Extent of the involvement of people in CSOs (v2csprtcpt).</t>
-  </si>
-  <si>
     <t xml:space="preserve">vars_service_del</t>
   </si>
   <si>
     <t xml:space="preserve">SOE Corporate Governance</t>
   </si>
   <si>
+    <t xml:space="preserve">directcontroloverbusinessenterpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Direct control over business enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">governmentinvolvementinnetworkse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Government involvement in network sectors</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price_controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Price controls</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It measures whether tariffs are regulated and whether there are laws and regulations that limit competition. Higher values mean worse performance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">governance_soe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulatory Governance score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It captures how policymakers interact with stakeholders when shaping regulations affecting business communities. It considers: publication of forward regulatory plans; consultation on proposed regulations; report back on the results of that consultation process; conduct regulatory impact assessment; laws are made publicly accessible.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">World Bank, Global Indicators of Regulator y Governance database</t>
+  </si>
+  <si>
+    <t xml:space="preserve">scopeofstateownedenterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scope of state-owned enterprises</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soe_annual_report</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE annual report disclosure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soe_board</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE board of directors independence</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soe_financial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE financial audit requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soe_report_legislative</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE report legislative review requirement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">soe_government</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SOE-government transfers governance rule</t>
+  </si>
+  <si>
     <t xml:space="preserve">command_control</t>
   </si>
   <si>
@@ -788,75 +857,6 @@
   </si>
   <si>
     <t xml:space="preserve">It measures the degree of autonomy of SOEs for taking market-related decisions, such as opening hours for retail distribution, if taxis are allowed to offer ride-sharing to customers, if air companies are free to choose which routes to serve, etc. It also measures whether SOEs (for utilities) are required to provide clear and transparent information to customers on tariffs and consumption. Higher values mean worse performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">directcontroloverbusinessenterpr</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Direct control over business enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">governance_soe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Regulatory Governance score</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It captures how policymakers interact with stakeholders when shaping regulations affecting business communities. It considers: publication of forward regulatory plans; consultation on proposed regulations; report back on the results of that consultation process; conduct regulatory impact assessment; laws are made publicly accessible.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">World Bank, Global Indicators of Regulator y Governance database</t>
-  </si>
-  <si>
-    <t xml:space="preserve">governmentinvolvementinnetworkse</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Government involvement in network sectors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">price_controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Price controls</t>
-  </si>
-  <si>
-    <t xml:space="preserve">It measures whether tariffs are regulated and whether there are laws and regulations that limit competition. Higher values mean worse performance.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">scopeofstateownedenterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Scope of state-owned enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soe_annual_report</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE annual report disclosure</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soe_board</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE board of directors independence</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soe_financial</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE financial audit requirement</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soe_government</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE-government transfers governance rule</t>
-  </si>
-  <si>
-    <t xml:space="preserve">soe_report_legislative</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SOE report legislative review requirement</t>
   </si>
   <si>
     <t xml:space="preserve">id</t>
@@ -1015,21 +1015,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:M100"/>
+  <dimension ref="A1:M1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="65" zoomScaleNormal="65" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D74" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D20" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="D1" activeCellId="0" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A74" activeCellId="0" sqref="A74"/>
-      <selection pane="bottomRight" activeCell="F23" activeCellId="0" sqref="F23"/>
+      <selection pane="bottomLeft" activeCell="A20" activeCellId="0" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="E21" activeCellId="0" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.19"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="44.1"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="17.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="52.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="2" width="9.07"/>
@@ -1127,7 +1127,7 @@
         <v>19</v>
       </c>
       <c r="H3" s="0" t="n">
-        <v>667</v>
+        <v>41794</v>
       </c>
       <c r="I3" s="2" t="n">
         <v>1</v>
@@ -1187,15 +1187,17 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" s="0"/>
+        <v>1</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>19</v>
+      </c>
       <c r="H5" s="0"/>
-      <c r="I5" s="2"/>
+      <c r="I5" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="J5" s="2"/>
-      <c r="K5" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="K5" s="2"/>
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
@@ -1216,17 +1218,15 @@
         <v>15</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>19</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G6" s="0"/>
       <c r="H6" s="0"/>
-      <c r="I6" s="2" t="n">
-        <v>1</v>
-      </c>
+      <c r="I6" s="2"/>
       <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
@@ -1264,18 +1264,18 @@
         <v>30</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" s="0" t="s">
         <v>13</v>
@@ -1290,7 +1290,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="0" t="n">
-        <v>41794</v>
+        <v>671</v>
       </c>
       <c r="I8" s="2" t="n">
         <v>1</v>
@@ -1298,10 +1298,10 @@
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
       <c r="L8" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1321,33 +1321,27 @@
         <v>15</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>37</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G9" s="0"/>
       <c r="H9" s="0"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="K9" s="2"/>
-      <c r="L9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>34</v>
-      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
     </row>
     <row r="10" s="1" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="0" t="s">
         <v>13</v>
@@ -1359,32 +1353,26 @@
         <v>1</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" s="0" t="n">
-        <v>671</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H10" s="0"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>21</v>
-      </c>
+      <c r="K10" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D11" s="0" t="s">
         <v>13</v>
@@ -1393,21 +1381,33 @@
         <v>15</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="0" t="n">
+        <v>667</v>
+      </c>
+      <c r="I11" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="D12" s="0" t="s">
         <v>13</v>
@@ -1419,21 +1419,33 @@
         <v>1</v>
       </c>
       <c r="G12" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" s="0" t="n">
+        <v>27885</v>
+      </c>
+      <c r="I12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L12" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="K12" s="2" t="n">
-        <v>1</v>
+      <c r="M12" s="0" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="0" t="s">
         <v>13</v>
@@ -1445,22 +1457,16 @@
         <v>1</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H13" s="0" t="n">
-        <v>27885</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J13" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L13" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="0" t="s">
+      <c r="L13" s="3" t="s">
         <v>50</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1544,7 +1550,7 @@
         <v>57</v>
       </c>
       <c r="M16" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1630,27 +1636,27 @@
         <v>19</v>
       </c>
       <c r="H19" s="0" t="n">
-        <v>3307</v>
+        <v>723</v>
       </c>
       <c r="I19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="0" t="s">
+      <c r="L19" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="M19" s="0" t="s">
-        <v>63</v>
+      <c r="M19" s="3" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="0" t="s">
         <v>58</v>
@@ -1662,30 +1668,30 @@
         <v>1</v>
       </c>
       <c r="G20" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H20" s="0" t="n">
-        <v>3308</v>
+        <v>41008</v>
       </c>
       <c r="I20" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L20" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="M20" s="0" t="s">
-        <v>63</v>
+      <c r="J20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>58</v>
@@ -1706,7 +1712,7 @@
         <v>1</v>
       </c>
       <c r="L21" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M21" s="0" t="s">
         <v>63</v>
@@ -1714,13 +1720,13 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B22" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D22" s="0" t="s">
         <v>58</v>
@@ -1735,16 +1741,16 @@
         <v>19</v>
       </c>
       <c r="H22" s="0" t="n">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="I22" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>76</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1770,7 +1776,7 @@
         <v>19</v>
       </c>
       <c r="H23" s="0" t="n">
-        <v>697</v>
+        <v>43050</v>
       </c>
       <c r="I23" s="2" t="n">
         <v>1</v>
@@ -1779,18 +1785,18 @@
         <v>79</v>
       </c>
       <c r="M23" s="3" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B24" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C24" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D24" s="0" t="s">
         <v>58</v>
@@ -1802,10 +1808,10 @@
         <v>1</v>
       </c>
       <c r="G24" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H24" s="0" t="n">
-        <v>31115</v>
+        <v>41714</v>
       </c>
       <c r="I24" s="2" t="n">
         <v>1</v>
@@ -1813,22 +1819,22 @@
       <c r="J24" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="M24" s="3" t="s">
+      <c r="L24" s="0" t="s">
         <v>83</v>
+      </c>
+      <c r="M24" s="0" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B25" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C25" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D25" s="0" t="s">
         <v>58</v>
@@ -1840,30 +1846,30 @@
         <v>1</v>
       </c>
       <c r="G25" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H25" s="0" t="n">
-        <v>41008</v>
+        <v>3307</v>
       </c>
       <c r="I25" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J25" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>86</v>
+      <c r="L25" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="M25" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B26" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C26" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D26" s="0" t="s">
         <v>58</v>
@@ -1875,22 +1881,19 @@
         <v>1</v>
       </c>
       <c r="G26" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H26" s="0" t="n">
-        <v>41714</v>
+        <v>519</v>
       </c>
       <c r="I26" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="J26" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L26" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="M26" s="0" t="s">
+      <c r="L26" s="3" t="s">
         <v>90</v>
+      </c>
+      <c r="M26" s="3" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,30 +1916,33 @@
         <v>1</v>
       </c>
       <c r="G27" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H27" s="0" t="n">
-        <v>519</v>
+        <v>31115</v>
       </c>
       <c r="I27" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L27" s="3" t="s">
         <v>93</v>
       </c>
       <c r="M27" s="3" t="s">
-        <v>21</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B28" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D28" s="0" t="s">
         <v>58</v>
@@ -1948,27 +1954,27 @@
         <v>1</v>
       </c>
       <c r="G28" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J28" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M28" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C29" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="0" t="s">
         <v>58</v>
@@ -1983,16 +1989,16 @@
         <v>19</v>
       </c>
       <c r="H29" s="0" t="n">
-        <v>633</v>
+        <v>3308</v>
       </c>
       <c r="I29" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L29" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29" s="3" t="s">
+      <c r="L29" s="0" t="s">
         <v>101</v>
+      </c>
+      <c r="M29" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2018,21 +2024,27 @@
         <v>19</v>
       </c>
       <c r="H30" s="0" t="n">
-        <v>3328</v>
+        <v>633</v>
       </c>
       <c r="I30" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C31" s="0" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D31" s="0" t="s">
         <v>58</v>
@@ -2047,16 +2059,10 @@
         <v>19</v>
       </c>
       <c r="H31" s="0" t="n">
-        <v>43050</v>
+        <v>3328</v>
       </c>
       <c r="I31" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2104,7 +2110,7 @@
         <v>1</v>
       </c>
       <c r="G33" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J33" s="2" t="n">
         <v>1</v>
@@ -2112,19 +2118,16 @@
       <c r="L33" s="3" t="s">
         <v>112</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>113</v>
-      </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B34" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="B34" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" s="0" t="s">
-        <v>115</v>
       </c>
       <c r="D34" s="0" t="s">
         <v>108</v>
@@ -2136,27 +2139,27 @@
         <v>1</v>
       </c>
       <c r="G34" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H34" s="0" t="n">
-        <v>31088</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J34" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B35" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C35" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D35" s="0" t="s">
         <v>108</v>
@@ -2168,10 +2171,13 @@
         <v>1</v>
       </c>
       <c r="G35" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H35" s="0" t="n">
-        <v>31001</v>
+        <v>31088</v>
+      </c>
+      <c r="I35" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J35" s="2" t="n">
         <v>1</v>
@@ -2179,13 +2185,13 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B36" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C36" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D36" s="0" t="s">
         <v>108</v>
@@ -2197,10 +2203,7 @@
         <v>1</v>
       </c>
       <c r="G36" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H36" s="0" t="n">
-        <v>31003</v>
+        <v>45</v>
       </c>
       <c r="J36" s="2" t="n">
         <v>1</v>
@@ -2208,13 +2211,13 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B37" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D37" s="0" t="s">
         <v>108</v>
@@ -2226,24 +2229,27 @@
         <v>1</v>
       </c>
       <c r="G37" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J37" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L37" s="3" t="s">
-        <v>122</v>
+        <v>123</v>
+      </c>
+      <c r="M37" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="1" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B38" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C38" s="0" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D38" s="0" t="s">
         <v>108</v>
@@ -2255,7 +2261,13 @@
         <v>1</v>
       </c>
       <c r="G38" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="H38" s="0" t="n">
+        <v>3285</v>
+      </c>
+      <c r="I38" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J38" s="2" t="n">
         <v>1</v>
@@ -2263,13 +2275,13 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="1" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B39" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C39" s="0" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D39" s="0" t="s">
         <v>108</v>
@@ -2281,13 +2293,7 @@
         <v>1</v>
       </c>
       <c r="G39" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H39" s="0" t="n">
-        <v>3285</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J39" s="2" t="n">
         <v>1</v>
@@ -2295,13 +2301,13 @@
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B40" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C40" s="0" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D40" s="0" t="s">
         <v>108</v>
@@ -2313,16 +2319,13 @@
         <v>1</v>
       </c>
       <c r="G40" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="H40" s="0" t="n">
+        <v>31001</v>
       </c>
       <c r="J40" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="M40" s="3" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2345,7 +2348,10 @@
         <v>1</v>
       </c>
       <c r="G41" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="H41" s="0" t="n">
+        <v>31003</v>
       </c>
       <c r="J41" s="2" t="n">
         <v>1</v>
@@ -2396,7 +2402,7 @@
         <v>1</v>
       </c>
       <c r="G43" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J43" s="2" t="n">
         <v>1</v>
@@ -2422,27 +2428,27 @@
         <v>1</v>
       </c>
       <c r="G44" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H44" s="0" t="n">
-        <v>3289</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J44" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>139</v>
+      </c>
+      <c r="M44" s="0" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C45" s="0" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D45" s="0" t="s">
         <v>133</v>
@@ -2454,27 +2460,27 @@
         <v>1</v>
       </c>
       <c r="G45" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J45" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L45" s="0" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M45" s="0" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B46" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C46" s="0" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D46" s="0" t="s">
         <v>133</v>
@@ -2486,16 +2492,10 @@
         <v>1</v>
       </c>
       <c r="G46" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L46" s="0" t="s">
-        <v>145</v>
-      </c>
-      <c r="M46" s="0" t="s">
-        <v>142</v>
+        <v>19</v>
+      </c>
+      <c r="I46" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2518,9 +2518,15 @@
         <v>1</v>
       </c>
       <c r="G47" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
+      </c>
+      <c r="H47" s="0" t="n">
+        <v>3289</v>
       </c>
       <c r="I47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J47" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2544,7 +2550,7 @@
         <v>1</v>
       </c>
       <c r="G48" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J48" s="2" t="n">
         <v>1</v>
@@ -2570,7 +2576,7 @@
         <v>1</v>
       </c>
       <c r="G49" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J49" s="2" t="n">
         <v>1</v>
@@ -2621,9 +2627,12 @@
         <v>1</v>
       </c>
       <c r="G51" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J51" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="H51" s="0" t="n">
+        <v>691</v>
+      </c>
+      <c r="I51" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2650,21 +2659,27 @@
         <v>19</v>
       </c>
       <c r="H52" s="0" t="n">
-        <v>290</v>
+        <v>27919</v>
       </c>
       <c r="I52" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B53" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C53" s="0" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="D53" s="0" t="s">
         <v>152</v>
@@ -2679,16 +2694,10 @@
         <v>19</v>
       </c>
       <c r="H53" s="0" t="n">
-        <v>27919</v>
+        <v>290</v>
       </c>
       <c r="I53" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L53" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="M53" s="3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2711,7 +2720,7 @@
         <v>1</v>
       </c>
       <c r="G54" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J54" s="2" t="n">
         <v>1</v>
@@ -2720,7 +2729,7 @@
         <v>163</v>
       </c>
       <c r="M54" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2743,12 +2752,9 @@
         <v>1</v>
       </c>
       <c r="G55" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H55" s="0" t="n">
-        <v>691</v>
-      </c>
-      <c r="I55" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="J55" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2772,24 +2778,33 @@
         <v>1</v>
       </c>
       <c r="G56" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H56" s="0" t="n">
-        <v>685</v>
+        <v>41951</v>
       </c>
       <c r="I56" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="M56" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B57" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C57" s="0" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D57" s="0" t="s">
         <v>152</v>
@@ -2801,22 +2816,13 @@
         <v>1</v>
       </c>
       <c r="G57" s="0" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="H57" s="0" t="n">
-        <v>41951</v>
+        <v>685</v>
       </c>
       <c r="I57" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="J57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L57" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="M57" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2864,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="G59" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J59" s="2" t="n">
         <v>1</v>
@@ -2890,21 +2896,33 @@
         <v>1</v>
       </c>
       <c r="G60" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
+      </c>
+      <c r="H60" s="0" t="n">
+        <v>41883</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>178</v>
+      </c>
+      <c r="M60" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B61" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C61" s="0" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D61" s="0" t="s">
         <v>172</v>
@@ -2916,24 +2934,33 @@
         <v>1</v>
       </c>
       <c r="G61" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H61" s="0" t="n">
-        <v>27470</v>
+        <v>41932</v>
       </c>
       <c r="I61" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="J61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="M61" s="3" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B62" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C62" s="0" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D62" s="0" t="s">
         <v>172</v>
@@ -2945,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="G62" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H62" s="0" t="n">
-        <v>41883</v>
+        <v>41981</v>
       </c>
       <c r="I62" s="2" t="n">
         <v>1</v>
@@ -2956,22 +2983,22 @@
       <c r="J62" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L62" s="0" t="s">
-        <v>182</v>
-      </c>
-      <c r="M62" s="0" t="s">
-        <v>34</v>
+      <c r="L62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="M62" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="1" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B63" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C63" s="0" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D63" s="0" t="s">
         <v>172</v>
@@ -2983,33 +3010,27 @@
         <v>1</v>
       </c>
       <c r="G63" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H63" s="0" t="n">
-        <v>41955</v>
-      </c>
-      <c r="I63" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J63" s="2" t="n">
         <v>1</v>
       </c>
       <c r="L63" s="3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M63" s="3" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="1" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B64" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C64" s="0" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D64" s="0" t="s">
         <v>172</v>
@@ -3021,10 +3042,10 @@
         <v>1</v>
       </c>
       <c r="G64" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H64" s="0" t="n">
-        <v>41932</v>
+        <v>41955</v>
       </c>
       <c r="I64" s="2" t="n">
         <v>1</v>
@@ -3033,21 +3054,21 @@
         <v>1</v>
       </c>
       <c r="L64" s="3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="M64" s="3" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="1" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B65" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="0" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D65" s="0" t="s">
         <v>172</v>
@@ -3059,33 +3080,21 @@
         <v>1</v>
       </c>
       <c r="G65" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H65" s="0" t="n">
-        <v>41981</v>
-      </c>
-      <c r="I65" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="J65" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L65" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="M65" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C66" s="0" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D66" s="0" t="s">
         <v>172</v>
@@ -3097,16 +3106,13 @@
         <v>1</v>
       </c>
       <c r="G66" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L66" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="M66" s="3" t="s">
-        <v>171</v>
+        <v>19</v>
+      </c>
+      <c r="H66" s="0" t="n">
+        <v>27470</v>
+      </c>
+      <c r="I66" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3129,7 +3135,7 @@
         <v>1</v>
       </c>
       <c r="G67" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H67" s="0" t="n">
         <v>42024</v>
@@ -3144,7 +3150,7 @@
         <v>197</v>
       </c>
       <c r="M67" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3167,10 +3173,10 @@
         <v>1</v>
       </c>
       <c r="G68" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H68" s="0" t="n">
-        <v>42026</v>
+        <v>42025</v>
       </c>
       <c r="I68" s="2" t="n">
         <v>1</v>
@@ -3182,7 +3188,7 @@
         <v>200</v>
       </c>
       <c r="M68" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3205,10 +3211,10 @@
         <v>1</v>
       </c>
       <c r="G69" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H69" s="0" t="n">
-        <v>42025</v>
+        <v>42026</v>
       </c>
       <c r="I69" s="2" t="n">
         <v>1</v>
@@ -3220,7 +3226,7 @@
         <v>203</v>
       </c>
       <c r="M69" s="0" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3268,7 +3274,7 @@
         <v>1</v>
       </c>
       <c r="G71" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="J71" s="2" t="n">
         <v>1</v>
@@ -3291,10 +3297,10 @@
         <v>206</v>
       </c>
       <c r="F72" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G72" s="0" t="s">
+        <v>39</v>
       </c>
       <c r="K72" s="2" t="n">
         <v>1</v>
@@ -3332,7 +3338,7 @@
         <v>213</v>
       </c>
       <c r="M73" s="3" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,27 +3358,24 @@
         <v>206</v>
       </c>
       <c r="F74" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G74" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="L74" s="0" t="s">
-        <v>216</v>
-      </c>
-      <c r="M74" s="0" t="s">
-        <v>34</v>
+        <v>0</v>
+      </c>
+      <c r="J74" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K74" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B75" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="0" t="s">
         <v>217</v>
-      </c>
-      <c r="B75" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C75" s="0" t="s">
-        <v>218</v>
       </c>
       <c r="D75" s="0" t="s">
         <v>204</v>
@@ -3384,27 +3387,21 @@
         <v>1</v>
       </c>
       <c r="G75" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H75" s="0" t="n">
-        <v>41189</v>
-      </c>
-      <c r="I75" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="K75" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B76" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C76" s="0" t="s">
         <v>219</v>
-      </c>
-      <c r="B76" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C76" s="0" t="s">
-        <v>220</v>
       </c>
       <c r="D76" s="0" t="s">
         <v>204</v>
@@ -3424,13 +3421,13 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B77" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C77" s="0" t="s">
         <v>221</v>
-      </c>
-      <c r="B77" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C77" s="0" t="s">
-        <v>222</v>
       </c>
       <c r="D77" s="0" t="s">
         <v>204</v>
@@ -3442,21 +3439,27 @@
         <v>1</v>
       </c>
       <c r="G77" s="0" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="H77" s="0" t="n">
-        <v>3210</v>
+        <v>41189</v>
+      </c>
+      <c r="I77" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="J77" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B78" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="0" t="s">
         <v>223</v>
-      </c>
-      <c r="B78" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C78" s="0" t="s">
-        <v>224</v>
       </c>
       <c r="D78" s="0" t="s">
         <v>204</v>
@@ -3465,10 +3468,16 @@
         <v>206</v>
       </c>
       <c r="F78" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="n">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="G78" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L78" s="0" t="s">
+        <v>224</v>
+      </c>
+      <c r="M78" s="0" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3491,10 +3500,10 @@
         <v>1</v>
       </c>
       <c r="G79" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K79" s="2" t="n">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="H79" s="0" t="n">
+        <v>3210</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3514,12 +3523,9 @@
         <v>206</v>
       </c>
       <c r="F80" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G80" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K80" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3570,19 +3576,28 @@
       <c r="G82" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="H82" s="0" t="n">
+        <v>41827</v>
+      </c>
       <c r="I82" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L82" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="M82" s="0" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C83" s="0" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D83" s="0" t="s">
         <v>229</v>
@@ -3594,30 +3609,27 @@
         <v>1</v>
       </c>
       <c r="G83" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H83" s="0" t="n">
-        <v>665</v>
-      </c>
-      <c r="I83" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L83" s="0" t="s">
-        <v>235</v>
-      </c>
-      <c r="M83" s="0" t="s">
-        <v>21</v>
+        <v>45</v>
+      </c>
+      <c r="J83" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="M83" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C84" s="0" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D84" s="0" t="s">
         <v>229</v>
@@ -3637,13 +3649,13 @@
     </row>
     <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B85" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C85" s="0" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D85" s="0" t="s">
         <v>229</v>
@@ -3657,19 +3669,28 @@
       <c r="G85" s="0" t="s">
         <v>19</v>
       </c>
+      <c r="H85" s="0" t="n">
+        <v>41881</v>
+      </c>
       <c r="I85" s="2" t="n">
         <v>1</v>
+      </c>
+      <c r="L85" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="M85" s="3" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="1" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B86" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C86" s="0" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D86" s="0" t="s">
         <v>229</v>
@@ -3683,28 +3704,19 @@
       <c r="G86" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H86" s="0" t="n">
-        <v>41881</v>
-      </c>
       <c r="I86" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L86" s="3" t="s">
-        <v>242</v>
-      </c>
-      <c r="M86" s="3" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C87" s="0" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D87" s="0" t="s">
         <v>229</v>
@@ -3718,17 +3730,8 @@
       <c r="G87" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="H87" s="0" t="n">
-        <v>41827</v>
-      </c>
       <c r="I87" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L87" s="6" t="s">
-        <v>245</v>
-      </c>
-      <c r="M87" s="0" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3751,16 +3754,19 @@
         <v>1</v>
       </c>
       <c r="G88" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J88" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="L88" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="H88" s="0" t="n">
+        <v>665</v>
+      </c>
+      <c r="I88" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" s="0" t="s">
         <v>248</v>
       </c>
-      <c r="M88" s="3" t="s">
-        <v>171</v>
+      <c r="M88" s="0" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3808,33 +3814,21 @@
         <v>1</v>
       </c>
       <c r="G90" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H90" s="0" t="n">
-        <v>3310</v>
-      </c>
-      <c r="J90" s="2" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="K90" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L90" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="M90" s="3" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B91" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" s="0" t="s">
         <v>254</v>
-      </c>
-      <c r="B91" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C91" s="0" t="s">
-        <v>255</v>
       </c>
       <c r="D91" s="0" t="s">
         <v>249</v>
@@ -3846,7 +3840,7 @@
         <v>1</v>
       </c>
       <c r="G91" s="0" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="K91" s="2" t="n">
         <v>1</v>
@@ -3854,13 +3848,13 @@
     </row>
     <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B92" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="0" t="s">
         <v>256</v>
-      </c>
-      <c r="B92" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C92" s="0" t="s">
-        <v>257</v>
       </c>
       <c r="D92" s="0" t="s">
         <v>249</v>
@@ -3872,30 +3866,36 @@
         <v>1</v>
       </c>
       <c r="G92" s="0" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
       <c r="H92" s="0" t="n">
-        <v>3326</v>
+        <v>3311</v>
       </c>
       <c r="I92" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L92" s="3" t="s">
-        <v>258</v>
-      </c>
-      <c r="M92" s="3" t="s">
-        <v>259</v>
+      <c r="J92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K92" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L92" s="0" t="s">
+        <v>257</v>
+      </c>
+      <c r="M92" s="0" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="0" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D93" s="0" t="s">
         <v>249</v>
@@ -3907,10 +3907,19 @@
         <v>1</v>
       </c>
       <c r="G93" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K93" s="2" t="n">
-        <v>1</v>
+        <v>19</v>
+      </c>
+      <c r="H93" s="0" t="n">
+        <v>3326</v>
+      </c>
+      <c r="I93" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L93" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="M93" s="3" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3933,36 +3942,21 @@
         <v>1</v>
       </c>
       <c r="G94" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="H94" s="0" t="n">
-        <v>3311</v>
-      </c>
-      <c r="I94" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J94" s="2" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="K94" s="2" t="n">
         <v>1</v>
-      </c>
-      <c r="L94" s="0" t="s">
-        <v>264</v>
-      </c>
-      <c r="M94" s="0" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B95" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="0" t="s">
         <v>265</v>
-      </c>
-      <c r="B95" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C95" s="0" t="s">
-        <v>266</v>
       </c>
       <c r="D95" s="0" t="s">
         <v>249</v>
@@ -3974,21 +3968,21 @@
         <v>1</v>
       </c>
       <c r="G95" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="K95" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="I95" s="2" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B96" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C96" s="0" t="s">
         <v>267</v>
-      </c>
-      <c r="B96" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C96" s="0" t="s">
-        <v>268</v>
       </c>
       <c r="D96" s="0" t="s">
         <v>249</v>
@@ -4008,13 +4002,13 @@
     </row>
     <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B97" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="0" t="s">
         <v>269</v>
-      </c>
-      <c r="B97" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C97" s="0" t="s">
-        <v>270</v>
       </c>
       <c r="D97" s="0" t="s">
         <v>249</v>
@@ -4034,13 +4028,13 @@
     </row>
     <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B98" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" s="0" t="s">
         <v>271</v>
-      </c>
-      <c r="B98" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C98" s="0" t="s">
-        <v>272</v>
       </c>
       <c r="D98" s="0" t="s">
         <v>249</v>
@@ -4060,13 +4054,13 @@
     </row>
     <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B99" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="0" t="s">
         <v>273</v>
-      </c>
-      <c r="B99" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C99" s="0" t="s">
-        <v>274</v>
       </c>
       <c r="D99" s="0" t="s">
         <v>249</v>
@@ -4086,13 +4080,13 @@
     </row>
     <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B100" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C100" s="0" t="s">
         <v>275</v>
-      </c>
-      <c r="B100" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="C100" s="0" t="s">
-        <v>276</v>
       </c>
       <c r="D100" s="0" t="s">
         <v>249</v>
@@ -4104,12 +4098,25 @@
         <v>1</v>
       </c>
       <c r="G100" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="I100" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
+        <v>45</v>
+      </c>
+      <c r="H100" s="0" t="n">
+        <v>3310</v>
+      </c>
+      <c r="J100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="K100" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="M100" s="3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <autoFilter ref="A1:M100"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -4134,7 +4141,7 @@
       <selection pane="topLeft" activeCell="B97" activeCellId="0" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="20.48"/>
   </cols>
@@ -4149,7 +4156,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>667</v>
@@ -4173,7 +4180,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>41794</v>
@@ -4181,12 +4188,12 @@
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>27885</v>
@@ -4218,7 +4225,7 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>3307</v>
@@ -4226,7 +4233,7 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>67</v>
+        <v>99</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3308</v>
@@ -4234,7 +4241,7 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>3323</v>
@@ -4242,7 +4249,7 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>723</v>
@@ -4250,7 +4257,7 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>697</v>
@@ -4258,7 +4265,7 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="B19" s="0" t="n">
         <v>31115</v>
@@ -4266,7 +4273,7 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="B20" s="0" t="n">
         <v>41008</v>
@@ -4274,7 +4281,7 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B21" s="0" t="n">
         <v>41714</v>
@@ -4282,7 +4289,7 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B22" s="0" t="n">
         <v>519</v>
@@ -4290,12 +4297,12 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B24" s="0" t="n">
         <v>633</v>
@@ -4303,7 +4310,7 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B25" s="0" t="n">
         <v>3328</v>
@@ -4311,7 +4318,7 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B26" s="0" t="n">
         <v>43050</v>
@@ -4319,22 +4326,22 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>31088</v>
@@ -4342,7 +4349,7 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="0" t="s">
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="B33" s="0" t="n">
         <v>31001</v>
@@ -4350,7 +4357,7 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="s">
-        <v>118</v>
+        <v>131</v>
       </c>
       <c r="B34" s="0" t="n">
         <v>31003</v>
@@ -4358,7 +4365,7 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4376,7 +4383,7 @@
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="0" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B38" s="0" t="n">
         <v>3289</v>
@@ -4384,12 +4391,12 @@
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="0" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4404,12 +4411,12 @@
     </row>
     <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="0" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="B44" s="0" t="n">
         <v>290</v>
@@ -4417,7 +4424,7 @@
     </row>
     <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B45" s="0" t="n">
         <v>27919</v>
@@ -4430,7 +4437,7 @@
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B47" s="0" t="n">
         <v>691</v>
@@ -4438,7 +4445,7 @@
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B48" s="0" t="n">
         <v>685</v>
@@ -4446,7 +4453,7 @@
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B49" s="0" t="n">
         <v>41951</v>
@@ -4459,12 +4466,12 @@
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="0" t="s">
-        <v>178</v>
+        <v>193</v>
       </c>
       <c r="B52" s="0" t="n">
         <v>27470</v>
@@ -4472,7 +4479,7 @@
     </row>
     <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="0" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B53" s="0" t="n">
         <v>41883</v>
@@ -4480,7 +4487,7 @@
     </row>
     <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="0" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B54" s="0" t="n">
         <v>41955</v>
@@ -4488,7 +4495,7 @@
     </row>
     <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="0" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B55" s="0" t="n">
         <v>41932</v>
@@ -4496,7 +4503,7 @@
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B56" s="0" t="n">
         <v>41981</v>
@@ -4504,7 +4511,7 @@
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4517,7 +4524,7 @@
     </row>
     <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="0" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="B59" s="0" t="n">
         <v>42026</v>
@@ -4525,7 +4532,7 @@
     </row>
     <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="0" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B60" s="0" t="n">
         <v>42025</v>
@@ -4533,7 +4540,7 @@
     </row>
     <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="0" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B61" s="0" t="n">
         <v>671</v>
@@ -4554,12 +4561,12 @@
     </row>
     <row r="64" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="0" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="0" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B65" s="0" t="n">
         <v>41189</v>
@@ -4567,7 +4574,7 @@
     </row>
     <row r="66" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B66" s="0" t="n">
         <v>3210</v>
@@ -4575,7 +4582,7 @@
     </row>
     <row r="68" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="0" t="s">
-        <v>227</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4585,17 +4592,17 @@
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="0" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="0" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="B74" s="0" t="n">
         <v>665</v>
@@ -4603,7 +4610,7 @@
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B75" s="0" t="n">
         <v>41881</v>
@@ -4611,7 +4618,7 @@
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
       <c r="B76" s="0" t="n">
         <v>41827</v>
@@ -4619,22 +4626,22 @@
     </row>
     <row r="77" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="0" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="0" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>236</v>
+        <v>242</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="0" t="s">
-        <v>251</v>
+        <v>274</v>
       </c>
       <c r="B81" s="0" t="n">
         <v>3310</v>
@@ -4642,7 +4649,7 @@
     </row>
     <row r="82" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B82" s="0" t="n">
         <v>3326</v>
@@ -4650,7 +4657,7 @@
     </row>
     <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B83" s="0" t="n">
         <v>3311</v>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\institutional-assessment-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16F562D-36FE-4C85-B7A0-A876E41CDB2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDDEDD-BD64-41C0-B31D-9A2D1978537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$J$108</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1014" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="390">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>original</t>
-  </si>
-  <si>
-    <t>Anti-Corruption, Transparency and Accountability institutions</t>
   </si>
   <si>
     <t>vars_transp</t>
@@ -117,9 +114,6 @@
     <t>In your country, how do you rate the ethical standards of politicians? [1 = extremely low; 7 = extremely high] | 2016–17 weighted average</t>
   </si>
   <si>
-    <t>Social institutions</t>
-  </si>
-  <si>
     <t>vars_social</t>
   </si>
   <si>
@@ -166,9 +160,6 @@
     <t>It measures the degree of autonomy of SOEs for taking market-related decisions, such as opening hours for retail distribution, if taxis are allowed to offer ride-sharing to customers, if air companies are free to choose which routes to serve, etc. It also measures whether SOEs (for utilities) are required to provide clear and transparent information to customers on tariffs and consumption. Higher values mean worse performance.</t>
   </si>
   <si>
-    <t>SOE Corporate Governance</t>
-  </si>
-  <si>
     <t>vars_service_del</t>
   </si>
   <si>
@@ -182,9 +173,6 @@
   </si>
   <si>
     <t>It captures how policymakers interact with stakeholders when shaping regulations affecting business communities. It considers: publication of forward regulatory plans; consultation on proposed regulations; report back on the results of that consultation process; conduct regulatory impact assessment; laws are made publicly accessible.</t>
-  </si>
-  <si>
-    <t>Public sector performance institutions</t>
   </si>
   <si>
     <t>vars_publ</t>
@@ -206,9 +194,6 @@
   </si>
   <si>
     <t xml:space="preserve">Question: Are public officials rigorous and impartial in the performance of their duties? Responses: 0: The law is not respected by public officials. Arbitrary or biased administration of the law is rampant. 1: The law is weakly respected by public officials. Arbitrary or biased administration of the law is widespread. 2: The law is modestly respected by public officials. Arbitrary or biased administration of the law is moderate. 3: The law is mostly respected by public officials. Arbitrary or biased administration of the law is limited. 4: The law is generally fully respected by the public officials. Arbitrary or biased administration of the law is rare. Clarification This question focuses on the extent to which public officials generally abide by the law and treat like cases alike; or, conversely, the extent to which public administration is characterized by arbitrariness and bias (i.e. nepotism, cronyism or discrimination). The question covers the public officials who handle the cases of ordinary people. If no functioning public administration exists, the lowest score (0) applies. </t>
-  </si>
-  <si>
-    <t>Impartial Public Administration</t>
   </si>
   <si>
     <t>v2clrspct</t>
@@ -236,9 +221,6 @@
   </si>
   <si>
     <t>0 represent countries where wealthy people enjoy a virtual monopoly on political power and average and poorer people have almost no influence and 4 represents countries where wealthy people have no more political power than those whose economic status is average or poor and political power is more or less equally distributed across economic groups.</t>
-  </si>
-  <si>
-    <t>Political institutions</t>
   </si>
   <si>
     <t>vars_pol</t>
@@ -328,9 +310,6 @@
     <t>Simple average of two components: (i) Discrimination of foreign firms with respect to taxes and subsidies, public procurement, entry regulation and appeal and procedure, (ii) Recognition of foreign regulations, use of international standards and international transparency of domestic regulation.</t>
   </si>
   <si>
-    <t>Business environment and trade institutions</t>
-  </si>
-  <si>
     <t>vars_mkt</t>
   </si>
   <si>
@@ -418,9 +397,6 @@
     <t>Percent of firms identifying the courts system as a major constraint</t>
   </si>
   <si>
-    <t>Justice institutions</t>
-  </si>
-  <si>
     <t>vars_leg</t>
   </si>
   <si>
@@ -487,9 +463,6 @@
     <t>Renewable energy regulation</t>
   </si>
   <si>
-    <t>GCI 4.0: Renewable energy regulation</t>
-  </si>
-  <si>
     <t>wef_renewable</t>
   </si>
   <si>
@@ -497,9 +470,6 @@
   </si>
   <si>
     <t>Number of union members who are employees as a percentage of the total number of employees. For the purpose of this indicator in particular, trade union membership excludes union members who are not in paid employment (self-employed, unemployed, retired, etc.).</t>
-  </si>
-  <si>
-    <t>Labor market institutions</t>
   </si>
   <si>
     <t>vars_lab</t>
@@ -515,9 +485,6 @@
   </si>
   <si>
     <t>Energy efficiency regulation</t>
-  </si>
-  <si>
-    <t>GCI 4.0: Energy efficiency regulation</t>
   </si>
   <si>
     <t>wef_energy</t>
@@ -565,9 +532,6 @@
     <t>Efficiency of the financial market supervisory authority.	Perception data collected through questionnaires. Answers range from 0 (minimum score) to 4 (maximum score).</t>
   </si>
   <si>
-    <t>Financial market institutions</t>
-  </si>
-  <si>
     <t>vars_fin</t>
   </si>
   <si>
@@ -590,9 +554,6 @@
   </si>
   <si>
     <t>Hiring and firing practices</t>
-  </si>
-  <si>
-    <t>Hiring and firing practices, 1-7 (best)</t>
   </si>
   <si>
     <t>hiring_pract</t>
@@ -697,9 +658,6 @@
     <t>Active Labour policies</t>
   </si>
   <si>
-    <t>GCI 4.0: Active Labour policies</t>
-  </si>
-  <si>
     <t>wef_labor</t>
   </si>
   <si>
@@ -775,9 +733,6 @@
     <t>Monitoring of public corporations</t>
   </si>
   <si>
-    <t>(i) Monitoring of public corporations</t>
-  </si>
-  <si>
     <t>pefa_monitoring</t>
   </si>
   <si>
@@ -791,9 +746,6 @@
   </si>
   <si>
     <t>PI-5 Budget Documentation.</t>
-  </si>
-  <si>
-    <t>Budget Documentation</t>
   </si>
   <si>
     <t>pefa_budgetdoc</t>
@@ -838,9 +790,6 @@
     <t>Protection of minority shareholders interests</t>
   </si>
   <si>
-    <t>Protection of minority shareholders interests, 1-7 (best)</t>
-  </si>
-  <si>
     <t>wef_minority</t>
   </si>
   <si>
@@ -868,9 +817,6 @@
     <t>Transparency International's Global Corruption Barometer (TIGBC) is the largest world-wide public opinion survey on corruption. It addresses people's direct experiences with bribery and details their views on corruption in the main institutions in their countries. Significantly, the Barometer also provides insights into how willing and ready people are to act to stop corruption.</t>
   </si>
   <si>
-    <t>To what extent do you think that corruption is a problem in the public sector in this country? (%)</t>
-  </si>
-  <si>
     <t>gcb_corruption</t>
   </si>
   <si>
@@ -878,9 +824,6 @@
   </si>
   <si>
     <t>To what extent does the government manages reforms effectively and can achieve its policy priorities?</t>
-  </si>
-  <si>
-    <t>Steering Capability</t>
   </si>
   <si>
     <t>steering_capability</t>
@@ -991,9 +934,6 @@
     <t>Judicial independence</t>
   </si>
   <si>
-    <t>Judicial independence, 1-7 (best)</t>
-  </si>
-  <si>
     <t>wef_judindep</t>
   </si>
   <si>
@@ -1001,9 +941,6 @@
   </si>
   <si>
     <t>Protection of incumbents</t>
-  </si>
-  <si>
-    <t>Regulatory protection of incumbents</t>
   </si>
   <si>
     <t>protection_incumbents</t>
@@ -1055,9 +992,6 @@
   </si>
   <si>
     <t>Extent to which regulations over foreign currency is one of the most pressing obstacles for business</t>
-  </si>
-  <si>
-    <t>Foreign Currency Regulations</t>
   </si>
   <si>
     <t>fx_constraint</t>
@@ -1129,9 +1063,6 @@
     <t>se_customs_constraint</t>
   </si>
   <si>
-    <t>Percent of firms identifying customs and trade regulations as a major constraint</t>
-  </si>
-  <si>
     <t>Percentage of firms identifying business licensing and permits as "major" or "very severe" obstacle.</t>
   </si>
   <si>
@@ -1139,9 +1070,6 @@
   </si>
   <si>
     <t>es_permits_constraint</t>
-  </si>
-  <si>
-    <t>Percent of firms identifying business licensing and permits as a major constraint</t>
   </si>
   <si>
     <t>Percentage of firms identifying tax administration as a "major" or "very severe" obstacle.</t>
@@ -1153,13 +1081,7 @@
     <t>es_tax_constraint</t>
   </si>
   <si>
-    <t>Percent of firms identifying tax administration as a major constraint</t>
-  </si>
-  <si>
     <t>Percentage of firms identifying corruption as a "major" or "very severe" obstacle.</t>
-  </si>
-  <si>
-    <t>Percent of firms identifying corruption as a major constraint</t>
   </si>
   <si>
     <t>es_corruption_constraint</t>
@@ -1171,9 +1093,6 @@
     <t>Labor regulations as a major constraint</t>
   </si>
   <si>
-    <t>Percent of firms identifying labor regulations as a major constraint</t>
-  </si>
-  <si>
     <t>es_labor_constraint</t>
   </si>
   <si>
@@ -1181,9 +1100,6 @@
   </si>
   <si>
     <t>Access to finance as a major constraint</t>
-  </si>
-  <si>
-    <t>Percent of firms identifying access to finance as a major constraint</t>
   </si>
   <si>
     <t>es_finance_constraint</t>
@@ -1204,9 +1120,6 @@
     <t>family_var</t>
   </si>
   <si>
-    <t>public_name</t>
-  </si>
-  <si>
     <t>var_name</t>
   </si>
   <si>
@@ -1220,9 +1133,6 @@
   </si>
   <si>
     <t>var_api</t>
-  </si>
-  <si>
-    <t>Administrative burdens on startups</t>
   </si>
   <si>
     <t>additions</t>
@@ -1250,6 +1160,63 @@
   </si>
   <si>
     <t>GDP per capita, PPP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Public sector performance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Business environment and trade </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Political </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Social </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Financial market </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labor market </t>
+  </si>
+  <si>
+    <t>SOE corporate governance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-corruption, transparency and accountability </t>
+  </si>
+  <si>
+    <t>Budget documentation</t>
+  </si>
+  <si>
+    <t>Burden of government regulation</t>
+  </si>
+  <si>
+    <t>Constraints on government powers</t>
+  </si>
+  <si>
+    <t>Employment protection, temporary</t>
+  </si>
+  <si>
+    <t>Corruption as a major constraint</t>
+  </si>
+  <si>
+    <t>Steering capability</t>
+  </si>
+  <si>
+    <t>Foreign currency regulations</t>
+  </si>
+  <si>
+    <t>Centre of government, influence</t>
+  </si>
+  <si>
+    <t>Global corruption barometer</t>
+  </si>
+  <si>
+    <t>Impartial public administration</t>
   </si>
 </sst>
 </file>
@@ -46567,3859 +46534,3531 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:J109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B103" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I110" sqref="I110"/>
+    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="88.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" customWidth="1"/>
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="36" customWidth="1"/>
-    <col min="7" max="7" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="34.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>386</v>
+        <v>357</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>388</v>
+        <v>359</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>390</v>
+        <v>361</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>389</v>
+        <v>360</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>387</v>
+        <v>358</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>385</v>
+        <v>356</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>384</v>
+        <v>355</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>383</v>
+        <v>354</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>382</v>
+        <v>353</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>381</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>380</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
-      </c>
-      <c r="B2" s="3">
-        <v>41129</v>
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>41794</v>
       </c>
       <c r="C2" t="str">
         <f>VLOOKUP(B2,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>(i) Monitoring of public corporations</v>
-      </c>
-      <c r="D2" t="s">
-        <v>245</v>
+        <v>Absence of corruption (Global States of Democracy)</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F2" t="s">
-        <v>243</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
       </c>
       <c r="J2" t="s">
-        <v>242</v>
-      </c>
-      <c r="K2" t="s">
-        <v>220</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B3">
-        <v>41794</v>
+        <v>350</v>
+      </c>
+      <c r="B3" s="3">
+        <v>227</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Absence of corruption (Global States of Democracy)</v>
+        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>23</v>
+        <v>351</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" t="s">
+        <v>349</v>
       </c>
       <c r="J3" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>391</v>
+        <v>204</v>
       </c>
       <c r="B4" s="3">
-        <v>3305</v>
+        <v>41718</v>
       </c>
       <c r="C4" t="str">
         <f>VLOOKUP(B4,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Administrative burdens on startups</v>
+        <v>GCI 4.0: Active Labour policies</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>122</v>
+        <v>205</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>121</v>
+        <v>143</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
-      </c>
-      <c r="H4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>377</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" t="s">
+        <v>203</v>
       </c>
       <c r="J4" t="s">
-        <v>120</v>
-      </c>
-      <c r="K4" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>250</v>
+        <v>114</v>
       </c>
       <c r="B5" s="3">
-        <v>41114</v>
+        <v>3305</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Budget Documentation</v>
-      </c>
-      <c r="D5" t="s">
-        <v>251</v>
+        <v>Administrative burdens on startups</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>115</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>250</v>
+        <v>89</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>113</v>
       </c>
       <c r="J5" t="s">
-        <v>249</v>
-      </c>
-      <c r="K5" t="s">
-        <v>220</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>339</v>
+        <v>380</v>
       </c>
       <c r="B6" s="3">
-        <v>724</v>
+        <v>41114</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Burden of customs procedures</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>340</v>
+        <v>Budget Documentation</v>
+      </c>
+      <c r="D6" t="s">
+        <v>235</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>339</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
-      </c>
-      <c r="H6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" t="s">
+        <v>234</v>
       </c>
       <c r="J6" t="s">
-        <v>338</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>214</v>
+        <v>317</v>
       </c>
       <c r="B7" s="3">
-        <v>41814</v>
+        <v>724</v>
       </c>
       <c r="C7" t="str">
         <f>VLOOKUP(B7,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Bureaucratic quality </v>
+        <v>Burden of customs procedures</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>215</v>
+        <v>318</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>214</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I7" t="s">
+        <v>316</v>
       </c>
       <c r="J7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>271</v>
-      </c>
-      <c r="B8" s="3">
-        <v>40835</v>
-      </c>
-      <c r="C8" t="str">
-        <f>VLOOKUP(B8,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficiency of legal framework in challenging regs., 1-7 (best)</v>
+        <v>381</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" t="s">
+        <v>111</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>272</v>
+        <v>112</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>271</v>
+        <v>89</v>
       </c>
       <c r="G8" t="s">
-        <v>126</v>
-      </c>
-      <c r="H8" t="s">
-        <v>125</v>
-      </c>
-      <c r="I8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" t="s">
-        <v>270</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
+        <v>372</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
       <c r="B9" s="3">
-        <v>41825</v>
+        <v>41814</v>
       </c>
       <c r="C9" t="str">
         <f>VLOOKUP(B9,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Checks on government </v>
+        <v xml:space="preserve">Bureaucratic quality </v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>211</v>
+        <v>44</v>
       </c>
       <c r="G9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>200</v>
       </c>
       <c r="J9" t="s">
-        <v>210</v>
-      </c>
-      <c r="K9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
-      </c>
-      <c r="B10">
-        <v>27919</v>
+        <v>339</v>
+      </c>
+      <c r="B10" s="3">
+        <v>308</v>
       </c>
       <c r="C10" t="str">
         <f>VLOOKUP(B10,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>People can access and afford civil justice</v>
+        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>141</v>
+        <v>340</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>126</v>
-      </c>
-      <c r="H10" t="s">
-        <v>125</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>338</v>
       </c>
       <c r="J10" t="s">
-        <v>139</v>
-      </c>
-      <c r="K10" t="s">
-        <v>0</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>261</v>
-      </c>
-      <c r="B11" s="3">
-        <v>40985</v>
-      </c>
-      <c r="C11" t="str">
-        <f>VLOOKUP(B11,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil Liberties</v>
+        <v>187</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" t="s">
+        <v>187</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>6</v>
+        <v>188</v>
+      </c>
+      <c r="E11" t="s">
+        <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>261</v>
+        <v>163</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>376</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>186</v>
       </c>
       <c r="J11" t="s">
-        <v>260</v>
-      </c>
-      <c r="K11" t="s">
-        <v>256</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>294</v>
-      </c>
-      <c r="B12" s="3">
-        <v>28738</v>
-      </c>
-      <c r="C12" t="str">
-        <f>VLOOKUP(B12,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil society participation</v>
+        <v>183</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" t="s">
+        <v>183</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>6</v>
+        <v>184</v>
+      </c>
+      <c r="E12" t="s">
+        <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>294</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s">
-        <v>26</v>
-      </c>
-      <c r="H12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I12" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>293</v>
-      </c>
-      <c r="K12" t="s">
-        <v>29</v>
+        <v>376</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>182</v>
+      </c>
+      <c r="J12" t="s">
+        <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>304</v>
-      </c>
-      <c r="B13" s="3">
-        <v>27894</v>
-      </c>
-      <c r="C13" t="str">
-        <f>VLOOKUP(B13,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complaint mechanisms</v>
+        <v>387</v>
+      </c>
+      <c r="B13" s="3"/>
+      <c r="C13" t="s">
+        <v>57</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>305</v>
+        <v>58</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>44</v>
       </c>
       <c r="G13" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" t="s">
-        <v>3</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>56</v>
       </c>
       <c r="J13" t="s">
-        <v>303</v>
-      </c>
-      <c r="K13" t="s">
-        <v>296</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14">
-        <v>3323</v>
+        <v>254</v>
+      </c>
+      <c r="B14" s="3">
+        <v>40835</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complexity of regulatory procedures</v>
+        <v>Efficiency of legal framework in challenging regs., 1-7 (best)</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>116</v>
+        <v>255</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="G14" t="s">
-        <v>96</v>
-      </c>
-      <c r="H14" t="s">
-        <v>95</v>
-      </c>
-      <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I14" t="s">
+        <v>253</v>
       </c>
       <c r="J14" t="s">
-        <v>114</v>
-      </c>
-      <c r="K14" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B15" s="3">
-        <v>41854</v>
+        <v>41825</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Corruption </v>
+        <v xml:space="preserve">Checks on government </v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>208</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>374</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I15" t="s">
+        <v>197</v>
       </c>
       <c r="J15" t="s">
-        <v>207</v>
-      </c>
-      <c r="K15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B16">
-        <v>27932</v>
+        <v>27919</v>
       </c>
       <c r="C16" t="str">
         <f>VLOOKUP(B16,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Criminal adjudication system is timely and effective</v>
+        <v>People can access and afford civil justice</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="G16" t="s">
-        <v>126</v>
-      </c>
-      <c r="H16" t="s">
-        <v>125</v>
-      </c>
-      <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I16" t="s">
+        <v>131</v>
       </c>
       <c r="J16" t="s">
-        <v>132</v>
-      </c>
-      <c r="K16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17">
-        <v>41857</v>
+        <v>245</v>
+      </c>
+      <c r="B17" s="3">
+        <v>40985</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">CSO entry and exit </v>
+        <v>Civil Liberties</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>38</v>
+        <v>246</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="G17" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>374</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>244</v>
       </c>
       <c r="J17" t="s">
-        <v>36</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>237</v>
+        <v>275</v>
       </c>
       <c r="B18" s="3">
-        <v>41141</v>
+        <v>28738</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Debt management</v>
+        <v>Civil society participation</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>238</v>
+        <v>276</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>237</v>
+        <v>24</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s">
-        <v>47</v>
-      </c>
-      <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>375</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="J18" t="s">
-        <v>236</v>
-      </c>
-      <c r="K18" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>326</v>
-      </c>
-      <c r="B19" s="3">
-        <v>3319</v>
-      </c>
-      <c r="C19" t="str">
-        <f>VLOOKUP(B19,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Direct control over business enterprises</v>
+        <v>159</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" t="s">
+        <v>159</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>327</v>
+        <v>160</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>326</v>
+        <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>42</v>
-      </c>
-      <c r="H19" t="s">
-        <v>41</v>
-      </c>
-      <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>377</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I19" t="s">
+        <v>158</v>
       </c>
       <c r="J19" t="s">
-        <v>325</v>
-      </c>
-      <c r="K19" t="s">
-        <v>39</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>352</v>
-      </c>
-      <c r="B20" s="3">
-        <v>664</v>
-      </c>
-      <c r="C20" t="str">
-        <f>VLOOKUP(B20,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Diversion of public funds</v>
+        <v>179</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="C20" t="s">
+        <v>179</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>6</v>
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>352</v>
+        <v>163</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>376</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>178</v>
       </c>
       <c r="J20" t="s">
-        <v>351</v>
-      </c>
-      <c r="K20" t="s">
-        <v>350</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
       <c r="B21" s="3">
-        <v>698</v>
+        <v>27894</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Effectiveness of antimonopoly policy</v>
+        <v>Complaint mechanisms</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>343</v>
+        <v>286</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>342</v>
+        <v>3</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
-      </c>
-      <c r="H21" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" t="s">
+        <v>284</v>
       </c>
       <c r="J21" t="s">
-        <v>341</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>291</v>
-      </c>
-      <c r="B22" s="3">
-        <v>28748</v>
+        <v>108</v>
+      </c>
+      <c r="B22">
+        <v>3323</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficient use of assets</v>
+        <v>Complexity of regulatory procedures</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>292</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>291</v>
+        <v>89</v>
       </c>
       <c r="G22" t="s">
-        <v>48</v>
-      </c>
-      <c r="H22" t="s">
-        <v>47</v>
-      </c>
-      <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
       </c>
       <c r="J22" t="s">
-        <v>290</v>
-      </c>
-      <c r="K22" t="s">
-        <v>277</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23">
-        <v>41881</v>
-      </c>
-      <c r="C23" t="str">
-        <f>VLOOKUP(B23,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Engaged society </v>
+        <v>382</v>
+      </c>
+      <c r="B23" s="3"/>
+      <c r="C23" t="s">
+        <v>86</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>35</v>
+        <v>87</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>34</v>
+        <v>60</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H23" t="s">
-        <v>25</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>374</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I23" t="s">
+        <v>85</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
-      </c>
-      <c r="K23" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>288</v>
+        <v>195</v>
       </c>
       <c r="B24" s="3">
-        <v>28749</v>
+        <v>41854</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Environmental policy</v>
+        <v xml:space="preserve">Corruption </v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>289</v>
+        <v>196</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>288</v>
+        <v>3</v>
       </c>
       <c r="G24" t="s">
-        <v>48</v>
-      </c>
-      <c r="H24" t="s">
-        <v>47</v>
-      </c>
-      <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I24" t="s">
+        <v>194</v>
       </c>
       <c r="J24" t="s">
-        <v>287</v>
-      </c>
-      <c r="K24" t="s">
-        <v>277</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>205</v>
+        <v>119</v>
       </c>
       <c r="B25" s="3">
-        <v>41882</v>
+        <v>290</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
+        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>206</v>
+        <v>120</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>118</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25" t="s">
-        <v>3</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I25" t="s">
+        <v>117</v>
       </c>
       <c r="J25" t="s">
-        <v>33</v>
-      </c>
-      <c r="K25" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>203</v>
-      </c>
-      <c r="B26" s="3">
-        <v>41883</v>
-      </c>
-      <c r="C26" t="str">
-        <f>VLOOKUP(B26,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive constraints </v>
+        <v>176</v>
+      </c>
+      <c r="B26" s="3"/>
+      <c r="C26" t="s">
+        <v>176</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>6</v>
+        <v>177</v>
+      </c>
+      <c r="E26" t="s">
+        <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>203</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>66</v>
-      </c>
-      <c r="H26" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>18</v>
+        <v>376</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I26" t="s">
+        <v>175</v>
       </c>
       <c r="J26" t="s">
-        <v>202</v>
-      </c>
-      <c r="K26" t="s">
-        <v>29</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B27">
-        <v>3307</v>
+        <v>27932</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Explicit barriers to trade and investment</v>
+        <v>Criminal adjudication system is timely and effective</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
-      </c>
-      <c r="H27" t="s">
-        <v>95</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>124</v>
       </c>
       <c r="J27" t="s">
-        <v>107</v>
-      </c>
-      <c r="K27" t="s">
-        <v>39</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>355</v>
-      </c>
-      <c r="B28" s="3">
-        <v>520</v>
-      </c>
-      <c r="C28" t="str">
-        <f>VLOOKUP(B28,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Extent of market dominance</v>
+        <v>53</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" t="s">
+        <v>53</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>356</v>
+        <v>54</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>355</v>
+        <v>44</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H28" t="s">
-        <v>95</v>
-      </c>
-      <c r="I28" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I28" t="s">
+        <v>52</v>
       </c>
       <c r="J28" t="s">
-        <v>354</v>
-      </c>
-      <c r="K28" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>222</v>
-      </c>
-      <c r="B29" s="3">
-        <v>41216</v>
+        <v>35</v>
+      </c>
+      <c r="B29">
+        <v>41857</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>External audit</v>
+        <v xml:space="preserve">CSO entry and exit </v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>223</v>
+        <v>36</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
-      </c>
-      <c r="H29" t="s">
-        <v>3</v>
-      </c>
-      <c r="I29" s="1" t="s">
-        <v>18</v>
+        <v>375</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" t="s">
+        <v>34</v>
       </c>
       <c r="J29" t="s">
-        <v>221</v>
-      </c>
-      <c r="K29" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>19</v>
-      </c>
-      <c r="B30">
-        <v>40951</v>
+        <v>336</v>
+      </c>
+      <c r="B30" s="3">
+        <v>320</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Favoritism in decisions of government officials, 1-7 (best)</v>
+        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>20</v>
+        <v>337</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>19</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
-      </c>
-      <c r="H30" t="s">
-        <v>3</v>
-      </c>
-      <c r="I30" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" t="s">
+        <v>335</v>
       </c>
       <c r="J30" t="s">
-        <v>17</v>
-      </c>
-      <c r="K30" t="s">
-        <v>16</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B31" s="3">
-        <v>41149</v>
+        <v>41141</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Fiscal strategy</v>
+        <v>Debt management</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>235</v>
+        <v>224</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>234</v>
+        <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H31" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" t="s">
+        <v>222</v>
       </c>
       <c r="J31" t="s">
-        <v>233</v>
-      </c>
-      <c r="K31" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="B32" s="3">
-        <v>3285</v>
+        <v>3319</v>
       </c>
       <c r="C32" t="str">
         <f>VLOOKUP(B32,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Foreign Currency Regulations</v>
+        <v>Direct control over business enterprises</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>337</v>
+        <v>306</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>336</v>
+        <v>39</v>
       </c>
       <c r="G32" t="s">
-        <v>175</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I32" s="1" t="s">
-        <v>18</v>
+        <v>378</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I32" t="s">
+        <v>304</v>
       </c>
       <c r="J32" t="s">
-        <v>335</v>
-      </c>
-      <c r="K32" t="s">
-        <v>334</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>41918</v>
+        <v>330</v>
+      </c>
+      <c r="B33" s="3">
+        <v>664</v>
       </c>
       <c r="C33" t="str">
         <f>VLOOKUP(B33,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Freedom of academic and cultural expression </v>
+        <v>Diversion of public funds</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>32</v>
+        <v>331</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
-      </c>
-      <c r="H33" t="s">
-        <v>25</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I33" t="s">
+        <v>329</v>
       </c>
       <c r="J33" t="s">
-        <v>30</v>
-      </c>
-      <c r="K33" t="s">
-        <v>29</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>301</v>
+        <v>320</v>
       </c>
       <c r="B34" s="3">
-        <v>27900</v>
+        <v>698</v>
       </c>
       <c r="C34" t="str">
         <f>VLOOKUP(B34,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Freedom of opinion and expression is effectively guaranteed</v>
+        <v>Effectiveness of antimonopoly policy</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
-        <v>26</v>
-      </c>
-      <c r="H34" t="s">
-        <v>25</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I34" t="s">
+        <v>319</v>
       </c>
       <c r="J34" t="s">
-        <v>300</v>
-      </c>
-      <c r="K34" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>298</v>
-      </c>
-      <c r="B35" s="3">
-        <v>27904</v>
-      </c>
-      <c r="C35" t="str">
-        <f>VLOOKUP(B35,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Fundamental labor rights are effectively guaranteed</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>299</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>298</v>
+        <v>89</v>
       </c>
       <c r="G35" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" t="s">
-        <v>152</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I35" t="s">
+        <v>104</v>
       </c>
       <c r="J35" t="s">
-        <v>297</v>
-      </c>
-      <c r="K35" t="s">
-        <v>296</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>218</v>
+        <v>272</v>
       </c>
       <c r="B36" s="3">
-        <v>41718</v>
+        <v>28748</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>GCI 4.0: Active Labour policies</v>
+        <v>Efficient use of assets</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>217</v>
+        <v>44</v>
       </c>
       <c r="G36" t="s">
+        <v>371</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I36" t="s">
+        <v>271</v>
+      </c>
+      <c r="J36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>156</v>
+      </c>
+      <c r="B37" s="3"/>
+      <c r="C37" t="s">
+        <v>156</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F37" t="s">
+        <v>143</v>
+      </c>
+      <c r="G37" t="s">
+        <v>377</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I37" t="s">
+        <v>155</v>
+      </c>
+      <c r="J37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>383</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
         <v>153</v>
       </c>
-      <c r="H36" t="s">
+      <c r="D38" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" t="s">
+        <v>377</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I38" t="s">
         <v>152</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J36" t="s">
-        <v>216</v>
-      </c>
-      <c r="K36" t="s">
-        <v>16</v>
+      <c r="J38" t="s">
+        <v>141</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>158</v>
-      </c>
-      <c r="B37" s="3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" s="3">
         <v>43072</v>
-      </c>
-      <c r="C37" t="str">
-        <f>VLOOKUP(B37,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>GCI 4.0: Energy efficiency regulation</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F37" t="s">
-        <v>157</v>
-      </c>
-      <c r="G37" t="s">
-        <v>48</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J37" t="s">
-        <v>156</v>
-      </c>
-      <c r="K37" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>148</v>
-      </c>
-      <c r="B38" s="3">
-        <v>43075</v>
-      </c>
-      <c r="C38" t="str">
-        <f>VLOOKUP(B38,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>GCI 4.0: Renewable energy regulation</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F38" t="s">
-        <v>147</v>
-      </c>
-      <c r="G38" t="s">
-        <v>48</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J38" t="s">
-        <v>146</v>
-      </c>
-      <c r="K38" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>320</v>
-      </c>
-      <c r="B39" s="3">
-        <v>3326</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Governance of state-owned enterprises</v>
+        <v>GCI 4.0: Energy efficiency regulation</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>321</v>
+        <v>148</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>320</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
-      </c>
-      <c r="H39" t="s">
-        <v>41</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" t="s">
+        <v>146</v>
       </c>
       <c r="J39" t="s">
-        <v>46</v>
-      </c>
-      <c r="K39" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>323</v>
-      </c>
-      <c r="B40" s="3">
-        <v>3321</v>
+        <v>32</v>
+      </c>
+      <c r="B40">
+        <v>41881</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Government involvement in network sectors</v>
+        <v xml:space="preserve">Engaged society </v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>324</v>
+        <v>33</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>323</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>42</v>
-      </c>
-      <c r="H40" t="s">
-        <v>41</v>
-      </c>
-      <c r="I40" s="1" t="s">
-        <v>18</v>
+        <v>375</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I40" t="s">
+        <v>31</v>
       </c>
       <c r="J40" t="s">
-        <v>322</v>
-      </c>
-      <c r="K40" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>183</v>
+        <v>269</v>
       </c>
       <c r="B41" s="3">
-        <v>43034</v>
+        <v>28749</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Hiring and firing practices, 1-7 (best)</v>
+        <v>Environmental policy</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>184</v>
+        <v>270</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>182</v>
+        <v>44</v>
       </c>
       <c r="G41" t="s">
-        <v>153</v>
-      </c>
-      <c r="H41" t="s">
-        <v>152</v>
-      </c>
-      <c r="I41" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>268</v>
       </c>
       <c r="J41" t="s">
-        <v>181</v>
-      </c>
-      <c r="K41" t="s">
-        <v>16</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="B42">
-        <v>42084</v>
+        <v>192</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41882</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Rigorous and impartial public administration </v>
+        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>56</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>55</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>48</v>
-      </c>
-      <c r="H42" t="s">
-        <v>47</v>
-      </c>
-      <c r="I42" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I42" t="s">
+        <v>31</v>
       </c>
       <c r="J42" t="s">
-        <v>54</v>
-      </c>
-      <c r="K42" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>348</v>
+        <v>190</v>
       </c>
       <c r="B43" s="3">
-        <v>668</v>
+        <v>41883</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Irregular payments and bribes</v>
+        <v xml:space="preserve">Executive constraints </v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>349</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>348</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>18</v>
+        <v>374</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I43" t="s">
+        <v>189</v>
       </c>
       <c r="J43" t="s">
-        <v>347</v>
-      </c>
-      <c r="K43" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>130</v>
+        <v>101</v>
       </c>
       <c r="B44">
-        <v>41951</v>
+        <v>3307</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Judicial accountability </v>
+        <v>Explicit barriers to trade and investment</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="G44" t="s">
-        <v>126</v>
-      </c>
-      <c r="H44" t="s">
-        <v>125</v>
-      </c>
-      <c r="I44" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I44" t="s">
+        <v>100</v>
       </c>
       <c r="J44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B45" s="3">
-        <v>3370</v>
+        <v>520</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Judicial independence, 1-7 (best)</v>
+        <v>Extent of market dominance</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>315</v>
+        <v>334</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>313</v>
+        <v>89</v>
       </c>
       <c r="G45" t="s">
-        <v>126</v>
-      </c>
-      <c r="H45" t="s">
-        <v>125</v>
-      </c>
-      <c r="I45" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I45" t="s">
+        <v>332</v>
       </c>
       <c r="J45" t="s">
-        <v>312</v>
-      </c>
-      <c r="K45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="B46" s="3">
-        <v>41162</v>
+        <v>41216</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Legislative scrutiny of budgets</v>
+        <v>External audit</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>231</v>
+        <v>3</v>
       </c>
       <c r="G46" t="s">
-        <v>66</v>
-      </c>
-      <c r="H46" t="s">
-        <v>65</v>
-      </c>
-      <c r="I46" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I46" t="s">
+        <v>207</v>
+      </c>
+      <c r="J46" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>18</v>
       </c>
-      <c r="J46" t="s">
-        <v>230</v>
-      </c>
-      <c r="K46" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>97</v>
-      </c>
       <c r="B47">
-        <v>3308</v>
+        <v>40951</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Other barriers to trade and investment</v>
+        <v>Favoritism in decisions of government officials, 1-7 (best)</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
-      </c>
-      <c r="H47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I47" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I47" t="s">
+        <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>94</v>
-      </c>
-      <c r="K47" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
       <c r="B48" s="3">
-        <v>40991</v>
+        <v>41149</v>
       </c>
       <c r="C48" t="str">
         <f>VLOOKUP(B48,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Party Financing</v>
+        <v>Fiscal strategy</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>254</v>
+        <v>44</v>
       </c>
       <c r="G48" t="s">
-        <v>66</v>
-      </c>
-      <c r="H48" t="s">
-        <v>65</v>
-      </c>
-      <c r="I48" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I48" t="s">
+        <v>219</v>
       </c>
       <c r="J48" t="s">
-        <v>253</v>
-      </c>
-      <c r="K48" t="s">
-        <v>252</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="B49" s="3">
-        <v>227</v>
+        <v>3285</v>
       </c>
       <c r="C49" t="str">
         <f>VLOOKUP(B49,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
+        <v>Foreign Currency Regulations</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>379</v>
+        <v>315</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
-      </c>
-      <c r="G49" t="s">
-        <v>175</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I49" s="1" t="s">
-        <v>18</v>
+        <v>163</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
       </c>
       <c r="J49" t="s">
-        <v>376</v>
-      </c>
-      <c r="K49" t="s">
-        <v>123</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>364</v>
-      </c>
-      <c r="B50" s="3">
-        <v>308</v>
+        <v>29</v>
+      </c>
+      <c r="B50">
+        <v>41918</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
+        <v xml:space="preserve">Freedom of academic and cultural expression </v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>363</v>
+        <v>30</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>362</v>
+        <v>24</v>
       </c>
       <c r="G50" t="s">
+        <v>375</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I50" t="s">
+        <v>28</v>
+      </c>
+      <c r="J50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="3"/>
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F51" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" t="s">
+        <v>372</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I51" t="s">
+        <v>97</v>
+      </c>
+      <c r="J51" t="s">
         <v>96</v>
       </c>
-      <c r="H50" t="s">
-        <v>95</v>
-      </c>
-      <c r="I50" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J50" t="s">
-        <v>361</v>
-      </c>
-      <c r="K50" t="s">
-        <v>123</v>
-      </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>370</v>
-      </c>
-      <c r="B51" s="3">
-        <v>289</v>
-      </c>
-      <c r="C51" t="str">
-        <f>VLOOKUP(B51,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
-      </c>
-      <c r="D51" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F51" t="s">
-        <v>370</v>
-      </c>
-      <c r="G51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51" t="s">
-        <v>3</v>
-      </c>
-      <c r="I51" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J51" t="s">
-        <v>369</v>
-      </c>
-      <c r="K51" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="B52" s="3">
-        <v>320</v>
+        <v>27900</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
+        <v>Freedom of opinion and expression is effectively guaranteed</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>359</v>
+        <v>283</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>358</v>
+        <v>24</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
-      </c>
-      <c r="H52" t="s">
-        <v>95</v>
-      </c>
-      <c r="I52" s="1" t="s">
-        <v>18</v>
+        <v>375</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I52" t="s">
+        <v>281</v>
       </c>
       <c r="J52" t="s">
-        <v>357</v>
-      </c>
-      <c r="K52" t="s">
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>374</v>
-      </c>
-      <c r="B53" s="3">
-        <v>268</v>
-      </c>
-      <c r="C53" t="str">
-        <f>VLOOKUP(B53,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
+        <v>173</v>
+      </c>
+      <c r="B53" s="3"/>
+      <c r="C53" t="s">
+        <v>173</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>375</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>6</v>
+        <v>174</v>
+      </c>
+      <c r="E53" t="s">
+        <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>373</v>
+        <v>163</v>
       </c>
       <c r="G53" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" t="s">
-        <v>152</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>18</v>
+        <v>376</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I53" t="s">
+        <v>172</v>
       </c>
       <c r="J53" t="s">
-        <v>372</v>
-      </c>
-      <c r="K53" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>368</v>
+        <v>279</v>
       </c>
       <c r="B54" s="3">
-        <v>307</v>
+        <v>27904</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
+        <v>Fundamental labor rights are effectively guaranteed</v>
       </c>
       <c r="D54" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54" t="s">
+        <v>143</v>
+      </c>
+      <c r="G54" t="s">
+        <v>377</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I54" t="s">
+        <v>278</v>
+      </c>
+      <c r="J54" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" t="s">
+        <v>83</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F55" t="s">
+        <v>60</v>
+      </c>
+      <c r="G55" t="s">
+        <v>374</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I55" t="s">
+        <v>82</v>
+      </c>
+      <c r="J55" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>370</v>
+      </c>
+      <c r="B56">
+        <v>946</v>
+      </c>
+      <c r="C56" t="s">
+        <v>364</v>
+      </c>
+      <c r="D56" t="s">
+        <v>365</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56" t="s">
         <v>367</v>
       </c>
-      <c r="E54" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="G56" t="s">
         <v>366</v>
       </c>
-      <c r="G54" t="s">
-        <v>48</v>
-      </c>
-      <c r="H54" t="s">
-        <v>47</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J54" t="s">
-        <v>365</v>
-      </c>
-      <c r="K54" t="s">
-        <v>123</v>
+      <c r="H56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I56" t="s">
+        <v>369</v>
+      </c>
+      <c r="J56" t="s">
+        <v>368</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>124</v>
-      </c>
-      <c r="B55" s="3">
-        <v>290</v>
-      </c>
-      <c r="C55" t="str">
-        <f>VLOOKUP(B55,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
-      </c>
-      <c r="D55" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" t="s">
-        <v>127</v>
-      </c>
-      <c r="G55" t="s">
-        <v>126</v>
-      </c>
-      <c r="H55" t="s">
-        <v>125</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J55" t="s">
-        <v>124</v>
-      </c>
-      <c r="K55" t="s">
-        <v>123</v>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>388</v>
+      </c>
+      <c r="B57" s="3">
+        <v>32627</v>
+      </c>
+      <c r="C57" t="str">
+        <f>VLOOKUP(B57,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>To what extent do you think that corruption is a problem in the public sector in this country? (%)</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57" t="s">
+        <v>3</v>
+      </c>
+      <c r="G57" t="s">
+        <v>379</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I57" t="s">
+        <v>257</v>
+      </c>
+      <c r="J57" t="s">
+        <v>256</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>258</v>
-      </c>
-      <c r="B56" s="3">
-        <v>40986</v>
-      </c>
-      <c r="C56" t="str">
-        <f>VLOOKUP(B56,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Political Rights</v>
-      </c>
-      <c r="D56" s="3" t="s">
-        <v>259</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" t="s">
-        <v>258</v>
-      </c>
-      <c r="G56" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" t="s">
-        <v>65</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J56" t="s">
-        <v>257</v>
-      </c>
-      <c r="K56" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57">
-        <v>27470</v>
-      </c>
-      <c r="C57" t="s">
-        <v>393</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F57" t="s">
-        <v>77</v>
-      </c>
-      <c r="G57" t="s">
-        <v>66</v>
-      </c>
-      <c r="H57" t="s">
-        <v>65</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J57" t="s">
-        <v>76</v>
-      </c>
-      <c r="K57" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>70</v>
-      </c>
-      <c r="B58">
-        <v>42025</v>
+        <v>299</v>
+      </c>
+      <c r="B58" s="3">
+        <v>3326</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by social group </v>
+        <v>Governance of state-owned enterprises</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>71</v>
+        <v>300</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>70</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="1" t="s">
-        <v>18</v>
+        <v>378</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I58" t="s">
+        <v>43</v>
       </c>
       <c r="J58" t="s">
-        <v>69</v>
-      </c>
-      <c r="K58" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>67</v>
-      </c>
-      <c r="B59">
-        <v>42026</v>
+        <v>302</v>
+      </c>
+      <c r="B59" s="3">
+        <v>3321</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by socio-economic position </v>
+        <v>Government involvement in network sectors</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>68</v>
+        <v>303</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>67</v>
+        <v>39</v>
       </c>
       <c r="G59" t="s">
-        <v>66</v>
-      </c>
-      <c r="H59" t="s">
-        <v>65</v>
-      </c>
-      <c r="I59" s="1" t="s">
-        <v>18</v>
+        <v>378</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I59" t="s">
+        <v>301</v>
       </c>
       <c r="J59" t="s">
-        <v>64</v>
-      </c>
-      <c r="K59" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>329</v>
-      </c>
-      <c r="B60" s="3">
-        <v>3311</v>
-      </c>
-      <c r="C60" t="str">
-        <f>VLOOKUP(B60,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Price controls</v>
+        <v>13</v>
+      </c>
+      <c r="B60" s="3"/>
+      <c r="C60" t="s">
+        <v>13</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>330</v>
+        <v>14</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>329</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>42</v>
-      </c>
-      <c r="H60" t="s">
-        <v>41</v>
-      </c>
-      <c r="I60" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="I60" t="s">
+        <v>12</v>
       </c>
       <c r="J60" t="s">
-        <v>328</v>
-      </c>
-      <c r="K60" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>225</v>
+        <v>170</v>
       </c>
       <c r="B61" s="3">
-        <v>41189</v>
+        <v>43034</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Procurement</v>
+        <v>Hiring and firing practices, 1-7 (best)</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>226</v>
+        <v>171</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
-        <v>48</v>
-      </c>
-      <c r="H61" t="s">
-        <v>47</v>
-      </c>
-      <c r="I61" s="1" t="s">
-        <v>18</v>
+        <v>377</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I61" t="s">
+        <v>169</v>
       </c>
       <c r="J61" t="s">
-        <v>224</v>
-      </c>
-      <c r="K61" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>144</v>
-      </c>
-      <c r="B62" s="3">
-        <v>44123</v>
+        <v>389</v>
+      </c>
+      <c r="B62">
+        <v>42084</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Property Rights</v>
+        <v xml:space="preserve">Rigorous and impartial public administration </v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>145</v>
+        <v>51</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>96</v>
-      </c>
-      <c r="H62" t="s">
-        <v>95</v>
-      </c>
-      <c r="I62" s="1" t="s">
-        <v>18</v>
+        <v>371</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I62" t="s">
+        <v>50</v>
       </c>
       <c r="J62" t="s">
-        <v>143</v>
-      </c>
-      <c r="K62" t="s">
-        <v>142</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>265</v>
-      </c>
-      <c r="B63" s="3">
-        <v>40954</v>
-      </c>
-      <c r="C63" t="str">
-        <f>VLOOKUP(B63,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Protection of minority shareholders interests, 1-7 (best)</v>
+        <v>129</v>
+      </c>
+      <c r="B63" s="3"/>
+      <c r="C63" t="s">
+        <v>129</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>266</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>264</v>
+        <v>118</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
-      </c>
-      <c r="H63" t="s">
-        <v>95</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I63" t="s">
+        <v>128</v>
       </c>
       <c r="J63" t="s">
-        <v>263</v>
-      </c>
-      <c r="K63" t="s">
-        <v>16</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>247</v>
+        <v>326</v>
       </c>
       <c r="B64" s="3">
-        <v>41127</v>
+        <v>668</v>
       </c>
       <c r="C64" t="str">
         <f>VLOOKUP(B64,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public access to information</v>
+        <v>Irregular payments and bribes</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>248</v>
+        <v>327</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>247</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>4</v>
-      </c>
-      <c r="H64" t="s">
-        <v>3</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>18</v>
+        <v>379</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I64" t="s">
+        <v>325</v>
       </c>
       <c r="J64" t="s">
-        <v>246</v>
-      </c>
-      <c r="K64" t="s">
-        <v>220</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="3">
-        <v>41137</v>
+        <v>122</v>
+      </c>
+      <c r="B65">
+        <v>41951</v>
       </c>
       <c r="C65" t="str">
         <f>VLOOKUP(B65,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public asset management</v>
+        <v xml:space="preserve">Judicial accountability </v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>241</v>
+        <v>123</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>240</v>
+        <v>118</v>
       </c>
       <c r="G65" t="s">
-        <v>48</v>
-      </c>
-      <c r="H65" t="s">
-        <v>47</v>
-      </c>
-      <c r="I65" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I65" t="s">
+        <v>121</v>
       </c>
       <c r="J65" t="s">
-        <v>239</v>
-      </c>
-      <c r="K65" t="s">
-        <v>220</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>27</v>
-      </c>
-      <c r="B66">
-        <v>41322</v>
+        <v>294</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3370</v>
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP(B66,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public trust in politicians, 1-7 (best)</v>
+        <v>Judicial independence, 1-7 (best)</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>28</v>
+        <v>295</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="G66" t="s">
-        <v>26</v>
-      </c>
-      <c r="H66" t="s">
-        <v>25</v>
-      </c>
-      <c r="I66" s="1" t="s">
-        <v>18</v>
+        <v>373</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I66" t="s">
+        <v>293</v>
       </c>
       <c r="J66" t="s">
-        <v>24</v>
-      </c>
-      <c r="K66" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
       <c r="B67" s="3">
-        <v>27885</v>
+        <v>268</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Publicized laws and government data</v>
+        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>310</v>
+        <v>143</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67" t="s">
-        <v>3</v>
-      </c>
-      <c r="I67" s="1" t="s">
-        <v>18</v>
+        <v>377</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I67" t="s">
+        <v>346</v>
       </c>
       <c r="J67" t="s">
-        <v>309</v>
-      </c>
-      <c r="K67" t="s">
-        <v>296</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>318</v>
+        <v>217</v>
       </c>
       <c r="B68" s="3">
-        <v>3328</v>
+        <v>41162</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulatory protection of incumbents</v>
+        <v>Legislative scrutiny of budgets</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>319</v>
+        <v>218</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>317</v>
+        <v>60</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
-      </c>
-      <c r="H68" t="s">
-        <v>95</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>18</v>
+        <v>374</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I68" t="s">
+        <v>216</v>
       </c>
       <c r="J68" t="s">
-        <v>316</v>
-      </c>
-      <c r="K68" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>228</v>
-      </c>
-      <c r="B69" s="3">
-        <v>41167</v>
-      </c>
-      <c r="C69" t="str">
-        <f>VLOOKUP(B69,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Revenue administration</v>
+        <v>80</v>
+      </c>
+      <c r="B69" s="3"/>
+      <c r="C69" t="s">
+        <v>80</v>
       </c>
       <c r="D69" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F69" t="s">
+        <v>60</v>
+      </c>
+      <c r="G69" t="s">
+        <v>374</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I69" t="s">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="3"/>
+      <c r="C70" t="s">
+        <v>77</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F70" t="s">
+        <v>60</v>
+      </c>
+      <c r="G70" t="s">
+        <v>374</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I70" t="s">
+        <v>76</v>
+      </c>
+      <c r="J70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>150</v>
+      </c>
+      <c r="B71" s="3"/>
+      <c r="C71" t="s">
+        <v>150</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F71" t="s">
+        <v>143</v>
+      </c>
+      <c r="G71" t="s">
+        <v>377</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I71" t="s">
+        <v>149</v>
+      </c>
+      <c r="J71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
         <v>229</v>
       </c>
-      <c r="E69" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F69" t="s">
-        <v>228</v>
-      </c>
-      <c r="G69" t="s">
-        <v>48</v>
-      </c>
-      <c r="H69" t="s">
-        <v>47</v>
-      </c>
-      <c r="I69" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J69" t="s">
-        <v>227</v>
-      </c>
-      <c r="K69" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>307</v>
-      </c>
-      <c r="B70" s="3">
-        <v>27889</v>
-      </c>
-      <c r="C70" t="str">
-        <f>VLOOKUP(B70,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Right to information</v>
-      </c>
-      <c r="D70" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" t="s">
-        <v>307</v>
-      </c>
-      <c r="G70" t="s">
-        <v>4</v>
-      </c>
-      <c r="H70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I70" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J70" t="s">
-        <v>306</v>
-      </c>
-      <c r="K70" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>332</v>
-      </c>
-      <c r="B71" s="3">
-        <v>3309</v>
-      </c>
-      <c r="C71" t="str">
-        <f>VLOOKUP(B71,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Scope of state-owned enterprises</v>
-      </c>
-      <c r="D71" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" t="s">
-        <v>332</v>
-      </c>
-      <c r="G71" t="s">
-        <v>42</v>
-      </c>
-      <c r="H71" t="s">
-        <v>41</v>
-      </c>
-      <c r="I71" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J71" t="s">
-        <v>331</v>
-      </c>
-      <c r="K71" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>285</v>
-      </c>
       <c r="B72" s="3">
-        <v>28775</v>
+        <v>41129</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Separation of powers</v>
+        <v>(i) Monitoring of public corporations</v>
       </c>
       <c r="D72" t="s">
-        <v>286</v>
+        <v>230</v>
       </c>
       <c r="E72" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F72" t="s">
+        <v>44</v>
+      </c>
+      <c r="G72" t="s">
+        <v>371</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I72" t="s">
+        <v>228</v>
+      </c>
+      <c r="J72" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>94</v>
+      </c>
+      <c r="B73" s="3"/>
+      <c r="C73" t="s">
+        <v>94</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F73" t="s">
+        <v>89</v>
+      </c>
+      <c r="G73" t="s">
+        <v>372</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I73" t="s">
+        <v>93</v>
+      </c>
+      <c r="J73" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>9</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" t="s">
+        <v>9</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F74" t="s">
+        <v>3</v>
+      </c>
+      <c r="G74" t="s">
+        <v>379</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I74" t="s">
+        <v>8</v>
+      </c>
+      <c r="J74" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>4</v>
+      </c>
+      <c r="B75" s="3"/>
+      <c r="C75" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F72" t="s">
-        <v>285</v>
-      </c>
-      <c r="G72" t="s">
-        <v>66</v>
-      </c>
-      <c r="H72" t="s">
-        <v>65</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J72" t="s">
-        <v>284</v>
-      </c>
-      <c r="K72" t="s">
-        <v>277</v>
+      <c r="E75" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F75" t="s">
+        <v>3</v>
+      </c>
+      <c r="G75" t="s">
+        <v>379</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I75" t="s">
+        <v>1</v>
+      </c>
+      <c r="J75" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A73" t="s">
-        <v>268</v>
-      </c>
-      <c r="B73" s="3">
-        <v>40837</v>
-      </c>
-      <c r="C73" t="str">
-        <f>VLOOKUP(B73,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficiency of legal framework in settling disputes, 1-7 (best)</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F73" t="s">
-        <v>268</v>
-      </c>
-      <c r="G73" t="s">
-        <v>126</v>
-      </c>
-      <c r="H73" t="s">
-        <v>125</v>
-      </c>
-      <c r="I73" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J73" t="s">
-        <v>267</v>
-      </c>
-      <c r="K73" t="s">
-        <v>16</v>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>74</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" t="s">
+        <v>74</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F76" t="s">
+        <v>60</v>
+      </c>
+      <c r="G76" t="s">
+        <v>374</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>73</v>
+      </c>
+      <c r="J76" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
-        <v>282</v>
-      </c>
-      <c r="B74" s="3">
-        <v>28780</v>
-      </c>
-      <c r="C74" t="str">
-        <f>VLOOKUP(B74,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>State identity</v>
-      </c>
-      <c r="D74" t="s">
-        <v>283</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F74" t="s">
-        <v>282</v>
-      </c>
-      <c r="G74" t="s">
-        <v>26</v>
-      </c>
-      <c r="H74" t="s">
-        <v>25</v>
-      </c>
-      <c r="I74" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J74" t="s">
-        <v>281</v>
-      </c>
-      <c r="K74" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A75" t="s">
-        <v>279</v>
-      </c>
-      <c r="B75" s="3">
-        <v>28782</v>
-      </c>
-      <c r="C75" t="str">
-        <f>VLOOKUP(B75,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Steering Capability</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" t="s">
-        <v>279</v>
-      </c>
-      <c r="G75" t="s">
-        <v>48</v>
-      </c>
-      <c r="H75" t="s">
-        <v>47</v>
-      </c>
-      <c r="I75" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J75" t="s">
-        <v>278</v>
-      </c>
-      <c r="K75" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
-        <v>275</v>
-      </c>
-      <c r="B76" s="3">
-        <v>32627</v>
-      </c>
-      <c r="C76" t="str">
-        <f>VLOOKUP(B76,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>To what extent do you think that corruption is a problem in the public sector in this country? (%)</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" t="s">
-        <v>273</v>
-      </c>
-      <c r="G76" t="s">
-        <v>4</v>
-      </c>
-      <c r="H76" t="s">
-        <v>3</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="J76" t="s">
-        <v>274</v>
-      </c>
-      <c r="K76" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>345</v>
-      </c>
-      <c r="B77" s="3">
-        <v>688</v>
+        <v>90</v>
+      </c>
+      <c r="B77">
+        <v>3308</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(B77,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Transparency of government policymaking</v>
+        <v>Other barriers to trade and investment</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>346</v>
+        <v>91</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>345</v>
+        <v>89</v>
       </c>
       <c r="G77" t="s">
-        <v>4</v>
-      </c>
-      <c r="H77" t="s">
-        <v>3</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>18</v>
+        <v>372</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I77" t="s">
+        <v>88</v>
       </c>
       <c r="J77" t="s">
-        <v>344</v>
-      </c>
-      <c r="K77" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>43</v>
-      </c>
-      <c r="B78">
-        <v>3310</v>
+        <v>238</v>
+      </c>
+      <c r="B78" s="3">
+        <v>40991</v>
       </c>
       <c r="C78" t="str">
         <f>VLOOKUP(B78,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Use of command and control regulation</v>
+        <v>Party Financing</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>44</v>
+        <v>239</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="G78" t="s">
-        <v>42</v>
-      </c>
-      <c r="H78" t="s">
-        <v>41</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>18</v>
+        <v>374</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I78" t="s">
+        <v>237</v>
       </c>
       <c r="J78" t="s">
-        <v>40</v>
-      </c>
-      <c r="K78" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" t="s">
-        <v>118</v>
+        <v>384</v>
+      </c>
+      <c r="B79" s="3">
+        <v>289</v>
+      </c>
+      <c r="C79" t="str">
+        <f>VLOOKUP(B79,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>119</v>
+        <v>345</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
-      </c>
-      <c r="H79" t="s">
-        <v>95</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>2</v>
+        <v>379</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I79" t="s">
+        <v>344</v>
       </c>
       <c r="J79" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>200</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" t="s">
-        <v>200</v>
+        <v>242</v>
+      </c>
+      <c r="B80" s="3">
+        <v>40986</v>
+      </c>
+      <c r="C80" t="str">
+        <f>VLOOKUP(B80,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Political Rights</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="E80" t="s">
-        <v>6</v>
+        <v>243</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="G80" t="s">
-        <v>175</v>
-      </c>
-      <c r="H80" t="s">
-        <v>174</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>2</v>
+        <v>374</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I80" t="s">
+        <v>241</v>
       </c>
       <c r="J80" t="s">
-        <v>199</v>
-      </c>
-      <c r="K80" t="s">
-        <v>198</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>196</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>71</v>
+      </c>
+      <c r="B81">
+        <v>27470</v>
+      </c>
       <c r="C81" t="s">
-        <v>196</v>
+        <v>363</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>197</v>
-      </c>
-      <c r="E81" t="s">
-        <v>6</v>
+        <v>72</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>196</v>
+        <v>60</v>
       </c>
       <c r="G81" t="s">
-        <v>175</v>
-      </c>
-      <c r="H81" t="s">
-        <v>174</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>2</v>
+        <v>374</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I81" t="s">
+        <v>70</v>
       </c>
       <c r="J81" t="s">
-        <v>195</v>
-      </c>
-      <c r="K81" t="s">
-        <v>194</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
+        <v>67</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F82" t="s">
+        <v>60</v>
+      </c>
+      <c r="G82" t="s">
+        <v>374</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>66</v>
+      </c>
+      <c r="J82" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>64</v>
+      </c>
+      <c r="B83">
+        <v>42025</v>
+      </c>
+      <c r="C83" t="str">
+        <f>VLOOKUP(B83,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Power distributed by social group </v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F83" t="s">
+        <v>60</v>
+      </c>
+      <c r="G83" t="s">
+        <v>374</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I83" t="s">
+        <v>63</v>
+      </c>
+      <c r="J83" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>61</v>
+      </c>
+      <c r="B84">
+        <v>42026</v>
+      </c>
+      <c r="C84" t="str">
+        <f>VLOOKUP(B84,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Power distributed by socio-economic position </v>
+      </c>
+      <c r="D84" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F82" t="s">
-        <v>62</v>
-      </c>
-      <c r="G82" t="s">
+      <c r="E84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F84" t="s">
+        <v>60</v>
+      </c>
+      <c r="G84" t="s">
+        <v>374</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I84" t="s">
+        <v>59</v>
+      </c>
+      <c r="J84" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>308</v>
+      </c>
+      <c r="B85" s="3">
+        <v>3311</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(B85,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Price controls</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F85" t="s">
+        <v>39</v>
+      </c>
+      <c r="G85" t="s">
+        <v>378</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I85" t="s">
+        <v>307</v>
+      </c>
+      <c r="J85" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="3">
+        <v>41189</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(B86,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Procurement</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F86" t="s">
+        <v>44</v>
+      </c>
+      <c r="G86" t="s">
+        <v>371</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I86" t="s">
+        <v>210</v>
+      </c>
+      <c r="J86" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>136</v>
+      </c>
+      <c r="B87" s="3">
+        <v>44123</v>
+      </c>
+      <c r="C87" t="str">
+        <f>VLOOKUP(B87,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Property Rights</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F87" t="s">
+        <v>89</v>
+      </c>
+      <c r="G87" t="s">
+        <v>372</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I87" t="s">
+        <v>135</v>
+      </c>
+      <c r="J87" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>297</v>
+      </c>
+      <c r="B88" s="3">
+        <v>3328</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(B88,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Regulatory protection of incumbents</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F88" t="s">
+        <v>89</v>
+      </c>
+      <c r="G88" t="s">
+        <v>372</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I88" t="s">
+        <v>296</v>
+      </c>
+      <c r="J88" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>248</v>
+      </c>
+      <c r="B89" s="3">
+        <v>40954</v>
+      </c>
+      <c r="C89" t="str">
+        <f>VLOOKUP(B89,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Protection of minority shareholders interests, 1-7 (best)</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E89" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F89" t="s">
+        <v>89</v>
+      </c>
+      <c r="G89" t="s">
+        <v>372</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I89" t="s">
+        <v>247</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="3">
+        <v>41127</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(B90,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Public access to information</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="E90" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F90" t="s">
+        <v>3</v>
+      </c>
+      <c r="G90" t="s">
+        <v>379</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I90" t="s">
+        <v>231</v>
+      </c>
+      <c r="J90" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>226</v>
+      </c>
+      <c r="B91" s="3">
+        <v>41137</v>
+      </c>
+      <c r="C91" t="str">
+        <f>VLOOKUP(B91,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Public asset management</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F91" t="s">
+        <v>44</v>
+      </c>
+      <c r="G91" t="s">
+        <v>371</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I91" t="s">
+        <v>225</v>
+      </c>
+      <c r="J91" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>25</v>
+      </c>
+      <c r="B92">
+        <v>41322</v>
+      </c>
+      <c r="C92" t="str">
+        <f>VLOOKUP(B92,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Public trust in politicians, 1-7 (best)</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F92" t="s">
+        <v>24</v>
+      </c>
+      <c r="G92" t="s">
+        <v>375</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I92" t="s">
+        <v>23</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>291</v>
+      </c>
+      <c r="B93" s="3">
+        <v>27885</v>
+      </c>
+      <c r="C93" t="str">
+        <f>VLOOKUP(B93,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Publicized laws and government data</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F93" t="s">
+        <v>3</v>
+      </c>
+      <c r="G93" t="s">
+        <v>379</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I93" t="s">
+        <v>290</v>
+      </c>
+      <c r="J93" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>48</v>
-      </c>
-      <c r="H82" t="s">
-        <v>47</v>
-      </c>
-      <c r="I82" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J82" t="s">
-        <v>61</v>
-      </c>
-      <c r="K82" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>170</v>
-      </c>
-      <c r="B83" s="3"/>
-      <c r="C83" t="s">
-        <v>170</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F83" t="s">
-        <v>170</v>
-      </c>
-      <c r="G83" t="s">
-        <v>153</v>
-      </c>
-      <c r="H83" t="s">
-        <v>152</v>
-      </c>
-      <c r="I83" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J83" t="s">
-        <v>169</v>
-      </c>
-      <c r="K83" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>192</v>
-      </c>
-      <c r="B84" s="3"/>
-      <c r="C84" t="s">
-        <v>192</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E84" t="s">
-        <v>6</v>
-      </c>
-      <c r="F84" t="s">
-        <v>192</v>
-      </c>
-      <c r="G84" t="s">
-        <v>175</v>
-      </c>
-      <c r="H84" t="s">
-        <v>174</v>
-      </c>
-      <c r="I84" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J84" t="s">
-        <v>191</v>
-      </c>
-      <c r="K84" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>92</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" t="s">
-        <v>92</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="E85" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" t="s">
-        <v>92</v>
-      </c>
-      <c r="G85" t="s">
-        <v>66</v>
-      </c>
-      <c r="H85" t="s">
-        <v>65</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J85" t="s">
-        <v>91</v>
-      </c>
-      <c r="K85" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
-        <v>189</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" t="s">
-        <v>189</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>190</v>
-      </c>
-      <c r="E86" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" t="s">
-        <v>189</v>
-      </c>
-      <c r="G86" t="s">
-        <v>175</v>
-      </c>
-      <c r="H86" t="s">
-        <v>174</v>
-      </c>
-      <c r="I86" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J86" t="s">
-        <v>188</v>
-      </c>
-      <c r="K86" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>58</v>
-      </c>
-      <c r="B87" s="3"/>
-      <c r="C87" t="s">
-        <v>58</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F87" t="s">
-        <v>58</v>
-      </c>
-      <c r="G87" t="s">
-        <v>48</v>
-      </c>
-      <c r="H87" t="s">
-        <v>47</v>
-      </c>
-      <c r="I87" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J87" t="s">
-        <v>57</v>
-      </c>
-      <c r="K87" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
-        <v>112</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" t="s">
-        <v>112</v>
-      </c>
-      <c r="D88" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F88" t="s">
-        <v>112</v>
-      </c>
-      <c r="G88" t="s">
-        <v>96</v>
-      </c>
-      <c r="H88" t="s">
-        <v>95</v>
-      </c>
-      <c r="I88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J88" t="s">
-        <v>111</v>
-      </c>
-      <c r="K88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A89" t="s">
-        <v>167</v>
-      </c>
-      <c r="B89" s="3"/>
-      <c r="C89" t="s">
-        <v>167</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E89" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F89" t="s">
-        <v>167</v>
-      </c>
-      <c r="G89" t="s">
-        <v>153</v>
-      </c>
-      <c r="H89" t="s">
-        <v>152</v>
-      </c>
-      <c r="I89" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J89" t="s">
-        <v>166</v>
-      </c>
-      <c r="K89" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A90" t="s">
-        <v>164</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" t="s">
-        <v>164</v>
-      </c>
-      <c r="D90" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" t="s">
-        <v>164</v>
-      </c>
-      <c r="G90" t="s">
-        <v>153</v>
-      </c>
-      <c r="H90" t="s">
-        <v>152</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J90" t="s">
-        <v>163</v>
-      </c>
-      <c r="K90" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>105</v>
-      </c>
-      <c r="B91" s="3"/>
-      <c r="C91" t="s">
-        <v>105</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E91" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" t="s">
-        <v>105</v>
-      </c>
-      <c r="G91" t="s">
-        <v>96</v>
-      </c>
-      <c r="H91" t="s">
-        <v>95</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J91" t="s">
-        <v>104</v>
-      </c>
-      <c r="K91" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>186</v>
-      </c>
-      <c r="B92" s="3"/>
-      <c r="C92" t="s">
-        <v>186</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>187</v>
-      </c>
-      <c r="E92" t="s">
-        <v>6</v>
-      </c>
-      <c r="F92" t="s">
-        <v>186</v>
-      </c>
-      <c r="G92" t="s">
-        <v>175</v>
-      </c>
-      <c r="H92" t="s">
-        <v>174</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J92" t="s">
-        <v>185</v>
-      </c>
-      <c r="K92" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>89</v>
-      </c>
-      <c r="B93" s="3"/>
-      <c r="C93" t="s">
-        <v>89</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F93" t="s">
-        <v>89</v>
-      </c>
-      <c r="G93" t="s">
-        <v>66</v>
-      </c>
-      <c r="H93" t="s">
-        <v>65</v>
-      </c>
-      <c r="I93" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J93" t="s">
-        <v>88</v>
-      </c>
-      <c r="K93" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>14</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" t="s">
-        <v>14</v>
+        <v>48</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>15</v>
+        <v>49</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>14</v>
+        <v>44</v>
       </c>
       <c r="G94" t="s">
-        <v>4</v>
-      </c>
-      <c r="H94" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="1" t="s">
-        <v>392</v>
+        <v>371</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>47</v>
       </c>
       <c r="J94" t="s">
-        <v>13</v>
-      </c>
-      <c r="K94" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>137</v>
+        <v>45</v>
       </c>
       <c r="D95" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F95" t="s">
+        <v>44</v>
+      </c>
+      <c r="G95" t="s">
+        <v>371</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I95" t="s">
+        <v>43</v>
+      </c>
+      <c r="J95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>139</v>
+      </c>
+      <c r="B96" s="3">
+        <v>43075</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(B96,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>GCI 4.0: Renewable energy regulation</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F96" t="s">
+        <v>44</v>
+      </c>
+      <c r="G96" t="s">
+        <v>371</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I96" t="s">
         <v>138</v>
       </c>
-      <c r="E95" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" t="s">
-        <v>137</v>
-      </c>
-      <c r="G95" t="s">
-        <v>126</v>
-      </c>
-      <c r="H95" t="s">
-        <v>125</v>
-      </c>
-      <c r="I95" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J95" t="s">
-        <v>136</v>
-      </c>
-      <c r="K95" t="s">
-        <v>135</v>
+      <c r="J96" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>86</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" t="s">
-        <v>86</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" t="s">
-        <v>86</v>
-      </c>
-      <c r="G96" t="s">
-        <v>66</v>
-      </c>
-      <c r="H96" t="s">
-        <v>65</v>
-      </c>
-      <c r="I96" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J96" t="s">
-        <v>85</v>
-      </c>
-      <c r="K96" t="s">
-        <v>29</v>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>214</v>
+      </c>
+      <c r="B97" s="3">
+        <v>41167</v>
+      </c>
+      <c r="C97" t="str">
+        <f>VLOOKUP(B97,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Revenue administration</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F97" t="s">
+        <v>44</v>
+      </c>
+      <c r="G97" t="s">
+        <v>371</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I97" t="s">
+        <v>213</v>
+      </c>
+      <c r="J97" t="s">
+        <v>206</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" s="3"/>
-      <c r="C97" t="s">
-        <v>83</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F97" t="s">
-        <v>83</v>
-      </c>
-      <c r="G97" t="s">
-        <v>66</v>
-      </c>
-      <c r="H97" t="s">
-        <v>65</v>
-      </c>
-      <c r="I97" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J97" t="s">
-        <v>82</v>
-      </c>
-      <c r="K97" t="s">
-        <v>29</v>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>288</v>
+      </c>
+      <c r="B98" s="3">
+        <v>27889</v>
+      </c>
+      <c r="C98" t="str">
+        <f>VLOOKUP(B98,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Right to information</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F98" t="s">
+        <v>3</v>
+      </c>
+      <c r="G98" t="s">
+        <v>379</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I98" t="s">
+        <v>287</v>
+      </c>
+      <c r="J98" t="s">
+        <v>277</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>161</v>
-      </c>
-      <c r="B98" s="3"/>
-      <c r="C98" t="s">
-        <v>161</v>
-      </c>
-      <c r="D98" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F98" t="s">
-        <v>161</v>
-      </c>
-      <c r="G98" t="s">
-        <v>153</v>
-      </c>
-      <c r="H98" t="s">
-        <v>152</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>160</v>
-      </c>
-      <c r="K98" t="s">
-        <v>150</v>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" s="3">
+        <v>3309</v>
+      </c>
+      <c r="C99" t="str">
+        <f>VLOOKUP(B99,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Scope of state-owned enterprises</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F99" t="s">
+        <v>39</v>
+      </c>
+      <c r="G99" t="s">
+        <v>378</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I99" t="s">
+        <v>310</v>
+      </c>
+      <c r="J99" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99" s="3"/>
-      <c r="C99" t="s">
-        <v>101</v>
-      </c>
-      <c r="D99" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F99" t="s">
-        <v>101</v>
-      </c>
-      <c r="G99" t="s">
-        <v>96</v>
-      </c>
-      <c r="H99" t="s">
-        <v>95</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" t="s">
-        <v>100</v>
-      </c>
-      <c r="K99" t="s">
-        <v>99</v>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>266</v>
+      </c>
+      <c r="B100" s="3">
+        <v>28775</v>
+      </c>
+      <c r="C100" t="str">
+        <f>VLOOKUP(B100,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Separation of powers</v>
+      </c>
+      <c r="D100" t="s">
+        <v>267</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F100" t="s">
+        <v>60</v>
+      </c>
+      <c r="G100" t="s">
+        <v>374</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I100" t="s">
+        <v>265</v>
+      </c>
+      <c r="J100" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>10</v>
-      </c>
-      <c r="B100" s="3"/>
-      <c r="C100" t="s">
-        <v>10</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" t="s">
-        <v>10</v>
-      </c>
-      <c r="G100" t="s">
-        <v>4</v>
-      </c>
-      <c r="H100" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J100" t="s">
-        <v>9</v>
-      </c>
-      <c r="K100" t="s">
-        <v>8</v>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>251</v>
+      </c>
+      <c r="B101" s="3">
+        <v>40837</v>
+      </c>
+      <c r="C101" t="str">
+        <f>VLOOKUP(B101,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Efficiency of legal framework in settling disputes, 1-7 (best)</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F101" t="s">
+        <v>118</v>
+      </c>
+      <c r="G101" t="s">
+        <v>373</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I101" t="s">
+        <v>250</v>
+      </c>
+      <c r="J101" t="s">
+        <v>15</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>263</v>
+      </c>
+      <c r="B102" s="3">
+        <v>28780</v>
+      </c>
+      <c r="C102" t="str">
+        <f>VLOOKUP(B102,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>State identity</v>
+      </c>
+      <c r="D102" t="s">
+        <v>264</v>
+      </c>
+      <c r="E102" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B101" s="3"/>
-      <c r="C101" t="s">
+      <c r="F102" t="s">
+        <v>24</v>
+      </c>
+      <c r="G102" t="s">
+        <v>375</v>
+      </c>
+      <c r="H102" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I102" t="s">
+        <v>262</v>
+      </c>
+      <c r="J102" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>385</v>
+      </c>
+      <c r="B103" s="3">
+        <v>28782</v>
+      </c>
+      <c r="C103" t="str">
+        <f>VLOOKUP(B103,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Steering Capability</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E101" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" t="s">
-        <v>5</v>
-      </c>
-      <c r="G101" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J101" t="s">
-        <v>1</v>
-      </c>
-      <c r="K101" t="s">
-        <v>0</v>
+      <c r="F103" t="s">
+        <v>44</v>
+      </c>
+      <c r="G103" t="s">
+        <v>371</v>
+      </c>
+      <c r="H103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I103" t="s">
+        <v>260</v>
+      </c>
+      <c r="J103" t="s">
+        <v>259</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>80</v>
-      </c>
-      <c r="B102" s="3"/>
-      <c r="C102" t="s">
-        <v>80</v>
-      </c>
-      <c r="D102" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F102" t="s">
-        <v>80</v>
-      </c>
-      <c r="G102" t="s">
-        <v>66</v>
-      </c>
-      <c r="H102" t="s">
-        <v>65</v>
-      </c>
-      <c r="I102" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J102" t="s">
-        <v>79</v>
-      </c>
-      <c r="K102" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>73</v>
-      </c>
-      <c r="B103" s="3"/>
-      <c r="C103" t="s">
-        <v>73</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F103" t="s">
-        <v>73</v>
-      </c>
-      <c r="G103" t="s">
-        <v>66</v>
-      </c>
-      <c r="H103" t="s">
-        <v>65</v>
-      </c>
-      <c r="I103" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>72</v>
-      </c>
-      <c r="K103" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="B104" s="3"/>
       <c r="C104" t="s">
-        <v>52</v>
+        <v>167</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>6</v>
+        <v>168</v>
+      </c>
+      <c r="E104" t="s">
+        <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>52</v>
+        <v>163</v>
       </c>
       <c r="G104" t="s">
-        <v>48</v>
-      </c>
-      <c r="H104" t="s">
-        <v>47</v>
-      </c>
-      <c r="I104" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H104" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I104" t="s">
+        <v>166</v>
+      </c>
       <c r="J104" t="s">
-        <v>51</v>
-      </c>
-      <c r="K104" t="s">
-        <v>0</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="B105" s="3"/>
       <c r="C105" t="s">
-        <v>49</v>
+        <v>164</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>6</v>
+        <v>165</v>
+      </c>
+      <c r="E105" t="s">
+        <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>49</v>
+        <v>163</v>
       </c>
       <c r="G105" t="s">
-        <v>48</v>
-      </c>
-      <c r="H105" t="s">
-        <v>47</v>
-      </c>
-      <c r="I105" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I105" t="s">
+        <v>162</v>
+      </c>
       <c r="J105" t="s">
-        <v>46</v>
-      </c>
-      <c r="K105" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>179</v>
-      </c>
-      <c r="B106" s="3"/>
-      <c r="C106" t="s">
-        <v>179</v>
+        <v>342</v>
+      </c>
+      <c r="B106" s="3">
+        <v>307</v>
+      </c>
+      <c r="C106" t="str">
+        <f>VLOOKUP(B106,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E106" t="s">
-        <v>6</v>
+        <v>343</v>
+      </c>
+      <c r="E106" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>179</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>175</v>
-      </c>
-      <c r="H106" t="s">
-        <v>174</v>
-      </c>
-      <c r="I106" s="1" t="s">
-        <v>2</v>
+        <v>371</v>
+      </c>
+      <c r="H106" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I106" t="s">
+        <v>341</v>
       </c>
       <c r="J106" t="s">
-        <v>178</v>
-      </c>
-      <c r="K106" t="s">
-        <v>172</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>176</v>
-      </c>
-      <c r="B107" s="3"/>
-      <c r="C107" t="s">
-        <v>176</v>
+        <v>323</v>
+      </c>
+      <c r="B107" s="3">
+        <v>688</v>
+      </c>
+      <c r="C107" t="str">
+        <f>VLOOKUP(B107,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Transparency of government policymaking</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E107" t="s">
-        <v>6</v>
+        <v>324</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>176</v>
+        <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>175</v>
-      </c>
-      <c r="H107" t="s">
-        <v>174</v>
-      </c>
-      <c r="I107" s="1" t="s">
-        <v>2</v>
+        <v>379</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I107" t="s">
+        <v>322</v>
       </c>
       <c r="J107" t="s">
-        <v>173</v>
-      </c>
-      <c r="K107" t="s">
-        <v>172</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="B108" s="3"/>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="G108" t="s">
-        <v>153</v>
-      </c>
-      <c r="H108" t="s">
-        <v>152</v>
-      </c>
-      <c r="I108" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="H108" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="I108" t="s">
+        <v>142</v>
+      </c>
       <c r="J108" t="s">
-        <v>151</v>
-      </c>
-      <c r="K108" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>400</v>
+        <v>40</v>
       </c>
       <c r="B109">
-        <v>946</v>
-      </c>
-      <c r="C109" t="s">
-        <v>394</v>
-      </c>
-      <c r="D109" t="s">
-        <v>395</v>
+        <v>3310</v>
+      </c>
+      <c r="C109" t="str">
+        <f>VLOOKUP(B109,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Use of command and control regulation</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>394</v>
+        <v>39</v>
       </c>
       <c r="G109" t="s">
-        <v>397</v>
-      </c>
-      <c r="H109" t="s">
-        <v>396</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>18</v>
+        <v>378</v>
+      </c>
+      <c r="H109" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="I109" t="s">
+        <v>38</v>
       </c>
       <c r="J109" t="s">
-        <v>399</v>
-      </c>
-      <c r="K109" t="s">
-        <v>398</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K108" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K108">
-      <sortCondition ref="I1:I108"/>
+  <autoFilter ref="A1:J108" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J109">
+      <sortCondition ref="A1:A108"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\institutional-assessment-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAEDDEDD-BD64-41C0-B31D-9A2D1978537B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7D885-EF47-4F86-99B2-F57D612A8C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$J$108</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$109</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="394">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -1218,6 +1218,18 @@
   <si>
     <t>Impartial public administration</t>
   </si>
+  <si>
+    <t>ifelse(e_p_polity &lt; -10, NA, e_p_polity)</t>
+  </si>
+  <si>
+    <t>8 - .x</t>
+  </si>
+  <si>
+    <t>ifelse(year == 2018, NA, 6 - .x)</t>
+  </si>
+  <si>
+    <t>processing</t>
+  </si>
 </sst>
 </file>
 
@@ -46534,10 +46546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <dimension ref="A1:J109"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I59" sqref="I59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46547,14 +46559,15 @@
     <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="27.5703125" customWidth="1"/>
-    <col min="10" max="10" width="23.5703125" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>357</v>
       </c>
@@ -46580,13 +46593,16 @@
         <v>354</v>
       </c>
       <c r="I1" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -46612,14 +46628,15 @@
       <c r="H2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>350</v>
       </c>
@@ -46645,14 +46662,15 @@
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="1"/>
+      <c r="J3" t="s">
         <v>349</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>204</v>
       </c>
@@ -46678,47 +46696,51 @@
       <c r="H4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="1"/>
+      <c r="J4" t="s">
         <v>203</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="B5" s="3">
-        <v>3305</v>
+        <v>3326</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Administrative burdens on startups</v>
+        <v>Governance of state-owned enterprises</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>115</v>
+        <v>300</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G5" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" t="s">
-        <v>113</v>
+      <c r="I5" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>380</v>
       </c>
@@ -46744,14 +46766,15 @@
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="1"/>
+      <c r="J6" t="s">
         <v>234</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>317</v>
       </c>
@@ -46777,14 +46800,15 @@
       <c r="H7" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I7" t="s">
+      <c r="I7" s="1"/>
+      <c r="J7" t="s">
         <v>316</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>381</v>
       </c>
@@ -46807,11 +46831,12 @@
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I8" t="s">
+      <c r="I8" s="1"/>
+      <c r="J8" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>201</v>
       </c>
@@ -46837,14 +46862,15 @@
       <c r="H9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="1"/>
+      <c r="J9" t="s">
         <v>200</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>339</v>
       </c>
@@ -46870,14 +46896,15 @@
       <c r="H10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I10" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" t="s">
         <v>338</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>187</v>
       </c>
@@ -46900,14 +46927,15 @@
       <c r="H11" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I11" t="s">
+      <c r="I11" s="1"/>
+      <c r="J11" t="s">
         <v>186</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>183</v>
       </c>
@@ -46930,14 +46958,15 @@
       <c r="H12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="1"/>
+      <c r="J12" t="s">
         <v>182</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>387</v>
       </c>
@@ -46960,14 +46989,15 @@
       <c r="H13" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="1"/>
+      <c r="J13" t="s">
         <v>56</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>254</v>
       </c>
@@ -46993,14 +47023,15 @@
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" t="s">
         <v>253</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>198</v>
       </c>
@@ -47026,14 +47057,15 @@
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="1"/>
+      <c r="J15" t="s">
         <v>197</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>132</v>
       </c>
@@ -47059,14 +47091,15 @@
       <c r="H16" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I16" s="1"/>
+      <c r="J16" t="s">
         <v>131</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>245</v>
       </c>
@@ -47092,14 +47125,17 @@
       <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J17" t="s">
         <v>244</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>275</v>
       </c>
@@ -47125,14 +47161,15 @@
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I18" s="4" t="s">
+      <c r="I18" s="1"/>
+      <c r="J18" s="4" t="s">
         <v>274</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>159</v>
       </c>
@@ -47155,14 +47192,15 @@
       <c r="H19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="1"/>
+      <c r="J19" t="s">
         <v>158</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>179</v>
       </c>
@@ -47185,14 +47223,15 @@
       <c r="H20" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I20" t="s">
+      <c r="I20" s="1"/>
+      <c r="J20" t="s">
         <v>178</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>285</v>
       </c>
@@ -47218,47 +47257,51 @@
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I21" t="s">
+      <c r="I21" s="1"/>
+      <c r="J21" t="s">
         <v>284</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>108</v>
+        <v>40</v>
       </c>
       <c r="B22">
-        <v>3323</v>
+        <v>3310</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complexity of regulatory procedures</v>
+        <v>Use of command and control regulation</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G22" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" t="s">
-        <v>107</v>
+      <c r="I22" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J22" t="s">
+        <v>38</v>
+      </c>
+      <c r="K22" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>382</v>
       </c>
@@ -47281,14 +47324,15 @@
       <c r="H23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I23" t="s">
+      <c r="I23" s="1"/>
+      <c r="J23" t="s">
         <v>85</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>195</v>
       </c>
@@ -47314,14 +47358,15 @@
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I24" s="1"/>
+      <c r="J24" t="s">
         <v>194</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>119</v>
       </c>
@@ -47347,14 +47392,15 @@
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I25" s="1"/>
+      <c r="J25" t="s">
         <v>117</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>176</v>
       </c>
@@ -47377,14 +47423,15 @@
       <c r="H26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I26" t="s">
+      <c r="I26" s="1"/>
+      <c r="J26" t="s">
         <v>175</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>125</v>
       </c>
@@ -47410,14 +47457,15 @@
       <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I27" t="s">
+      <c r="I27" s="1"/>
+      <c r="J27" t="s">
         <v>124</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>53</v>
       </c>
@@ -47440,14 +47488,15 @@
       <c r="H28" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I28" s="1"/>
+      <c r="J28" t="s">
         <v>52</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>35</v>
       </c>
@@ -47473,14 +47522,15 @@
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I29" s="1"/>
+      <c r="J29" t="s">
         <v>34</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>336</v>
       </c>
@@ -47506,14 +47556,15 @@
       <c r="H30" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I30" t="s">
+      <c r="I30" s="1"/>
+      <c r="J30" t="s">
         <v>335</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>223</v>
       </c>
@@ -47539,14 +47590,15 @@
       <c r="H31" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I31" t="s">
+      <c r="I31" s="1"/>
+      <c r="J31" t="s">
         <v>222</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>305</v>
       </c>
@@ -47572,14 +47624,17 @@
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I32" t="s">
+      <c r="I32" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="J32" t="s">
         <v>304</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>330</v>
       </c>
@@ -47605,14 +47660,15 @@
       <c r="H33" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I33" t="s">
+      <c r="I33" s="1"/>
+      <c r="J33" t="s">
         <v>329</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>320</v>
       </c>
@@ -47638,14 +47694,15 @@
       <c r="H34" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I34" t="s">
+      <c r="I34" s="1"/>
+      <c r="J34" t="s">
         <v>319</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>105</v>
       </c>
@@ -47668,14 +47725,15 @@
       <c r="H35" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I35" t="s">
+      <c r="I35" s="1"/>
+      <c r="J35" t="s">
         <v>104</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>272</v>
       </c>
@@ -47701,14 +47759,15 @@
       <c r="H36" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I36" t="s">
+      <c r="I36" s="1"/>
+      <c r="J36" t="s">
         <v>271</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>156</v>
       </c>
@@ -47731,14 +47790,15 @@
       <c r="H37" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I37" t="s">
+      <c r="I37" s="1"/>
+      <c r="J37" t="s">
         <v>155</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>383</v>
       </c>
@@ -47761,14 +47821,15 @@
       <c r="H38" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I38" s="1"/>
+      <c r="J38" t="s">
         <v>152</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>147</v>
       </c>
@@ -47794,14 +47855,15 @@
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I39" t="s">
+      <c r="I39" s="1"/>
+      <c r="J39" t="s">
         <v>146</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>32</v>
       </c>
@@ -47827,14 +47889,15 @@
       <c r="H40" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I40" t="s">
+      <c r="I40" s="1"/>
+      <c r="J40" t="s">
         <v>31</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>269</v>
       </c>
@@ -47860,14 +47923,15 @@
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I41" t="s">
+      <c r="I41" s="1"/>
+      <c r="J41" t="s">
         <v>268</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>192</v>
       </c>
@@ -47893,14 +47957,15 @@
       <c r="H42" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I42" t="s">
+      <c r="I42" s="1"/>
+      <c r="J42" t="s">
         <v>31</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>190</v>
       </c>
@@ -47926,47 +47991,51 @@
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I43" t="s">
+      <c r="I43" s="1"/>
+      <c r="J43" t="s">
         <v>189</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B44">
-        <v>3307</v>
+        <v>302</v>
+      </c>
+      <c r="B44" s="3">
+        <v>3321</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Explicit barriers to trade and investment</v>
+        <v>Government involvement in network sectors</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>102</v>
+        <v>303</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I44" t="s">
-        <v>100</v>
+      <c r="I44" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J44" t="s">
+        <v>301</v>
+      </c>
+      <c r="K44" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>333</v>
       </c>
@@ -47992,14 +48061,15 @@
       <c r="H45" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I45" t="s">
+      <c r="I45" s="1"/>
+      <c r="J45" t="s">
         <v>332</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>208</v>
       </c>
@@ -48025,14 +48095,15 @@
       <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I46" s="1"/>
+      <c r="J46" t="s">
         <v>207</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>18</v>
       </c>
@@ -48058,14 +48129,15 @@
       <c r="H47" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I47" t="s">
+      <c r="I47" s="1"/>
+      <c r="J47" t="s">
         <v>16</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>220</v>
       </c>
@@ -48091,14 +48163,15 @@
       <c r="H48" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I48" t="s">
+      <c r="I48" s="1"/>
+      <c r="J48" t="s">
         <v>219</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>386</v>
       </c>
@@ -48124,14 +48197,15 @@
       <c r="H49" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I49" t="s">
+      <c r="I49" s="1"/>
+      <c r="J49" t="s">
         <v>314</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>29</v>
       </c>
@@ -48157,14 +48231,15 @@
       <c r="H50" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I50" t="s">
+      <c r="I50" s="1"/>
+      <c r="J50" t="s">
         <v>28</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>98</v>
       </c>
@@ -48187,14 +48262,15 @@
       <c r="H51" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I51" t="s">
+      <c r="I51" s="1"/>
+      <c r="J51" t="s">
         <v>97</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>282</v>
       </c>
@@ -48220,14 +48296,15 @@
       <c r="H52" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I52" t="s">
+      <c r="I52" s="1"/>
+      <c r="J52" t="s">
         <v>281</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>173</v>
       </c>
@@ -48250,14 +48327,15 @@
       <c r="H53" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I53" t="s">
+      <c r="I53" s="1"/>
+      <c r="J53" t="s">
         <v>172</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>279</v>
       </c>
@@ -48283,14 +48361,15 @@
       <c r="H54" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I54" t="s">
+      <c r="I54" s="1"/>
+      <c r="J54" t="s">
         <v>278</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>83</v>
       </c>
@@ -48313,14 +48392,15 @@
       <c r="H55" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I55" t="s">
+      <c r="I55" s="1"/>
+      <c r="J55" t="s">
         <v>82</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>370</v>
       </c>
@@ -48345,14 +48425,15 @@
       <c r="H56" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I56" t="s">
+      <c r="I56" s="1"/>
+      <c r="J56" t="s">
         <v>369</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>388</v>
       </c>
@@ -48378,26 +48459,27 @@
       <c r="H57" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I57" t="s">
+      <c r="I57" s="1"/>
+      <c r="J57" t="s">
         <v>257</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
       <c r="B58" s="3">
-        <v>3326</v>
+        <v>3311</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Governance of state-owned enterprises</v>
+        <v>Price controls</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>5</v>
@@ -48411,26 +48493,29 @@
       <c r="H58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I58" t="s">
-        <v>43</v>
+      <c r="I58" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J58" t="s">
+        <v>307</v>
+      </c>
+      <c r="K58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B59" s="3">
-        <v>3321</v>
+        <v>3309</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Government involvement in network sectors</v>
+        <v>Scope of state-owned enterprises</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
@@ -48444,14 +48529,17 @@
       <c r="H59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I59" t="s">
-        <v>301</v>
+      <c r="I59" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J59" t="s">
+        <v>310</v>
+      </c>
+      <c r="K59" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>13</v>
       </c>
@@ -48474,14 +48562,15 @@
       <c r="H60" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="I60" t="s">
+      <c r="I60" s="1"/>
+      <c r="J60" t="s">
         <v>12</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>170</v>
       </c>
@@ -48507,14 +48596,15 @@
       <c r="H61" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I61" t="s">
+      <c r="I61" s="1"/>
+      <c r="J61" t="s">
         <v>169</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>389</v>
       </c>
@@ -48540,14 +48630,15 @@
       <c r="H62" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I62" t="s">
+      <c r="I62" s="1"/>
+      <c r="J62" t="s">
         <v>50</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>129</v>
       </c>
@@ -48570,14 +48661,15 @@
       <c r="H63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I63" t="s">
+      <c r="I63" s="1"/>
+      <c r="J63" t="s">
         <v>128</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>326</v>
       </c>
@@ -48603,14 +48695,15 @@
       <c r="H64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I64" t="s">
+      <c r="I64" s="1"/>
+      <c r="J64" t="s">
         <v>325</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>122</v>
       </c>
@@ -48636,14 +48729,15 @@
       <c r="H65" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I65" t="s">
+      <c r="I65" s="1"/>
+      <c r="J65" t="s">
         <v>121</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>294</v>
       </c>
@@ -48669,14 +48763,15 @@
       <c r="H66" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I66" s="1"/>
+      <c r="J66" t="s">
         <v>293</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>347</v>
       </c>
@@ -48702,14 +48797,15 @@
       <c r="H67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I67" t="s">
+      <c r="I67" s="1"/>
+      <c r="J67" t="s">
         <v>346</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>217</v>
       </c>
@@ -48735,14 +48831,15 @@
       <c r="H68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I68" t="s">
+      <c r="I68" s="1"/>
+      <c r="J68" t="s">
         <v>216</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -48765,14 +48862,15 @@
       <c r="H69" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I69" t="s">
+      <c r="I69" s="1"/>
+      <c r="J69" t="s">
         <v>79</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>77</v>
       </c>
@@ -48795,14 +48893,15 @@
       <c r="H70" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I70" t="s">
+      <c r="I70" s="1"/>
+      <c r="J70" t="s">
         <v>76</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>150</v>
       </c>
@@ -48825,14 +48924,15 @@
       <c r="H71" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I71" t="s">
+      <c r="I71" s="1"/>
+      <c r="J71" t="s">
         <v>149</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>229</v>
       </c>
@@ -48858,14 +48958,15 @@
       <c r="H72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I72" t="s">
+      <c r="I72" s="1"/>
+      <c r="J72" t="s">
         <v>228</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>94</v>
       </c>
@@ -48888,14 +48989,15 @@
       <c r="H73" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I73" t="s">
+      <c r="I73" s="1"/>
+      <c r="J73" t="s">
         <v>93</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>9</v>
       </c>
@@ -48918,14 +49020,15 @@
       <c r="H74" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I74" t="s">
+      <c r="I74" s="1"/>
+      <c r="J74" t="s">
         <v>8</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>4</v>
       </c>
@@ -48948,14 +49051,15 @@
       <c r="H75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I75" t="s">
+      <c r="I75" s="1"/>
+      <c r="J75" t="s">
         <v>1</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -48978,26 +49082,27 @@
       <c r="H76" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I76" t="s">
+      <c r="I76" s="1"/>
+      <c r="J76" t="s">
         <v>73</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>90</v>
-      </c>
-      <c r="B77">
-        <v>3308</v>
+        <v>114</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3305</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(B77,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Other barriers to trade and investment</v>
+        <v>Administrative burdens on startups</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>91</v>
+        <v>115</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
@@ -49011,14 +49116,17 @@
       <c r="H77" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I77" t="s">
-        <v>88</v>
+      <c r="I77" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J77" t="s">
+        <v>113</v>
+      </c>
+      <c r="K77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>238</v>
       </c>
@@ -49044,14 +49152,15 @@
       <c r="H78" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I78" t="s">
+      <c r="I78" s="1"/>
+      <c r="J78" t="s">
         <v>237</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>384</v>
       </c>
@@ -49077,14 +49186,15 @@
       <c r="H79" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I79" t="s">
+      <c r="I79" s="1"/>
+      <c r="J79" t="s">
         <v>344</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>242</v>
       </c>
@@ -49110,14 +49220,17 @@
       <c r="H80" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I80" t="s">
+      <c r="I80" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="J80" t="s">
         <v>241</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>240</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>71</v>
       </c>
@@ -49142,14 +49255,17 @@
       <c r="H81" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I81" t="s">
+      <c r="I81" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="J81" t="s">
         <v>70</v>
       </c>
-      <c r="J81" t="s">
+      <c r="K81" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>67</v>
       </c>
@@ -49172,14 +49288,15 @@
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I82" t="s">
+      <c r="I82" s="1"/>
+      <c r="J82" t="s">
         <v>66</v>
       </c>
-      <c r="J82" t="s">
+      <c r="K82" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>64</v>
       </c>
@@ -49205,14 +49322,15 @@
       <c r="H83" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I83" t="s">
+      <c r="I83" s="1"/>
+      <c r="J83" t="s">
         <v>63</v>
       </c>
-      <c r="J83" t="s">
+      <c r="K83" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>61</v>
       </c>
@@ -49238,47 +49356,51 @@
       <c r="H84" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I84" t="s">
+      <c r="I84" s="1"/>
+      <c r="J84" t="s">
         <v>59</v>
       </c>
-      <c r="J84" t="s">
+      <c r="K84" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B85" s="3">
-        <v>3311</v>
+        <v>3328</v>
       </c>
       <c r="C85" t="str">
         <f>VLOOKUP(B85,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Price controls</v>
+        <v>Regulatory protection of incumbents</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G85" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I85" t="s">
-        <v>307</v>
+      <c r="I85" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J85" t="s">
+        <v>296</v>
+      </c>
+      <c r="K85" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>211</v>
       </c>
@@ -49304,14 +49426,15 @@
       <c r="H86" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I86" t="s">
+      <c r="I86" s="1"/>
+      <c r="J86" t="s">
         <v>210</v>
       </c>
-      <c r="J86" t="s">
+      <c r="K86" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>136</v>
       </c>
@@ -49337,26 +49460,27 @@
       <c r="H87" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I87" t="s">
+      <c r="I87" s="1"/>
+      <c r="J87" t="s">
         <v>135</v>
       </c>
-      <c r="J87" t="s">
+      <c r="K87" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>297</v>
-      </c>
-      <c r="B88" s="3">
-        <v>3328</v>
+        <v>90</v>
+      </c>
+      <c r="B88">
+        <v>3308</v>
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(B88,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulatory protection of incumbents</v>
+        <v>Other barriers to trade and investment</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>298</v>
+        <v>91</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
@@ -49370,14 +49494,17 @@
       <c r="H88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I88" t="s">
-        <v>296</v>
+      <c r="I88" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J88" t="s">
+        <v>88</v>
+      </c>
+      <c r="K88" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>248</v>
       </c>
@@ -49403,14 +49530,15 @@
       <c r="H89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I89" t="s">
+      <c r="I89" s="1"/>
+      <c r="J89" t="s">
         <v>247</v>
       </c>
-      <c r="J89" t="s">
+      <c r="K89" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>232</v>
       </c>
@@ -49436,14 +49564,15 @@
       <c r="H90" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I90" t="s">
+      <c r="I90" s="1"/>
+      <c r="J90" t="s">
         <v>231</v>
       </c>
-      <c r="J90" t="s">
+      <c r="K90" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>226</v>
       </c>
@@ -49469,14 +49598,15 @@
       <c r="H91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I91" t="s">
+      <c r="I91" s="1"/>
+      <c r="J91" t="s">
         <v>225</v>
       </c>
-      <c r="J91" t="s">
+      <c r="K91" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>25</v>
       </c>
@@ -49502,14 +49632,15 @@
       <c r="H92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I92" t="s">
+      <c r="I92" s="1"/>
+      <c r="J92" t="s">
         <v>23</v>
       </c>
-      <c r="J92" t="s">
+      <c r="K92" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>291</v>
       </c>
@@ -49535,14 +49666,15 @@
       <c r="H93" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I93" s="1"/>
+      <c r="J93" t="s">
         <v>290</v>
       </c>
-      <c r="J93" t="s">
+      <c r="K93" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>48</v>
       </c>
@@ -49565,14 +49697,15 @@
       <c r="H94" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I94" s="1"/>
+      <c r="J94" t="s">
         <v>47</v>
       </c>
-      <c r="J94" t="s">
+      <c r="K94" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>45</v>
       </c>
@@ -49595,14 +49728,15 @@
       <c r="H95" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I95" t="s">
+      <c r="I95" s="1"/>
+      <c r="J95" t="s">
         <v>43</v>
       </c>
-      <c r="J95" t="s">
+      <c r="K95" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -49628,14 +49762,15 @@
       <c r="H96" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I96" t="s">
+      <c r="I96" s="1"/>
+      <c r="J96" t="s">
         <v>138</v>
       </c>
-      <c r="J96" t="s">
+      <c r="K96" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>214</v>
       </c>
@@ -49661,14 +49796,15 @@
       <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I97" t="s">
+      <c r="I97" s="1"/>
+      <c r="J97" t="s">
         <v>213</v>
       </c>
-      <c r="J97" t="s">
+      <c r="K97" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>288</v>
       </c>
@@ -49694,47 +49830,51 @@
       <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I98" t="s">
+      <c r="I98" s="1"/>
+      <c r="J98" t="s">
         <v>287</v>
       </c>
-      <c r="J98" t="s">
+      <c r="K98" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>311</v>
-      </c>
-      <c r="B99" s="3">
-        <v>3309</v>
+        <v>101</v>
+      </c>
+      <c r="B99">
+        <v>3307</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Scope of state-owned enterprises</v>
+        <v>Explicit barriers to trade and investment</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>312</v>
+        <v>102</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G99" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I99" t="s">
-        <v>310</v>
+      <c r="I99" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J99" t="s">
+        <v>100</v>
+      </c>
+      <c r="K99" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>266</v>
       </c>
@@ -49760,14 +49900,15 @@
       <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I100" t="s">
+      <c r="I100" s="1"/>
+      <c r="J100" t="s">
         <v>265</v>
       </c>
-      <c r="J100" t="s">
+      <c r="K100" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>251</v>
       </c>
@@ -49793,14 +49934,15 @@
       <c r="H101" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I101" t="s">
+      <c r="I101" s="1"/>
+      <c r="J101" t="s">
         <v>250</v>
       </c>
-      <c r="J101" t="s">
+      <c r="K101" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>263</v>
       </c>
@@ -49826,14 +49968,15 @@
       <c r="H102" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I102" t="s">
+      <c r="I102" s="1"/>
+      <c r="J102" t="s">
         <v>262</v>
       </c>
-      <c r="J102" t="s">
+      <c r="K102" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>385</v>
       </c>
@@ -49859,14 +50002,15 @@
       <c r="H103" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I103" t="s">
+      <c r="I103" s="1"/>
+      <c r="J103" t="s">
         <v>260</v>
       </c>
-      <c r="J103" t="s">
+      <c r="K103" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>167</v>
       </c>
@@ -49889,14 +50033,15 @@
       <c r="H104" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I104" t="s">
+      <c r="I104" s="1"/>
+      <c r="J104" t="s">
         <v>166</v>
       </c>
-      <c r="J104" t="s">
+      <c r="K104" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>164</v>
       </c>
@@ -49919,14 +50064,15 @@
       <c r="H105" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I105" t="s">
+      <c r="I105" s="1"/>
+      <c r="J105" t="s">
         <v>162</v>
       </c>
-      <c r="J105" t="s">
+      <c r="K105" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>342</v>
       </c>
@@ -49952,14 +50098,15 @@
       <c r="H106" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I106" t="s">
+      <c r="I106" s="1"/>
+      <c r="J106" t="s">
         <v>341</v>
       </c>
-      <c r="J106" t="s">
+      <c r="K106" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>323</v>
       </c>
@@ -49985,14 +50132,15 @@
       <c r="H107" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I107" t="s">
+      <c r="I107" s="1"/>
+      <c r="J107" t="s">
         <v>322</v>
       </c>
-      <c r="J107" t="s">
+      <c r="K107" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>144</v>
       </c>
@@ -50015,50 +50163,54 @@
       <c r="H108" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="I108" t="s">
+      <c r="I108" s="1"/>
+      <c r="J108" t="s">
         <v>142</v>
       </c>
-      <c r="J108" t="s">
+      <c r="K108" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="B109">
-        <v>3310</v>
+        <v>3323</v>
       </c>
       <c r="C109" t="str">
         <f>VLOOKUP(B109,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Use of command and control regulation</v>
+        <v>Complexity of regulatory procedures</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F109" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G109" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H109" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I109" t="s">
-        <v>38</v>
+      <c r="I109" s="1" t="s">
+        <v>392</v>
       </c>
       <c r="J109" t="s">
+        <v>107</v>
+      </c>
+      <c r="K109" t="s">
         <v>37</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J108" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J109">
-      <sortCondition ref="A1:A108"/>
+  <autoFilter ref="A1:K109" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K109">
+      <sortCondition ref="J1:J109"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wb501238\Documents\GitHub\institutional-assessment-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\institutional-assessment-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F7D885-EF47-4F86-99B2-F57D612A8C92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9224C27B-A086-4852-8D83-669EB9EBCB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="-120" windowWidth="28005" windowHeight="16440" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="21864" windowHeight="13176" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="GBID" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="395">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -1230,12 +1230,15 @@
   <si>
     <t>processing</t>
   </si>
+  <si>
+    <t>Global State of Democracy (GSoD) Indices </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1264,6 +1267,12 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF101F28"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1291,7 +1300,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1302,6 +1311,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -46546,10 +46556,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I59" sqref="I59"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46563,7 +46574,7 @@
     <col min="7" max="7" width="34.85546875" customWidth="1"/>
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.5703125" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
     <col min="11" max="11" width="23.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -46602,7 +46613,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -46636,549 +46647,545 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>350</v>
-      </c>
-      <c r="B3" s="3">
-        <v>227</v>
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <v>27919</v>
       </c>
       <c r="C3" t="str">
         <f>VLOOKUP(B3,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
+        <v>People can access and afford civil justice</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>351</v>
+        <v>133</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>376</v>
+        <v>118</v>
+      </c>
+      <c r="G3" t="s">
+        <v>373</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>349</v>
+        <v>131</v>
       </c>
       <c r="K3" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>204</v>
-      </c>
-      <c r="B4" s="3">
-        <v>41718</v>
-      </c>
-      <c r="C4" t="str">
-        <f>VLOOKUP(B4,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>GCI 4.0: Active Labour policies</v>
+        <v>382</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" t="s">
+        <v>86</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>205</v>
+        <v>87</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>203</v>
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>299</v>
-      </c>
-      <c r="B5" s="3">
-        <v>3326</v>
+        <v>125</v>
+      </c>
+      <c r="B5">
+        <v>27932</v>
       </c>
       <c r="C5" t="str">
         <f>VLOOKUP(B5,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Governance of state-owned enterprises</v>
+        <v>Criminal adjudication system is timely and effective</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>300</v>
+        <v>126</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I5" s="1"/>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>124</v>
       </c>
       <c r="K5" t="s">
-        <v>37</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>380</v>
+        <v>282</v>
       </c>
       <c r="B6" s="3">
-        <v>41114</v>
+        <v>27900</v>
       </c>
       <c r="C6" t="str">
         <f>VLOOKUP(B6,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Budget Documentation</v>
-      </c>
-      <c r="D6" t="s">
-        <v>235</v>
+        <v>Freedom of opinion and expression is effectively guaranteed</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>283</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="K6" t="s">
-        <v>206</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>317</v>
-      </c>
-      <c r="B7" s="3">
-        <v>724</v>
-      </c>
-      <c r="C7" t="str">
-        <f>VLOOKUP(B7,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Burden of customs procedures</v>
+        <v>83</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" t="s">
+        <v>83</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>318</v>
+        <v>84</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>316</v>
+        <v>82</v>
       </c>
       <c r="K7" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>381</v>
+        <v>4</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>112</v>
+        <v>6</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F8" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" t="s">
-        <v>110</v>
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>201</v>
-      </c>
-      <c r="B9" s="3">
-        <v>41814</v>
-      </c>
-      <c r="C9" t="str">
-        <f>VLOOKUP(B9,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Bureaucratic quality </v>
+        <v>74</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" t="s">
+        <v>74</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>202</v>
+        <v>75</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" t="s">
-        <v>200</v>
+        <v>73</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>339</v>
-      </c>
-      <c r="B10" s="3">
-        <v>308</v>
-      </c>
-      <c r="C10" t="str">
-        <f>VLOOKUP(B10,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
+        <v>48</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" t="s">
+        <v>48</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>340</v>
+        <v>49</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>338</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>116</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>187</v>
-      </c>
-      <c r="B11" s="3"/>
-      <c r="C11" t="s">
-        <v>187</v>
+        <v>285</v>
+      </c>
+      <c r="B11" s="3">
+        <v>27894</v>
+      </c>
+      <c r="C11" t="str">
+        <f>VLOOKUP(B11,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Complaint mechanisms</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="E11" t="s">
+        <v>286</v>
+      </c>
+      <c r="E11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>163</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>186</v>
+        <v>284</v>
       </c>
       <c r="K11" t="s">
-        <v>185</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>183</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" t="s">
-        <v>183</v>
+        <v>279</v>
+      </c>
+      <c r="B12" s="3">
+        <v>27904</v>
+      </c>
+      <c r="C12" t="str">
+        <f>VLOOKUP(B12,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Fundamental labor rights are effectively guaranteed</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E12" t="s">
+        <v>280</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>182</v>
+        <v>278</v>
       </c>
       <c r="K12" t="s">
-        <v>181</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>387</v>
-      </c>
-      <c r="B13" s="3"/>
-      <c r="C13" t="s">
-        <v>57</v>
+        <v>291</v>
+      </c>
+      <c r="B13" s="3">
+        <v>27885</v>
+      </c>
+      <c r="C13" t="str">
+        <f>VLOOKUP(B13,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Publicized laws and government data</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>58</v>
+        <v>292</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="K13" t="s">
-        <v>55</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>254</v>
+        <v>288</v>
       </c>
       <c r="B14" s="3">
-        <v>40835</v>
+        <v>27889</v>
       </c>
       <c r="C14" t="str">
         <f>VLOOKUP(B14,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficiency of legal framework in challenging regs., 1-7 (best)</v>
+        <v>Right to information</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>255</v>
+        <v>289</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>253</v>
+        <v>287</v>
       </c>
       <c r="K14" t="s">
-        <v>15</v>
+        <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>136</v>
       </c>
       <c r="B15" s="3">
-        <v>41825</v>
+        <v>44123</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Checks on government </v>
+        <v>Property Rights</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>199</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>197</v>
+        <v>135</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
-      </c>
-      <c r="B16">
-        <v>27919</v>
-      </c>
-      <c r="C16" t="str">
-        <f>VLOOKUP(B16,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>People can access and afford civil justice</v>
+        <v>94</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" t="s">
+        <v>94</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>245</v>
+        <v>170</v>
       </c>
       <c r="B17" s="3">
-        <v>40985</v>
+        <v>657</v>
       </c>
       <c r="C17" t="str">
         <f>VLOOKUP(B17,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil Liberties</v>
+        <v>Hiring and firing practices, 1-7 (best)</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>246</v>
+        <v>171</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>391</v>
-      </c>
+      <c r="I17" s="1"/>
       <c r="J17" t="s">
-        <v>244</v>
+        <v>169</v>
       </c>
       <c r="K17" t="s">
-        <v>240</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>275</v>
+        <v>294</v>
       </c>
       <c r="B18" s="3">
-        <v>28738</v>
+        <v>40828</v>
       </c>
       <c r="C18" t="str">
         <f>VLOOKUP(B18,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil society participation</v>
+        <v>Judicial independence, 1-7 (best)</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>276</v>
+        <v>295</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>24</v>
+        <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
-      <c r="J18" s="4" t="s">
-        <v>274</v>
+      <c r="J18" t="s">
+        <v>293</v>
       </c>
       <c r="K18" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
-        <v>159</v>
+        <v>204</v>
+      </c>
+      <c r="B19" s="3">
+        <v>41424</v>
+      </c>
+      <c r="C19" t="str">
+        <f>VLOOKUP(B19,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>GCI 4.0: Active Labour policies</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
@@ -47190,393 +47197,403 @@
         <v>377</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="K19" t="s">
-        <v>141</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" t="s">
-        <v>179</v>
+        <v>254</v>
+      </c>
+      <c r="B20" s="3">
+        <v>40835</v>
+      </c>
+      <c r="C20" t="str">
+        <f>VLOOKUP(B20,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Efficiency of legal framework in challenging regs., 1-7 (best)</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="E20" t="s">
+        <v>255</v>
+      </c>
+      <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>178</v>
+        <v>253</v>
       </c>
       <c r="K20" t="s">
-        <v>161</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B21" s="3">
-        <v>27894</v>
+        <v>40837</v>
       </c>
       <c r="C21" t="str">
         <f>VLOOKUP(B21,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complaint mechanisms</v>
+        <v>Efficiency of legal framework in settling disputes, 1-7 (best)</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s">
-        <v>277</v>
+        <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>40</v>
-      </c>
-      <c r="B22">
-        <v>3310</v>
+        <v>326</v>
+      </c>
+      <c r="B22" s="3">
+        <v>40818</v>
       </c>
       <c r="C22" t="str">
         <f>VLOOKUP(B22,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Use of command and control regulation</v>
+        <v>Irregular payments and bribes, 1-7 (best)</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>41</v>
+        <v>327</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>38</v>
+        <v>325</v>
       </c>
       <c r="K22" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>382</v>
-      </c>
-      <c r="B23" s="3"/>
-      <c r="C23" t="s">
-        <v>86</v>
+        <v>147</v>
+      </c>
+      <c r="B23" s="3">
+        <v>43072</v>
+      </c>
+      <c r="C23" t="str">
+        <f>VLOOKUP(B23,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>GCI 4.0: Energy efficiency regulation</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>87</v>
+        <v>148</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" t="s">
-        <v>85</v>
+        <v>146</v>
       </c>
       <c r="K23" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>195</v>
+        <v>333</v>
       </c>
       <c r="B24" s="3">
-        <v>41854</v>
+        <v>41411</v>
       </c>
       <c r="C24" t="str">
         <f>VLOOKUP(B24,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Corruption </v>
+        <v>GCI 4.0: Extent of market dominance</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>196</v>
+        <v>334</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>194</v>
+        <v>332</v>
       </c>
       <c r="K24" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="B25" s="3">
-        <v>290</v>
+        <v>40873</v>
       </c>
       <c r="C25" t="str">
         <f>VLOOKUP(B25,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
+        <v>Transparency of government policymaking, 1-7 (best)</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F25" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="K25" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>176</v>
-      </c>
-      <c r="B26" s="3"/>
-      <c r="C26" t="s">
-        <v>176</v>
+        <v>320</v>
+      </c>
+      <c r="B26" s="3">
+        <v>40947</v>
+      </c>
+      <c r="C26" t="str">
+        <f>VLOOKUP(B26,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Effectiveness of anti-monopoly policy, 1-7 (best)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E26" t="s">
+        <v>321</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>175</v>
+        <v>319</v>
       </c>
       <c r="K26" t="s">
-        <v>127</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>125</v>
+        <v>18</v>
       </c>
       <c r="B27">
-        <v>27932</v>
+        <v>40951</v>
       </c>
       <c r="C27" t="str">
         <f>VLOOKUP(B27,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Criminal adjudication system is timely and effective</v>
+        <v>Favoritism in decisions of government officials, 1-7 (best)</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F27" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" t="s">
-        <v>124</v>
+        <v>16</v>
       </c>
       <c r="K27" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" t="s">
-        <v>53</v>
+        <v>248</v>
+      </c>
+      <c r="B28" s="3">
+        <v>40953</v>
+      </c>
+      <c r="C28" t="str">
+        <f>VLOOKUP(B28,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Protection of minority shareholders interests, 1-7 (best)</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>54</v>
+        <v>249</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" t="s">
-        <v>52</v>
+        <v>247</v>
       </c>
       <c r="K28" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29">
-        <v>41857</v>
+        <v>317</v>
+      </c>
+      <c r="B29" s="3">
+        <v>41008</v>
       </c>
       <c r="C29" t="str">
         <f>VLOOKUP(B29,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">CSO entry and exit </v>
+        <v>Burden of government regulation, 1-7 (best)</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>36</v>
+        <v>318</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>34</v>
+        <v>316</v>
       </c>
       <c r="K29" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>336</v>
-      </c>
-      <c r="B30" s="3">
-        <v>320</v>
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>41322</v>
       </c>
       <c r="C30" t="str">
         <f>VLOOKUP(B30,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
+        <v>Public trust in politicians, 1-7 (best)</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>337</v>
+        <v>26</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="K30" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>139</v>
       </c>
       <c r="B31" s="3">
-        <v>41141</v>
+        <v>43075</v>
       </c>
       <c r="C31" t="str">
         <f>VLOOKUP(B31,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Debt management</v>
+        <v>GCI 4.0: Renewable energy regulation</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>224</v>
+        <v>140</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>5</v>
@@ -47592,367 +47609,361 @@
       </c>
       <c r="I31" s="1"/>
       <c r="J31" t="s">
-        <v>222</v>
+        <v>138</v>
       </c>
       <c r="K31" t="s">
-        <v>206</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>305</v>
-      </c>
-      <c r="B32" s="3">
-        <v>3319</v>
-      </c>
-      <c r="C32" t="str">
-        <f>VLOOKUP(B32,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Direct control over business enterprises</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>306</v>
+        <v>370</v>
+      </c>
+      <c r="B32">
+        <v>946</v>
+      </c>
+      <c r="C32" t="s">
+        <v>364</v>
+      </c>
+      <c r="D32" t="s">
+        <v>365</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>367</v>
       </c>
       <c r="G32" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>304</v>
+        <v>369</v>
       </c>
       <c r="K32" t="s">
-        <v>37</v>
+        <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>330</v>
-      </c>
-      <c r="B33" s="3">
-        <v>664</v>
-      </c>
-      <c r="C33" t="str">
-        <f>VLOOKUP(B33,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Diversion of public funds</v>
+        <v>45</v>
+      </c>
+      <c r="B33" s="3"/>
+      <c r="C33" t="s">
+        <v>45</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>329</v>
+        <v>43</v>
       </c>
       <c r="K33" t="s">
-        <v>328</v>
+        <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>320</v>
-      </c>
-      <c r="B34" s="3">
-        <v>698</v>
-      </c>
-      <c r="C34" t="str">
-        <f>VLOOKUP(B34,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Effectiveness of antimonopoly policy</v>
+        <v>13</v>
+      </c>
+      <c r="B34" s="3"/>
+      <c r="C34" t="s">
+        <v>13</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>321</v>
+        <v>14</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>17</v>
+        <v>362</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>319</v>
+        <v>12</v>
       </c>
       <c r="K34" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" t="s">
-        <v>105</v>
+        <v>386</v>
+      </c>
+      <c r="B35" s="3">
+        <v>3285</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(B35,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Foreign Currency Regulations</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>315</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" t="s">
-        <v>372</v>
+        <v>163</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>314</v>
       </c>
       <c r="K35" t="s">
-        <v>103</v>
+        <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>272</v>
-      </c>
-      <c r="B36" s="3">
-        <v>28748</v>
-      </c>
-      <c r="C36" t="str">
-        <f>VLOOKUP(B36,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficient use of assets</v>
+        <v>105</v>
+      </c>
+      <c r="B36" s="3"/>
+      <c r="C36" t="s">
+        <v>105</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>273</v>
+        <v>106</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" t="s">
-        <v>271</v>
+        <v>104</v>
       </c>
       <c r="K36" t="s">
-        <v>259</v>
+        <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>156</v>
-      </c>
-      <c r="B37" s="3"/>
-      <c r="C37" t="s">
-        <v>156</v>
+        <v>198</v>
+      </c>
+      <c r="B37" s="3">
+        <v>41825</v>
+      </c>
+      <c r="C37" t="str">
+        <f>VLOOKUP(B37,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Checks on government </v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>157</v>
+        <v>199</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="G37" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>155</v>
+        <v>197</v>
       </c>
       <c r="K37" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>383</v>
-      </c>
-      <c r="B38" s="3"/>
-      <c r="C38" t="s">
-        <v>153</v>
+        <v>275</v>
+      </c>
+      <c r="B38" s="3">
+        <v>28738</v>
+      </c>
+      <c r="C38" t="str">
+        <f>VLOOKUP(B38,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Civil society participation</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>154</v>
+        <v>276</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>143</v>
+        <v>24</v>
       </c>
       <c r="G38" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" t="s">
-        <v>152</v>
+      <c r="J38" s="4" t="s">
+        <v>274</v>
       </c>
       <c r="K38" t="s">
-        <v>141</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="B39" s="3">
-        <v>43072</v>
+        <v>41854</v>
       </c>
       <c r="C39" t="str">
         <f>VLOOKUP(B39,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>GCI 4.0: Energy efficiency regulation</v>
+        <v xml:space="preserve">Corruption </v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>148</v>
+        <v>196</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G39" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="K39" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40">
-        <v>41881</v>
-      </c>
-      <c r="C40" t="str">
-        <f>VLOOKUP(B40,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Engaged society </v>
+        <v>53</v>
+      </c>
+      <c r="B40" s="3"/>
+      <c r="C40" t="s">
+        <v>53</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G40" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>31</v>
+        <v>52</v>
       </c>
       <c r="K40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>269</v>
-      </c>
-      <c r="B41" s="3">
-        <v>28749</v>
+        <v>35</v>
+      </c>
+      <c r="B41">
+        <v>41857</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Environmental policy</v>
+        <v xml:space="preserve">CSO entry and exit </v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>270</v>
+        <v>36</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
-        <v>268</v>
+        <v>34</v>
       </c>
       <c r="K41" t="s">
-        <v>259</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>192</v>
-      </c>
-      <c r="B42" s="3">
-        <v>41882</v>
+        <v>32</v>
+      </c>
+      <c r="B42">
+        <v>41881</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
+        <v xml:space="preserve">Engaged society </v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>193</v>
+        <v>33</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G42" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
@@ -47965,658 +47976,656 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B43" s="3">
-        <v>41883</v>
+        <v>41882</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive constraints </v>
+        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G43" t="s">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>31</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>302</v>
+        <v>190</v>
       </c>
       <c r="B44" s="3">
-        <v>3321</v>
+        <v>41883</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Government involvement in network sectors</v>
+        <v xml:space="preserve">Executive constraints </v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>303</v>
+        <v>191</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G44" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I44" s="1"/>
       <c r="J44" t="s">
-        <v>301</v>
+        <v>189</v>
       </c>
       <c r="K44" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>333</v>
-      </c>
-      <c r="B45" s="3">
-        <v>520</v>
+        <v>29</v>
+      </c>
+      <c r="B45">
+        <v>41918</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Extent of market dominance</v>
+        <v xml:space="preserve">Freedom of academic and cultural expression </v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>334</v>
+        <v>30</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="G45" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>332</v>
+        <v>28</v>
       </c>
       <c r="K45" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>208</v>
-      </c>
-      <c r="B46" s="3">
-        <v>41216</v>
+        <v>389</v>
+      </c>
+      <c r="B46">
+        <v>42084</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>External audit</v>
+        <v xml:space="preserve">Rigorous and impartial public administration </v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>209</v>
+        <v>51</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G46" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="K46" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>18</v>
+        <v>122</v>
       </c>
       <c r="B47">
-        <v>40951</v>
+        <v>41951</v>
       </c>
       <c r="C47" t="str">
         <f>VLOOKUP(B47,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Favoritism in decisions of government officials, 1-7 (best)</v>
+        <v xml:space="preserve">Judicial accountability </v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>19</v>
+        <v>123</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>3</v>
+        <v>118</v>
       </c>
       <c r="G47" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>16</v>
+        <v>121</v>
       </c>
       <c r="K47" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>220</v>
-      </c>
-      <c r="B48" s="3">
-        <v>41149</v>
-      </c>
-      <c r="C48" t="str">
-        <f>VLOOKUP(B48,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Fiscal strategy</v>
+        <v>80</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" t="s">
+        <v>80</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>221</v>
+        <v>81</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" t="s">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s">
-        <v>206</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>386</v>
-      </c>
-      <c r="B49" s="3">
-        <v>3285</v>
-      </c>
-      <c r="C49" t="str">
-        <f>VLOOKUP(B49,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Foreign Currency Regulations</v>
+        <v>77</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" t="s">
+        <v>77</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>315</v>
+        <v>78</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>163</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>376</v>
+        <v>60</v>
+      </c>
+      <c r="G49" t="s">
+        <v>374</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>314</v>
+        <v>76</v>
       </c>
       <c r="K49" t="s">
-        <v>313</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>29</v>
-      </c>
-      <c r="B50">
-        <v>41918</v>
-      </c>
-      <c r="C50" t="str">
-        <f>VLOOKUP(B50,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Freedom of academic and cultural expression </v>
+        <v>67</v>
+      </c>
+      <c r="B50" s="3"/>
+      <c r="C50" t="s">
+        <v>67</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="K50" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>98</v>
-      </c>
-      <c r="B51" s="3"/>
-      <c r="C51" t="s">
-        <v>98</v>
+        <v>64</v>
+      </c>
+      <c r="B51">
+        <v>42025</v>
+      </c>
+      <c r="C51" t="str">
+        <f>VLOOKUP(B51,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Power distributed by social group </v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="K51" t="s">
-        <v>96</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>282</v>
-      </c>
-      <c r="B52" s="3">
-        <v>27900</v>
+        <v>61</v>
+      </c>
+      <c r="B52">
+        <v>42026</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Freedom of opinion and expression is effectively guaranteed</v>
+        <v xml:space="preserve">Power distributed by socio-economic position </v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>283</v>
+        <v>62</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>281</v>
+        <v>59</v>
       </c>
       <c r="K52" t="s">
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
-      </c>
-      <c r="B53" s="3"/>
-      <c r="C53" t="s">
-        <v>173</v>
+        <v>238</v>
+      </c>
+      <c r="B53" s="3">
+        <v>40991</v>
+      </c>
+      <c r="C53" t="str">
+        <f>VLOOKUP(B53,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Party Financing</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E53" t="s">
+        <v>239</v>
+      </c>
+      <c r="E53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G53" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>172</v>
+        <v>237</v>
       </c>
       <c r="K53" t="s">
-        <v>127</v>
+        <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>380</v>
       </c>
       <c r="B54" s="3">
-        <v>27904</v>
+        <v>41114</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Fundamental labor rights are effectively guaranteed</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>280</v>
+        <v>Budget Documentation</v>
+      </c>
+      <c r="D54" t="s">
+        <v>235</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>278</v>
+        <v>234</v>
       </c>
       <c r="K54" t="s">
-        <v>277</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>83</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" t="s">
-        <v>83</v>
+        <v>223</v>
+      </c>
+      <c r="B55" s="3">
+        <v>41141</v>
+      </c>
+      <c r="C55" t="str">
+        <f>VLOOKUP(B55,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Debt management</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>84</v>
+        <v>224</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G55" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>82</v>
+        <v>222</v>
       </c>
       <c r="K55" t="s">
-        <v>0</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>370</v>
-      </c>
-      <c r="B56">
-        <v>946</v>
-      </c>
-      <c r="C56" t="s">
-        <v>364</v>
-      </c>
-      <c r="D56" t="s">
-        <v>365</v>
+        <v>208</v>
+      </c>
+      <c r="B56" s="3">
+        <v>41216</v>
+      </c>
+      <c r="C56" t="str">
+        <f>VLOOKUP(B56,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>External audit</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>209</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>367</v>
+        <v>3</v>
       </c>
       <c r="G56" t="s">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>369</v>
+        <v>207</v>
       </c>
       <c r="K56" t="s">
-        <v>368</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>388</v>
+        <v>220</v>
       </c>
       <c r="B57" s="3">
-        <v>32627</v>
+        <v>41149</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(B57,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>To what extent do you think that corruption is a problem in the public sector in this country? (%)</v>
+        <v>Fiscal strategy</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>258</v>
+        <v>221</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G57" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="K57" t="s">
-        <v>256</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>308</v>
+        <v>217</v>
       </c>
       <c r="B58" s="3">
-        <v>3311</v>
+        <v>41162</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Price controls</v>
+        <v>Legislative scrutiny of budgets</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>309</v>
+        <v>218</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="G58" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>307</v>
+        <v>216</v>
       </c>
       <c r="K58" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>311</v>
+        <v>229</v>
       </c>
       <c r="B59" s="3">
-        <v>3309</v>
+        <v>41129</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Scope of state-owned enterprises</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>312</v>
+        <v>(i) Monitoring of public corporations</v>
+      </c>
+      <c r="D59" t="s">
+        <v>230</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>310</v>
+        <v>228</v>
       </c>
       <c r="K59" t="s">
-        <v>37</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" s="3"/>
-      <c r="C60" t="s">
-        <v>13</v>
+        <v>211</v>
+      </c>
+      <c r="B60" s="3">
+        <v>41189</v>
+      </c>
+      <c r="C60" t="str">
+        <f>VLOOKUP(B60,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Procurement</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>14</v>
+        <v>212</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G60" t="s">
-        <v>379</v>
+        <v>371</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>362</v>
+        <v>17</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>12</v>
+        <v>210</v>
       </c>
       <c r="K60" t="s">
-        <v>11</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>232</v>
       </c>
       <c r="B61" s="3">
-        <v>43034</v>
+        <v>41127</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Hiring and firing practices, 1-7 (best)</v>
+        <v>Public access to information</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>171</v>
+        <v>233</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="G61" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" t="s">
-        <v>169</v>
+        <v>231</v>
       </c>
       <c r="K61" t="s">
-        <v>15</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>389</v>
-      </c>
-      <c r="B62">
-        <v>42084</v>
+        <v>226</v>
+      </c>
+      <c r="B62" s="3">
+        <v>41137</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Rigorous and impartial public administration </v>
+        <v>Public asset management</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>51</v>
+        <v>227</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>5</v>
@@ -48632,350 +48641,372 @@
       </c>
       <c r="I62" s="1"/>
       <c r="J62" t="s">
-        <v>50</v>
+        <v>225</v>
       </c>
       <c r="K62" t="s">
-        <v>27</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>129</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" t="s">
-        <v>129</v>
+        <v>214</v>
+      </c>
+      <c r="B63" s="3">
+        <v>41167</v>
+      </c>
+      <c r="C63" t="str">
+        <f>VLOOKUP(B63,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Revenue administration</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="G63" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="K63" t="s">
-        <v>127</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>326</v>
-      </c>
-      <c r="B64" s="3">
-        <v>668</v>
-      </c>
-      <c r="C64" t="str">
-        <f>VLOOKUP(B64,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Irregular payments and bribes</v>
+        <v>71</v>
+      </c>
+      <c r="B64">
+        <v>27470</v>
+      </c>
+      <c r="C64" t="s">
+        <v>363</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>327</v>
+        <v>72</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G64" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I64" s="1"/>
+      <c r="I64" s="1" t="s">
+        <v>390</v>
+      </c>
       <c r="J64" t="s">
-        <v>325</v>
+        <v>70</v>
       </c>
       <c r="K64" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>122</v>
-      </c>
-      <c r="B65">
-        <v>41951</v>
-      </c>
-      <c r="C65" t="str">
-        <f>VLOOKUP(B65,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Judicial accountability </v>
+        <v>9</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" t="s">
+        <v>9</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>123</v>
+        <v>10</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>118</v>
+        <v>3</v>
       </c>
       <c r="G65" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" t="s">
-        <v>121</v>
+        <v>8</v>
       </c>
       <c r="K65" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>294</v>
-      </c>
-      <c r="B66" s="3">
-        <v>3370</v>
-      </c>
-      <c r="C66" t="str">
-        <f>VLOOKUP(B66,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Judicial independence, 1-7 (best)</v>
+        <v>387</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" t="s">
+        <v>57</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>295</v>
+        <v>58</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="G66" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I66" s="1"/>
       <c r="J66" t="s">
-        <v>293</v>
+        <v>56</v>
       </c>
       <c r="K66" t="s">
-        <v>15</v>
+        <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>347</v>
+        <v>299</v>
       </c>
       <c r="B67" s="3">
-        <v>268</v>
+        <v>3326</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
+        <v>Governance of state-owned enterprises</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>348</v>
+        <v>300</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I67" s="1"/>
+      <c r="I67" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J67" t="s">
-        <v>346</v>
+        <v>43</v>
       </c>
       <c r="K67" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>217</v>
-      </c>
-      <c r="B68" s="3">
-        <v>41162</v>
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>3310</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Legislative scrutiny of budgets</v>
+        <v>Use of command and control regulation</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I68" s="1"/>
+      <c r="I68" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J68" t="s">
-        <v>216</v>
+        <v>38</v>
       </c>
       <c r="K68" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>80</v>
-      </c>
-      <c r="B69" s="3"/>
-      <c r="C69" t="s">
-        <v>80</v>
+        <v>305</v>
+      </c>
+      <c r="B69" s="3">
+        <v>3319</v>
+      </c>
+      <c r="C69" t="str">
+        <f>VLOOKUP(B69,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Direct control over business enterprises</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>81</v>
+        <v>306</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I69" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I69" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J69" t="s">
-        <v>79</v>
+        <v>304</v>
       </c>
       <c r="K69" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>77</v>
-      </c>
-      <c r="B70" s="3"/>
-      <c r="C70" t="s">
-        <v>77</v>
+        <v>302</v>
+      </c>
+      <c r="B70" s="3">
+        <v>3321</v>
+      </c>
+      <c r="C70" t="str">
+        <f>VLOOKUP(B70,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Government involvement in network sectors</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>78</v>
+        <v>303</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I70" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I70" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J70" t="s">
-        <v>76</v>
+        <v>301</v>
       </c>
       <c r="K70" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>150</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" t="s">
-        <v>150</v>
+        <v>308</v>
+      </c>
+      <c r="B71" s="3">
+        <v>3311</v>
+      </c>
+      <c r="C71" t="str">
+        <f>VLOOKUP(B71,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Price controls</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>151</v>
+        <v>309</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I71" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I71" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J71" t="s">
-        <v>149</v>
+        <v>307</v>
       </c>
       <c r="K71" t="s">
-        <v>141</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>229</v>
+        <v>311</v>
       </c>
       <c r="B72" s="3">
-        <v>41129</v>
+        <v>3309</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>(i) Monitoring of public corporations</v>
-      </c>
-      <c r="D72" t="s">
-        <v>230</v>
+        <v>Scope of state-owned enterprises</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G72" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I72" s="1"/>
+      <c r="I72" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J72" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
       <c r="K72" t="s">
-        <v>206</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>94</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" t="s">
-        <v>94</v>
+        <v>114</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3305</v>
+      </c>
+      <c r="C73" t="str">
+        <f>VLOOKUP(B73,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Administrative burdens on startups</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
@@ -48987,122 +49018,139 @@
         <v>372</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I73" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I73" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J73" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="K73" t="s">
-        <v>92</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>9</v>
-      </c>
-      <c r="B74" s="3"/>
-      <c r="C74" t="s">
-        <v>9</v>
+        <v>297</v>
+      </c>
+      <c r="B74" s="3">
+        <v>3328</v>
+      </c>
+      <c r="C74" t="str">
+        <f>VLOOKUP(B74,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Regulatory protection of incumbents</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>10</v>
+        <v>298</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I74" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I74" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J74" t="s">
-        <v>8</v>
+        <v>296</v>
       </c>
       <c r="K74" t="s">
-        <v>7</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>4</v>
-      </c>
-      <c r="B75" s="3"/>
-      <c r="C75" t="s">
-        <v>4</v>
+        <v>90</v>
+      </c>
+      <c r="B75">
+        <v>3308</v>
+      </c>
+      <c r="C75" t="str">
+        <f>VLOOKUP(B75,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Other barriers to trade and investment</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>6</v>
+        <v>91</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I75" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I75" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J75" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>74</v>
-      </c>
-      <c r="B76" s="3"/>
-      <c r="C76" t="s">
-        <v>74</v>
+        <v>101</v>
+      </c>
+      <c r="B76">
+        <v>3307</v>
+      </c>
+      <c r="C76" t="str">
+        <f>VLOOKUP(B76,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Explicit barriers to trade and investment</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>75</v>
+        <v>102</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I76" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="J76" t="s">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="K76" t="s">
-        <v>0</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>114</v>
-      </c>
-      <c r="B77" s="3">
-        <v>3305</v>
+        <v>108</v>
+      </c>
+      <c r="B77">
+        <v>3323</v>
       </c>
       <c r="C77" t="str">
         <f>VLOOKUP(B77,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Administrative burdens on startups</v>
+        <v>Complexity of regulatory procedures</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>5</v>
@@ -49120,875 +49168,837 @@
         <v>392</v>
       </c>
       <c r="J77" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K77" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>238</v>
-      </c>
-      <c r="B78" s="3">
-        <v>40991</v>
-      </c>
-      <c r="C78" t="str">
-        <f>VLOOKUP(B78,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Party Financing</v>
+        <v>187</v>
+      </c>
+      <c r="B78" s="3"/>
+      <c r="C78" t="s">
+        <v>187</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>239</v>
-      </c>
-      <c r="E78" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E78" t="s">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G78" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H78" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" t="s">
-        <v>237</v>
+        <v>186</v>
       </c>
       <c r="K78" t="s">
-        <v>236</v>
+        <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>384</v>
-      </c>
-      <c r="B79" s="3">
-        <v>289</v>
-      </c>
-      <c r="C79" t="str">
-        <f>VLOOKUP(B79,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
+        <v>179</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" t="s">
+        <v>179</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="E79" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G79" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H79" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" t="s">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="K79" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>242</v>
-      </c>
-      <c r="B80" s="3">
-        <v>40986</v>
-      </c>
-      <c r="C80" t="str">
-        <f>VLOOKUP(B80,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Political Rights</v>
+        <v>167</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" t="s">
+        <v>167</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E80" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="E80" t="s">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G80" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H80" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I80" s="1"/>
       <c r="J80" t="s">
-        <v>241</v>
+        <v>166</v>
       </c>
       <c r="K80" t="s">
-        <v>240</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81">
-        <v>27470</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="B81" s="3"/>
       <c r="C81" t="s">
-        <v>363</v>
+        <v>164</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E81" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="E81" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G81" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="H81" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I81" s="1"/>
       <c r="J81" t="s">
-        <v>70</v>
+        <v>162</v>
       </c>
       <c r="K81" t="s">
-        <v>69</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>67</v>
+        <v>159</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>68</v>
+        <v>160</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" t="s">
-        <v>66</v>
+        <v>158</v>
       </c>
       <c r="K82" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>64</v>
-      </c>
-      <c r="B83">
-        <v>42025</v>
-      </c>
-      <c r="C83" t="str">
-        <f>VLOOKUP(B83,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by social group </v>
+        <v>156</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" t="s">
+        <v>156</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>65</v>
+        <v>157</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" t="s">
-        <v>63</v>
+        <v>155</v>
       </c>
       <c r="K83" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>61</v>
-      </c>
-      <c r="B84">
-        <v>42026</v>
-      </c>
-      <c r="C84" t="str">
-        <f>VLOOKUP(B84,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by socio-economic position </v>
+        <v>383</v>
+      </c>
+      <c r="B84" s="3"/>
+      <c r="C84" t="s">
+        <v>153</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>62</v>
+        <v>154</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
       <c r="G84" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H84" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" t="s">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="K84" t="s">
-        <v>27</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>297</v>
-      </c>
-      <c r="B85" s="3">
-        <v>3328</v>
-      </c>
-      <c r="C85" t="str">
-        <f>VLOOKUP(B85,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulatory protection of incumbents</v>
+        <v>150</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" t="s">
+        <v>150</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>298</v>
+        <v>151</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I85" s="1" t="s">
-        <v>392</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I85" s="1"/>
       <c r="J85" t="s">
-        <v>296</v>
+        <v>149</v>
       </c>
       <c r="K85" t="s">
-        <v>37</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>211</v>
-      </c>
-      <c r="B86" s="3">
-        <v>41189</v>
-      </c>
-      <c r="C86" t="str">
-        <f>VLOOKUP(B86,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Procurement</v>
+        <v>144</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" t="s">
+        <v>144</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>212</v>
+        <v>145</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>143</v>
       </c>
       <c r="G86" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" t="s">
-        <v>210</v>
+        <v>142</v>
       </c>
       <c r="K86" t="s">
-        <v>206</v>
+        <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>136</v>
+        <v>201</v>
       </c>
       <c r="B87" s="3">
-        <v>44123</v>
+        <v>41814</v>
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(B87,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Property Rights</v>
+        <v xml:space="preserve">Bureaucratic quality </v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>137</v>
+        <v>202</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="G87" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>135</v>
-      </c>
-      <c r="K87" t="s">
-        <v>134</v>
+        <v>200</v>
+      </c>
+      <c r="K87" s="6" t="s">
+        <v>394</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>90</v>
-      </c>
-      <c r="B88">
-        <v>3308</v>
+        <v>330</v>
+      </c>
+      <c r="B88" s="3">
+        <v>664</v>
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(B88,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Other barriers to trade and investment</v>
+        <v>Diversion of public funds</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>91</v>
+        <v>331</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="G88" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I88" s="1"/>
       <c r="J88" t="s">
-        <v>88</v>
+        <v>329</v>
       </c>
       <c r="K88" t="s">
-        <v>37</v>
+        <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>248</v>
+        <v>388</v>
       </c>
       <c r="B89" s="3">
-        <v>40954</v>
+        <v>32627</v>
       </c>
       <c r="C89" t="str">
         <f>VLOOKUP(B89,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Protection of minority shareholders interests, 1-7 (best)</v>
+        <v>To what extent do you think that corruption is a problem in the public sector in this country? (%)</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="G89" t="s">
-        <v>372</v>
+        <v>379</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I89" s="1"/>
       <c r="J89" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="K89" t="s">
-        <v>15</v>
+        <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>232</v>
-      </c>
-      <c r="B90" s="3">
-        <v>41127</v>
-      </c>
-      <c r="C90" t="str">
-        <f>VLOOKUP(B90,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public access to information</v>
+        <v>183</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" t="s">
+        <v>183</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>233</v>
-      </c>
-      <c r="E90" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E90" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G90" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I90" s="1"/>
       <c r="J90" t="s">
-        <v>231</v>
+        <v>182</v>
       </c>
       <c r="K90" t="s">
-        <v>206</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="B91" s="3">
-        <v>41137</v>
+        <v>40985</v>
       </c>
       <c r="C91" t="str">
         <f>VLOOKUP(B91,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public asset management</v>
+        <v>Civil Liberties</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>227</v>
+        <v>246</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G91" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="J91" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="K91" t="s">
-        <v>206</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>25</v>
-      </c>
-      <c r="B92">
-        <v>41322</v>
+        <v>242</v>
+      </c>
+      <c r="B92" s="3">
+        <v>40986</v>
       </c>
       <c r="C92" t="str">
         <f>VLOOKUP(B92,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public trust in politicians, 1-7 (best)</v>
+        <v>Political Rights</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>26</v>
+        <v>243</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="G92" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I92" s="1"/>
+      <c r="I92" s="1" t="s">
+        <v>391</v>
+      </c>
       <c r="J92" t="s">
-        <v>23</v>
+        <v>241</v>
       </c>
       <c r="K92" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>291</v>
-      </c>
-      <c r="B93" s="3">
-        <v>27885</v>
-      </c>
-      <c r="C93" t="str">
-        <f>VLOOKUP(B93,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Publicized laws and government data</v>
+        <v>98</v>
+      </c>
+      <c r="B93" s="3"/>
+      <c r="C93" t="s">
+        <v>98</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>292</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G93" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" t="s">
-        <v>290</v>
+        <v>97</v>
       </c>
       <c r="K93" t="s">
-        <v>277</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="E94" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E94" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="G94" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" t="s">
-        <v>47</v>
+        <v>175</v>
       </c>
       <c r="K94" t="s">
-        <v>0</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="B95" s="3"/>
       <c r="C95" t="s">
-        <v>45</v>
+        <v>173</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E95" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E95" t="s">
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>163</v>
       </c>
       <c r="G95" t="s">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" t="s">
-        <v>43</v>
+        <v>172</v>
       </c>
       <c r="K95" t="s">
-        <v>42</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>139</v>
-      </c>
-      <c r="B96" s="3">
-        <v>43075</v>
-      </c>
-      <c r="C96" t="str">
-        <f>VLOOKUP(B96,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>GCI 4.0: Renewable energy regulation</v>
+        <v>129</v>
+      </c>
+      <c r="B96" s="3"/>
+      <c r="C96" t="s">
+        <v>129</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G96" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="K96" t="s">
-        <v>15</v>
+        <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>214</v>
+        <v>350</v>
       </c>
       <c r="B97" s="3">
-        <v>41167</v>
+        <v>227</v>
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Revenue administration</v>
+        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>215</v>
+        <v>351</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>44</v>
-      </c>
-      <c r="G97" t="s">
-        <v>371</v>
+        <v>163</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>376</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" t="s">
-        <v>213</v>
+        <v>349</v>
       </c>
       <c r="K97" t="s">
-        <v>206</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>288</v>
+        <v>339</v>
       </c>
       <c r="B98" s="3">
-        <v>27889</v>
+        <v>308</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(B98,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Right to information</v>
+        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>289</v>
+        <v>340</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>3</v>
+        <v>89</v>
       </c>
       <c r="G98" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" t="s">
-        <v>287</v>
+        <v>338</v>
       </c>
       <c r="K98" t="s">
-        <v>277</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>101</v>
-      </c>
-      <c r="B99">
-        <v>3307</v>
+        <v>119</v>
+      </c>
+      <c r="B99" s="3">
+        <v>290</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Explicit barriers to trade and investment</v>
+        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="G99" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>392</v>
-      </c>
+      <c r="I99" s="1"/>
       <c r="J99" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="K99" t="s">
-        <v>37</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>266</v>
+        <v>336</v>
       </c>
       <c r="B100" s="3">
-        <v>28775</v>
+        <v>320</v>
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(B100,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Separation of powers</v>
-      </c>
-      <c r="D100" t="s">
-        <v>267</v>
+        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>337</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G100" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" t="s">
-        <v>265</v>
+        <v>335</v>
       </c>
       <c r="K100" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>251</v>
+        <v>347</v>
       </c>
       <c r="B101" s="3">
-        <v>40837</v>
+        <v>268</v>
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(B101,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficiency of legal framework in settling disputes, 1-7 (best)</v>
+        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>252</v>
+        <v>348</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G101" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" t="s">
-        <v>250</v>
+        <v>346</v>
       </c>
       <c r="K101" t="s">
-        <v>15</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>263</v>
+        <v>384</v>
       </c>
       <c r="B102" s="3">
-        <v>28780</v>
+        <v>289</v>
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(B102,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>State identity</v>
-      </c>
-      <c r="D102" t="s">
-        <v>264</v>
+        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>345</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G102" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" t="s">
-        <v>262</v>
+        <v>344</v>
       </c>
       <c r="K102" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>385</v>
+        <v>342</v>
       </c>
       <c r="B103" s="3">
-        <v>28782</v>
+        <v>307</v>
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(B103,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Steering Capability</v>
+        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>261</v>
+        <v>343</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>5</v>
@@ -50004,186 +50014,192 @@
       </c>
       <c r="I103" s="1"/>
       <c r="J103" t="s">
-        <v>260</v>
+        <v>341</v>
       </c>
       <c r="K103" t="s">
-        <v>259</v>
+        <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>167</v>
-      </c>
-      <c r="B104" s="3"/>
-      <c r="C104" t="s">
-        <v>167</v>
+        <v>272</v>
+      </c>
+      <c r="B104" s="3">
+        <v>28748</v>
+      </c>
+      <c r="C104" t="str">
+        <f>VLOOKUP(B104,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Efficient use of assets</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E104" t="s">
+        <v>273</v>
+      </c>
+      <c r="E104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="G104" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" t="s">
-        <v>166</v>
+        <v>271</v>
       </c>
       <c r="K104" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>164</v>
-      </c>
-      <c r="B105" s="3"/>
-      <c r="C105" t="s">
-        <v>164</v>
+        <v>269</v>
+      </c>
+      <c r="B105" s="3">
+        <v>28749</v>
+      </c>
+      <c r="C105" t="str">
+        <f>VLOOKUP(B105,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Environmental policy</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E105" t="s">
+        <v>270</v>
+      </c>
+      <c r="E105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>163</v>
+        <v>44</v>
       </c>
       <c r="G105" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" t="s">
-        <v>162</v>
+        <v>268</v>
       </c>
       <c r="K105" t="s">
-        <v>161</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="B106" s="3">
-        <v>307</v>
+        <v>28775</v>
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(B106,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
-      </c>
-      <c r="D106" s="3" t="s">
-        <v>343</v>
+        <v>Separation of powers</v>
+      </c>
+      <c r="D106" t="s">
+        <v>267</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G106" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="K106" t="s">
-        <v>116</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>323</v>
+        <v>263</v>
       </c>
       <c r="B107" s="3">
-        <v>688</v>
+        <v>28780</v>
       </c>
       <c r="C107" t="str">
         <f>VLOOKUP(B107,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Transparency of government policymaking</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>324</v>
+        <v>State identity</v>
+      </c>
+      <c r="D107" t="s">
+        <v>264</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="G107" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>322</v>
+        <v>262</v>
       </c>
       <c r="K107" t="s">
-        <v>15</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>144</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" t="s">
-        <v>144</v>
+        <v>385</v>
+      </c>
+      <c r="B108" s="3">
+        <v>28782</v>
+      </c>
+      <c r="C108" t="str">
+        <f>VLOOKUP(B108,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Steering Capability</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>145</v>
+        <v>261</v>
       </c>
       <c r="E108" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F108" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="G108" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I108" s="1"/>
       <c r="J108" t="s">
-        <v>142</v>
+        <v>260</v>
       </c>
       <c r="K108" t="s">
-        <v>141</v>
+        <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-      <c r="B109">
-        <v>3323</v>
-      </c>
-      <c r="C109" t="str">
-        <f>VLOOKUP(B109,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complexity of regulatory procedures</v>
+        <v>381</v>
+      </c>
+      <c r="B109" s="3"/>
+      <c r="C109" t="s">
+        <v>111</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>5</v>
@@ -50195,22 +50211,37 @@
         <v>372</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I109" s="1" t="s">
-        <v>392</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I109" s="1"/>
       <c r="J109" t="s">
-        <v>107</v>
-      </c>
-      <c r="K109" t="s">
-        <v>37</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:K109" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:K109">
-      <sortCondition ref="J1:J109"/>
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Burden of government regulation, 1-7 (best)"/>
+        <filter val="Effectiveness of anti-monopoly policy, 1-7 (best)"/>
+        <filter val="Efficiency of legal framework in challenging regs., 1-7 (best)"/>
+        <filter val="Efficiency of legal framework in settling disputes, 1-7 (best)"/>
+        <filter val="Favoritism in decisions of government officials, 1-7 (best)"/>
+        <filter val="Hiring and firing practices, 1-7 (best)"/>
+        <filter val="Irregular payments and bribes, 1-7 (best)"/>
+        <filter val="Judicial independence, 1-7 (best)"/>
+        <filter val="Protection of minority shareholders interests, 1-7 (best)"/>
+        <filter val="Public trust in politicians, 1-7 (best)"/>
+        <filter val="Transparency of government policymaking, 1-7 (best)"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="10">
+      <filters>
+        <filter val="World Economic Forum Global Competitiveness Index"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
+      <sortCondition descending="1" ref="K1:K109"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\institutional-assessment-dashboard\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9224C27B-A086-4852-8D83-669EB9EBCB4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD13DA-4A32-43B0-B626-2DEB833BC42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="21864" windowHeight="13176" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="20550" windowHeight="11835" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="GBID" sheetId="1" r:id="rId1"/>
@@ -46556,11 +46556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17:D30"/>
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46613,7 +46612,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -46647,7 +46646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -46681,7 +46680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>382</v>
       </c>
@@ -46712,7 +46711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -46746,7 +46745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>282</v>
       </c>
@@ -46780,7 +46779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -46811,7 +46810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -46842,7 +46841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -46873,7 +46872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -46904,7 +46903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -46938,7 +46937,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>279</v>
       </c>
@@ -46972,7 +46971,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -47006,7 +47005,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -47040,7 +47039,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -47074,7 +47073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -47173,7 +47172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -47309,7 +47308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -47343,7 +47342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>333</v>
       </c>
@@ -47581,7 +47580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -47615,7 +47614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -47648,7 +47647,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -47679,7 +47678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -47710,7 +47709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>386</v>
       </c>
@@ -47744,7 +47743,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -47775,7 +47774,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -47809,7 +47808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>275</v>
       </c>
@@ -47843,7 +47842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -47877,7 +47876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -47908,7 +47907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -47942,7 +47941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -47976,7 +47975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>192</v>
       </c>
@@ -48010,7 +48009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -48044,7 +48043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -48078,7 +48077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -48112,7 +48111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -48146,7 +48145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -48177,7 +48176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -48208,7 +48207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -48239,7 +48238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -48273,7 +48272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -48307,7 +48306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>238</v>
       </c>
@@ -48341,7 +48340,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>380</v>
       </c>
@@ -48375,7 +48374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>223</v>
       </c>
@@ -48409,7 +48408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -48443,7 +48442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -48477,7 +48476,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -48511,7 +48510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -48545,7 +48544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>211</v>
       </c>
@@ -48579,7 +48578,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>232</v>
       </c>
@@ -48613,7 +48612,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -48647,7 +48646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -48681,7 +48680,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -48716,7 +48715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -48747,7 +48746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>387</v>
       </c>
@@ -48778,7 +48777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>299</v>
       </c>
@@ -48814,7 +48813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -48850,7 +48849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>305</v>
       </c>
@@ -48886,7 +48885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>302</v>
       </c>
@@ -48922,7 +48921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>308</v>
       </c>
@@ -48958,7 +48957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -48994,7 +48993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -49030,7 +49029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>297</v>
       </c>
@@ -49066,7 +49065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -49102,7 +49101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -49138,7 +49137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -49174,7 +49173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -49205,7 +49204,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -49236,7 +49235,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -49267,7 +49266,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -49298,7 +49297,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -49329,7 +49328,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -49360,7 +49359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -49391,7 +49390,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>150</v>
       </c>
@@ -49422,7 +49421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>144</v>
       </c>
@@ -49453,7 +49452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" ht="16.5" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -49487,7 +49486,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>330</v>
       </c>
@@ -49521,7 +49520,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -49555,7 +49554,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -49586,7 +49585,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -49622,7 +49621,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>242</v>
       </c>
@@ -49658,7 +49657,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -49689,7 +49688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -49720,7 +49719,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -49751,7 +49750,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -49782,7 +49781,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -49816,7 +49815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>339</v>
       </c>
@@ -49850,7 +49849,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -49884,7 +49883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>336</v>
       </c>
@@ -49918,7 +49917,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>347</v>
       </c>
@@ -49952,7 +49951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>384</v>
       </c>
@@ -49986,7 +49985,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>342</v>
       </c>
@@ -50020,7 +50019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>272</v>
       </c>
@@ -50054,7 +50053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -50088,7 +50087,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -50122,7 +50121,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -50156,7 +50155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>385</v>
       </c>
@@ -50190,7 +50189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:11" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>381</v>
       </c>
@@ -50220,26 +50219,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:K109" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Burden of government regulation, 1-7 (best)"/>
-        <filter val="Effectiveness of anti-monopoly policy, 1-7 (best)"/>
-        <filter val="Efficiency of legal framework in challenging regs., 1-7 (best)"/>
-        <filter val="Efficiency of legal framework in settling disputes, 1-7 (best)"/>
-        <filter val="Favoritism in decisions of government officials, 1-7 (best)"/>
-        <filter val="Hiring and firing practices, 1-7 (best)"/>
-        <filter val="Irregular payments and bribes, 1-7 (best)"/>
-        <filter val="Judicial independence, 1-7 (best)"/>
-        <filter val="Protection of minority shareholders interests, 1-7 (best)"/>
-        <filter val="Public trust in politicians, 1-7 (best)"/>
-        <filter val="Transparency of government policymaking, 1-7 (best)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="10">
-      <filters>
-        <filter val="World Economic Forum Global Competitiveness Index"/>
-      </filters>
-    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
       <sortCondition descending="1" ref="K1:K109"/>
     </sortState>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luizaandrade\Documents\GitHub\institutional-assessment-dashboard\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91FD13DA-4A32-43B0-B626-2DEB833BC42B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F30D38-D46E-0C4F-ADA5-9E05174D3120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="20550" windowHeight="11835" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="20560" windowHeight="11840" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="GBID" sheetId="1" r:id="rId1"/>
@@ -46559,25 +46559,25 @@
   <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.140625" customWidth="1"/>
-    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.85546875" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.140625" customWidth="1"/>
-    <col min="11" max="11" width="23.5703125" customWidth="1"/>
+    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
+    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.83203125" customWidth="1"/>
+    <col min="8" max="8" width="11.1640625" customWidth="1"/>
+    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.1640625" customWidth="1"/>
+    <col min="11" max="11" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>357</v>
       </c>
@@ -46612,7 +46612,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>21</v>
       </c>
@@ -46646,7 +46646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>132</v>
       </c>
@@ -46680,7 +46680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>382</v>
       </c>
@@ -46711,7 +46711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>125</v>
       </c>
@@ -46745,7 +46745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>282</v>
       </c>
@@ -46779,7 +46779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>83</v>
       </c>
@@ -46810,7 +46810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -46841,7 +46841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>74</v>
       </c>
@@ -46872,7 +46872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -46903,7 +46903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>285</v>
       </c>
@@ -46937,7 +46937,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>279</v>
       </c>
@@ -46971,7 +46971,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>291</v>
       </c>
@@ -47005,7 +47005,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>288</v>
       </c>
@@ -47039,7 +47039,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>136</v>
       </c>
@@ -47073,7 +47073,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -47104,7 +47104,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>170</v>
       </c>
@@ -47138,7 +47138,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>294</v>
       </c>
@@ -47172,7 +47172,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>204</v>
       </c>
@@ -47206,7 +47206,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>254</v>
       </c>
@@ -47240,7 +47240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>251</v>
       </c>
@@ -47274,7 +47274,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>326</v>
       </c>
@@ -47308,7 +47308,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -47342,7 +47342,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>333</v>
       </c>
@@ -47376,7 +47376,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>323</v>
       </c>
@@ -47410,7 +47410,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>320</v>
       </c>
@@ -47444,7 +47444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>18</v>
       </c>
@@ -47478,7 +47478,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>248</v>
       </c>
@@ -47512,7 +47512,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>317</v>
       </c>
@@ -47546,7 +47546,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>25</v>
       </c>
@@ -47580,7 +47580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>139</v>
       </c>
@@ -47614,7 +47614,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>370</v>
       </c>
@@ -47647,7 +47647,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>45</v>
       </c>
@@ -47678,7 +47678,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -47709,7 +47709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>386</v>
       </c>
@@ -47743,7 +47743,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>105</v>
       </c>
@@ -47774,7 +47774,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>198</v>
       </c>
@@ -47808,7 +47808,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>275</v>
       </c>
@@ -47842,7 +47842,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>195</v>
       </c>
@@ -47876,7 +47876,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>53</v>
       </c>
@@ -47907,7 +47907,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>35</v>
       </c>
@@ -47941,7 +47941,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>32</v>
       </c>
@@ -47975,7 +47975,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>192</v>
       </c>
@@ -48009,7 +48009,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>190</v>
       </c>
@@ -48043,7 +48043,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>29</v>
       </c>
@@ -48077,7 +48077,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>389</v>
       </c>
@@ -48111,7 +48111,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>122</v>
       </c>
@@ -48145,7 +48145,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>80</v>
       </c>
@@ -48176,7 +48176,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>77</v>
       </c>
@@ -48207,7 +48207,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>67</v>
       </c>
@@ -48238,7 +48238,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>64</v>
       </c>
@@ -48272,7 +48272,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>61</v>
       </c>
@@ -48306,7 +48306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>238</v>
       </c>
@@ -48340,7 +48340,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>380</v>
       </c>
@@ -48374,7 +48374,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>223</v>
       </c>
@@ -48408,7 +48408,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>208</v>
       </c>
@@ -48442,7 +48442,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>220</v>
       </c>
@@ -48476,7 +48476,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>217</v>
       </c>
@@ -48510,7 +48510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>229</v>
       </c>
@@ -48544,7 +48544,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>211</v>
       </c>
@@ -48578,7 +48578,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>232</v>
       </c>
@@ -48612,7 +48612,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>226</v>
       </c>
@@ -48646,7 +48646,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>214</v>
       </c>
@@ -48680,7 +48680,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>71</v>
       </c>
@@ -48715,7 +48715,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>9</v>
       </c>
@@ -48746,7 +48746,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>387</v>
       </c>
@@ -48777,7 +48777,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>299</v>
       </c>
@@ -48813,7 +48813,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>40</v>
       </c>
@@ -48849,7 +48849,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>305</v>
       </c>
@@ -48885,7 +48885,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>302</v>
       </c>
@@ -48921,7 +48921,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>308</v>
       </c>
@@ -48957,7 +48957,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>311</v>
       </c>
@@ -48993,7 +48993,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>114</v>
       </c>
@@ -49029,7 +49029,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>297</v>
       </c>
@@ -49065,7 +49065,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>90</v>
       </c>
@@ -49101,7 +49101,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>101</v>
       </c>
@@ -49137,7 +49137,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>108</v>
       </c>
@@ -49173,7 +49173,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>187</v>
       </c>
@@ -49204,7 +49204,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>179</v>
       </c>
@@ -49235,7 +49235,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>167</v>
       </c>
@@ -49266,7 +49266,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>164</v>
       </c>
@@ -49297,7 +49297,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>159</v>
       </c>
@@ -49328,7 +49328,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -49359,7 +49359,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -49390,7 +49390,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>150</v>
       </c>
@@ -49421,7 +49421,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>144</v>
       </c>
@@ -49452,7 +49452,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>201</v>
       </c>
@@ -49486,12 +49486,12 @@
         <v>394</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>330</v>
       </c>
       <c r="B88" s="3">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C88" t="str">
         <f>VLOOKUP(B88,'[1]Master - API'!$F:$G,2,0)</f>
@@ -49520,7 +49520,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -49554,7 +49554,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>183</v>
       </c>
@@ -49585,7 +49585,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>245</v>
       </c>
@@ -49621,7 +49621,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>242</v>
       </c>
@@ -49657,7 +49657,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>98</v>
       </c>
@@ -49688,7 +49688,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>176</v>
       </c>
@@ -49719,7 +49719,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>173</v>
       </c>
@@ -49750,7 +49750,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>129</v>
       </c>
@@ -49781,7 +49781,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>350</v>
       </c>
@@ -49815,7 +49815,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>339</v>
       </c>
@@ -49849,7 +49849,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>119</v>
       </c>
@@ -49883,7 +49883,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>336</v>
       </c>
@@ -49917,7 +49917,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>347</v>
       </c>
@@ -49951,7 +49951,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>384</v>
       </c>
@@ -49985,7 +49985,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>342</v>
       </c>
@@ -50019,7 +50019,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>272</v>
       </c>
@@ -50053,7 +50053,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>269</v>
       </c>
@@ -50087,7 +50087,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>266</v>
       </c>
@@ -50121,7 +50121,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>263</v>
       </c>
@@ -50155,7 +50155,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>385</v>
       </c>
@@ -50189,7 +50189,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>381</v>
       </c>
@@ -50218,11 +50218,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K109" xr:uid="{D3B893D9-65E7-41EF-B122-17457A36849E}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:K109">
-      <sortCondition descending="1" ref="K1:K109"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71F30D38-D46E-0C4F-ADA5-9E05174D3120}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A2C7AF-537F-144F-9897-6F9BC88C5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="20560" windowHeight="11840" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$109</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="387">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -811,15 +811,6 @@
     <t>legaleff_challenging</t>
   </si>
   <si>
-    <t>Global Corruption Barometer</t>
-  </si>
-  <si>
-    <t>Transparency International's Global Corruption Barometer (TIGBC) is the largest world-wide public opinion survey on corruption. It addresses people's direct experiences with bribery and details their views on corruption in the main institutions in their countries. Significantly, the Barometer also provides insights into how willing and ready people are to act to stop corruption.</t>
-  </si>
-  <si>
-    <t>gcb_corruption</t>
-  </si>
-  <si>
     <t>Bertelsmann Transformation Index</t>
   </si>
   <si>
@@ -986,15 +977,6 @@
   </si>
   <si>
     <t>scopeofstateownedenterprises</t>
-  </si>
-  <si>
-    <t>WEF GCI Most Problematic Factors</t>
-  </si>
-  <si>
-    <t>Extent to which regulations over foreign currency is one of the most pressing obstacles for business</t>
-  </si>
-  <si>
-    <t>fx_constraint</t>
   </si>
   <si>
     <t>It measures business executives perceptions of their countrys efficiency of customs procedures.</t>
@@ -1207,13 +1189,7 @@
     <t>Steering capability</t>
   </si>
   <si>
-    <t>Foreign currency regulations</t>
-  </si>
-  <si>
     <t>Centre of government, influence</t>
-  </si>
-  <si>
-    <t>Global corruption barometer</t>
   </si>
   <si>
     <t>Impartial public administration</t>
@@ -46556,10 +46532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <dimension ref="A1:K109"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46579,37 +46555,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -46633,7 +46609,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -46667,7 +46643,7 @@
         <v>118</v>
       </c>
       <c r="G3" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>17</v>
@@ -46682,7 +46658,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -46698,7 +46674,7 @@
         <v>60</v>
       </c>
       <c r="G4" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
@@ -46732,7 +46708,7 @@
         <v>118</v>
       </c>
       <c r="G5" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>17</v>
@@ -46747,7 +46723,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="B6" s="3">
         <v>27900</v>
@@ -46757,7 +46733,7 @@
         <v>Freedom of opinion and expression is effectively guaranteed</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -46766,14 +46742,14 @@
         <v>24</v>
       </c>
       <c r="G6" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -46797,7 +46773,7 @@
         <v>60</v>
       </c>
       <c r="G7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
@@ -46828,7 +46804,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
@@ -46859,7 +46835,7 @@
         <v>60</v>
       </c>
       <c r="G9" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>2</v>
@@ -46890,7 +46866,7 @@
         <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
@@ -46905,7 +46881,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B11" s="3">
         <v>27894</v>
@@ -46915,7 +46891,7 @@
         <v>Complaint mechanisms</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -46924,22 +46900,22 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="K11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B12" s="3">
         <v>27904</v>
@@ -46949,7 +46925,7 @@
         <v>Fundamental labor rights are effectively guaranteed</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
@@ -46958,22 +46934,22 @@
         <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="K12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B13" s="3">
         <v>27885</v>
@@ -46983,7 +46959,7 @@
         <v>Publicized laws and government data</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
@@ -46992,22 +46968,22 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="K13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="B14" s="3">
         <v>27889</v>
@@ -47017,7 +46993,7 @@
         <v>Right to information</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -47026,17 +47002,17 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="K14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -47060,7 +47036,7 @@
         <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>17</v>
@@ -47091,7 +47067,7 @@
         <v>89</v>
       </c>
       <c r="G16" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2</v>
@@ -47125,7 +47101,7 @@
         <v>143</v>
       </c>
       <c r="G17" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>17</v>
@@ -47140,7 +47116,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B18" s="3">
         <v>40828</v>
@@ -47150,7 +47126,7 @@
         <v>Judicial independence, 1-7 (best)</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
@@ -47159,14 +47135,14 @@
         <v>118</v>
       </c>
       <c r="G18" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="K18" t="s">
         <v>15</v>
@@ -47193,7 +47169,7 @@
         <v>143</v>
       </c>
       <c r="G19" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>17</v>
@@ -47227,7 +47203,7 @@
         <v>118</v>
       </c>
       <c r="G20" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>17</v>
@@ -47261,7 +47237,7 @@
         <v>118</v>
       </c>
       <c r="G21" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>17</v>
@@ -47276,7 +47252,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B22" s="3">
         <v>40818</v>
@@ -47286,7 +47262,7 @@
         <v>Irregular payments and bribes, 1-7 (best)</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -47295,14 +47271,14 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="K22" t="s">
         <v>15</v>
@@ -47329,7 +47305,7 @@
         <v>44</v>
       </c>
       <c r="G23" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>17</v>
@@ -47344,7 +47320,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B24" s="3">
         <v>41411</v>
@@ -47354,7 +47330,7 @@
         <v>GCI 4.0: Extent of market dominance</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
@@ -47363,14 +47339,14 @@
         <v>89</v>
       </c>
       <c r="G24" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="K24" t="s">
         <v>15</v>
@@ -47378,7 +47354,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B25" s="3">
         <v>40873</v>
@@ -47388,7 +47364,7 @@
         <v>Transparency of government policymaking, 1-7 (best)</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
@@ -47397,14 +47373,14 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K25" t="s">
         <v>15</v>
@@ -47412,7 +47388,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B26" s="3">
         <v>40947</v>
@@ -47422,7 +47398,7 @@
         <v>Effectiveness of anti-monopoly policy, 1-7 (best)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
@@ -47431,14 +47407,14 @@
         <v>89</v>
       </c>
       <c r="G26" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="K26" t="s">
         <v>15</v>
@@ -47465,7 +47441,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>17</v>
@@ -47499,7 +47475,7 @@
         <v>89</v>
       </c>
       <c r="G28" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>17</v>
@@ -47514,7 +47490,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B29" s="3">
         <v>41008</v>
@@ -47524,7 +47500,7 @@
         <v>Burden of government regulation, 1-7 (best)</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>5</v>
@@ -47533,14 +47509,14 @@
         <v>89</v>
       </c>
       <c r="G29" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
         <v>15</v>
@@ -47567,7 +47543,7 @@
         <v>24</v>
       </c>
       <c r="G30" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>17</v>
@@ -47601,7 +47577,7 @@
         <v>44</v>
       </c>
       <c r="G31" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>17</v>
@@ -47616,35 +47592,35 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B32">
         <v>946</v>
       </c>
       <c r="C32" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="D32" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G32" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="K32" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
@@ -47665,7 +47641,7 @@
         <v>44</v>
       </c>
       <c r="G33" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>2</v>
@@ -47696,10 +47672,10 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
@@ -47711,98 +47687,98 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>386</v>
-      </c>
-      <c r="B35" s="3">
-        <v>3285</v>
-      </c>
-      <c r="C35" t="str">
-        <f>VLOOKUP(B35,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Foreign Currency Regulations</v>
+        <v>105</v>
+      </c>
+      <c r="B35" s="3"/>
+      <c r="C35" t="s">
+        <v>105</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>315</v>
+        <v>106</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>163</v>
-      </c>
-      <c r="G35" s="2" t="s">
-        <v>376</v>
+        <v>89</v>
+      </c>
+      <c r="G35" t="s">
+        <v>366</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>314</v>
+        <v>104</v>
       </c>
       <c r="K35" t="s">
-        <v>313</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" t="s">
-        <v>105</v>
+        <v>198</v>
+      </c>
+      <c r="B36" s="3">
+        <v>41825</v>
+      </c>
+      <c r="C36" t="str">
+        <f>VLOOKUP(B36,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Checks on government </v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>106</v>
+        <v>199</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>89</v>
+        <v>60</v>
       </c>
       <c r="G36" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" t="s">
-        <v>104</v>
+        <v>197</v>
       </c>
       <c r="K36" t="s">
-        <v>103</v>
+        <v>27</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>272</v>
       </c>
       <c r="B37" s="3">
-        <v>41825</v>
+        <v>28738</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Checks on government </v>
+        <v>Civil society participation</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>199</v>
+        <v>273</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G37" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" t="s">
-        <v>197</v>
+      <c r="J37" s="4" t="s">
+        <v>271</v>
       </c>
       <c r="K37" t="s">
         <v>27</v>
@@ -47810,33 +47786,33 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="B38" s="3">
-        <v>28738</v>
+        <v>41854</v>
       </c>
       <c r="C38" t="str">
         <f>VLOOKUP(B38,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil society participation</v>
+        <v xml:space="preserve">Corruption </v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I38" s="1"/>
-      <c r="J38" s="4" t="s">
-        <v>274</v>
+      <c r="J38" t="s">
+        <v>194</v>
       </c>
       <c r="K38" t="s">
         <v>27</v>
@@ -47844,33 +47820,30 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>195</v>
-      </c>
-      <c r="B39" s="3">
-        <v>41854</v>
-      </c>
-      <c r="C39" t="str">
-        <f>VLOOKUP(B39,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Corruption </v>
+        <v>53</v>
+      </c>
+      <c r="B39" s="3"/>
+      <c r="C39" t="s">
+        <v>53</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>196</v>
+        <v>54</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G39" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>194</v>
+        <v>52</v>
       </c>
       <c r="K39" t="s">
         <v>27</v>
@@ -47878,30 +47851,33 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="B40" s="3"/>
-      <c r="C40" t="s">
-        <v>53</v>
+        <v>35</v>
+      </c>
+      <c r="B40">
+        <v>41857</v>
+      </c>
+      <c r="C40" t="str">
+        <f>VLOOKUP(B40,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">CSO entry and exit </v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G40" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="K40" t="s">
         <v>27</v>
@@ -47909,17 +47885,17 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="B41">
-        <v>41857</v>
+        <v>41881</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">CSO entry and exit </v>
+        <v xml:space="preserve">Engaged society </v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>5</v>
@@ -47928,14 +47904,14 @@
         <v>24</v>
       </c>
       <c r="G41" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K41" t="s">
         <v>27</v>
@@ -47943,26 +47919,26 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42">
-        <v>41881</v>
+        <v>192</v>
+      </c>
+      <c r="B42" s="3">
+        <v>41882</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Engaged society </v>
+        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>33</v>
+        <v>193</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
@@ -47977,33 +47953,33 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B43" s="3">
-        <v>41882</v>
+        <v>41883</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
+        <v xml:space="preserve">Executive constraints </v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G43" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="K43" t="s">
         <v>27</v>
@@ -48011,33 +47987,33 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>190</v>
-      </c>
-      <c r="B44" s="3">
-        <v>41883</v>
+        <v>29</v>
+      </c>
+      <c r="B44">
+        <v>41918</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive constraints </v>
+        <v xml:space="preserve">Freedom of academic and cultural expression </v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>191</v>
+        <v>30</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="G44" t="s">
-        <v>374</v>
+        <v>369</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" t="s">
-        <v>189</v>
+        <v>28</v>
       </c>
       <c r="K44" t="s">
         <v>27</v>
@@ -48045,33 +48021,33 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="B45">
-        <v>41918</v>
+        <v>42084</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Freedom of academic and cultural expression </v>
+        <v xml:space="preserve">Rigorous and impartial public administration </v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>30</v>
+        <v>51</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>24</v>
+        <v>44</v>
       </c>
       <c r="G45" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="K45" t="s">
         <v>27</v>
@@ -48079,33 +48055,33 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>389</v>
+        <v>122</v>
       </c>
       <c r="B46">
-        <v>42084</v>
+        <v>41951</v>
       </c>
       <c r="C46" t="str">
         <f>VLOOKUP(B46,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Rigorous and impartial public administration </v>
+        <v xml:space="preserve">Judicial accountability </v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>118</v>
       </c>
       <c r="G46" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" t="s">
-        <v>50</v>
+        <v>121</v>
       </c>
       <c r="K46" t="s">
         <v>27</v>
@@ -48113,33 +48089,30 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B47">
-        <v>41951</v>
-      </c>
-      <c r="C47" t="str">
-        <f>VLOOKUP(B47,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Judicial accountability </v>
+        <v>80</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" t="s">
+        <v>80</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>118</v>
+        <v>60</v>
       </c>
       <c r="G47" t="s">
-        <v>373</v>
+        <v>368</v>
       </c>
       <c r="H47" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="K47" t="s">
         <v>27</v>
@@ -48147,14 +48120,14 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>5</v>
@@ -48163,14 +48136,14 @@
         <v>60</v>
       </c>
       <c r="G48" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="K48" t="s">
         <v>27</v>
@@ -48178,14 +48151,14 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>5</v>
@@ -48194,14 +48167,14 @@
         <v>60</v>
       </c>
       <c r="G49" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="K49" t="s">
         <v>27</v>
@@ -48209,14 +48182,17 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="B50">
+        <v>42025</v>
+      </c>
+      <c r="C50" t="str">
+        <f>VLOOKUP(B50,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Power distributed by social group </v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>5</v>
@@ -48225,14 +48201,14 @@
         <v>60</v>
       </c>
       <c r="G50" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K50" t="s">
         <v>27</v>
@@ -48240,17 +48216,17 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B51">
-        <v>42025</v>
+        <v>42026</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by social group </v>
+        <v xml:space="preserve">Power distributed by socio-economic position </v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>5</v>
@@ -48259,14 +48235,14 @@
         <v>60</v>
       </c>
       <c r="G51" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K51" t="s">
         <v>27</v>
@@ -48274,17 +48250,17 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>61</v>
-      </c>
-      <c r="B52">
-        <v>42026</v>
+        <v>238</v>
+      </c>
+      <c r="B52" s="3">
+        <v>40991</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by socio-economic position </v>
+        <v>Party Financing</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>62</v>
+        <v>239</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>5</v>
@@ -48293,82 +48269,82 @@
         <v>60</v>
       </c>
       <c r="G52" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>59</v>
+        <v>237</v>
       </c>
       <c r="K52" t="s">
-        <v>27</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>238</v>
+        <v>374</v>
       </c>
       <c r="B53" s="3">
-        <v>40991</v>
+        <v>41114</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(B53,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Party Financing</v>
-      </c>
-      <c r="D53" s="3" t="s">
-        <v>239</v>
+        <v>Budget Documentation</v>
+      </c>
+      <c r="D53" t="s">
+        <v>235</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="K53" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>380</v>
+        <v>223</v>
       </c>
       <c r="B54" s="3">
-        <v>41114</v>
+        <v>41141</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Budget Documentation</v>
-      </c>
-      <c r="D54" t="s">
-        <v>235</v>
+        <v>Debt management</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>224</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G54" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="K54" t="s">
         <v>206</v>
@@ -48376,33 +48352,33 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="B55" s="3">
-        <v>41141</v>
+        <v>41216</v>
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Debt management</v>
+        <v>External audit</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>224</v>
+        <v>209</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>222</v>
+        <v>207</v>
       </c>
       <c r="K55" t="s">
         <v>206</v>
@@ -48410,33 +48386,33 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="B56" s="3">
-        <v>41216</v>
+        <v>41149</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>External audit</v>
+        <v>Fiscal strategy</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G56" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="K56" t="s">
         <v>206</v>
@@ -48444,33 +48420,33 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B57" s="3">
-        <v>41149</v>
+        <v>41162</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(B57,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Fiscal strategy</v>
+        <v>Legislative scrutiny of budgets</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G57" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="K57" t="s">
         <v>206</v>
@@ -48478,33 +48454,33 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>217</v>
+        <v>229</v>
       </c>
       <c r="B58" s="3">
-        <v>41162</v>
+        <v>41129</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Legislative scrutiny of budgets</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>218</v>
+        <v>(i) Monitoring of public corporations</v>
+      </c>
+      <c r="D58" t="s">
+        <v>230</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G58" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="K58" t="s">
         <v>206</v>
@@ -48512,17 +48488,17 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>229</v>
+        <v>211</v>
       </c>
       <c r="B59" s="3">
-        <v>41129</v>
+        <v>41189</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>(i) Monitoring of public corporations</v>
-      </c>
-      <c r="D59" t="s">
-        <v>230</v>
+        <v>Procurement</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>212</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
@@ -48531,14 +48507,14 @@
         <v>44</v>
       </c>
       <c r="G59" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="K59" t="s">
         <v>206</v>
@@ -48546,33 +48522,33 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="B60" s="3">
-        <v>41189</v>
+        <v>41127</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(B60,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Procurement</v>
+        <v>Public access to information</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="K60" t="s">
         <v>206</v>
@@ -48580,33 +48556,33 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B61" s="3">
-        <v>41127</v>
+        <v>41137</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public access to information</v>
+        <v>Public asset management</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G61" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="K61" t="s">
         <v>206</v>
@@ -48614,17 +48590,17 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>226</v>
+        <v>214</v>
       </c>
       <c r="B62" s="3">
-        <v>41137</v>
+        <v>41167</v>
       </c>
       <c r="C62" t="str">
         <f>VLOOKUP(B62,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public asset management</v>
+        <v>Revenue administration</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>227</v>
+        <v>215</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>5</v>
@@ -48633,14 +48609,14 @@
         <v>44</v>
       </c>
       <c r="G62" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" t="s">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="K62" t="s">
         <v>206</v>
@@ -48648,148 +48624,150 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>214</v>
-      </c>
-      <c r="B63" s="3">
-        <v>41167</v>
-      </c>
-      <c r="C63" t="str">
-        <f>VLOOKUP(B63,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Revenue administration</v>
+        <v>71</v>
+      </c>
+      <c r="B63">
+        <v>27470</v>
+      </c>
+      <c r="C63" t="s">
+        <v>357</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G63" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I63" s="1"/>
+      <c r="I63" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="J63" t="s">
-        <v>213</v>
+        <v>70</v>
       </c>
       <c r="K63" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>71</v>
-      </c>
-      <c r="B64">
-        <v>27470</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>363</v>
+        <v>9</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" s="1" t="s">
-        <v>390</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I64" s="1"/>
       <c r="J64" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="K64" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>380</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G65" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I65" s="1"/>
       <c r="J65" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="K65" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>387</v>
-      </c>
-      <c r="B66" s="3"/>
-      <c r="C66" t="s">
-        <v>57</v>
+        <v>296</v>
+      </c>
+      <c r="B66" s="3">
+        <v>3326</v>
+      </c>
+      <c r="C66" t="str">
+        <f>VLOOKUP(B66,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Governance of state-owned enterprises</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>58</v>
+        <v>297</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G66" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I66" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>384</v>
+      </c>
       <c r="J66" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="K66" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>299</v>
-      </c>
-      <c r="B67" s="3">
-        <v>3326</v>
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>3310</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Governance of state-owned enterprises</v>
+        <v>Use of command and control regulation</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>300</v>
+        <v>41</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
@@ -48798,16 +48776,16 @@
         <v>39</v>
       </c>
       <c r="G67" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J67" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K67" t="s">
         <v>37</v>
@@ -48815,17 +48793,17 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>40</v>
-      </c>
-      <c r="B68">
-        <v>3310</v>
+        <v>302</v>
+      </c>
+      <c r="B68" s="3">
+        <v>3319</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Use of command and control regulation</v>
+        <v>Direct control over business enterprises</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>41</v>
+        <v>303</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>5</v>
@@ -48834,16 +48812,16 @@
         <v>39</v>
       </c>
       <c r="G68" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J68" t="s">
-        <v>38</v>
+        <v>301</v>
       </c>
       <c r="K68" t="s">
         <v>37</v>
@@ -48851,17 +48829,17 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B69" s="3">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(B69,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Direct control over business enterprises</v>
+        <v>Government involvement in network sectors</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>5</v>
@@ -48870,16 +48848,16 @@
         <v>39</v>
       </c>
       <c r="G69" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J69" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="K69" t="s">
         <v>37</v>
@@ -48887,17 +48865,17 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="B70" s="3">
-        <v>3321</v>
+        <v>3311</v>
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(B70,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Government involvement in network sectors</v>
+        <v>Price controls</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
@@ -48906,16 +48884,16 @@
         <v>39</v>
       </c>
       <c r="G70" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H70" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J70" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="K70" t="s">
         <v>37</v>
@@ -48926,11 +48904,11 @@
         <v>308</v>
       </c>
       <c r="B71" s="3">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(B71,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Price controls</v>
+        <v>Scope of state-owned enterprises</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>309</v>
@@ -48942,13 +48920,13 @@
         <v>39</v>
       </c>
       <c r="G71" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J71" t="s">
         <v>307</v>
@@ -48959,35 +48937,35 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>311</v>
+        <v>114</v>
       </c>
       <c r="B72" s="3">
-        <v>3309</v>
+        <v>3305</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Scope of state-owned enterprises</v>
+        <v>Administrative burdens on startups</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>312</v>
+        <v>115</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>89</v>
       </c>
       <c r="G72" t="s">
-        <v>378</v>
+        <v>366</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J72" t="s">
-        <v>310</v>
+        <v>113</v>
       </c>
       <c r="K72" t="s">
         <v>37</v>
@@ -48995,17 +48973,17 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>114</v>
+        <v>294</v>
       </c>
       <c r="B73" s="3">
-        <v>3305</v>
+        <v>3328</v>
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP(B73,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Administrative burdens on startups</v>
+        <v>Regulatory protection of incumbents</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>115</v>
+        <v>295</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
@@ -49014,16 +48992,16 @@
         <v>89</v>
       </c>
       <c r="G73" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J73" t="s">
-        <v>113</v>
+        <v>293</v>
       </c>
       <c r="K73" t="s">
         <v>37</v>
@@ -49031,17 +49009,17 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>297</v>
-      </c>
-      <c r="B74" s="3">
-        <v>3328</v>
+        <v>90</v>
+      </c>
+      <c r="B74">
+        <v>3308</v>
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(B74,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulatory protection of incumbents</v>
+        <v>Other barriers to trade and investment</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>298</v>
+        <v>91</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
@@ -49050,16 +49028,16 @@
         <v>89</v>
       </c>
       <c r="G74" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J74" t="s">
-        <v>296</v>
+        <v>88</v>
       </c>
       <c r="K74" t="s">
         <v>37</v>
@@ -49067,17 +49045,17 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>90</v>
+        <v>101</v>
       </c>
       <c r="B75">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP(B75,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Other barriers to trade and investment</v>
+        <v>Explicit barriers to trade and investment</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>5</v>
@@ -49086,16 +49064,16 @@
         <v>89</v>
       </c>
       <c r="G75" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J75" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="K75" t="s">
         <v>37</v>
@@ -49103,17 +49081,17 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="B76">
-        <v>3307</v>
+        <v>3323</v>
       </c>
       <c r="C76" t="str">
         <f>VLOOKUP(B76,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Explicit barriers to trade and investment</v>
+        <v>Complexity of regulatory procedures</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>5</v>
@@ -49122,16 +49100,16 @@
         <v>89</v>
       </c>
       <c r="G76" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>392</v>
+        <v>384</v>
       </c>
       <c r="J76" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="K76" t="s">
         <v>37</v>
@@ -49139,50 +49117,45 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77">
-        <v>3323</v>
-      </c>
-      <c r="C77" t="str">
-        <f>VLOOKUP(B77,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complexity of regulatory procedures</v>
+        <v>187</v>
+      </c>
+      <c r="B77" s="3"/>
+      <c r="C77" t="s">
+        <v>187</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E77" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="G77" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H77" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>392</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I77" s="1"/>
       <c r="J77" t="s">
-        <v>107</v>
+        <v>186</v>
       </c>
       <c r="K77" t="s">
-        <v>37</v>
+        <v>185</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
@@ -49191,29 +49164,29 @@
         <v>163</v>
       </c>
       <c r="G78" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="K78" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
@@ -49222,14 +49195,14 @@
         <v>163</v>
       </c>
       <c r="G79" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="K79" t="s">
         <v>161</v>
@@ -49237,14 +49210,14 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E80" t="s">
         <v>5</v>
@@ -49253,14 +49226,14 @@
         <v>163</v>
       </c>
       <c r="G80" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="K80" t="s">
         <v>161</v>
@@ -49268,45 +49241,45 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="E81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="G81" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="K81" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>5</v>
@@ -49315,14 +49288,14 @@
         <v>143</v>
       </c>
       <c r="G82" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="K82" t="s">
         <v>141</v>
@@ -49330,14 +49303,14 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>156</v>
+        <v>377</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>5</v>
@@ -49346,14 +49319,14 @@
         <v>143</v>
       </c>
       <c r="G83" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="K83" t="s">
         <v>141</v>
@@ -49361,14 +49334,14 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>383</v>
+        <v>150</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>5</v>
@@ -49377,14 +49350,14 @@
         <v>143</v>
       </c>
       <c r="G84" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="K84" t="s">
         <v>141</v>
@@ -49392,14 +49365,14 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="B85" s="3"/>
       <c r="C85" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>5</v>
@@ -49408,14 +49381,14 @@
         <v>143</v>
       </c>
       <c r="G85" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="K85" t="s">
         <v>141</v>
@@ -49423,297 +49396,294 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="3"/>
-      <c r="C86" t="s">
-        <v>144</v>
+        <v>201</v>
+      </c>
+      <c r="B86" s="3">
+        <v>41814</v>
+      </c>
+      <c r="C86" t="str">
+        <f>VLOOKUP(B86,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Bureaucratic quality </v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>145</v>
+        <v>202</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="G86" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" t="s">
-        <v>142</v>
-      </c>
-      <c r="K86" t="s">
-        <v>141</v>
+        <v>200</v>
+      </c>
+      <c r="K86" s="6" t="s">
+        <v>386</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>201</v>
+        <v>324</v>
       </c>
       <c r="B87" s="3">
-        <v>41814</v>
+        <v>663</v>
       </c>
       <c r="C87" t="str">
         <f>VLOOKUP(B87,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Bureaucratic quality </v>
+        <v>Diversion of public funds</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>202</v>
+        <v>325</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>200</v>
-      </c>
-      <c r="K87" s="6" t="s">
-        <v>394</v>
+        <v>323</v>
+      </c>
+      <c r="K87" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>330</v>
-      </c>
-      <c r="B88" s="3">
-        <v>663</v>
-      </c>
-      <c r="C88" t="str">
-        <f>VLOOKUP(B88,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Diversion of public funds</v>
+        <v>183</v>
+      </c>
+      <c r="B88" s="3"/>
+      <c r="C88" t="s">
+        <v>183</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="E88" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E88" t="s">
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>3</v>
+        <v>163</v>
       </c>
       <c r="G88" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I88" s="1"/>
       <c r="J88" t="s">
-        <v>329</v>
+        <v>182</v>
       </c>
       <c r="K88" t="s">
-        <v>328</v>
+        <v>181</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>388</v>
+        <v>245</v>
       </c>
       <c r="B89" s="3">
-        <v>32627</v>
+        <v>40985</v>
       </c>
       <c r="C89" t="str">
         <f>VLOOKUP(B89,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>To what extent do you think that corruption is a problem in the public sector in this country? (%)</v>
+        <v>Civil Liberties</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="G89" t="s">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I89" s="1"/>
+      <c r="I89" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="J89" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
       <c r="K89" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>183</v>
-      </c>
-      <c r="B90" s="3"/>
-      <c r="C90" t="s">
-        <v>183</v>
+        <v>242</v>
+      </c>
+      <c r="B90" s="3">
+        <v>40986</v>
+      </c>
+      <c r="C90" t="str">
+        <f>VLOOKUP(B90,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Political Rights</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E90" t="s">
+        <v>243</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>163</v>
+        <v>60</v>
       </c>
       <c r="G90" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I90" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="J90" t="s">
-        <v>182</v>
+        <v>241</v>
       </c>
       <c r="K90" t="s">
-        <v>181</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>245</v>
-      </c>
-      <c r="B91" s="3">
-        <v>40985</v>
-      </c>
-      <c r="C91" t="str">
-        <f>VLOOKUP(B91,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil Liberties</v>
+        <v>98</v>
+      </c>
+      <c r="B91" s="3"/>
+      <c r="C91" t="s">
+        <v>98</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>246</v>
+        <v>99</v>
       </c>
       <c r="E91" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
       <c r="G91" t="s">
-        <v>374</v>
+        <v>366</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I91" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I91" s="1"/>
       <c r="J91" t="s">
-        <v>244</v>
+        <v>97</v>
       </c>
       <c r="K91" t="s">
-        <v>240</v>
+        <v>96</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>242</v>
-      </c>
-      <c r="B92" s="3">
-        <v>40986</v>
-      </c>
-      <c r="C92" t="str">
-        <f>VLOOKUP(B92,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Political Rights</v>
+        <v>176</v>
+      </c>
+      <c r="B92" s="3"/>
+      <c r="C92" t="s">
+        <v>176</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>243</v>
-      </c>
-      <c r="E92" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>60</v>
+        <v>163</v>
       </c>
       <c r="G92" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="H92" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I92" s="1" t="s">
-        <v>391</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I92" s="1"/>
       <c r="J92" t="s">
-        <v>241</v>
+        <v>175</v>
       </c>
       <c r="K92" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" t="s">
-        <v>98</v>
+        <v>173</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E93" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E93" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>89</v>
+        <v>163</v>
       </c>
       <c r="G93" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" t="s">
-        <v>97</v>
+        <v>172</v>
       </c>
       <c r="K93" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="B94" s="3"/>
       <c r="C94" t="s">
-        <v>176</v>
+        <v>129</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="E94" t="s">
+        <v>130</v>
+      </c>
+      <c r="E94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>163</v>
+        <v>118</v>
       </c>
       <c r="G94" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" t="s">
-        <v>175</v>
+        <v>128</v>
       </c>
       <c r="K94" t="s">
         <v>127</v>
@@ -49721,95 +49691,101 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>173</v>
-      </c>
-      <c r="B95" s="3"/>
-      <c r="C95" t="s">
-        <v>173</v>
+        <v>344</v>
+      </c>
+      <c r="B95" s="3">
+        <v>227</v>
+      </c>
+      <c r="C95" t="str">
+        <f>VLOOKUP(B95,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E95" t="s">
+        <v>345</v>
+      </c>
+      <c r="E95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F95" t="s">
         <v>163</v>
       </c>
-      <c r="G95" t="s">
-        <v>376</v>
+      <c r="G95" s="2" t="s">
+        <v>370</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" t="s">
-        <v>172</v>
+        <v>343</v>
       </c>
       <c r="K95" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>129</v>
-      </c>
-      <c r="B96" s="3"/>
-      <c r="C96" t="s">
-        <v>129</v>
+        <v>333</v>
+      </c>
+      <c r="B96" s="3">
+        <v>308</v>
+      </c>
+      <c r="C96" t="str">
+        <f>VLOOKUP(B96,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>130</v>
+        <v>334</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="G96" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" t="s">
-        <v>128</v>
+        <v>332</v>
       </c>
       <c r="K96" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>350</v>
+        <v>119</v>
       </c>
       <c r="B97" s="3">
-        <v>227</v>
+        <v>290</v>
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
+        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>351</v>
+        <v>120</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>163</v>
-      </c>
-      <c r="G97" s="2" t="s">
-        <v>376</v>
+        <v>118</v>
+      </c>
+      <c r="G97" t="s">
+        <v>367</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" t="s">
-        <v>349</v>
+        <v>117</v>
       </c>
       <c r="K97" t="s">
         <v>116</v>
@@ -49817,17 +49793,17 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="B98" s="3">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(B98,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
+        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>5</v>
@@ -49836,14 +49812,14 @@
         <v>89</v>
       </c>
       <c r="G98" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="K98" t="s">
         <v>116</v>
@@ -49851,33 +49827,33 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="B99" s="3">
-        <v>290</v>
+        <v>268</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
+        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="G99" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" t="s">
-        <v>117</v>
+        <v>340</v>
       </c>
       <c r="K99" t="s">
         <v>116</v>
@@ -49885,33 +49861,33 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>336</v>
+        <v>378</v>
       </c>
       <c r="B100" s="3">
-        <v>320</v>
+        <v>289</v>
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(B100,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
+        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>89</v>
+        <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="K100" t="s">
         <v>116</v>
@@ -49919,33 +49895,33 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="B101" s="3">
-        <v>268</v>
+        <v>307</v>
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(B101,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
+        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>143</v>
+        <v>44</v>
       </c>
       <c r="G101" t="s">
-        <v>377</v>
+        <v>365</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="K101" t="s">
         <v>116</v>
@@ -49953,51 +49929,51 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>384</v>
+        <v>269</v>
       </c>
       <c r="B102" s="3">
-        <v>289</v>
+        <v>28748</v>
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(B102,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
+        <v>Efficient use of assets</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>345</v>
+        <v>270</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>3</v>
+        <v>44</v>
       </c>
       <c r="G102" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" t="s">
-        <v>344</v>
+        <v>268</v>
       </c>
       <c r="K102" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>342</v>
+        <v>266</v>
       </c>
       <c r="B103" s="3">
-        <v>307</v>
+        <v>28749</v>
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(B103,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
+        <v>Environmental policy</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>343</v>
+        <v>267</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>5</v>
@@ -50006,214 +49982,146 @@
         <v>44</v>
       </c>
       <c r="G103" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" t="s">
-        <v>341</v>
+        <v>265</v>
       </c>
       <c r="K103" t="s">
-        <v>116</v>
+        <v>256</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="B104" s="3">
-        <v>28748</v>
+        <v>28775</v>
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(B104,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficient use of assets</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>273</v>
+        <v>Separation of powers</v>
+      </c>
+      <c r="D104" t="s">
+        <v>264</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="G104" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="K104" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B105" s="3">
-        <v>28749</v>
+        <v>28780</v>
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP(B105,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Environmental policy</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>270</v>
+        <v>State identity</v>
+      </c>
+      <c r="D105" t="s">
+        <v>261</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="G105" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="K105" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>266</v>
+        <v>379</v>
       </c>
       <c r="B106" s="3">
-        <v>28775</v>
+        <v>28782</v>
       </c>
       <c r="C106" t="str">
         <f>VLOOKUP(B106,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Separation of powers</v>
-      </c>
-      <c r="D106" t="s">
-        <v>267</v>
+        <v>Steering Capability</v>
+      </c>
+      <c r="D106" s="3" t="s">
+        <v>258</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="G106" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>17</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K106" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>263</v>
-      </c>
-      <c r="B107" s="3">
-        <v>28780</v>
-      </c>
-      <c r="C107" t="str">
-        <f>VLOOKUP(B107,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>State identity</v>
-      </c>
-      <c r="D107" t="s">
-        <v>264</v>
+        <v>375</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" t="s">
+        <v>111</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>112</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F107" t="s">
-        <v>24</v>
+        <v>89</v>
       </c>
       <c r="G107" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>262</v>
-      </c>
-      <c r="K107" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>385</v>
-      </c>
-      <c r="B108" s="3">
-        <v>28782</v>
-      </c>
-      <c r="C108" t="str">
-        <f>VLOOKUP(B108,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Steering Capability</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F108" t="s">
-        <v>44</v>
-      </c>
-      <c r="G108" t="s">
-        <v>371</v>
-      </c>
-      <c r="H108" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I108" s="1"/>
-      <c r="J108" t="s">
-        <v>260</v>
-      </c>
-      <c r="K108" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>381</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" t="s">
-        <v>111</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F109" t="s">
-        <v>89</v>
-      </c>
-      <c r="G109" t="s">
-        <v>372</v>
-      </c>
-      <c r="H109" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I109" s="1"/>
-      <c r="J109" t="s">
         <v>110</v>
       </c>
     </row>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A2C7AF-537F-144F-9897-6F9BC88C5CB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528261B-0178-9441-88F6-DF07225CB5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3900" yWindow="3900" windowWidth="20560" windowHeight="11840" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -1168,9 +1168,6 @@
     <t>SOE corporate governance</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-corruption, transparency and accountability </t>
-  </si>
-  <si>
     <t>Budget documentation</t>
   </si>
   <si>
@@ -1208,6 +1205,9 @@
   </si>
   <si>
     <t>Global State of Democracy (GSoD) Indices </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anticorruption, transparency and accountability </t>
   </si>
 </sst>
 </file>
@@ -46534,8 +46534,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46579,7 +46579,7 @@
         <v>348</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>347</v>
@@ -46609,7 +46609,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>17</v>
@@ -46658,7 +46658,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -46804,7 +46804,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
@@ -46900,7 +46900,7 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>17</v>
@@ -46968,7 +46968,7 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>17</v>
@@ -47002,7 +47002,7 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>17</v>
@@ -47020,11 +47020,11 @@
         <v>136</v>
       </c>
       <c r="B15" s="3">
-        <v>44123</v>
+        <v>633</v>
       </c>
       <c r="C15" t="str">
         <f>VLOOKUP(B15,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Property Rights</v>
+        <v>Property rights (WEF)</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>137</v>
@@ -47271,7 +47271,7 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>17</v>
@@ -47373,7 +47373,7 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>17</v>
@@ -47441,7 +47441,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>17</v>
@@ -47672,7 +47672,7 @@
         <v>3</v>
       </c>
       <c r="G34" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>356</v>
@@ -47805,7 +47805,7 @@
         <v>3</v>
       </c>
       <c r="G38" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>17</v>
@@ -47938,7 +47938,7 @@
         <v>3</v>
       </c>
       <c r="G42" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>17</v>
@@ -48021,7 +48021,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B45">
         <v>42084</v>
@@ -48284,7 +48284,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B53" s="3">
         <v>41114</v>
@@ -48303,7 +48303,7 @@
         <v>3</v>
       </c>
       <c r="G53" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>17</v>
@@ -48371,7 +48371,7 @@
         <v>3</v>
       </c>
       <c r="G55" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>17</v>
@@ -48541,7 +48541,7 @@
         <v>3</v>
       </c>
       <c r="G60" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>17</v>
@@ -48648,7 +48648,7 @@
         <v>17</v>
       </c>
       <c r="I63" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="J63" t="s">
         <v>70</v>
@@ -48675,7 +48675,7 @@
         <v>3</v>
       </c>
       <c r="G64" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>2</v>
@@ -48690,7 +48690,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B65" s="3"/>
       <c r="C65" t="s">
@@ -48746,7 +48746,7 @@
         <v>17</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J66" t="s">
         <v>43</v>
@@ -48782,7 +48782,7 @@
         <v>17</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J67" t="s">
         <v>38</v>
@@ -48818,7 +48818,7 @@
         <v>17</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J68" t="s">
         <v>301</v>
@@ -48854,7 +48854,7 @@
         <v>17</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J69" t="s">
         <v>298</v>
@@ -48890,7 +48890,7 @@
         <v>17</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J70" t="s">
         <v>304</v>
@@ -48926,7 +48926,7 @@
         <v>17</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J71" t="s">
         <v>307</v>
@@ -48962,7 +48962,7 @@
         <v>17</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J72" t="s">
         <v>113</v>
@@ -48998,7 +48998,7 @@
         <v>17</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J73" t="s">
         <v>293</v>
@@ -49034,7 +49034,7 @@
         <v>17</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J74" t="s">
         <v>88</v>
@@ -49070,7 +49070,7 @@
         <v>17</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J75" t="s">
         <v>100</v>
@@ -49106,7 +49106,7 @@
         <v>17</v>
       </c>
       <c r="I76" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="J76" t="s">
         <v>107</v>
@@ -49303,7 +49303,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" t="s">
@@ -49425,7 +49425,7 @@
         <v>200</v>
       </c>
       <c r="K86" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
@@ -49449,7 +49449,7 @@
         <v>3</v>
       </c>
       <c r="G87" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>17</v>
@@ -49520,7 +49520,7 @@
         <v>17</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J89" t="s">
         <v>244</v>
@@ -49556,7 +49556,7 @@
         <v>17</v>
       </c>
       <c r="I90" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="J90" t="s">
         <v>241</v>
@@ -49861,7 +49861,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B100" s="3">
         <v>289</v>
@@ -49880,7 +49880,7 @@
         <v>3</v>
       </c>
       <c r="G100" t="s">
-        <v>373</v>
+        <v>386</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>17</v>
@@ -50065,7 +50065,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B106" s="3">
         <v>28782</v>
@@ -50099,9 +50099,11 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>375</v>
-      </c>
-      <c r="B107" s="3"/>
+        <v>374</v>
+      </c>
+      <c r="B107" s="3">
+        <v>41008</v>
+      </c>
       <c r="C107" t="s">
         <v>111</v>
       </c>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9528261B-0178-9441-88F6-DF07225CB5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FA564-928D-A240-AE23-82DEDBD757E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3900" yWindow="3900" windowWidth="20560" windowHeight="11840" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
+    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="GBID" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$107</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$106</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="383">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -73,18 +73,6 @@
   </si>
   <si>
     <t>open_data_barometer</t>
-  </si>
-  <si>
-    <t>World Bank</t>
-  </si>
-  <si>
-    <t>Measures key aspects in the four focus areas of digital transformation in the public sector: core government systems, public service delivery, citizen engagement, and GovTech enablers.</t>
-  </si>
-  <si>
-    <t>GovTech Maturity Index (GTMI)</t>
-  </si>
-  <si>
-    <t>gtmi</t>
   </si>
   <si>
     <t>World Economic Forum Global Competitiveness Index</t>
@@ -164,9 +152,6 @@
   </si>
   <si>
     <t>Use of command &amp; control regulation</t>
-  </si>
-  <si>
-    <t>command_control</t>
   </si>
   <si>
     <t>World Bank, Global Indicators of Regulatory Governance database</t>
@@ -940,9 +925,6 @@
     <t>Governance of state-owned enterprises</t>
   </si>
   <si>
-    <t>soe_governance</t>
-  </si>
-  <si>
     <t xml:space="preserve">It measures the size of the government’s stake in the largest firm in key network sectors. </t>
   </si>
   <si>
@@ -965,9 +947,6 @@
   </si>
   <si>
     <t>Price controls</t>
-  </si>
-  <si>
-    <t>price_controls</t>
   </si>
   <si>
     <t>It measures whether the government controls at least one firm in a number of business sectors, with a higher weight given to the key network sectors on which the PMR exercise focuses.</t>
@@ -1208,6 +1187,15 @@
   </si>
   <si>
     <t xml:space="preserve">Anticorruption, transparency and accountability </t>
+  </si>
+  <si>
+    <t>governanceofstateownedenterprise</t>
+  </si>
+  <si>
+    <t>pricecontrols</t>
+  </si>
+  <si>
+    <t>useofcommandcontrolregulation</t>
   </si>
 </sst>
 </file>
@@ -46532,10 +46520,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <dimension ref="A1:K107"/>
+  <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46550,47 +46538,47 @@
     <col min="8" max="8" width="11.1640625" customWidth="1"/>
     <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="73.1640625" customWidth="1"/>
-    <col min="11" max="11" width="23.5" customWidth="1"/>
+    <col min="11" max="11" width="51.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B2">
         <v>41794</v>
@@ -46600,7 +46588,7 @@
         <v>Absence of corruption (Global States of Democracy)</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>5</v>
@@ -46609,14 +46597,14 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -46624,7 +46612,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="B3">
         <v>27919</v>
@@ -46634,23 +46622,23 @@
         <v>People can access and afford civil justice</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I3" s="1"/>
       <c r="J3" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="K3" t="s">
         <v>0</v>
@@ -46658,30 +46646,30 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I4" s="1"/>
       <c r="J4" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K4" t="s">
         <v>0</v>
@@ -46689,7 +46677,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B5">
         <v>27932</v>
@@ -46699,23 +46687,23 @@
         <v>Criminal adjudication system is timely and effective</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I5" s="1"/>
       <c r="J5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="K5" t="s">
         <v>0</v>
@@ -46723,7 +46711,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B6" s="3">
         <v>27900</v>
@@ -46733,23 +46721,23 @@
         <v>Freedom of opinion and expression is effectively guaranteed</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
@@ -46757,30 +46745,30 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s">
         <v>0</v>
@@ -46804,7 +46792,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
@@ -46819,30 +46807,30 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F9" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="K9" t="s">
         <v>0</v>
@@ -46850,30 +46838,30 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="K10" t="s">
         <v>0</v>
@@ -46881,7 +46869,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B11" s="3">
         <v>27894</v>
@@ -46891,7 +46879,7 @@
         <v>Complaint mechanisms</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -46900,22 +46888,22 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="K11" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B12" s="3">
         <v>27904</v>
@@ -46925,31 +46913,31 @@
         <v>Fundamental labor rights are effectively guaranteed</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="K12" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B13" s="3">
         <v>27885</v>
@@ -46959,7 +46947,7 @@
         <v>Publicized laws and government data</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
@@ -46968,22 +46956,22 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="K13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B14" s="3">
         <v>27889</v>
@@ -46993,7 +46981,7 @@
         <v>Right to information</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -47002,22 +46990,22 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="K14" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B15" s="3">
         <v>633</v>
@@ -47027,62 +47015,62 @@
         <v>Property rights (WEF)</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I15" s="1"/>
       <c r="J15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="K15" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B16" s="3"/>
       <c r="C16" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I16" s="1"/>
       <c r="J16" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="K16" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B17" s="3">
         <v>657</v>
@@ -47092,31 +47080,31 @@
         <v>Hiring and firing practices, 1-7 (best)</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F17" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B18" s="3">
         <v>40828</v>
@@ -47126,31 +47114,31 @@
         <v>Judicial independence, 1-7 (best)</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F18" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="K18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B19" s="3">
         <v>41424</v>
@@ -47160,31 +47148,31 @@
         <v>GCI 4.0: Active Labour policies</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F19" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B20" s="3">
         <v>40835</v>
@@ -47194,31 +47182,31 @@
         <v>Efficiency of legal framework in challenging regs., 1-7 (best)</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F20" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B21" s="3">
         <v>40837</v>
@@ -47228,31 +47216,31 @@
         <v>Efficiency of legal framework in settling disputes, 1-7 (best)</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F21" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="B22" s="3">
         <v>40818</v>
@@ -47262,7 +47250,7 @@
         <v>Irregular payments and bribes, 1-7 (best)</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -47271,22 +47259,22 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="K22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B23" s="3">
         <v>43072</v>
@@ -47296,31 +47284,31 @@
         <v>GCI 4.0: Energy efficiency regulation</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="K23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
       <c r="B24" s="3">
         <v>41411</v>
@@ -47330,31 +47318,31 @@
         <v>GCI 4.0: Extent of market dominance</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>328</v>
+        <v>321</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>326</v>
+        <v>319</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B25" s="3">
         <v>40873</v>
@@ -47364,7 +47352,7 @@
         <v>Transparency of government policymaking, 1-7 (best)</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>318</v>
+        <v>311</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
@@ -47373,22 +47361,22 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" t="s">
-        <v>316</v>
+        <v>309</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>307</v>
       </c>
       <c r="B26" s="3">
         <v>40947</v>
@@ -47398,31 +47386,31 @@
         <v>Effectiveness of anti-monopoly policy, 1-7 (best)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>315</v>
+        <v>308</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F26" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>313</v>
+        <v>306</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B27">
         <v>40951</v>
@@ -47432,7 +47420,7 @@
         <v>Favoritism in decisions of government officials, 1-7 (best)</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>5</v>
@@ -47441,22 +47429,22 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="K27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B28" s="3">
         <v>40953</v>
@@ -47466,31 +47454,31 @@
         <v>Protection of minority shareholders interests, 1-7 (best)</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="K28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>311</v>
+        <v>304</v>
       </c>
       <c r="B29" s="3">
         <v>41008</v>
@@ -47500,31 +47488,31 @@
         <v>Burden of government regulation, 1-7 (best)</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>310</v>
+        <v>303</v>
       </c>
       <c r="K29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B30">
         <v>41322</v>
@@ -47534,31 +47522,31 @@
         <v>Public trust in politicians, 1-7 (best)</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F30" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I30" s="1"/>
       <c r="J30" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K30" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B31" s="3">
         <v>43075</v>
@@ -47568,1263 +47556,1268 @@
         <v>GCI 4.0: Renewable energy regulation</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F31" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I31" s="1"/>
       <c r="J31" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="K31" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="B32">
         <v>946</v>
       </c>
       <c r="C32" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="D32" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="G32" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K32" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3"/>
       <c r="C33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F33" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="K33" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="B34" s="3"/>
       <c r="C34" t="s">
-        <v>13</v>
+        <v>100</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>14</v>
+        <v>101</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F34" t="s">
-        <v>3</v>
+        <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>386</v>
+        <v>359</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>356</v>
+        <v>2</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" t="s">
-        <v>12</v>
+        <v>99</v>
       </c>
       <c r="K34" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>105</v>
-      </c>
-      <c r="B35" s="3"/>
-      <c r="C35" t="s">
-        <v>105</v>
+        <v>193</v>
+      </c>
+      <c r="B35" s="3">
+        <v>41825</v>
+      </c>
+      <c r="C35" t="str">
+        <f>VLOOKUP(B35,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Checks on government </v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>106</v>
+        <v>194</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F35" t="s">
-        <v>89</v>
+        <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>104</v>
+        <v>192</v>
       </c>
       <c r="K35" t="s">
-        <v>103</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>267</v>
       </c>
       <c r="B36" s="3">
-        <v>41825</v>
+        <v>28738</v>
       </c>
       <c r="C36" t="str">
         <f>VLOOKUP(B36,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Checks on government </v>
+        <v>Civil society participation</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>199</v>
+        <v>268</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F36" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I36" s="1"/>
-      <c r="J36" t="s">
-        <v>197</v>
+      <c r="J36" s="4" t="s">
+        <v>266</v>
       </c>
       <c r="K36" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
       <c r="B37" s="3">
-        <v>28738</v>
+        <v>41854</v>
       </c>
       <c r="C37" t="str">
         <f>VLOOKUP(B37,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil society participation</v>
+        <v xml:space="preserve">Corruption </v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>273</v>
+        <v>191</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F37" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I37" s="1"/>
-      <c r="J37" s="4" t="s">
-        <v>271</v>
+      <c r="J37" t="s">
+        <v>189</v>
       </c>
       <c r="K37" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>195</v>
-      </c>
-      <c r="B38" s="3">
-        <v>41854</v>
-      </c>
-      <c r="C38" t="str">
-        <f>VLOOKUP(B38,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Corruption </v>
+        <v>48</v>
+      </c>
+      <c r="B38" s="3"/>
+      <c r="C38" t="s">
+        <v>48</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>196</v>
+        <v>49</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F38" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H38" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I38" s="1"/>
       <c r="J38" t="s">
-        <v>194</v>
+        <v>47</v>
       </c>
       <c r="K38" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>53</v>
-      </c>
-      <c r="B39" s="3"/>
-      <c r="C39" t="s">
-        <v>53</v>
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>41857</v>
+      </c>
+      <c r="C39" t="str">
+        <f>VLOOKUP(B39,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">CSO entry and exit </v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F39" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H39" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I39" s="1"/>
       <c r="J39" t="s">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="K39" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B40">
-        <v>41857</v>
+        <v>41881</v>
       </c>
       <c r="C40" t="str">
         <f>VLOOKUP(B40,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">CSO entry and exit </v>
+        <v xml:space="preserve">Engaged society </v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F40" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I40" s="1"/>
       <c r="J40" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="K40" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>32</v>
-      </c>
-      <c r="B41">
-        <v>41881</v>
+        <v>187</v>
+      </c>
+      <c r="B41" s="3">
+        <v>41882</v>
       </c>
       <c r="C41" t="str">
         <f>VLOOKUP(B41,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Engaged society </v>
+        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>33</v>
+        <v>188</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F41" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I41" s="1"/>
       <c r="J41" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="K41" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="B42" s="3">
-        <v>41882</v>
+        <v>41883</v>
       </c>
       <c r="C42" t="str">
         <f>VLOOKUP(B42,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
+        <v xml:space="preserve">Executive constraints </v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F42" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>386</v>
+        <v>361</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" t="s">
-        <v>31</v>
+        <v>184</v>
       </c>
       <c r="K42" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="3">
-        <v>41883</v>
+        <v>25</v>
+      </c>
+      <c r="B43">
+        <v>41918</v>
       </c>
       <c r="C43" t="str">
         <f>VLOOKUP(B43,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Executive constraints </v>
+        <v xml:space="preserve">Freedom of academic and cultural expression </v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I43" s="1"/>
       <c r="J43" t="s">
-        <v>189</v>
+        <v>24</v>
       </c>
       <c r="K43" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="B44">
-        <v>41918</v>
+        <v>42084</v>
       </c>
       <c r="C44" t="str">
         <f>VLOOKUP(B44,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Freedom of academic and cultural expression </v>
+        <v xml:space="preserve">Rigorous and impartial public administration </v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F44" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I44" s="1"/>
       <c r="J44" t="s">
-        <v>28</v>
+        <v>45</v>
       </c>
       <c r="K44" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>380</v>
+        <v>117</v>
       </c>
       <c r="B45">
-        <v>42084</v>
+        <v>41951</v>
       </c>
       <c r="C45" t="str">
         <f>VLOOKUP(B45,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Rigorous and impartial public administration </v>
+        <v xml:space="preserve">Judicial accountability </v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>51</v>
+        <v>118</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="H45" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I45" s="1"/>
       <c r="J45" t="s">
-        <v>50</v>
+        <v>116</v>
       </c>
       <c r="K45" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>122</v>
-      </c>
-      <c r="B46">
-        <v>41951</v>
-      </c>
-      <c r="C46" t="str">
-        <f>VLOOKUP(B46,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Judicial accountability </v>
+        <v>75</v>
+      </c>
+      <c r="B46" s="3"/>
+      <c r="C46" t="s">
+        <v>75</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>123</v>
+        <v>76</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>118</v>
+        <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="H46" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I46" s="1"/>
       <c r="J46" t="s">
-        <v>121</v>
+        <v>74</v>
       </c>
       <c r="K46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F47" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I47" s="1"/>
       <c r="J47" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="K47" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F48" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I48" s="1"/>
       <c r="J48" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="K48" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>67</v>
-      </c>
-      <c r="B49" s="3"/>
-      <c r="C49" t="s">
-        <v>67</v>
+        <v>59</v>
+      </c>
+      <c r="B49">
+        <v>42025</v>
+      </c>
+      <c r="C49" t="str">
+        <f>VLOOKUP(B49,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Power distributed by social group </v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F49" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I49" s="1"/>
       <c r="J49" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="K49" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>42025</v>
+        <v>42026</v>
       </c>
       <c r="C50" t="str">
         <f>VLOOKUP(B50,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by social group </v>
+        <v xml:space="preserve">Power distributed by socio-economic position </v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F50" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I50" s="1"/>
       <c r="J50" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="K50" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>61</v>
-      </c>
-      <c r="B51">
-        <v>42026</v>
+        <v>233</v>
+      </c>
+      <c r="B51" s="3">
+        <v>40991</v>
       </c>
       <c r="C51" t="str">
         <f>VLOOKUP(B51,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Power distributed by socio-economic position </v>
+        <v>Party Financing</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>62</v>
+        <v>234</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F51" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H51" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="K51" t="s">
-        <v>27</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>238</v>
+        <v>366</v>
       </c>
       <c r="B52" s="3">
-        <v>40991</v>
+        <v>41114</v>
       </c>
       <c r="C52" t="str">
         <f>VLOOKUP(B52,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Party Financing</v>
-      </c>
-      <c r="D52" s="3" t="s">
-        <v>239</v>
+        <v>Budget Documentation</v>
+      </c>
+      <c r="D52" t="s">
+        <v>230</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F52" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K52" t="s">
-        <v>236</v>
+        <v>201</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>373</v>
+        <v>218</v>
       </c>
       <c r="B53" s="3">
-        <v>41114</v>
+        <v>41141</v>
       </c>
       <c r="C53" t="str">
         <f>VLOOKUP(B53,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Budget Documentation</v>
-      </c>
-      <c r="D53" t="s">
-        <v>235</v>
+        <v>Debt management</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>219</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F53" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="K53" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>223</v>
+        <v>203</v>
       </c>
       <c r="B54" s="3">
-        <v>41141</v>
+        <v>41216</v>
       </c>
       <c r="C54" t="str">
         <f>VLOOKUP(B54,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Debt management</v>
+        <v>External audit</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>224</v>
+        <v>204</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F54" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>222</v>
+        <v>202</v>
       </c>
       <c r="K54" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="B55" s="3">
-        <v>41216</v>
+        <v>41149</v>
       </c>
       <c r="C55" t="str">
         <f>VLOOKUP(B55,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>External audit</v>
+        <v>Fiscal strategy</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F55" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="K55" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B56" s="3">
-        <v>41149</v>
+        <v>41162</v>
       </c>
       <c r="C56" t="str">
         <f>VLOOKUP(B56,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Fiscal strategy</v>
+        <v>Legislative scrutiny of budgets</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F56" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="K56" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="B57" s="3">
-        <v>41162</v>
+        <v>41129</v>
       </c>
       <c r="C57" t="str">
         <f>VLOOKUP(B57,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Legislative scrutiny of budgets</v>
-      </c>
-      <c r="D57" s="3" t="s">
-        <v>218</v>
+        <v>(i) Monitoring of public corporations</v>
+      </c>
+      <c r="D57" t="s">
+        <v>225</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F57" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
       <c r="K57" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
       <c r="B58" s="3">
-        <v>41129</v>
+        <v>41189</v>
       </c>
       <c r="C58" t="str">
         <f>VLOOKUP(B58,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>(i) Monitoring of public corporations</v>
-      </c>
-      <c r="D58" t="s">
-        <v>230</v>
+        <v>Procurement</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>207</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F58" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="K58" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="B59" s="3">
-        <v>41189</v>
+        <v>41127</v>
       </c>
       <c r="C59" t="str">
         <f>VLOOKUP(B59,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Procurement</v>
+        <v>Public access to information</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F59" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="K59" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B60" s="3">
-        <v>41127</v>
+        <v>41137</v>
       </c>
       <c r="C60" t="str">
         <f>VLOOKUP(B60,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public access to information</v>
+        <v>Public asset management</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F60" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
       <c r="K60" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>226</v>
+        <v>209</v>
       </c>
       <c r="B61" s="3">
-        <v>41137</v>
+        <v>41167</v>
       </c>
       <c r="C61" t="str">
         <f>VLOOKUP(B61,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Public asset management</v>
+        <v>Revenue administration</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>227</v>
+        <v>210</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F61" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="K61" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>214</v>
-      </c>
-      <c r="B62" s="3">
-        <v>41167</v>
-      </c>
-      <c r="C62" t="str">
-        <f>VLOOKUP(B62,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Revenue administration</v>
+        <v>66</v>
+      </c>
+      <c r="B62">
+        <v>27470</v>
+      </c>
+      <c r="C62" t="s">
+        <v>350</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>215</v>
+        <v>67</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F62" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I62" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="J62" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="K62" t="s">
-        <v>206</v>
+        <v>64</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>71</v>
-      </c>
-      <c r="B63">
-        <v>27470</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="B63" s="3"/>
       <c r="C63" t="s">
-        <v>357</v>
+        <v>9</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>72</v>
+        <v>10</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F63" t="s">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I63" s="1" t="s">
-        <v>381</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I63" s="1"/>
       <c r="J63" t="s">
-        <v>70</v>
+        <v>8</v>
       </c>
       <c r="K63" t="s">
-        <v>69</v>
+        <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>9</v>
+        <v>372</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I64" s="1"/>
       <c r="J64" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s">
-        <v>7</v>
+        <v>50</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>379</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" t="s">
-        <v>57</v>
+        <v>291</v>
+      </c>
+      <c r="B65" s="3">
+        <v>3326</v>
+      </c>
+      <c r="C65" t="str">
+        <f>VLOOKUP(B65,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Governance of state-owned enterprises</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>58</v>
+        <v>380</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F65" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="G65" t="s">
         <v>365</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I65" s="1"/>
+        <v>349</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="J65" t="s">
-        <v>56</v>
+        <v>38</v>
       </c>
       <c r="K65" t="s">
-        <v>55</v>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>296</v>
-      </c>
-      <c r="B66" s="3">
-        <v>3326</v>
+        <v>36</v>
+      </c>
+      <c r="B66">
+        <v>3310</v>
       </c>
       <c r="C66" t="str">
         <f>VLOOKUP(B66,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Governance of state-owned enterprises</v>
+        <v>Use of command and control regulation</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J66" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="K66" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>40</v>
-      </c>
-      <c r="B67">
-        <v>3310</v>
+        <v>296</v>
+      </c>
+      <c r="B67" s="3">
+        <v>3319</v>
       </c>
       <c r="C67" t="str">
         <f>VLOOKUP(B67,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Use of command and control regulation</v>
+        <v>Direct control over business enterprises</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>41</v>
+        <v>297</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J67" t="s">
-        <v>38</v>
+        <v>295</v>
       </c>
       <c r="K67" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="B68" s="3">
-        <v>3319</v>
+        <v>3321</v>
       </c>
       <c r="C68" t="str">
         <f>VLOOKUP(B68,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Direct control over business enterprises</v>
+        <v>Government involvement in network sectors</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J68" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="K68" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
@@ -48832,1299 +48825,1263 @@
         <v>299</v>
       </c>
       <c r="B69" s="3">
-        <v>3321</v>
+        <v>3311</v>
       </c>
       <c r="C69" t="str">
         <f>VLOOKUP(B69,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Government involvement in network sectors</v>
+        <v>Price controls</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>300</v>
+        <v>381</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J69" t="s">
         <v>298</v>
       </c>
       <c r="K69" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B70" s="3">
-        <v>3311</v>
+        <v>3309</v>
       </c>
       <c r="C70" t="str">
         <f>VLOOKUP(B70,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Price controls</v>
+        <v>Scope of state-owned enterprises</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>17</v>
+        <v>349</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J70" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="K70" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>308</v>
+        <v>109</v>
       </c>
       <c r="B71" s="3">
-        <v>3309</v>
+        <v>3305</v>
       </c>
       <c r="C71" t="str">
         <f>VLOOKUP(B71,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Scope of state-owned enterprises</v>
+        <v>Administrative burdens on startups</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>309</v>
+        <v>110</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
       <c r="G71" t="s">
-        <v>372</v>
+        <v>359</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J71" t="s">
-        <v>307</v>
+        <v>108</v>
       </c>
       <c r="K71" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>114</v>
+        <v>289</v>
       </c>
       <c r="B72" s="3">
-        <v>3305</v>
+        <v>3328</v>
       </c>
       <c r="C72" t="str">
         <f>VLOOKUP(B72,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Administrative burdens on startups</v>
+        <v>Regulatory protection of incumbents</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>115</v>
+        <v>290</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F72" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G72" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H72" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J72" t="s">
-        <v>113</v>
+        <v>288</v>
       </c>
       <c r="K72" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>294</v>
-      </c>
-      <c r="B73" s="3">
-        <v>3328</v>
+        <v>85</v>
+      </c>
+      <c r="B73">
+        <v>3308</v>
       </c>
       <c r="C73" t="str">
         <f>VLOOKUP(B73,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulatory protection of incumbents</v>
+        <v>Other barriers to trade and investment</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F73" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G73" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J73" t="s">
-        <v>293</v>
+        <v>83</v>
       </c>
       <c r="K73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="B74">
-        <v>3308</v>
+        <v>3307</v>
       </c>
       <c r="C74" t="str">
         <f>VLOOKUP(B74,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Other barriers to trade and investment</v>
+        <v>Explicit barriers to trade and investment</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F74" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G74" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H74" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J74" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="K74" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B75">
-        <v>3307</v>
+        <v>3323</v>
       </c>
       <c r="C75" t="str">
         <f>VLOOKUP(B75,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Explicit barriers to trade and investment</v>
+        <v>Complexity of regulatory procedures</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G75" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="H75" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="J75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="K75" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>108</v>
-      </c>
-      <c r="B76">
-        <v>3323</v>
-      </c>
-      <c r="C76" t="str">
-        <f>VLOOKUP(B76,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Complexity of regulatory procedures</v>
+        <v>182</v>
+      </c>
+      <c r="B76" s="3"/>
+      <c r="C76" t="s">
+        <v>182</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="E76" t="s">
         <v>5</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="G76" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H76" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>383</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I76" s="1"/>
       <c r="J76" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="K76" t="s">
-        <v>37</v>
+        <v>180</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="B77" s="3"/>
       <c r="C77" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="E77" t="s">
         <v>5</v>
       </c>
       <c r="F77" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G77" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I77" s="1"/>
       <c r="J77" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="K77" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="B78" s="3"/>
       <c r="C78" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="E78" t="s">
         <v>5</v>
       </c>
       <c r="F78" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I78" s="1"/>
       <c r="J78" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="K78" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B79" s="3"/>
       <c r="C79" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="E79" t="s">
         <v>5</v>
       </c>
       <c r="F79" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G79" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I79" s="1"/>
       <c r="J79" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="K79" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="B80" s="3"/>
       <c r="C80" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E80" t="s">
+        <v>155</v>
+      </c>
+      <c r="E80" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F80" t="s">
-        <v>163</v>
+        <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I80" s="1"/>
       <c r="J80" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="K80" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B81" s="3"/>
       <c r="C81" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F81" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G81" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="K81" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>156</v>
+        <v>369</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F82" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G82" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I82" s="1"/>
       <c r="J82" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="K82" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>376</v>
+        <v>145</v>
       </c>
       <c r="B83" s="3"/>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F83" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I83" s="1"/>
       <c r="J83" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="K83" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="B84" s="3"/>
       <c r="C84" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F84" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="G84" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I84" s="1"/>
       <c r="J84" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="K84" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>144</v>
-      </c>
-      <c r="B85" s="3"/>
-      <c r="C85" t="s">
-        <v>144</v>
+        <v>196</v>
+      </c>
+      <c r="B85" s="3">
+        <v>41814</v>
+      </c>
+      <c r="C85" t="str">
+        <f>VLOOKUP(B85,'[1]Master - API'!$F:$G,2,0)</f>
+        <v xml:space="preserve">Bureaucratic quality </v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>145</v>
+        <v>197</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>371</v>
+        <v>358</v>
       </c>
       <c r="H85" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" t="s">
-        <v>142</v>
-      </c>
-      <c r="K85" t="s">
-        <v>141</v>
+        <v>195</v>
+      </c>
+      <c r="K85" s="6" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>201</v>
+        <v>317</v>
       </c>
       <c r="B86" s="3">
-        <v>41814</v>
+        <v>663</v>
       </c>
       <c r="C86" t="str">
         <f>VLOOKUP(B86,'[1]Master - API'!$F:$G,2,0)</f>
-        <v xml:space="preserve">Bureaucratic quality </v>
+        <v>Diversion of public funds</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>202</v>
+        <v>318</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F86" t="s">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" t="s">
-        <v>200</v>
-      </c>
-      <c r="K86" s="6" t="s">
-        <v>385</v>
+        <v>316</v>
+      </c>
+      <c r="K86" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>324</v>
-      </c>
-      <c r="B87" s="3">
-        <v>663</v>
-      </c>
-      <c r="C87" t="str">
-        <f>VLOOKUP(B87,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Diversion of public funds</v>
+        <v>178</v>
+      </c>
+      <c r="B87" s="3"/>
+      <c r="C87" t="s">
+        <v>178</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="E87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="E87" t="s">
         <v>5</v>
       </c>
       <c r="F87" t="s">
-        <v>3</v>
+        <v>158</v>
       </c>
       <c r="G87" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>323</v>
+        <v>177</v>
       </c>
       <c r="K87" t="s">
-        <v>322</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>183</v>
-      </c>
-      <c r="B88" s="3"/>
-      <c r="C88" t="s">
-        <v>183</v>
+        <v>240</v>
+      </c>
+      <c r="B88" s="3">
+        <v>40985</v>
+      </c>
+      <c r="C88" t="str">
+        <f>VLOOKUP(B88,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Civil Liberties</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>184</v>
-      </c>
-      <c r="E88" t="s">
+        <v>241</v>
+      </c>
+      <c r="E88" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>163</v>
+        <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I88" s="1"/>
+        <v>13</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="J88" t="s">
-        <v>182</v>
+        <v>239</v>
       </c>
       <c r="K88" t="s">
-        <v>181</v>
+        <v>235</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="B89" s="3">
-        <v>40985</v>
+        <v>40986</v>
       </c>
       <c r="C89" t="str">
         <f>VLOOKUP(B89,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Civil Liberties</v>
+        <v>Political Rights</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F89" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
       <c r="H89" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="J89" t="s">
-        <v>244</v>
+        <v>236</v>
       </c>
       <c r="K89" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>242</v>
-      </c>
-      <c r="B90" s="3">
-        <v>40986</v>
-      </c>
-      <c r="C90" t="str">
-        <f>VLOOKUP(B90,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Political Rights</v>
+        <v>93</v>
+      </c>
+      <c r="B90" s="3"/>
+      <c r="C90" t="s">
+        <v>93</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="E90" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F90" t="s">
-        <v>60</v>
+        <v>84</v>
       </c>
       <c r="G90" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="H90" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>382</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I90" s="1"/>
       <c r="J90" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="K90" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="B91" s="3"/>
       <c r="C91" t="s">
-        <v>98</v>
+        <v>171</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="E91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="E91" t="s">
         <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>89</v>
+        <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I91" s="1"/>
       <c r="J91" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="K91" t="s">
-        <v>96</v>
+        <v>122</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B92" s="3"/>
       <c r="C92" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="E92" t="s">
         <v>5</v>
       </c>
       <c r="F92" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="G92" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I92" s="1"/>
       <c r="J92" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K92" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B93" s="3"/>
       <c r="C93" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="E93" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F93" t="s">
-        <v>163</v>
+        <v>113</v>
       </c>
       <c r="G93" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I93" s="1"/>
       <c r="J93" t="s">
-        <v>172</v>
+        <v>123</v>
       </c>
       <c r="K93" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>129</v>
-      </c>
-      <c r="B94" s="3"/>
-      <c r="C94" t="s">
-        <v>129</v>
+        <v>337</v>
+      </c>
+      <c r="B94" s="3">
+        <v>227</v>
+      </c>
+      <c r="C94" t="str">
+        <f>VLOOKUP(B94,'[1]Master - API'!$F:$G,2,0)</f>
+        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>130</v>
+        <v>338</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F94" t="s">
-        <v>118</v>
-      </c>
-      <c r="G94" t="s">
-        <v>367</v>
+        <v>158</v>
+      </c>
+      <c r="G94" s="2" t="s">
+        <v>363</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" t="s">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="K94" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="B95" s="3">
-        <v>227</v>
+        <v>308</v>
       </c>
       <c r="C95" t="str">
         <f>VLOOKUP(B95,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
+        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>345</v>
+        <v>327</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F95" t="s">
-        <v>163</v>
-      </c>
-      <c r="G95" s="2" t="s">
-        <v>370</v>
+        <v>84</v>
+      </c>
+      <c r="G95" t="s">
+        <v>359</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" t="s">
-        <v>343</v>
+        <v>325</v>
       </c>
       <c r="K95" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>333</v>
+        <v>114</v>
       </c>
       <c r="B96" s="3">
-        <v>308</v>
+        <v>290</v>
       </c>
       <c r="C96" t="str">
         <f>VLOOKUP(B96,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
+        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>334</v>
+        <v>115</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F96" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I96" s="1"/>
       <c r="J96" t="s">
-        <v>332</v>
+        <v>112</v>
       </c>
       <c r="K96" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>119</v>
+        <v>323</v>
       </c>
       <c r="B97" s="3">
-        <v>290</v>
+        <v>320</v>
       </c>
       <c r="C97" t="str">
         <f>VLOOKUP(B97,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying the courts system as a major constraint</v>
+        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>120</v>
+        <v>324</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F97" t="s">
-        <v>118</v>
+        <v>84</v>
       </c>
       <c r="G97" t="s">
-        <v>367</v>
+        <v>359</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" t="s">
-        <v>117</v>
+        <v>322</v>
       </c>
       <c r="K97" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B98" s="3">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="C98" t="str">
         <f>VLOOKUP(B98,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
+        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F98" t="s">
-        <v>89</v>
+        <v>138</v>
       </c>
       <c r="G98" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H98" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="K98" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="B99" s="3">
-        <v>268</v>
+        <v>289</v>
       </c>
       <c r="C99" t="str">
         <f>VLOOKUP(B99,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
+        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F99" t="s">
-        <v>143</v>
+        <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="H99" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="K99" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="B100" s="3">
-        <v>289</v>
+        <v>307</v>
       </c>
       <c r="C100" t="str">
         <f>VLOOKUP(B100,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
+        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F100" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>386</v>
+        <v>358</v>
       </c>
       <c r="H100" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="K100" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>336</v>
+        <v>264</v>
       </c>
       <c r="B101" s="3">
-        <v>307</v>
+        <v>28748</v>
       </c>
       <c r="C101" t="str">
         <f>VLOOKUP(B101,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
+        <v>Efficient use of assets</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>337</v>
+        <v>265</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F101" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" t="s">
-        <v>335</v>
+        <v>263</v>
       </c>
       <c r="K101" t="s">
-        <v>116</v>
+        <v>251</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="B102" s="3">
-        <v>28748</v>
+        <v>28749</v>
       </c>
       <c r="C102" t="str">
         <f>VLOOKUP(B102,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Efficient use of assets</v>
+        <v>Environmental policy</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F102" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="K102" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="B103" s="3">
-        <v>28749</v>
+        <v>28775</v>
       </c>
       <c r="C103" t="str">
         <f>VLOOKUP(B103,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Environmental policy</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>267</v>
+        <v>Separation of powers</v>
+      </c>
+      <c r="D103" t="s">
+        <v>259</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F103" t="s">
-        <v>44</v>
+        <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" t="s">
-        <v>265</v>
+        <v>257</v>
       </c>
       <c r="K103" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B104" s="3">
-        <v>28775</v>
+        <v>28780</v>
       </c>
       <c r="C104" t="str">
         <f>VLOOKUP(B104,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Separation of powers</v>
+        <v>State identity</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F104" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" t="s">
-        <v>262</v>
+        <v>254</v>
       </c>
       <c r="K104" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>260</v>
+        <v>371</v>
       </c>
       <c r="B105" s="3">
-        <v>28780</v>
+        <v>28782</v>
       </c>
       <c r="C105" t="str">
         <f>VLOOKUP(B105,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>State identity</v>
-      </c>
-      <c r="D105" t="s">
-        <v>261</v>
+        <v>Steering Capability</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>253</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F105" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K105" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="B106" s="3">
-        <v>28782</v>
-      </c>
-      <c r="C106" t="str">
-        <f>VLOOKUP(B106,'[1]Master - API'!$F:$G,2,0)</f>
-        <v>Steering Capability</v>
+        <v>41008</v>
+      </c>
+      <c r="C106" t="s">
+        <v>106</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>44</v>
+        <v>84</v>
       </c>
       <c r="G106" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="I106" s="1"/>
       <c r="J106" t="s">
-        <v>257</v>
-      </c>
-      <c r="K106" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>374</v>
-      </c>
-      <c r="B107" s="3">
-        <v>41008</v>
-      </c>
-      <c r="C107" t="s">
-        <v>111</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E107" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F107" t="s">
-        <v>89</v>
-      </c>
-      <c r="G107" t="s">
-        <v>366</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I107" s="1"/>
-      <c r="J107" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FA564-928D-A240-AE23-82DEDBD757E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A854FBC0-BB50-6142-81BA-67E40F66DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="384">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -1197,6 +1197,9 @@
   <si>
     <t>useofcommandcontrolregulation</t>
   </si>
+  <si>
+    <t>David Romelli Website</t>
+  </si>
 </sst>
 </file>
 
@@ -46522,8 +46525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
   <dimension ref="A1:K106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="B69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H88" sqref="H88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -49440,7 +49443,7 @@
         <v>363</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>2</v>
+        <v>383</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A854FBC0-BB50-6142-81BA-67E40F66DAB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C09CB1-8864-3147-801C-5AC42E8790BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="500" windowWidth="27920" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
+    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="GBID" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="895" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="389">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -1200,6 +1200,21 @@
   <si>
     <t>David Romelli Website</t>
   </si>
+  <si>
+    <t>GovTech Maturity Index (GTMI)</t>
+  </si>
+  <si>
+    <t>gtmi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anti-corruption, transparency and accountability </t>
+  </si>
+  <si>
+    <t>Measures key aspects in the four focus areas of digital transformation in the public sector: core government systems, public service delivery, citizen engagement, and GovTech enablers.</t>
+  </si>
+  <si>
+    <t>World Bank</t>
+  </si>
 </sst>
 </file>
 
@@ -46523,10 +46538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <dimension ref="A1:K106"/>
+  <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B69" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H88" sqref="H88"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K107" sqref="K107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50087,6 +50102,37 @@
         <v>105</v>
       </c>
     </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>384</v>
+      </c>
+      <c r="B107" s="3"/>
+      <c r="C107" t="s">
+        <v>384</v>
+      </c>
+      <c r="D107" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F107" t="s">
+        <v>3</v>
+      </c>
+      <c r="G107" t="s">
+        <v>386</v>
+      </c>
+      <c r="H107" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="I107" s="1"/>
+      <c r="J107" t="s">
+        <v>387</v>
+      </c>
+      <c r="K107" t="s">
+        <v>388</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C09CB1-8864-3147-801C-5AC42E8790BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3272C-0C1E-8441-BE0B-CFEABEE988ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="904" uniqueCount="388">
   <si>
     <t>World Justice Project, Rule of Law</t>
   </si>
@@ -1207,9 +1207,6 @@
     <t>gtmi</t>
   </si>
   <si>
-    <t xml:space="preserve">Anti-corruption, transparency and accountability </t>
-  </si>
-  <si>
     <t>Measures key aspects in the four focus areas of digital transformation in the public sector: core government systems, public service delivery, citizen engagement, and GovTech enablers.</t>
   </si>
   <si>
@@ -46540,8 +46537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K107" sqref="K107"/>
+    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G107" sqref="G107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -50120,17 +50117,17 @@
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="H107" s="1" t="s">
         <v>349</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
+        <v>386</v>
+      </c>
+      <c r="K107" t="s">
         <v>387</v>
-      </c>
-      <c r="K107" t="s">
-        <v>388</v>
       </c>
     </row>
   </sheetData>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DD3272C-0C1E-8441-BE0B-CFEABEE988ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D1CDB-C385-754A-9C75-C738BDE09C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
@@ -19,7 +19,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$106</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">GBID!$A$1:$K$107</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -571,12 +571,6 @@
     <t>competition_rules_fin</t>
   </si>
   <si>
-    <t>Garriga (2016)</t>
-  </si>
-  <si>
-    <t>Index of de jure Central Bank Indepedence. Values range from 0 (minimum score) to 1 (maximum score). Method based in Cukierman, Webb, and Neyapty (1992).</t>
-  </si>
-  <si>
     <t>Central bank independence</t>
   </si>
   <si>
@@ -887,15 +881,6 @@
   </si>
   <si>
     <t>right_to_info</t>
-  </si>
-  <si>
-    <t>Measures whether basic laws and information on legal rights
-are publicly available, presented in plain language, and made
-accessible in all languages used in the country or jurisdiction.
-It also measures the quality and accessibility of information
-published by the government in print or online, and whether
-administrative regulations, drafts of legislation, and high court
-decisions are made accessible to the public in a timely manner</t>
   </si>
   <si>
     <t>Publicized laws and government data</t>
@@ -1212,6 +1197,15 @@
   <si>
     <t>World Bank</t>
   </si>
+  <si>
+    <t>Index of de jure Central Bank Independence. Values range from 0 (minimum independence) to 1 (maximum independence).</t>
+  </si>
+  <si>
+    <t>Romalli (2022)</t>
+  </si>
+  <si>
+    <t>Measures whether basic laws and information on legal rights are publicly available, presented in plain language, and made accessible in all languages used in the country or jurisdiction.It also measures the quality and accessibility of information published by the government in print or online, and whether administrative regulations, drafts of legislation, and high court decisions are made accessible to the public in a timely manner</t>
+  </si>
 </sst>
 </file>
 
@@ -46535,10 +46529,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G107" sqref="G107"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -46558,37 +46553,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>348</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="E1" s="5" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="J1" s="5" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="K1" s="5" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -46612,7 +46607,7 @@
         <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>13</v>
@@ -46625,7 +46620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -46646,7 +46641,7 @@
         <v>113</v>
       </c>
       <c r="G3" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>13</v>
@@ -46659,9 +46654,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" t="s">
@@ -46677,7 +46672,7 @@
         <v>55</v>
       </c>
       <c r="G4" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
@@ -46690,7 +46685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -46711,7 +46706,7 @@
         <v>113</v>
       </c>
       <c r="G5" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>13</v>
@@ -46724,9 +46719,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B6" s="3">
         <v>27900</v>
@@ -46736,7 +46731,7 @@
         <v>Freedom of opinion and expression is effectively guaranteed</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>5</v>
@@ -46745,20 +46740,20 @@
         <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K6" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -46776,7 +46771,7 @@
         <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>2</v>
@@ -46807,7 +46802,7 @@
         <v>3</v>
       </c>
       <c r="G8" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>2</v>
@@ -46820,7 +46815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -46838,7 +46833,7 @@
         <v>55</v>
       </c>
       <c r="G9" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>2</v>
@@ -46851,7 +46846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -46869,7 +46864,7 @@
         <v>39</v>
       </c>
       <c r="G10" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>2</v>
@@ -46884,7 +46879,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B11" s="3">
         <v>27894</v>
@@ -46894,7 +46889,7 @@
         <v>Complaint mechanisms</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>5</v>
@@ -46903,22 +46898,22 @@
         <v>3</v>
       </c>
       <c r="G11" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>271</v>
       </c>
       <c r="B12" s="3">
         <v>27904</v>
@@ -46928,7 +46923,7 @@
         <v>Fundamental labor rights are effectively guaranteed</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>5</v>
@@ -46937,22 +46932,22 @@
         <v>138</v>
       </c>
       <c r="G12" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K12" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B13" s="3">
         <v>27885</v>
@@ -46962,7 +46957,7 @@
         <v>Publicized laws and government data</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>5</v>
@@ -46971,22 +46966,22 @@
         <v>3</v>
       </c>
       <c r="G13" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H13" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="K13" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B14" s="3">
         <v>27889</v>
@@ -46996,7 +46991,7 @@
         <v>Right to information</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>5</v>
@@ -47005,20 +47000,20 @@
         <v>3</v>
       </c>
       <c r="G14" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K14" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -47039,7 +47034,7 @@
         <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H15" s="1" t="s">
         <v>13</v>
@@ -47052,7 +47047,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -47070,7 +47065,7 @@
         <v>84</v>
       </c>
       <c r="G16" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H16" s="1" t="s">
         <v>2</v>
@@ -47083,7 +47078,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -47104,7 +47099,7 @@
         <v>138</v>
       </c>
       <c r="G17" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H17" s="1" t="s">
         <v>13</v>
@@ -47117,9 +47112,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="B18" s="3">
         <v>40828</v>
@@ -47129,7 +47124,7 @@
         <v>Judicial independence, 1-7 (best)</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>5</v>
@@ -47138,22 +47133,22 @@
         <v>113</v>
       </c>
       <c r="G18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="K18" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B19" s="3">
         <v>41424</v>
@@ -47163,7 +47158,7 @@
         <v>GCI 4.0: Active Labour policies</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>5</v>
@@ -47172,22 +47167,22 @@
         <v>138</v>
       </c>
       <c r="G19" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H19" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B20" s="3">
         <v>40835</v>
@@ -47197,7 +47192,7 @@
         <v>Efficiency of legal framework in challenging regs., 1-7 (best)</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>5</v>
@@ -47206,22 +47201,22 @@
         <v>113</v>
       </c>
       <c r="G20" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H20" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B21" s="3">
         <v>40837</v>
@@ -47231,7 +47226,7 @@
         <v>Efficiency of legal framework in settling disputes, 1-7 (best)</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>5</v>
@@ -47240,14 +47235,14 @@
         <v>113</v>
       </c>
       <c r="G21" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H21" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K21" t="s">
         <v>11</v>
@@ -47255,7 +47250,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B22" s="3">
         <v>40818</v>
@@ -47265,7 +47260,7 @@
         <v>Irregular payments and bribes, 1-7 (best)</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>5</v>
@@ -47274,20 +47269,20 @@
         <v>3</v>
       </c>
       <c r="G22" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H22" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I22" s="1"/>
       <c r="J22" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="K22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -47308,7 +47303,7 @@
         <v>39</v>
       </c>
       <c r="G23" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>13</v>
@@ -47321,9 +47316,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="B24" s="3">
         <v>41411</v>
@@ -47333,7 +47328,7 @@
         <v>GCI 4.0: Extent of market dominance</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>5</v>
@@ -47342,14 +47337,14 @@
         <v>84</v>
       </c>
       <c r="G24" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="K24" t="s">
         <v>11</v>
@@ -47357,7 +47352,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B25" s="3">
         <v>40873</v>
@@ -47367,7 +47362,7 @@
         <v>Transparency of government policymaking, 1-7 (best)</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>5</v>
@@ -47376,22 +47371,22 @@
         <v>3</v>
       </c>
       <c r="G25" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="K25" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B26" s="3">
         <v>40947</v>
@@ -47401,7 +47396,7 @@
         <v>Effectiveness of anti-monopoly policy, 1-7 (best)</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>5</v>
@@ -47410,14 +47405,14 @@
         <v>84</v>
       </c>
       <c r="G26" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="K26" t="s">
         <v>11</v>
@@ -47444,7 +47439,7 @@
         <v>3</v>
       </c>
       <c r="G27" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>13</v>
@@ -47457,9 +47452,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B28" s="3">
         <v>40953</v>
@@ -47469,7 +47464,7 @@
         <v>Protection of minority shareholders interests, 1-7 (best)</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>5</v>
@@ -47478,22 +47473,22 @@
         <v>84</v>
       </c>
       <c r="G28" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K28" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B29" s="3">
         <v>41008</v>
@@ -47503,7 +47498,7 @@
         <v>Burden of government regulation, 1-7 (best)</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>5</v>
@@ -47512,20 +47507,20 @@
         <v>84</v>
       </c>
       <c r="G29" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="K29" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -47546,7 +47541,7 @@
         <v>20</v>
       </c>
       <c r="G30" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>13</v>
@@ -47559,7 +47554,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -47580,7 +47575,7 @@
         <v>39</v>
       </c>
       <c r="G31" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>13</v>
@@ -47593,40 +47588,40 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B32">
         <v>946</v>
       </c>
       <c r="C32" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D32" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F32" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="G32" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="H32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="K32" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -47644,7 +47639,7 @@
         <v>39</v>
       </c>
       <c r="G33" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H33" s="1" t="s">
         <v>2</v>
@@ -47657,7 +47652,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -47675,7 +47670,7 @@
         <v>84</v>
       </c>
       <c r="G34" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>2</v>
@@ -47688,9 +47683,9 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" s="3">
         <v>41825</v>
@@ -47700,7 +47695,7 @@
         <v xml:space="preserve">Checks on government </v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>5</v>
@@ -47709,22 +47704,22 @@
         <v>55</v>
       </c>
       <c r="G35" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H35" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B36" s="3">
         <v>28738</v>
@@ -47734,7 +47729,7 @@
         <v>Civil society participation</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>5</v>
@@ -47743,14 +47738,14 @@
         <v>20</v>
       </c>
       <c r="G36" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H36" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s">
         <v>23</v>
@@ -47758,7 +47753,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B37" s="3">
         <v>41854</v>
@@ -47768,7 +47763,7 @@
         <v xml:space="preserve">Corruption </v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>5</v>
@@ -47777,20 +47772,20 @@
         <v>3</v>
       </c>
       <c r="G37" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H37" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -47808,7 +47803,7 @@
         <v>39</v>
       </c>
       <c r="G38" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H38" s="1" t="s">
         <v>2</v>
@@ -47821,7 +47816,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -47842,7 +47837,7 @@
         <v>20</v>
       </c>
       <c r="G39" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>13</v>
@@ -47855,7 +47850,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -47876,7 +47871,7 @@
         <v>20</v>
       </c>
       <c r="G40" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>13</v>
@@ -47891,7 +47886,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B41" s="3">
         <v>41882</v>
@@ -47901,7 +47896,7 @@
         <v xml:space="preserve">Executive bribery and corrupt exchanges </v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>5</v>
@@ -47910,7 +47905,7 @@
         <v>3</v>
       </c>
       <c r="G41" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>13</v>
@@ -47923,9 +47918,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B42" s="3">
         <v>41883</v>
@@ -47935,7 +47930,7 @@
         <v xml:space="preserve">Executive constraints </v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>5</v>
@@ -47944,20 +47939,20 @@
         <v>55</v>
       </c>
       <c r="G42" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="K42" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -47978,7 +47973,7 @@
         <v>20</v>
       </c>
       <c r="G43" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>13</v>
@@ -47991,9 +47986,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B44">
         <v>42084</v>
@@ -48012,7 +48007,7 @@
         <v>39</v>
       </c>
       <c r="G44" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>13</v>
@@ -48025,7 +48020,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -48046,7 +48041,7 @@
         <v>113</v>
       </c>
       <c r="G45" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H45" s="1" t="s">
         <v>13</v>
@@ -48059,7 +48054,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -48077,7 +48072,7 @@
         <v>55</v>
       </c>
       <c r="G46" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H46" s="1" t="s">
         <v>2</v>
@@ -48090,7 +48085,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -48108,7 +48103,7 @@
         <v>55</v>
       </c>
       <c r="G47" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>2</v>
@@ -48121,7 +48116,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -48139,7 +48134,7 @@
         <v>55</v>
       </c>
       <c r="G48" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>2</v>
@@ -48152,7 +48147,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -48173,7 +48168,7 @@
         <v>55</v>
       </c>
       <c r="G49" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>13</v>
@@ -48186,7 +48181,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -48207,7 +48202,7 @@
         <v>55</v>
       </c>
       <c r="G50" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>13</v>
@@ -48220,9 +48215,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B51" s="3">
         <v>40991</v>
@@ -48232,7 +48227,7 @@
         <v>Party Financing</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>5</v>
@@ -48241,22 +48236,22 @@
         <v>55</v>
       </c>
       <c r="G51" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I51" s="1"/>
       <c r="J51" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B52" s="3">
         <v>41114</v>
@@ -48266,7 +48261,7 @@
         <v>Budget Documentation</v>
       </c>
       <c r="D52" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>5</v>
@@ -48275,22 +48270,22 @@
         <v>3</v>
       </c>
       <c r="G52" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H52" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I52" s="1"/>
       <c r="J52" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B53" s="3">
         <v>41141</v>
@@ -48300,7 +48295,7 @@
         <v>Debt management</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>5</v>
@@ -48309,22 +48304,22 @@
         <v>39</v>
       </c>
       <c r="G53" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H53" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I53" s="1"/>
       <c r="J53" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B54" s="3">
         <v>41216</v>
@@ -48334,7 +48329,7 @@
         <v>External audit</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>5</v>
@@ -48343,22 +48338,22 @@
         <v>3</v>
       </c>
       <c r="G54" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H54" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I54" s="1"/>
       <c r="J54" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B55" s="3">
         <v>41149</v>
@@ -48368,7 +48363,7 @@
         <v>Fiscal strategy</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>5</v>
@@ -48377,22 +48372,22 @@
         <v>39</v>
       </c>
       <c r="G55" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H55" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B56" s="3">
         <v>41162</v>
@@ -48402,7 +48397,7 @@
         <v>Legislative scrutiny of budgets</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>5</v>
@@ -48411,22 +48406,22 @@
         <v>55</v>
       </c>
       <c r="G56" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H56" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I56" s="1"/>
       <c r="J56" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B57" s="3">
         <v>41129</v>
@@ -48436,7 +48431,7 @@
         <v>(i) Monitoring of public corporations</v>
       </c>
       <c r="D57" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>5</v>
@@ -48445,22 +48440,22 @@
         <v>39</v>
       </c>
       <c r="G57" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H57" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I57" s="1"/>
       <c r="J57" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B58" s="3">
         <v>41189</v>
@@ -48470,7 +48465,7 @@
         <v>Procurement</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>5</v>
@@ -48479,22 +48474,22 @@
         <v>39</v>
       </c>
       <c r="G58" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H58" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I58" s="1"/>
       <c r="J58" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B59" s="3">
         <v>41127</v>
@@ -48504,7 +48499,7 @@
         <v>Public access to information</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>5</v>
@@ -48513,22 +48508,22 @@
         <v>3</v>
       </c>
       <c r="G59" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H59" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I59" s="1"/>
       <c r="J59" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B60" s="3">
         <v>41137</v>
@@ -48538,7 +48533,7 @@
         <v>Public asset management</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>5</v>
@@ -48547,22 +48542,22 @@
         <v>39</v>
       </c>
       <c r="G60" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I60" s="1"/>
       <c r="J60" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B61" s="3">
         <v>41167</v>
@@ -48572,7 +48567,7 @@
         <v>Revenue administration</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>5</v>
@@ -48581,20 +48576,20 @@
         <v>39</v>
       </c>
       <c r="G61" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H61" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -48602,7 +48597,7 @@
         <v>27470</v>
       </c>
       <c r="C62" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>67</v>
@@ -48614,13 +48609,13 @@
         <v>55</v>
       </c>
       <c r="G62" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I62" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="J62" t="s">
         <v>65</v>
@@ -48647,7 +48642,7 @@
         <v>3</v>
       </c>
       <c r="G63" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>2</v>
@@ -48660,9 +48655,9 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B64" s="3"/>
       <c r="C64" t="s">
@@ -48678,7 +48673,7 @@
         <v>39</v>
       </c>
       <c r="G64" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>2</v>
@@ -48691,9 +48686,9 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B65" s="3">
         <v>3326</v>
@@ -48703,7 +48698,7 @@
         <v>Governance of state-owned enterprises</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>5</v>
@@ -48712,13 +48707,13 @@
         <v>35</v>
       </c>
       <c r="G65" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I65" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J65" t="s">
         <v>38</v>
@@ -48727,7 +48722,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -48739,7 +48734,7 @@
         <v>Use of command and control regulation</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>5</v>
@@ -48748,13 +48743,13 @@
         <v>35</v>
       </c>
       <c r="G66" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I66" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J66" t="s">
         <v>34</v>
@@ -48763,9 +48758,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="B67" s="3">
         <v>3319</v>
@@ -48775,7 +48770,7 @@
         <v>Direct control over business enterprises</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>5</v>
@@ -48784,24 +48779,24 @@
         <v>35</v>
       </c>
       <c r="G67" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I67" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J67" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="K67" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B68" s="3">
         <v>3321</v>
@@ -48811,7 +48806,7 @@
         <v>Government involvement in network sectors</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>5</v>
@@ -48820,24 +48815,24 @@
         <v>35</v>
       </c>
       <c r="G68" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H68" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I68" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J68" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="K68" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B69" s="3">
         <v>3311</v>
@@ -48847,7 +48842,7 @@
         <v>Price controls</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>5</v>
@@ -48856,24 +48851,24 @@
         <v>35</v>
       </c>
       <c r="G69" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H69" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I69" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J69" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="K69" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B70" s="3">
         <v>3309</v>
@@ -48883,7 +48878,7 @@
         <v>Scope of state-owned enterprises</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>5</v>
@@ -48892,22 +48887,22 @@
         <v>35</v>
       </c>
       <c r="G70" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I70" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J70" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K70" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -48928,13 +48923,13 @@
         <v>84</v>
       </c>
       <c r="G71" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H71" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I71" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J71" t="s">
         <v>108</v>
@@ -48943,9 +48938,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B72" s="3">
         <v>3328</v>
@@ -48955,7 +48950,7 @@
         <v>Regulatory protection of incumbents</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>5</v>
@@ -48964,22 +48959,22 @@
         <v>84</v>
       </c>
       <c r="G72" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H72" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I72" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J72" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="K72" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -49000,13 +48995,13 @@
         <v>84</v>
       </c>
       <c r="G73" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H73" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I73" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J73" t="s">
         <v>83</v>
@@ -49015,7 +49010,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -49036,13 +49031,13 @@
         <v>84</v>
       </c>
       <c r="G74" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H74" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I74" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J74" t="s">
         <v>95</v>
@@ -49051,7 +49046,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -49072,13 +49067,13 @@
         <v>84</v>
       </c>
       <c r="G75" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H75" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="J75" t="s">
         <v>102</v>
@@ -49087,16 +49082,16 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B76" s="3"/>
       <c r="C76" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E76" t="s">
         <v>5</v>
@@ -49105,20 +49100,20 @@
         <v>158</v>
       </c>
       <c r="G76" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H76" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I76" s="1"/>
       <c r="J76" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K76" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -49136,7 +49131,7 @@
         <v>158</v>
       </c>
       <c r="G77" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H77" s="1" t="s">
         <v>2</v>
@@ -49149,7 +49144,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -49167,7 +49162,7 @@
         <v>158</v>
       </c>
       <c r="G78" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H78" s="1" t="s">
         <v>2</v>
@@ -49180,7 +49175,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -49198,7 +49193,7 @@
         <v>158</v>
       </c>
       <c r="G79" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>2</v>
@@ -49211,7 +49206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>154</v>
       </c>
@@ -49229,7 +49224,7 @@
         <v>138</v>
       </c>
       <c r="G80" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>2</v>
@@ -49242,7 +49237,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -49260,7 +49255,7 @@
         <v>138</v>
       </c>
       <c r="G81" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>2</v>
@@ -49273,9 +49268,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B82" s="3"/>
       <c r="C82" t="s">
@@ -49291,7 +49286,7 @@
         <v>138</v>
       </c>
       <c r="G82" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H82" s="1" t="s">
         <v>2</v>
@@ -49304,7 +49299,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -49322,7 +49317,7 @@
         <v>138</v>
       </c>
       <c r="G83" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H83" s="1" t="s">
         <v>2</v>
@@ -49335,7 +49330,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -49353,7 +49348,7 @@
         <v>138</v>
       </c>
       <c r="G84" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H84" s="1" t="s">
         <v>2</v>
@@ -49366,9 +49361,9 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B85" s="3">
         <v>41814</v>
@@ -49378,7 +49373,7 @@
         <v xml:space="preserve">Bureaucratic quality </v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>5</v>
@@ -49387,22 +49382,22 @@
         <v>39</v>
       </c>
       <c r="G85" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H85" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I85" s="1"/>
       <c r="J85" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K85" s="6" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B86" s="3">
         <v>663</v>
@@ -49412,7 +49407,7 @@
         <v>Diversion of public funds</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>5</v>
@@ -49421,29 +49416,29 @@
         <v>3</v>
       </c>
       <c r="G86" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I86" s="1"/>
       <c r="J86" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="K86" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B87" s="3"/>
       <c r="C87" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E87" t="s">
         <v>5</v>
@@ -49452,22 +49447,22 @@
         <v>158</v>
       </c>
       <c r="G87" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H87" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="I87" s="1"/>
       <c r="J87" t="s">
-        <v>177</v>
+        <v>385</v>
       </c>
       <c r="K87" t="s">
-        <v>176</v>
+        <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B88" s="3">
         <v>40985</v>
@@ -49477,7 +49472,7 @@
         <v>Civil Liberties</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>5</v>
@@ -49486,24 +49481,24 @@
         <v>55</v>
       </c>
       <c r="G88" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I88" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K88" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>237</v>
       </c>
       <c r="B89" s="3">
         <v>40986</v>
@@ -49513,7 +49508,7 @@
         <v>Political Rights</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>5</v>
@@ -49522,22 +49517,22 @@
         <v>55</v>
       </c>
       <c r="G89" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I89" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="J89" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K89" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -49555,7 +49550,7 @@
         <v>84</v>
       </c>
       <c r="G90" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>2</v>
@@ -49568,7 +49563,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -49586,7 +49581,7 @@
         <v>158</v>
       </c>
       <c r="G91" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>2</v>
@@ -49599,7 +49594,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -49617,7 +49612,7 @@
         <v>158</v>
       </c>
       <c r="G92" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>2</v>
@@ -49630,7 +49625,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -49648,7 +49643,7 @@
         <v>113</v>
       </c>
       <c r="G93" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H93" s="1" t="s">
         <v>2</v>
@@ -49661,9 +49656,9 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B94" s="3">
         <v>227</v>
@@ -49673,7 +49668,7 @@
         <v>Finance / Percent of firms identifying access to finance as a major constraint</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>5</v>
@@ -49682,22 +49677,22 @@
         <v>158</v>
       </c>
       <c r="G94" s="2" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="H94" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I94" s="1"/>
       <c r="J94" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="K94" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="B95" s="3">
         <v>308</v>
@@ -49707,7 +49702,7 @@
         <v>Regulations and Taxes / Percent of firms identifying business licensing and permits as a major constraint</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>5</v>
@@ -49716,20 +49711,20 @@
         <v>84</v>
       </c>
       <c r="G95" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H95" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I95" s="1"/>
       <c r="J95" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="K95" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -49750,7 +49745,7 @@
         <v>113</v>
       </c>
       <c r="G96" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>13</v>
@@ -49763,9 +49758,9 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B97" s="3">
         <v>320</v>
@@ -49775,7 +49770,7 @@
         <v>Trade / Percent of firms identifying customs and trade regulations as a major constraint</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="E97" s="2" t="s">
         <v>5</v>
@@ -49784,22 +49779,22 @@
         <v>84</v>
       </c>
       <c r="G97" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I97" s="1"/>
       <c r="J97" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="K97" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B98" s="3">
         <v>268</v>
@@ -49809,7 +49804,7 @@
         <v>Workforce / Percent of firms identifying labor regulations as a major constraint</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>5</v>
@@ -49818,14 +49813,14 @@
         <v>138</v>
       </c>
       <c r="G98" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="H98" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="1"/>
       <c r="J98" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="K98" t="s">
         <v>111</v>
@@ -49833,7 +49828,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B99" s="3">
         <v>289</v>
@@ -49843,7 +49838,7 @@
         <v>Corruption / Percent of firms identifying corruption as a major constraint</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>5</v>
@@ -49852,22 +49847,22 @@
         <v>3</v>
       </c>
       <c r="G99" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="1"/>
       <c r="J99" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="K99" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B100" s="3">
         <v>307</v>
@@ -49877,7 +49872,7 @@
         <v>Regulations and Taxes / Percent of firms identifying tax administration as a major constraint</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>5</v>
@@ -49886,22 +49881,22 @@
         <v>39</v>
       </c>
       <c r="G100" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H100" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I100" s="1"/>
       <c r="J100" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="K100" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B101" s="3">
         <v>28748</v>
@@ -49911,7 +49906,7 @@
         <v>Efficient use of assets</v>
       </c>
       <c r="D101" s="3" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>5</v>
@@ -49920,22 +49915,22 @@
         <v>39</v>
       </c>
       <c r="G101" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H101" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I101" s="1"/>
       <c r="J101" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K101" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B102" s="3">
         <v>28749</v>
@@ -49945,7 +49940,7 @@
         <v>Environmental policy</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>5</v>
@@ -49954,22 +49949,22 @@
         <v>39</v>
       </c>
       <c r="G102" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H102" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I102" s="1"/>
       <c r="J102" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B103" s="3">
         <v>28775</v>
@@ -49979,7 +49974,7 @@
         <v>Separation of powers</v>
       </c>
       <c r="D103" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E103" s="2" t="s">
         <v>5</v>
@@ -49988,22 +49983,22 @@
         <v>55</v>
       </c>
       <c r="G103" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H103" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I103" s="1"/>
       <c r="J103" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K103" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B104" s="3">
         <v>28780</v>
@@ -50013,7 +50008,7 @@
         <v>State identity</v>
       </c>
       <c r="D104" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>5</v>
@@ -50022,22 +50017,22 @@
         <v>20</v>
       </c>
       <c r="G104" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H104" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I104" s="1"/>
       <c r="J104" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K104" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B105" s="3">
         <v>28782</v>
@@ -50047,7 +50042,7 @@
         <v>Steering Capability</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E105" s="2" t="s">
         <v>5</v>
@@ -50056,22 +50051,22 @@
         <v>39</v>
       </c>
       <c r="G105" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="H105" s="1" t="s">
         <v>13</v>
       </c>
       <c r="I105" s="1"/>
       <c r="J105" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K105" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B106" s="3">
         <v>41008</v>
@@ -50089,7 +50084,7 @@
         <v>84</v>
       </c>
       <c r="G106" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="H106" s="1" t="s">
         <v>2</v>
@@ -50101,14 +50096,14 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B107" s="3"/>
       <c r="C107" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>5</v>
@@ -50117,20 +50112,27 @@
         <v>3</v>
       </c>
       <c r="G107" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="I107" s="1"/>
       <c r="J107" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="K107" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:K107" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
+    <filterColumn colId="6">
+      <filters>
+        <filter val="Anticorruption, transparency and accountability"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data/db_variables.xlsx
+++ b/data/db_variables.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kannanvenkat/Documents/worldBank/CLAIR/Dashboard/institutional-assessment-dashboard/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://worldbankgroup-my.sharepoint.com/personal/galileukim_worldbank_org/Documents/github/institutional-assessment-dashboard/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{912D1CDB-C385-754A-9C75-C738BDE09C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{912D1CDB-C385-754A-9C75-C738BDE09C4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F04A02CD-03A0-4CE0-9933-0891FEEBD0D3}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="500" windowWidth="27800" windowHeight="17500" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="16440" windowHeight="28440" xr2:uid="{E0EC3B08-D14F-4FE9-A807-BBF74C6FED6F}"/>
   </bookViews>
   <sheets>
     <sheet name="GBID" sheetId="1" r:id="rId1"/>
@@ -46529,29 +46529,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:K107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="56.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35.1640625" customWidth="1"/>
-    <col min="3" max="3" width="52.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="34.83203125" customWidth="1"/>
-    <col min="8" max="8" width="11.1640625" customWidth="1"/>
-    <col min="9" max="9" width="36.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="73.1640625" customWidth="1"/>
-    <col min="11" max="11" width="51.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" customWidth="1"/>
+    <col min="3" max="3" width="52.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="34.85546875" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="36.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="73.140625" customWidth="1"/>
+    <col min="11" max="11" width="51.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>341</v>
       </c>
@@ -46586,7 +46585,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -46620,7 +46619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>127</v>
       </c>
@@ -46654,7 +46653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>365</v>
       </c>
@@ -46685,7 +46684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>120</v>
       </c>
@@ -46719,7 +46718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>272</v>
       </c>
@@ -46753,7 +46752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>78</v>
       </c>
@@ -46784,7 +46783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>4</v>
       </c>
@@ -46815,7 +46814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>69</v>
       </c>
@@ -46846,7 +46845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>43</v>
       </c>
@@ -46877,7 +46876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>275</v>
       </c>
@@ -46911,7 +46910,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="12" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>269</v>
       </c>
@@ -46945,7 +46944,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>280</v>
       </c>
@@ -46979,7 +46978,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>278</v>
       </c>
@@ -47013,7 +47012,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="15" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -47047,7 +47046,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>89</v>
       </c>
@@ -47078,7 +47077,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>165</v>
       </c>
@@ -47112,7 +47111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>283</v>
       </c>
@@ -47146,7 +47145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -47180,7 +47179,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>247</v>
       </c>
@@ -47214,7 +47213,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>244</v>
       </c>
@@ -47248,7 +47247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -47282,7 +47281,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>142</v>
       </c>
@@ -47316,7 +47315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>317</v>
       </c>
@@ -47350,7 +47349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>307</v>
       </c>
@@ -47384,7 +47383,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>304</v>
       </c>
@@ -47418,7 +47417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -47452,7 +47451,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>241</v>
       </c>
@@ -47486,7 +47485,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>301</v>
       </c>
@@ -47520,7 +47519,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>21</v>
       </c>
@@ -47554,7 +47553,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>134</v>
       </c>
@@ -47588,7 +47587,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>354</v>
       </c>
@@ -47621,7 +47620,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>40</v>
       </c>
@@ -47652,7 +47651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>100</v>
       </c>
@@ -47683,7 +47682,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>191</v>
       </c>
@@ -47717,7 +47716,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>265</v>
       </c>
@@ -47751,7 +47750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>188</v>
       </c>
@@ -47785,7 +47784,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>48</v>
       </c>
@@ -47816,7 +47815,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -47850,7 +47849,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>28</v>
       </c>
@@ -47884,7 +47883,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>185</v>
       </c>
@@ -47918,7 +47917,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>183</v>
       </c>
@@ -47952,7 +47951,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -47986,7 +47985,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>370</v>
       </c>
@@ -48020,7 +48019,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>117</v>
       </c>
@@ -48054,7 +48053,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>75</v>
       </c>
@@ -48085,7 +48084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>72</v>
       </c>
@@ -48116,7 +48115,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>62</v>
       </c>
@@ -48147,7 +48146,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>59</v>
       </c>
@@ -48181,7 +48180,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>56</v>
       </c>
@@ -48215,7 +48214,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>231</v>
       </c>
@@ -48249,7 +48248,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>363</v>
       </c>
@@ -48283,7 +48282,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>216</v>
       </c>
@@ -48317,7 +48316,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>201</v>
       </c>
@@ -48351,7 +48350,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>213</v>
       </c>
@@ -48385,7 +48384,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>210</v>
       </c>
@@ -48419,7 +48418,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>222</v>
       </c>
@@ -48453,7 +48452,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>204</v>
       </c>
@@ -48487,7 +48486,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>225</v>
       </c>
@@ -48521,7 +48520,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>219</v>
       </c>
@@ -48555,7 +48554,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>207</v>
       </c>
@@ -48589,7 +48588,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>66</v>
       </c>
@@ -48624,7 +48623,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>9</v>
       </c>
@@ -48655,7 +48654,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>369</v>
       </c>
@@ -48686,7 +48685,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>288</v>
       </c>
@@ -48722,7 +48721,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="66" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>36</v>
       </c>
@@ -48758,7 +48757,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="67" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>293</v>
       </c>
@@ -48794,7 +48793,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="68" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>290</v>
       </c>
@@ -48830,7 +48829,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="69" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>296</v>
       </c>
@@ -48866,7 +48865,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="70" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>298</v>
       </c>
@@ -48902,7 +48901,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>109</v>
       </c>
@@ -48938,7 +48937,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>286</v>
       </c>
@@ -48974,7 +48973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>85</v>
       </c>
@@ -49010,7 +49009,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>96</v>
       </c>
@@ -49046,7 +49045,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>103</v>
       </c>
@@ -49082,7 +49081,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>180</v>
       </c>
@@ -49113,7 +49112,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="77" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>174</v>
       </c>
@@ -49144,7 +49143,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="78" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>162</v>
       </c>
@@ -49175,7 +49174,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="79" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>159</v>
       </c>
@@ -49206,7 +49205,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="80" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>154</v>
       </c>
@@ -49237,7 +49236,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="81" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>151</v>
       </c>
@@ -49268,7 +49267,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="82" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>366</v>
       </c>
@@ -49299,7 +49298,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="83" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>145</v>
       </c>
@@ -49330,7 +49329,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="84" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>139</v>
       </c>
@@ -49361,7 +49360,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="85" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>194</v>
       </c>
@@ -49395,7 +49394,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>314</v>
       </c>
@@ -49429,7 +49428,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="87" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>176</v>
       </c>
@@ -49460,7 +49459,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="88" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>238</v>
       </c>
@@ -49496,7 +49495,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="89" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>235</v>
       </c>
@@ -49532,7 +49531,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="90" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>93</v>
       </c>
@@ -49563,7 +49562,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="91" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>171</v>
       </c>
@@ -49594,7 +49593,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="92" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>168</v>
       </c>
@@ -49625,7 +49624,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="93" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>124</v>
       </c>
@@ -49656,7 +49655,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="94" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>334</v>
       </c>
@@ -49690,7 +49689,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="95" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>323</v>
       </c>
@@ -49724,7 +49723,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="96" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -49758,7 +49757,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="97" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>320</v>
       </c>
@@ -49792,7 +49791,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="98" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>331</v>
       </c>
@@ -49826,7 +49825,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>367</v>
       </c>
@@ -49860,7 +49859,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="100" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>326</v>
       </c>
@@ -49894,7 +49893,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="101" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>262</v>
       </c>
@@ -49928,7 +49927,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="102" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>259</v>
       </c>
@@ -49962,7 +49961,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="103" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>256</v>
       </c>
@@ -49996,7 +49995,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="104" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>253</v>
       </c>
@@ -50030,7 +50029,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="105" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>368</v>
       </c>
@@ -50064,7 +50063,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="106" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>364</v>
       </c>
@@ -50094,7 +50093,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>381</v>
       </c>
@@ -50126,13 +50125,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K107" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="Anticorruption, transparency and accountability"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:K107" xr:uid="{9C41AAE3-2996-429D-924B-4E57D391677C}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
